--- a/src/main/resources/companies/template.xlsx
+++ b/src/main/resources/companies/template.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="162">
   <si>
     <t>WACC</t>
   </si>
@@ -462,16 +462,7 @@
     <t>EV/EBIDTA Multiple (stock median)</t>
   </si>
   <si>
-    <t>Comcast</t>
-  </si>
-  <si>
     <t>&lt;1 Excelent, [1,2] Good</t>
-  </si>
-  <si>
-    <t>sector median (7.86)</t>
-  </si>
-  <si>
-    <t>sector median (19.38)</t>
   </si>
   <si>
     <t>ROA</t>
@@ -520,6 +511,12 @@
   </si>
   <si>
     <t>Debt / Equity (last 5 Y) &lt;=</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>sector median (0)</t>
   </si>
 </sst>
 </file>
@@ -1569,7 +1566,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1674,7 +1670,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1840,7 +1835,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2006,7 +2000,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2119,11 +2112,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="354448176"/>
-        <c:axId val="354448560"/>
+        <c:axId val="237165424"/>
+        <c:axId val="237164640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="354448176"/>
+        <c:axId val="237165424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2165,7 +2158,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="354448560"/>
+        <c:crossAx val="237164640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2173,7 +2166,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="354448560"/>
+        <c:axId val="237164640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2218,7 +2211,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2277,7 +2269,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="354448176"/>
+        <c:crossAx val="237165424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2291,7 +2283,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2883,11 +2874,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="355522072"/>
-        <c:axId val="355517368"/>
+        <c:axId val="366761144"/>
+        <c:axId val="366764672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="355522072"/>
+        <c:axId val="366761144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2929,7 +2920,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355517368"/>
+        <c:crossAx val="366764672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2937,7 +2928,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="355517368"/>
+        <c:axId val="366764672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2987,7 +2978,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355522072"/>
+        <c:crossAx val="366761144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3333,11 +3324,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="355517760"/>
-        <c:axId val="355519328"/>
+        <c:axId val="366761928"/>
+        <c:axId val="366763104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="355517760"/>
+        <c:axId val="366761928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3379,7 +3370,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355519328"/>
+        <c:crossAx val="366763104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3387,7 +3378,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="355519328"/>
+        <c:axId val="366763104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3437,7 +3428,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355517760"/>
+        <c:crossAx val="366761928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3573,7 +3564,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3899,8 +3889,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="354596984"/>
-        <c:axId val="354597368"/>
+        <c:axId val="237163072"/>
+        <c:axId val="237163856"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -3967,7 +3957,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4039,11 +4028,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="354598136"/>
-        <c:axId val="354597752"/>
+        <c:axId val="237165816"/>
+        <c:axId val="237164248"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="354596984"/>
+        <c:axId val="237163072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4085,7 +4074,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="354597368"/>
+        <c:crossAx val="237163856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4093,7 +4082,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="354597368"/>
+        <c:axId val="237163856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4143,12 +4132,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="354596984"/>
+        <c:crossAx val="237163072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="354597752"/>
+        <c:axId val="237164248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4184,12 +4173,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="354598136"/>
+        <c:crossAx val="237165816"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="354598136"/>
+        <c:axId val="237165816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4198,7 +4187,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="354597752"/>
+        <c:crossAx val="237164248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4249,7 +4238,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4372,7 +4360,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4699,11 +4686,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="100"/>
-        <c:axId val="354943784"/>
-        <c:axId val="354944168"/>
+        <c:axId val="365698112"/>
+        <c:axId val="365693408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="354943784"/>
+        <c:axId val="365698112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4745,7 +4732,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="354944168"/>
+        <c:crossAx val="365693408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4753,7 +4740,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="354944168"/>
+        <c:axId val="365693408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4803,7 +4790,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="354943784"/>
+        <c:crossAx val="365698112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4817,7 +4804,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4940,7 +4926,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5267,11 +5252,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="354998864"/>
-        <c:axId val="354997688"/>
+        <c:axId val="365696152"/>
+        <c:axId val="365693800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="354998864"/>
+        <c:axId val="365696152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5313,7 +5298,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="354997688"/>
+        <c:crossAx val="365693800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5321,7 +5306,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="354997688"/>
+        <c:axId val="365693800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5371,7 +5356,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="354998864"/>
+        <c:crossAx val="365696152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5385,7 +5370,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5508,7 +5492,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5814,8 +5797,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="355000432"/>
-        <c:axId val="354998080"/>
+        <c:axId val="365699288"/>
+        <c:axId val="365695368"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -5882,7 +5865,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5954,11 +5936,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="354999256"/>
-        <c:axId val="355000824"/>
+        <c:axId val="365696544"/>
+        <c:axId val="365698504"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="355000432"/>
+        <c:axId val="365699288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6000,7 +5982,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="354998080"/>
+        <c:crossAx val="365695368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6008,7 +5990,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="354998080"/>
+        <c:axId val="365695368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6058,12 +6040,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355000432"/>
+        <c:crossAx val="365699288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="355000824"/>
+        <c:axId val="365698504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6099,12 +6081,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="354999256"/>
+        <c:crossAx val="365696544"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="354999256"/>
+        <c:axId val="365696544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6113,7 +6095,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="355000824"/>
+        <c:crossAx val="365698504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6127,7 +6109,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6250,7 +6231,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6536,8 +6516,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="355000040"/>
-        <c:axId val="355001216"/>
+        <c:axId val="365696936"/>
+        <c:axId val="365693016"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -6604,7 +6584,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6717,11 +6696,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="355518544"/>
-        <c:axId val="355521680"/>
+        <c:axId val="365694584"/>
+        <c:axId val="365697720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="355000040"/>
+        <c:axId val="365696936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6763,7 +6742,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355001216"/>
+        <c:crossAx val="365693016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6771,7 +6750,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="355001216"/>
+        <c:axId val="365693016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6821,12 +6800,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355000040"/>
+        <c:crossAx val="365696936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="355521680"/>
+        <c:axId val="365697720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6862,12 +6841,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355518544"/>
+        <c:crossAx val="365694584"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="355518544"/>
+        <c:axId val="365694584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6904,7 +6883,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355521680"/>
+        <c:crossAx val="365697720"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6921,7 +6900,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7052,7 +7030,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7187,7 +7164,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7381,7 +7357,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7575,7 +7550,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7772,7 +7746,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7884,11 +7857,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="355520112"/>
-        <c:axId val="355518936"/>
+        <c:axId val="365691840"/>
+        <c:axId val="365698896"/>
       </c:barChart>
       <c:valAx>
-        <c:axId val="355518936"/>
+        <c:axId val="365698896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7938,12 +7911,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355520112"/>
+        <c:crossAx val="365691840"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="355520112"/>
+        <c:axId val="365691840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7985,7 +7958,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355518936"/>
+        <c:crossAx val="365698896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8002,7 +7975,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8653,11 +8625,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="355516976"/>
-        <c:axId val="355523640"/>
+        <c:axId val="365692232"/>
+        <c:axId val="366764280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="355516976"/>
+        <c:axId val="365692232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8718,7 +8690,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355523640"/>
+        <c:crossAx val="366764280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8726,7 +8698,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="355523640"/>
+        <c:axId val="366764280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8787,7 +8759,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355516976"/>
+        <c:crossAx val="365692232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9137,11 +9109,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="355516584"/>
-        <c:axId val="355520896"/>
+        <c:axId val="366760360"/>
+        <c:axId val="366760752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="355516584"/>
+        <c:axId val="366760360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9183,7 +9155,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355520896"/>
+        <c:crossAx val="366760752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9191,7 +9163,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="355520896"/>
+        <c:axId val="366760752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9241,7 +9213,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355516584"/>
+        <c:crossAx val="366760360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15313,7 +15285,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15349,7 +15321,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15385,7 +15357,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15421,7 +15393,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15457,7 +15429,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15493,7 +15465,7 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15529,7 +15501,7 @@
         <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15565,7 +15537,7 @@
         <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35FF4A1F-B7E1-A659-6C44-65F6168FFBF9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{35FF4A1F-B7E1-A659-6C44-65F6168FFBF9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15601,7 +15573,7 @@
         <xdr:cNvPr id="11" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A4C19D4-A5AF-6D9C-9EB4-184B6B571282}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A4C19D4-A5AF-6D9C-9EB4-184B6B571282}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15702,7 +15674,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15746,7 +15718,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15790,7 +15762,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15831,7 +15803,7 @@
             <xdr:cNvPr id="5" name="TextBox 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16040,7 +16012,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16084,7 +16056,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16133,7 +16105,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16456,7 +16428,7 @@
   <dimension ref="B2:V45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -16472,7 +16444,7 @@
     <row r="2" spans="2:22" ht="15" thickBot="1"/>
     <row r="3" spans="2:22">
       <c r="B3" s="139" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="C3" s="140"/>
       <c r="D3" s="140"/>
@@ -16617,13 +16589,13 @@
     <row r="12" spans="2:22" ht="18.5">
       <c r="B12" s="149"/>
       <c r="C12" s="35" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D12" s="57" t="s">
         <v>100</v>
       </c>
       <c r="E12" s="45" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F12" s="134">
         <f>AVERAGE(L12:P12)</f>
@@ -16690,7 +16662,7 @@
     <row r="14" spans="2:22" ht="18.5">
       <c r="B14" s="150"/>
       <c r="C14" s="35" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D14" s="57" t="s">
         <v>100</v>
@@ -16769,7 +16741,7 @@
     <row r="16" spans="2:22" ht="18.5">
       <c r="B16" s="150"/>
       <c r="C16" s="35" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D16" s="57" t="s">
         <v>100</v>
@@ -16852,7 +16824,7 @@
     <row r="18" spans="2:20" ht="18.5">
       <c r="B18" s="152"/>
       <c r="C18" s="36" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D18" s="57" t="s">
         <v>100</v>
@@ -16933,13 +16905,13 @@
     <row r="20" spans="2:20" ht="18.5">
       <c r="B20" s="152"/>
       <c r="C20" s="36" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D20" s="57" t="s">
         <v>100</v>
       </c>
       <c r="E20" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F20" s="136">
         <f>AVERAGE(L20:P20)</f>
@@ -17016,7 +16988,7 @@
     <row r="22" spans="2:20" ht="18.5">
       <c r="B22" s="157"/>
       <c r="C22" s="35" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D22" s="57" t="s">
         <v>100</v>
@@ -17102,7 +17074,7 @@
         <v>100</v>
       </c>
       <c r="E24" s="51" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="F24" s="58">
         <f>AVERAGE(L24:P24)</f>
@@ -17183,7 +17155,7 @@
         <v>100</v>
       </c>
       <c r="E26" s="51" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="F26" s="58">
         <f>AVERAGE(L26:P26)</f>
@@ -20465,7 +20437,7 @@
     </row>
     <row r="12" spans="2:17">
       <c r="B12" s="18" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C12" s="114">
         <v>5434</v>
@@ -20566,7 +20538,7 @@
     </row>
     <row r="15" spans="2:17">
       <c r="B15" s="18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C15" s="114">
         <v>1.1399999856948853</v>
@@ -23459,7 +23431,7 @@
     </row>
     <row r="84" spans="2:13" ht="17.5" thickBot="1">
       <c r="B84" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C84" s="113"/>
       <c r="D84" s="113">
@@ -23495,7 +23467,7 @@
     </row>
     <row r="85" spans="2:13" ht="15" thickTop="1">
       <c r="B85" s="10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C85" s="114">
         <v>0</v>
@@ -23543,7 +23515,7 @@
     </row>
     <row r="86" spans="2:13">
       <c r="B86" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C86" s="114">
         <v>0</v>
@@ -23591,7 +23563,7 @@
     </row>
     <row r="87" spans="2:13">
       <c r="B87" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C87" s="114">
         <v>0</v>
@@ -23629,7 +23601,7 @@
     </row>
     <row r="89" spans="2:13" ht="17.5" thickBot="1">
       <c r="B89" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C89" s="113"/>
       <c r="D89" s="113">
@@ -23665,7 +23637,7 @@
     </row>
     <row r="90" spans="2:13" ht="15" thickTop="1">
       <c r="B90" s="133" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C90" s="114">
         <v>0</v>
@@ -23703,7 +23675,7 @@
     </row>
     <row r="91" spans="2:13">
       <c r="B91" s="133" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C91" s="114">
         <v>0</v>

--- a/src/main/resources/companies/template.xlsx
+++ b/src/main/resources/companies/template.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="163">
   <si>
     <t>WACC</t>
   </si>
@@ -517,6 +517,9 @@
   </si>
   <si>
     <t>sector median (0)</t>
+  </si>
+  <si>
+    <t>PEG</t>
   </si>
 </sst>
 </file>
@@ -1251,9 +1254,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="10" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1492,6 +1492,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="4" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="20% - Accent1" xfId="9" builtinId="30"/>
@@ -2112,11 +2115,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="237165424"/>
-        <c:axId val="237164640"/>
+        <c:axId val="358191240"/>
+        <c:axId val="358191624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="237165424"/>
+        <c:axId val="358191240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2158,7 +2161,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237164640"/>
+        <c:crossAx val="358191624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2166,7 +2169,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="237164640"/>
+        <c:axId val="358191624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2269,7 +2272,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237165424"/>
+        <c:crossAx val="358191240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2874,11 +2877,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="366761144"/>
-        <c:axId val="366764672"/>
+        <c:axId val="359338400"/>
+        <c:axId val="359339184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="366761144"/>
+        <c:axId val="359338400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2920,7 +2923,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="366764672"/>
+        <c:crossAx val="359339184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2928,7 +2931,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="366764672"/>
+        <c:axId val="359339184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2978,7 +2981,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="366761144"/>
+        <c:crossAx val="359338400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3324,11 +3327,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="366761928"/>
-        <c:axId val="366763104"/>
+        <c:axId val="359339968"/>
+        <c:axId val="359334872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="366761928"/>
+        <c:axId val="359339968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3370,7 +3373,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="366763104"/>
+        <c:crossAx val="359334872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3378,7 +3381,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="366763104"/>
+        <c:axId val="359334872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3428,7 +3431,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="366761928"/>
+        <c:crossAx val="359339968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3889,8 +3892,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="237163072"/>
-        <c:axId val="237163856"/>
+        <c:axId val="358612440"/>
+        <c:axId val="358629224"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -4028,11 +4031,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="237165816"/>
-        <c:axId val="237164248"/>
+        <c:axId val="358629992"/>
+        <c:axId val="358629608"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="237163072"/>
+        <c:axId val="358612440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4074,7 +4077,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237163856"/>
+        <c:crossAx val="358629224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4082,7 +4085,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="237163856"/>
+        <c:axId val="358629224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4132,12 +4135,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237163072"/>
+        <c:crossAx val="358612440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="237164248"/>
+        <c:axId val="358629608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4173,12 +4176,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237165816"/>
+        <c:crossAx val="358629992"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="237165816"/>
+        <c:axId val="358629992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4187,7 +4190,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="237164248"/>
+        <c:crossAx val="358629608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4686,11 +4689,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="100"/>
-        <c:axId val="365698112"/>
-        <c:axId val="365693408"/>
+        <c:axId val="358711920"/>
+        <c:axId val="358712304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="365698112"/>
+        <c:axId val="358711920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4732,7 +4735,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365693408"/>
+        <c:crossAx val="358712304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4740,7 +4743,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="365693408"/>
+        <c:axId val="358712304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4790,7 +4793,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365698112"/>
+        <c:crossAx val="358711920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5252,11 +5255,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="365696152"/>
-        <c:axId val="365693800"/>
+        <c:axId val="358733056"/>
+        <c:axId val="358851712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="365696152"/>
+        <c:axId val="358733056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5298,7 +5301,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365693800"/>
+        <c:crossAx val="358851712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5306,7 +5309,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="365693800"/>
+        <c:axId val="358851712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5356,7 +5359,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365696152"/>
+        <c:crossAx val="358733056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5797,8 +5800,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="365699288"/>
-        <c:axId val="365695368"/>
+        <c:axId val="358777552"/>
+        <c:axId val="359173888"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -5936,11 +5939,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="365696544"/>
-        <c:axId val="365698504"/>
+        <c:axId val="359171928"/>
+        <c:axId val="359172712"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="365699288"/>
+        <c:axId val="358777552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5982,7 +5985,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365695368"/>
+        <c:crossAx val="359173888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5990,7 +5993,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="365695368"/>
+        <c:axId val="359173888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6040,12 +6043,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365699288"/>
+        <c:crossAx val="358777552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="365698504"/>
+        <c:axId val="359172712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6081,12 +6084,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365696544"/>
+        <c:crossAx val="359171928"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="365696544"/>
+        <c:axId val="359171928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6095,7 +6098,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="365698504"/>
+        <c:crossAx val="359172712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6516,8 +6519,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="365696936"/>
-        <c:axId val="365693016"/>
+        <c:axId val="359174672"/>
+        <c:axId val="359171536"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -6696,11 +6699,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="365694584"/>
-        <c:axId val="365697720"/>
+        <c:axId val="359174280"/>
+        <c:axId val="359175064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="365696936"/>
+        <c:axId val="359174672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6742,7 +6745,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365693016"/>
+        <c:crossAx val="359171536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6750,7 +6753,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="365693016"/>
+        <c:axId val="359171536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6800,12 +6803,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365696936"/>
+        <c:crossAx val="359174672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="365697720"/>
+        <c:axId val="359175064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6841,12 +6844,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365694584"/>
+        <c:crossAx val="359174280"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="365694584"/>
+        <c:axId val="359174280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6883,7 +6886,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365697720"/>
+        <c:crossAx val="359175064"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7857,11 +7860,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="365691840"/>
-        <c:axId val="365698896"/>
+        <c:axId val="359336048"/>
+        <c:axId val="359173104"/>
       </c:barChart>
       <c:valAx>
-        <c:axId val="365698896"/>
+        <c:axId val="359173104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7911,12 +7914,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365691840"/>
+        <c:crossAx val="359336048"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="365691840"/>
+        <c:axId val="359336048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7958,7 +7961,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365698896"/>
+        <c:crossAx val="359173104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8625,11 +8628,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="365692232"/>
-        <c:axId val="366764280"/>
+        <c:axId val="359337616"/>
+        <c:axId val="359336832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="365692232"/>
+        <c:axId val="359337616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8690,7 +8693,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="366764280"/>
+        <c:crossAx val="359336832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8698,7 +8701,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="366764280"/>
+        <c:axId val="359336832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8759,7 +8762,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365692232"/>
+        <c:crossAx val="359337616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9109,11 +9112,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="366760360"/>
-        <c:axId val="366760752"/>
+        <c:axId val="359337224"/>
+        <c:axId val="359335656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="366760360"/>
+        <c:axId val="359337224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9155,7 +9158,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="366760752"/>
+        <c:crossAx val="359335656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9163,7 +9166,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="366760752"/>
+        <c:axId val="359335656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9213,7 +9216,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="366760360"/>
+        <c:crossAx val="359337224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15285,7 +15288,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15321,7 +15324,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15357,7 +15360,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15393,7 +15396,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15429,7 +15432,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15465,7 +15468,7 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15501,7 +15504,7 @@
         <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15537,7 +15540,7 @@
         <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{35FF4A1F-B7E1-A659-6C44-65F6168FFBF9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35FF4A1F-B7E1-A659-6C44-65F6168FFBF9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15573,7 +15576,7 @@
         <xdr:cNvPr id="11" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A4C19D4-A5AF-6D9C-9EB4-184B6B571282}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A4C19D4-A5AF-6D9C-9EB4-184B6B571282}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15674,7 +15677,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15718,7 +15721,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15762,7 +15765,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15803,7 +15806,7 @@
             <xdr:cNvPr id="5" name="TextBox 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16012,7 +16015,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16056,7 +16059,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16105,7 +16108,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16428,7 +16431,7 @@
   <dimension ref="B2:V45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -16443,74 +16446,74 @@
   <sheetData>
     <row r="2" spans="2:22" ht="15" thickBot="1"/>
     <row r="3" spans="2:22">
-      <c r="B3" s="139" t="s">
+      <c r="B3" s="138" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140"/>
-      <c r="K3" s="140"/>
-      <c r="L3" s="140"/>
-      <c r="M3" s="140"/>
-      <c r="N3" s="140"/>
-      <c r="O3" s="140"/>
-      <c r="P3" s="141"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="139"/>
+      <c r="N3" s="139"/>
+      <c r="O3" s="139"/>
+      <c r="P3" s="140"/>
     </row>
     <row r="4" spans="2:22">
-      <c r="B4" s="142"/>
-      <c r="C4" s="143"/>
-      <c r="D4" s="143"/>
-      <c r="E4" s="143"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="143"/>
-      <c r="H4" s="143"/>
-      <c r="I4" s="143"/>
-      <c r="J4" s="143"/>
-      <c r="K4" s="143"/>
-      <c r="L4" s="143"/>
-      <c r="M4" s="143"/>
-      <c r="N4" s="143"/>
-      <c r="O4" s="143"/>
-      <c r="P4" s="144"/>
+      <c r="B4" s="141"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="142"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="142"/>
+      <c r="I4" s="142"/>
+      <c r="J4" s="142"/>
+      <c r="K4" s="142"/>
+      <c r="L4" s="142"/>
+      <c r="M4" s="142"/>
+      <c r="N4" s="142"/>
+      <c r="O4" s="142"/>
+      <c r="P4" s="143"/>
     </row>
     <row r="5" spans="2:22">
-      <c r="B5" s="142"/>
-      <c r="C5" s="143"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="143"/>
-      <c r="K5" s="143"/>
-      <c r="L5" s="143"/>
-      <c r="M5" s="143"/>
-      <c r="N5" s="143"/>
-      <c r="O5" s="143"/>
-      <c r="P5" s="144"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="142"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="142"/>
+      <c r="K5" s="142"/>
+      <c r="L5" s="142"/>
+      <c r="M5" s="142"/>
+      <c r="N5" s="142"/>
+      <c r="O5" s="142"/>
+      <c r="P5" s="143"/>
     </row>
     <row r="6" spans="2:22" ht="15" thickBot="1">
-      <c r="B6" s="145"/>
-      <c r="C6" s="146"/>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="146"/>
-      <c r="K6" s="146"/>
-      <c r="L6" s="146"/>
-      <c r="M6" s="146"/>
-      <c r="N6" s="146"/>
-      <c r="O6" s="146"/>
-      <c r="P6" s="147"/>
+      <c r="B6" s="144"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="145"/>
+      <c r="K6" s="145"/>
+      <c r="L6" s="145"/>
+      <c r="M6" s="145"/>
+      <c r="N6" s="145"/>
+      <c r="O6" s="145"/>
+      <c r="P6" s="146"/>
     </row>
     <row r="8" spans="2:22" ht="13.5" customHeight="1"/>
     <row r="10" spans="2:22" ht="17.5" thickBot="1">
@@ -16559,7 +16562,7 @@
       </c>
     </row>
     <row r="11" spans="2:22" ht="19" thickTop="1">
-      <c r="B11" s="148" t="s">
+      <c r="B11" s="147" t="s">
         <v>89</v>
       </c>
       <c r="C11" s="35"/>
@@ -16576,141 +16579,141 @@
       <c r="N11" s="39"/>
       <c r="O11" s="39"/>
       <c r="P11" s="39"/>
-      <c r="T11" s="55" t="s">
+      <c r="T11" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="U11" s="56" t="s">
+      <c r="U11" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="V11" s="57" t="s">
+      <c r="V11" s="56" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="2:22" ht="18.5">
-      <c r="B12" s="149"/>
+      <c r="B12" s="148"/>
       <c r="C12" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="56" t="s">
         <v>100</v>
       </c>
       <c r="E12" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="F12" s="134">
+      <c r="F12" s="133">
         <f>AVERAGE(L12:P12)</f>
         <v>4.1366607122623718</v>
       </c>
-      <c r="G12" s="129">
+      <c r="G12" s="128">
         <f>Financials!D85</f>
         <v>4.2918400886577297</v>
       </c>
-      <c r="H12" s="129">
+      <c r="H12" s="128">
         <f>Financials!E85</f>
         <v>5.2642820348523109</v>
       </c>
-      <c r="I12" s="129">
+      <c r="I12" s="128">
         <f>Financials!F85</f>
         <v>4.9005246917286014</v>
       </c>
-      <c r="J12" s="129">
+      <c r="J12" s="128">
         <f>Financials!G85</f>
         <v>4.8077562326869803</v>
       </c>
-      <c r="K12" s="129">
+      <c r="K12" s="128">
         <f>Financials!H85</f>
         <v>12.127791232356424</v>
       </c>
-      <c r="L12" s="129">
+      <c r="L12" s="128">
         <f>Financials!I85</f>
         <v>4.6610034805549816</v>
       </c>
-      <c r="M12" s="129">
+      <c r="M12" s="128">
         <f>Financials!J85</f>
         <v>4.9568360071977953</v>
       </c>
-      <c r="N12" s="129">
+      <c r="N12" s="128">
         <f>Financials!K85</f>
         <v>3.8463645027367099</v>
       </c>
-      <c r="O12" s="129">
+      <c r="O12" s="128">
         <f>Financials!L85</f>
         <v>5.1318388575777893</v>
       </c>
-      <c r="P12" s="129">
+      <c r="P12" s="128">
         <f>Financials!M85</f>
         <v>2.0872607132445826</v>
       </c>
     </row>
     <row r="13" spans="2:22">
-      <c r="B13" s="149"/>
+      <c r="B13" s="148"/>
       <c r="C13" s="35"/>
       <c r="D13" s="35"/>
       <c r="E13" s="45"/>
       <c r="F13" s="45"/>
-      <c r="G13" s="129"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="129"/>
-      <c r="J13" s="129"/>
-      <c r="K13" s="129"/>
-      <c r="L13" s="129"/>
-      <c r="M13" s="129"/>
-      <c r="N13" s="129"/>
-      <c r="O13" s="129"/>
-      <c r="P13" s="129"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="128"/>
+      <c r="L13" s="128"/>
+      <c r="M13" s="128"/>
+      <c r="N13" s="128"/>
+      <c r="O13" s="128"/>
+      <c r="P13" s="128"/>
     </row>
     <row r="14" spans="2:22" ht="18.5">
-      <c r="B14" s="150"/>
+      <c r="B14" s="149"/>
       <c r="C14" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="56" t="s">
         <v>100</v>
       </c>
       <c r="E14" s="46">
         <v>0.08</v>
       </c>
-      <c r="F14" s="135">
+      <c r="F14" s="134">
         <f>AVERAGE(L14:P14)</f>
         <v>12.866531517853939</v>
       </c>
-      <c r="G14" s="130">
+      <c r="G14" s="129">
         <f>Financials!D86</f>
         <v>13.349524070664733</v>
       </c>
-      <c r="H14" s="130">
+      <c r="H14" s="129">
         <f>Financials!E86</f>
         <v>15.791060526117434</v>
       </c>
-      <c r="I14" s="130">
+      <c r="I14" s="129">
         <f>Financials!F86</f>
         <v>15.122827818740969</v>
       </c>
-      <c r="J14" s="130">
+      <c r="J14" s="129">
         <f>Financials!G86</f>
         <v>15.448428098408517</v>
       </c>
-      <c r="K14" s="130">
+      <c r="K14" s="129">
         <f>Financials!H86</f>
         <v>32.731539469327231</v>
       </c>
-      <c r="L14" s="130">
+      <c r="L14" s="129">
         <f>Financials!I86</f>
         <v>16.180243303633002</v>
       </c>
-      <c r="M14" s="130">
+      <c r="M14" s="129">
         <f>Financials!J86</f>
         <v>15.567398717123304</v>
       </c>
-      <c r="N14" s="130">
+      <c r="N14" s="129">
         <f>Financials!K86</f>
         <v>11.482700734700996</v>
       </c>
-      <c r="O14" s="130">
+      <c r="O14" s="129">
         <f>Financials!L86</f>
         <v>14.523689852188452</v>
       </c>
-      <c r="P14" s="130">
+      <c r="P14" s="129">
         <f>Financials!M86</f>
         <v>6.5786249816239524</v>
       </c>
@@ -16719,7 +16722,7 @@
       <c r="T14" s="44"/>
     </row>
     <row r="15" spans="2:22">
-      <c r="B15" s="150"/>
+      <c r="B15" s="149"/>
       <c r="C15" s="35"/>
       <c r="D15" s="35"/>
       <c r="E15" s="45"/>
@@ -16739,18 +16742,18 @@
       <c r="T15" s="44"/>
     </row>
     <row r="16" spans="2:22" ht="18.5">
-      <c r="B16" s="150"/>
+      <c r="B16" s="149"/>
       <c r="C16" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="D16" s="57" t="s">
+      <c r="D16" s="56" t="s">
         <v>100</v>
       </c>
       <c r="E16" s="47">
         <f>WACC!$C$25</f>
         <v>6.861010250234828E-2</v>
       </c>
-      <c r="F16" s="135">
+      <c r="F16" s="134">
         <f>AVERAGE(L16:P16)</f>
         <v>7.7499999046325687</v>
       </c>
@@ -16799,7 +16802,7 @@
       <c r="T16" s="44"/>
     </row>
     <row r="17" spans="2:20">
-      <c r="B17" s="151" t="s">
+      <c r="B17" s="150" t="s">
         <v>65</v>
       </c>
       <c r="C17" s="36"/>
@@ -16822,17 +16825,17 @@
       <c r="T17" s="44"/>
     </row>
     <row r="18" spans="2:20" ht="18.5">
-      <c r="B18" s="152"/>
+      <c r="B18" s="151"/>
       <c r="C18" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="D18" s="57" t="s">
+      <c r="D18" s="56" t="s">
         <v>100</v>
       </c>
       <c r="E18" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="136">
+      <c r="F18" s="135">
         <f>AVERAGE(L18:P18)</f>
         <v>0.83726286876165845</v>
       </c>
@@ -16882,7 +16885,7 @@
       <c r="T18" s="44"/>
     </row>
     <row r="19" spans="2:20">
-      <c r="B19" s="152"/>
+      <c r="B19" s="151"/>
       <c r="C19" s="36"/>
       <c r="D19" s="36"/>
       <c r="E19" s="48"/>
@@ -16903,17 +16906,17 @@
       <c r="T19" s="44"/>
     </row>
     <row r="20" spans="2:20" ht="18.5">
-      <c r="B20" s="152"/>
+      <c r="B20" s="151"/>
       <c r="C20" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="D20" s="57" t="s">
+      <c r="D20" s="56" t="s">
         <v>100</v>
       </c>
       <c r="E20" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="F20" s="136">
+      <c r="F20" s="135">
         <f>AVERAGE(L20:P20)</f>
         <v>2.1158501553160587</v>
       </c>
@@ -16963,7 +16966,7 @@
       <c r="T20" s="44"/>
     </row>
     <row r="21" spans="2:20">
-      <c r="B21" s="157" t="s">
+      <c r="B21" s="156" t="s">
         <v>96</v>
       </c>
       <c r="C21" s="35"/>
@@ -16986,11 +16989,11 @@
       <c r="T21" s="44"/>
     </row>
     <row r="22" spans="2:20" ht="18.5">
-      <c r="B22" s="157"/>
+      <c r="B22" s="156"/>
       <c r="C22" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="D22" s="57" t="s">
+      <c r="D22" s="56" t="s">
         <v>100</v>
       </c>
       <c r="E22" s="50" t="s">
@@ -17043,7 +17046,7 @@
       <c r="T22" s="44"/>
     </row>
     <row r="23" spans="2:20">
-      <c r="B23" s="155" t="s">
+      <c r="B23" s="154" t="s">
         <v>95</v>
       </c>
       <c r="C23" s="36"/>
@@ -17066,17 +17069,17 @@
       <c r="T23" s="44"/>
     </row>
     <row r="24" spans="2:20" ht="18.5">
-      <c r="B24" s="156"/>
+      <c r="B24" s="155"/>
       <c r="C24" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="D24" s="57" t="s">
+      <c r="D24" s="56" t="s">
         <v>100</v>
       </c>
       <c r="E24" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="F24" s="58">
+      <c r="F24" s="57">
         <f>AVERAGE(L24:P24)</f>
         <v>18.525999927520751</v>
       </c>
@@ -17126,11 +17129,11 @@
       <c r="T24" s="44"/>
     </row>
     <row r="25" spans="2:20">
-      <c r="B25" s="156"/>
+      <c r="B25" s="155"/>
       <c r="C25" s="36"/>
       <c r="D25" s="36"/>
       <c r="E25" s="51"/>
-      <c r="F25" s="58"/>
+      <c r="F25" s="57"/>
       <c r="G25" s="44"/>
       <c r="H25" s="44"/>
       <c r="I25" s="44"/>
@@ -17147,17 +17150,17 @@
       <c r="T25" s="44"/>
     </row>
     <row r="26" spans="2:20" ht="18.5">
-      <c r="B26" s="156"/>
+      <c r="B26" s="155"/>
       <c r="C26" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="57" t="s">
+      <c r="D26" s="56" t="s">
         <v>100</v>
       </c>
       <c r="E26" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="F26" s="58">
+      <c r="F26" s="57">
         <f>AVERAGE(L26:P26)</f>
         <v>7.7179999351501465</v>
       </c>
@@ -17207,7 +17210,7 @@
       <c r="T26" s="44"/>
     </row>
     <row r="27" spans="2:20">
-      <c r="B27" s="156"/>
+      <c r="B27" s="155"/>
       <c r="C27" s="36"/>
       <c r="D27" s="36"/>
       <c r="E27" s="51"/>
@@ -17224,18 +17227,19 @@
       <c r="P27" s="38"/>
     </row>
     <row r="28" spans="2:20" ht="18.5">
-      <c r="B28" s="156"/>
+      <c r="B28" s="155"/>
       <c r="C28" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="57" t="s">
+      <c r="D28" s="56" t="s">
         <v>100</v>
       </c>
       <c r="E28" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="F28" s="52">
-        <v>0.71</v>
+      <c r="F28" s="164">
+        <f>Financials!$C$92</f>
+        <v>0</v>
       </c>
       <c r="G28" s="38"/>
       <c r="H28" s="38"/>
@@ -17249,7 +17253,7 @@
       <c r="P28" s="38"/>
     </row>
     <row r="29" spans="2:20">
-      <c r="B29" s="153" t="s">
+      <c r="B29" s="152" t="s">
         <v>94</v>
       </c>
       <c r="C29" s="34"/>
@@ -17258,220 +17262,220 @@
       <c r="F29" s="34"/>
     </row>
     <row r="30" spans="2:20" ht="18.5">
-      <c r="B30" s="153"/>
+      <c r="B30" s="152"/>
       <c r="C30" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="57" t="s">
+      <c r="D30" s="56" t="s">
         <v>100</v>
       </c>
       <c r="E30" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="F30" s="53">
+      <c r="F30" s="52">
         <f>Financials!D72</f>
         <v>7.8222614573602911E-2</v>
       </c>
     </row>
     <row r="31" spans="2:20" ht="18.5">
-      <c r="B31" s="154"/>
+      <c r="B31" s="153"/>
       <c r="C31" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="57" t="s">
+      <c r="D31" s="56" t="s">
         <v>100</v>
       </c>
       <c r="E31" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="F31" s="53">
+      <c r="F31" s="52">
         <f>Financials!D73</f>
         <v>0.11724001576861531</v>
       </c>
     </row>
     <row r="32" spans="2:20">
-      <c r="B32" s="154"/>
+      <c r="B32" s="153"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
       <c r="E32" s="50"/>
-      <c r="F32" s="53"/>
+      <c r="F32" s="52"/>
     </row>
     <row r="33" spans="2:17" ht="18.5">
-      <c r="B33" s="154"/>
+      <c r="B33" s="153"/>
       <c r="C33" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="D33" s="57" t="s">
+      <c r="D33" s="56" t="s">
         <v>100</v>
       </c>
       <c r="E33" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="F33" s="53">
+      <c r="F33" s="52">
         <f>Financials!D78</f>
         <v>-1.2595625542054179E-2</v>
       </c>
     </row>
     <row r="34" spans="2:17" ht="18.5">
-      <c r="B34" s="154"/>
+      <c r="B34" s="153"/>
       <c r="C34" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="57" t="s">
+      <c r="D34" s="56" t="s">
         <v>100</v>
       </c>
       <c r="E34" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="F34" s="53">
+      <c r="F34" s="52">
         <f>Financials!D79</f>
         <v>5.3857309948096344E-2</v>
       </c>
     </row>
     <row r="35" spans="2:17">
-      <c r="B35" s="154"/>
+      <c r="B35" s="153"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
       <c r="E35" s="50"/>
-      <c r="F35" s="54"/>
+      <c r="F35" s="53"/>
       <c r="Q35" s="37"/>
     </row>
     <row r="36" spans="2:17" ht="18.5">
-      <c r="B36" s="154"/>
+      <c r="B36" s="153"/>
       <c r="C36" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D36" s="57" t="s">
+      <c r="D36" s="56" t="s">
         <v>100</v>
       </c>
       <c r="E36" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="F36" s="53">
+      <c r="F36" s="52">
         <f>Financials!D74</f>
         <v>-0.14468153045679921</v>
       </c>
     </row>
     <row r="37" spans="2:17" ht="18.5">
-      <c r="B37" s="154"/>
+      <c r="B37" s="153"/>
       <c r="C37" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="D37" s="57" t="s">
+      <c r="D37" s="56" t="s">
         <v>100</v>
       </c>
       <c r="E37" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="F37" s="53">
+      <c r="F37" s="52">
         <f>Financials!D75</f>
         <v>-2.3562454391197973E-2</v>
       </c>
     </row>
     <row r="38" spans="2:17">
-      <c r="B38" s="154"/>
+      <c r="B38" s="153"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
       <c r="E38" s="50"/>
-      <c r="F38" s="54"/>
+      <c r="F38" s="53"/>
     </row>
     <row r="39" spans="2:17" ht="18.5">
-      <c r="B39" s="154"/>
+      <c r="B39" s="153"/>
       <c r="C39" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="57" t="s">
+      <c r="D39" s="56" t="s">
         <v>100</v>
       </c>
       <c r="E39" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="F39" s="53">
+      <c r="F39" s="52">
         <f>Financials!D76</f>
         <v>5.140553170801887E-2</v>
       </c>
     </row>
     <row r="40" spans="2:17" ht="18.5">
-      <c r="B40" s="154"/>
+      <c r="B40" s="153"/>
       <c r="C40" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="D40" s="57" t="s">
+      <c r="D40" s="56" t="s">
         <v>100</v>
       </c>
       <c r="E40" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="F40" s="53">
+      <c r="F40" s="52">
         <f>Financials!D77</f>
         <v>6.5049938261403595E-2</v>
       </c>
     </row>
     <row r="41" spans="2:17">
-      <c r="B41" s="138" t="s">
+      <c r="B41" s="137" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="42" spans="2:17" ht="18.5">
-      <c r="B42" s="138"/>
-      <c r="C42" s="102" t="s">
+      <c r="B42" s="137"/>
+      <c r="C42" s="101" t="s">
         <v>134</v>
       </c>
-      <c r="D42" s="57" t="s">
+      <c r="D42" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="E42" s="103">
+      <c r="E42" s="102">
         <v>0.75</v>
       </c>
-      <c r="F42" s="105">
+      <c r="F42" s="104">
         <f>Financials!$D$82</f>
         <v>0.43355041703512143</v>
       </c>
     </row>
     <row r="43" spans="2:17" ht="18.5">
-      <c r="B43" s="138"/>
-      <c r="C43" s="102" t="s">
+      <c r="B43" s="137"/>
+      <c r="C43" s="101" t="s">
         <v>139</v>
       </c>
-      <c r="D43" s="57" t="s">
+      <c r="D43" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="E43" s="103" t="s">
+      <c r="E43" s="102" t="s">
         <v>140</v>
       </c>
-      <c r="F43" s="105">
+      <c r="F43" s="104">
         <f>Financials!D80</f>
         <v>7.1798608998944413E-2</v>
       </c>
     </row>
     <row r="44" spans="2:17" ht="18.5">
-      <c r="B44" s="138"/>
-      <c r="C44" s="102" t="s">
+      <c r="B44" s="137"/>
+      <c r="C44" s="101" t="s">
         <v>136</v>
       </c>
-      <c r="D44" s="57" t="s">
+      <c r="D44" s="56" t="s">
         <v>100</v>
       </c>
       <c r="E44" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F44" s="105">
+      <c r="F44" s="104">
         <f>Financials!D81</f>
         <v>0.10523482790922609</v>
       </c>
     </row>
     <row r="45" spans="2:17" ht="18.5">
-      <c r="B45" s="138"/>
-      <c r="C45" s="102" t="s">
+      <c r="B45" s="137"/>
+      <c r="C45" s="101" t="s">
         <v>135</v>
       </c>
-      <c r="D45" s="57" t="s">
+      <c r="D45" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="E45" s="103">
+      <c r="E45" s="102">
         <v>0.12</v>
       </c>
-      <c r="F45" s="104">
+      <c r="F45" s="103">
         <f>F43+F44</f>
         <v>0.1770334369081705</v>
       </c>
@@ -17557,7 +17561,7 @@
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="59">
+      <c r="C5" s="58">
         <v>159.83000000000001</v>
       </c>
     </row>
@@ -17565,7 +17569,7 @@
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="60">
+      <c r="C6" s="59">
         <v>27887000</v>
       </c>
     </row>
@@ -17573,7 +17577,7 @@
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="59">
         <v>147350000</v>
       </c>
     </row>
@@ -17581,7 +17585,7 @@
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="60">
+      <c r="C8" s="59">
         <v>3896000</v>
       </c>
     </row>
@@ -17589,7 +17593,7 @@
       <c r="B9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="60">
+      <c r="C9" s="59">
         <v>9284000</v>
       </c>
     </row>
@@ -17597,7 +17601,7 @@
       <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="60">
+      <c r="C10" s="59">
         <v>4359000</v>
       </c>
     </row>
@@ -17605,7 +17609,7 @@
       <c r="B11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="61">
+      <c r="C11" s="60">
         <v>1</v>
       </c>
       <c r="G11" s="33"/>
@@ -17796,7 +17800,7 @@
       <c r="B6" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="66">
+      <c r="C6" s="65">
         <v>0.01</v>
       </c>
     </row>
@@ -17804,7 +17808,7 @@
       <c r="B7" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="66">
+      <c r="C7" s="65">
         <f>AVERAGE(C34:L34)</f>
         <v>0.12232623694075792</v>
       </c>
@@ -17813,7 +17817,7 @@
       <c r="B8" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="66">
+      <c r="C8" s="65">
         <f>AVERAGE(C35:L35)</f>
         <v>0.75395455593523353</v>
       </c>
@@ -17822,7 +17826,7 @@
       <c r="B9" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C9" s="67">
+      <c r="C9" s="66">
         <v>8.9700000000000006</v>
       </c>
     </row>
@@ -17830,7 +17834,7 @@
       <c r="B10" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="68">
+      <c r="C10" s="67">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
@@ -17838,7 +17842,7 @@
       <c r="B11" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="60">
+      <c r="C11" s="59">
         <v>4206611953</v>
       </c>
     </row>
@@ -18374,43 +18378,43 @@
       <c r="B31" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="63">
+      <c r="C31" s="62">
         <f>Financials!D9</f>
         <v>21434</v>
       </c>
-      <c r="D31" s="63">
+      <c r="D31" s="62">
         <f>Financials!E9</f>
         <v>22923</v>
       </c>
-      <c r="E31" s="63">
+      <c r="E31" s="62">
         <f>Financials!F9</f>
         <v>24678</v>
       </c>
-      <c r="F31" s="63">
+      <c r="F31" s="62">
         <f>Financials!G9</f>
         <v>26257</v>
       </c>
-      <c r="G31" s="63">
+      <c r="G31" s="62">
         <f>Financials!H9</f>
         <v>27706</v>
       </c>
-      <c r="H31" s="63">
+      <c r="H31" s="62">
         <f>Financials!I9</f>
         <v>29685</v>
       </c>
-      <c r="I31" s="63">
+      <c r="I31" s="62">
         <f>Financials!J9</f>
         <v>34078</v>
       </c>
-      <c r="J31" s="63">
+      <c r="J31" s="62">
         <f>Financials!K9</f>
         <v>30593</v>
       </c>
-      <c r="K31" s="63">
+      <c r="K31" s="62">
         <f>Financials!L9</f>
         <v>34621</v>
       </c>
-      <c r="L31" s="63">
+      <c r="L31" s="62">
         <f>Financials!M9</f>
         <v>27862</v>
       </c>
@@ -18419,40 +18423,40 @@
       <c r="B32" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64">
+      <c r="C32" s="63"/>
+      <c r="D32" s="63">
         <f>Financials!E10</f>
         <v>6.9469067836148174E-2</v>
       </c>
-      <c r="E32" s="64">
+      <c r="E32" s="63">
         <f>Financials!F10</f>
         <v>7.656065959952886E-2</v>
       </c>
-      <c r="F32" s="64">
+      <c r="F32" s="63">
         <f>Financials!G10</f>
         <v>6.398411540643488E-2</v>
       </c>
-      <c r="G32" s="64">
+      <c r="G32" s="63">
         <f>Financials!H10</f>
         <v>5.5185283924286857E-2</v>
       </c>
-      <c r="H32" s="64">
+      <c r="H32" s="63">
         <f>Financials!I10</f>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="I32" s="64">
+      <c r="I32" s="63">
         <f>Financials!J10</f>
         <v>0.14798719892201448</v>
       </c>
-      <c r="J32" s="64">
+      <c r="J32" s="63">
         <f>Financials!K10</f>
         <v>-0.10226539116145314</v>
       </c>
-      <c r="K32" s="64">
+      <c r="K32" s="63">
         <f>Financials!L10</f>
         <v>0.13166410616807767</v>
       </c>
-      <c r="L32" s="64">
+      <c r="L32" s="63">
         <f>Financials!M10</f>
         <v>-0.19522832962652725</v>
       </c>
@@ -18633,13 +18637,13 @@
       <c r="B43" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="69">
+      <c r="C43" s="68">
         <v>-1.0200000000000001E-2</v>
       </c>
-      <c r="D43" s="69">
+      <c r="D43" s="68">
         <v>2.7900000000000001E-2</v>
       </c>
-      <c r="E43" s="69">
+      <c r="E43" s="68">
         <v>-4.0000000000000002E-4</v>
       </c>
       <c r="F43" s="27">
@@ -18972,8 +18976,8 @@
       <c r="C54" s="3"/>
     </row>
     <row r="55" spans="2:12" ht="20" thickTop="1">
-      <c r="B55" s="65"/>
-      <c r="C55" s="65"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="64"/>
     </row>
     <row r="56" spans="2:12" ht="17.5" thickBot="1">
       <c r="B56" s="2"/>
@@ -19012,43 +19016,43 @@
       <c r="B57" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C57" s="62">
+      <c r="C57" s="61">
         <f>POWER((1+C4),1)</f>
         <v>1.0686101025023482</v>
       </c>
-      <c r="D57" s="62">
+      <c r="D57" s="61">
         <f>POWER((1+C4),2)</f>
         <v>1.1419275511700793</v>
       </c>
-      <c r="E57" s="62">
+      <c r="E57" s="61">
         <f>POWER((1+C4),3)</f>
         <v>1.2202753175061138</v>
       </c>
-      <c r="F57" s="62">
+      <c r="F57" s="61">
         <f>POWER((1+C4),4)</f>
         <v>1.3039985321212939</v>
       </c>
-      <c r="G57" s="62">
+      <c r="G57" s="61">
         <f>POWER((1+C4),5)</f>
         <v>1.3934660050730474</v>
       </c>
-      <c r="H57" s="62">
+      <c r="H57" s="61">
         <f>POWER((1+C4),6)</f>
         <v>1.489071850514647</v>
       </c>
-      <c r="I57" s="62">
+      <c r="I57" s="61">
         <f>POWER((1+C4),7)</f>
         <v>1.5912372228118181</v>
       </c>
-      <c r="J57" s="62">
+      <c r="J57" s="61">
         <f>POWER((1+C4),8)</f>
         <v>1.7004121717744889</v>
       </c>
-      <c r="K57" s="62">
+      <c r="K57" s="61">
         <f>POWER((1+C4),9)</f>
         <v>1.8170776251761771</v>
       </c>
-      <c r="L57" s="62">
+      <c r="L57" s="61">
         <f>POWER((1+C4),10)</f>
         <v>1.9417475072942381</v>
       </c>
@@ -19125,10 +19129,10 @@
       <c r="L60" s="21"/>
     </row>
     <row r="61" spans="2:12" ht="15" thickBot="1">
-      <c r="B61" s="74" t="s">
+      <c r="B61" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="C61" s="75">
+      <c r="C61" s="74">
         <f>POWER((1+C4),11)</f>
         <v>2.074971002803375</v>
       </c>
@@ -19156,32 +19160,32 @@
       <c r="L62" s="21"/>
     </row>
     <row r="63" spans="2:12">
-      <c r="B63" s="158" t="s">
+      <c r="B63" s="157" t="s">
         <v>103</v>
       </c>
-      <c r="C63" s="158"/>
-      <c r="D63" s="158"/>
-      <c r="E63" s="158"/>
-      <c r="F63" s="158"/>
-      <c r="G63" s="158"/>
-      <c r="H63" s="158"/>
-      <c r="I63" s="158"/>
-      <c r="J63" s="158"/>
-      <c r="K63" s="158"/>
-      <c r="L63" s="158"/>
+      <c r="C63" s="157"/>
+      <c r="D63" s="157"/>
+      <c r="E63" s="157"/>
+      <c r="F63" s="157"/>
+      <c r="G63" s="157"/>
+      <c r="H63" s="157"/>
+      <c r="I63" s="157"/>
+      <c r="J63" s="157"/>
+      <c r="K63" s="157"/>
+      <c r="L63" s="157"/>
     </row>
     <row r="64" spans="2:12">
-      <c r="B64" s="158"/>
-      <c r="C64" s="158"/>
-      <c r="D64" s="158"/>
-      <c r="E64" s="158"/>
-      <c r="F64" s="158"/>
-      <c r="G64" s="158"/>
-      <c r="H64" s="158"/>
-      <c r="I64" s="158"/>
-      <c r="J64" s="158"/>
-      <c r="K64" s="158"/>
-      <c r="L64" s="158"/>
+      <c r="B64" s="157"/>
+      <c r="C64" s="157"/>
+      <c r="D64" s="157"/>
+      <c r="E64" s="157"/>
+      <c r="F64" s="157"/>
+      <c r="G64" s="157"/>
+      <c r="H64" s="157"/>
+      <c r="I64" s="157"/>
+      <c r="J64" s="157"/>
+      <c r="K64" s="157"/>
+      <c r="L64" s="157"/>
     </row>
     <row r="65" spans="2:12">
       <c r="B65" s="18" t="s">
@@ -19206,7 +19210,7 @@
       <c r="B68" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C68" s="72">
+      <c r="C68" s="71">
         <f>(SUM(C59:L59)+C65)</f>
         <v>229962.93054244519</v>
       </c>
@@ -19215,10 +19219,10 @@
       <c r="F69" s="9"/>
     </row>
     <row r="70" spans="2:12" ht="18.5">
-      <c r="B70" s="70" t="s">
+      <c r="B70" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="C70" s="71">
+      <c r="C70" s="70">
         <f>C68/(C11/1000000)</f>
         <v>54.667017807155744</v>
       </c>
@@ -19226,32 +19230,32 @@
       <c r="E70" s="30"/>
     </row>
     <row r="73" spans="2:12">
-      <c r="B73" s="158" t="s">
+      <c r="B73" s="157" t="s">
         <v>104</v>
       </c>
-      <c r="C73" s="158"/>
-      <c r="D73" s="158"/>
-      <c r="E73" s="158"/>
-      <c r="F73" s="158"/>
-      <c r="G73" s="158"/>
-      <c r="H73" s="158"/>
-      <c r="I73" s="158"/>
-      <c r="J73" s="158"/>
-      <c r="K73" s="158"/>
-      <c r="L73" s="158"/>
+      <c r="C73" s="157"/>
+      <c r="D73" s="157"/>
+      <c r="E73" s="157"/>
+      <c r="F73" s="157"/>
+      <c r="G73" s="157"/>
+      <c r="H73" s="157"/>
+      <c r="I73" s="157"/>
+      <c r="J73" s="157"/>
+      <c r="K73" s="157"/>
+      <c r="L73" s="157"/>
     </row>
     <row r="74" spans="2:12">
-      <c r="B74" s="158"/>
-      <c r="C74" s="158"/>
-      <c r="D74" s="158"/>
-      <c r="E74" s="158"/>
-      <c r="F74" s="158"/>
-      <c r="G74" s="158"/>
-      <c r="H74" s="158"/>
-      <c r="I74" s="158"/>
-      <c r="J74" s="158"/>
-      <c r="K74" s="158"/>
-      <c r="L74" s="158"/>
+      <c r="B74" s="157"/>
+      <c r="C74" s="157"/>
+      <c r="D74" s="157"/>
+      <c r="E74" s="157"/>
+      <c r="F74" s="157"/>
+      <c r="G74" s="157"/>
+      <c r="H74" s="157"/>
+      <c r="I74" s="157"/>
+      <c r="J74" s="157"/>
+      <c r="K74" s="157"/>
+      <c r="L74" s="157"/>
     </row>
     <row r="75" spans="2:12">
       <c r="B75" s="18" t="s">
@@ -19279,17 +19283,17 @@
       <c r="B78" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C78" s="73">
+      <c r="C78" s="72">
         <f>SUM(C59:L59)+C76</f>
         <v>208760.54809047969</v>
       </c>
     </row>
     <row r="79" spans="2:12" ht="15" thickTop="1"/>
     <row r="80" spans="2:12" ht="18.5">
-      <c r="B80" s="70" t="s">
+      <c r="B80" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="C80" s="71">
+      <c r="C80" s="70">
         <f>C78/(C11/1000000)</f>
         <v>49.626766248690807</v>
       </c>
@@ -19329,7 +19333,7 @@
       <c r="B15" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="79">
+      <c r="C15" s="78">
         <v>2.67</v>
       </c>
     </row>
@@ -19337,7 +19341,7 @@
       <c r="B16" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="79">
+      <c r="C16" s="78">
         <v>8.5</v>
       </c>
     </row>
@@ -19345,7 +19349,7 @@
       <c r="B17" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="79">
+      <c r="C17" s="78">
         <v>1</v>
       </c>
     </row>
@@ -19353,24 +19357,24 @@
       <c r="B18" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="80">
+      <c r="C18" s="79">
         <v>4.42</v>
       </c>
-      <c r="D18" s="78" t="s">
+      <c r="D18" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="E18" s="77" t="s">
+      <c r="E18" s="76" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="C19" s="80"/>
+      <c r="C19" s="79"/>
     </row>
     <row r="20" spans="2:5" ht="15" thickBot="1">
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="81">
+      <c r="C20" s="80">
         <f>(C15*(C16+C17)*4.4)/C18</f>
         <v>25.250226244343892</v>
       </c>
@@ -19406,660 +19410,660 @@
       <c r="B2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="126">
+      <c r="C2" s="125">
         <v>1.08</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="15" thickBot="1"/>
     <row r="4" spans="2:16" ht="20" thickBot="1">
-      <c r="B4" s="161" t="s">
+      <c r="B4" s="160" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="162"/>
+      <c r="C4" s="161"/>
     </row>
     <row r="5" spans="2:16" ht="15" thickBot="1">
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="81" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="83" t="s">
+      <c r="C5" s="82" t="s">
         <v>121</v>
       </c>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="86" t="s">
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="P5" s="87" t="s">
+      <c r="P5" s="86" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="15" thickBot="1">
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="89">
+      <c r="C6" s="88">
         <v>1</v>
       </c>
-      <c r="D6" s="89">
+      <c r="D6" s="88">
         <v>2</v>
       </c>
-      <c r="E6" s="89">
+      <c r="E6" s="88">
         <v>3</v>
       </c>
-      <c r="F6" s="89">
+      <c r="F6" s="88">
         <v>4</v>
       </c>
-      <c r="G6" s="89">
+      <c r="G6" s="88">
         <v>5</v>
       </c>
-      <c r="H6" s="89">
+      <c r="H6" s="88">
         <v>6</v>
       </c>
-      <c r="I6" s="89">
+      <c r="I6" s="88">
         <v>7</v>
       </c>
-      <c r="J6" s="89">
+      <c r="J6" s="88">
         <v>8</v>
       </c>
-      <c r="K6" s="89">
+      <c r="K6" s="88">
         <v>9</v>
       </c>
-      <c r="L6" s="89">
+      <c r="L6" s="88">
         <v>10</v>
       </c>
-      <c r="M6" s="163" t="s">
+      <c r="M6" s="162" t="s">
         <v>125</v>
       </c>
-      <c r="N6" s="164"/>
-      <c r="O6" s="90" t="s">
+      <c r="N6" s="163"/>
+      <c r="O6" s="89" t="s">
         <v>126</v>
       </c>
-      <c r="P6" s="108">
+      <c r="P6" s="107">
         <f>C2</f>
         <v>1.08</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="15" thickBot="1">
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="90" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="91">
         <f>P6*(1+P7)</f>
         <v>1.107</v>
       </c>
-      <c r="D7" s="92">
+      <c r="D7" s="91">
         <f>C7*(1+P7)</f>
         <v>1.1346749999999999</v>
       </c>
-      <c r="E7" s="92">
+      <c r="E7" s="91">
         <f>D7*(1+P7)</f>
         <v>1.1630418749999998</v>
       </c>
-      <c r="F7" s="92">
+      <c r="F7" s="91">
         <f>E7*(1+P7)</f>
         <v>1.1921179218749998</v>
       </c>
-      <c r="G7" s="92">
+      <c r="G7" s="91">
         <f>F7*(1+P7)</f>
         <v>1.2219208699218747</v>
       </c>
-      <c r="H7" s="92">
+      <c r="H7" s="91">
         <f>G7*(1+P7)</f>
         <v>1.2524688916699214</v>
       </c>
-      <c r="I7" s="92">
+      <c r="I7" s="91">
         <f>H7*(1+P7)</f>
         <v>1.2837806139616692</v>
       </c>
-      <c r="J7" s="92">
+      <c r="J7" s="91">
         <f>I7*(1+P7)</f>
         <v>1.3158751293107107</v>
       </c>
-      <c r="K7" s="92">
+      <c r="K7" s="91">
         <f>J7*(1+P7)</f>
         <v>1.3487720075434784</v>
       </c>
-      <c r="L7" s="92">
+      <c r="L7" s="91">
         <f>K7*(1+P7)</f>
         <v>1.3824913077320653</v>
       </c>
-      <c r="M7" s="159">
+      <c r="M7" s="158">
         <f>L7*(1+P7)/(P8-P7)</f>
         <v>32.49370006293983</v>
       </c>
-      <c r="N7" s="160"/>
-      <c r="O7" s="90" t="s">
+      <c r="N7" s="159"/>
+      <c r="O7" s="89" t="s">
         <v>128</v>
       </c>
-      <c r="P7" s="106">
+      <c r="P7" s="105">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15" thickBot="1">
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="90" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="92">
+      <c r="C8" s="91">
         <f>C7/(1+P8)</f>
         <v>1.0359250744567683</v>
       </c>
-      <c r="D8" s="92">
+      <c r="D8" s="91">
         <f>D7/(1+P8)^2</f>
         <v>0.99364885174838979</v>
       </c>
-      <c r="E8" s="92">
+      <c r="E8" s="91">
         <f>E7/(1+P8)^3</f>
         <v>0.95309792660308623</v>
       </c>
-      <c r="F8" s="92">
+      <c r="F8" s="91">
         <f>F7/(1+P8)^4</f>
         <v>0.91420188942675329</v>
       </c>
-      <c r="G8" s="92">
+      <c r="G8" s="91">
         <f>G7/(1+P8)^5</f>
         <v>0.87689320404900717</v>
       </c>
-      <c r="H8" s="92">
+      <c r="H8" s="91">
         <f>H7/(1+P8)^6</f>
         <v>0.84110709045842758</v>
       </c>
-      <c r="I8" s="92">
+      <c r="I8" s="91">
         <f>I7/(1+P8)^7</f>
         <v>0.80678141232339107</v>
       </c>
-      <c r="J8" s="92">
+      <c r="J8" s="91">
         <f>J7/(1+P8)^8</f>
         <v>0.77385656910319034</v>
       </c>
-      <c r="K8" s="92">
+      <c r="K8" s="91">
         <f>K7/(1+P8)^9</f>
         <v>0.74227539256211272</v>
       </c>
-      <c r="L8" s="92">
+      <c r="L8" s="91">
         <f>L7/(1+P8)^10</f>
         <v>0.71198304750679042</v>
       </c>
-      <c r="M8" s="159">
+      <c r="M8" s="158">
         <f>M7/POWER((1+P8),10)</f>
         <v>16.734256097085837</v>
       </c>
-      <c r="N8" s="160"/>
-      <c r="O8" s="93" t="s">
+      <c r="N8" s="159"/>
+      <c r="O8" s="92" t="s">
         <v>130</v>
       </c>
-      <c r="P8" s="107">
+      <c r="P8" s="106">
         <f>WACC!$C$25</f>
         <v>6.861010250234828E-2</v>
       </c>
     </row>
     <row r="9" spans="2:16">
-      <c r="B9" s="94"/>
-      <c r="N9" s="95"/>
+      <c r="B9" s="93"/>
+      <c r="N9" s="94"/>
     </row>
     <row r="10" spans="2:16" ht="20" thickBot="1">
-      <c r="B10" s="96" t="s">
+      <c r="B10" s="95" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="97">
+      <c r="C10" s="96">
         <f>SUM(C8:N8)*(1-P9)</f>
         <v>25.384026555323754</v>
       </c>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="98"/>
-      <c r="K10" s="98"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="98"/>
-      <c r="N10" s="99"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="97"/>
+      <c r="M10" s="97"/>
+      <c r="N10" s="98"/>
     </row>
     <row r="11" spans="2:16">
-      <c r="B11" s="100"/>
-      <c r="C11" s="100"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="99"/>
     </row>
     <row r="12" spans="2:16" ht="15" thickBot="1">
-      <c r="O12" s="101"/>
+      <c r="O12" s="100"/>
     </row>
     <row r="13" spans="2:16" ht="20" thickBot="1">
-      <c r="B13" s="161" t="s">
+      <c r="B13" s="160" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="162"/>
+      <c r="C13" s="161"/>
     </row>
     <row r="14" spans="2:16" ht="15" thickBot="1">
-      <c r="B14" s="82" t="s">
+      <c r="B14" s="81" t="s">
         <v>120</v>
       </c>
-      <c r="C14" s="83" t="s">
+      <c r="C14" s="82" t="s">
         <v>132</v>
       </c>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="85"/>
-      <c r="O14" s="86" t="s">
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="84"/>
+      <c r="O14" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="P14" s="87" t="s">
+      <c r="P14" s="86" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="15" thickBot="1">
-      <c r="B15" s="88" t="s">
+      <c r="B15" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="C15" s="89">
+      <c r="C15" s="88">
         <v>1</v>
       </c>
-      <c r="D15" s="89">
+      <c r="D15" s="88">
         <v>2</v>
       </c>
-      <c r="E15" s="89">
+      <c r="E15" s="88">
         <v>3</v>
       </c>
-      <c r="F15" s="89">
+      <c r="F15" s="88">
         <v>4</v>
       </c>
-      <c r="G15" s="89">
+      <c r="G15" s="88">
         <v>5</v>
       </c>
-      <c r="H15" s="89">
+      <c r="H15" s="88">
         <v>6</v>
       </c>
-      <c r="I15" s="89">
+      <c r="I15" s="88">
         <v>7</v>
       </c>
-      <c r="J15" s="89">
+      <c r="J15" s="88">
         <v>8</v>
       </c>
-      <c r="K15" s="89">
+      <c r="K15" s="88">
         <v>9</v>
       </c>
-      <c r="L15" s="89">
+      <c r="L15" s="88">
         <v>10</v>
       </c>
-      <c r="M15" s="163" t="s">
+      <c r="M15" s="162" t="s">
         <v>125</v>
       </c>
-      <c r="N15" s="164"/>
-      <c r="O15" s="90" t="s">
+      <c r="N15" s="163"/>
+      <c r="O15" s="89" t="s">
         <v>126</v>
       </c>
-      <c r="P15" s="108">
+      <c r="P15" s="107">
         <f>C2</f>
         <v>1.08</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="15" thickBot="1">
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="90" t="s">
         <v>127</v>
       </c>
-      <c r="C16" s="92">
+      <c r="C16" s="91">
         <f>P15*(1+P16)</f>
         <v>1.1124000000000001</v>
       </c>
-      <c r="D16" s="92">
+      <c r="D16" s="91">
         <f>C16*(1+P16)</f>
         <v>1.145772</v>
       </c>
-      <c r="E16" s="92">
+      <c r="E16" s="91">
         <f>D16*(1+P16)</f>
         <v>1.1801451600000001</v>
       </c>
-      <c r="F16" s="92">
+      <c r="F16" s="91">
         <f>E16*(1+P16)</f>
         <v>1.2155495148000002</v>
       </c>
-      <c r="G16" s="92">
+      <c r="G16" s="91">
         <f>F16*(1+P16)</f>
         <v>1.2520160002440002</v>
       </c>
-      <c r="H16" s="92">
+      <c r="H16" s="91">
         <f>G16*(1+P16)</f>
         <v>1.2895764802513201</v>
       </c>
-      <c r="I16" s="92">
+      <c r="I16" s="91">
         <f>H16*(1+P16)</f>
         <v>1.3282637746588597</v>
       </c>
-      <c r="J16" s="92">
+      <c r="J16" s="91">
         <f>I16*(1+P16)</f>
         <v>1.3681116878986255</v>
       </c>
-      <c r="K16" s="92">
+      <c r="K16" s="91">
         <f>J16*(1+P16)</f>
         <v>1.4091550385355842</v>
       </c>
-      <c r="L16" s="92">
+      <c r="L16" s="91">
         <f>K16*(1+P16)</f>
         <v>1.4514296896916519</v>
       </c>
-      <c r="M16" s="159">
+      <c r="M16" s="158">
         <f>L16*(1+P16)/(P17-P16)</f>
         <v>38.719725758083044</v>
       </c>
-      <c r="N16" s="160"/>
-      <c r="O16" s="90" t="s">
+      <c r="N16" s="159"/>
+      <c r="O16" s="89" t="s">
         <v>128</v>
       </c>
-      <c r="P16" s="106">
+      <c r="P16" s="105">
         <v>0.03</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="15" thickBot="1">
-      <c r="B17" s="91" t="s">
+      <c r="B17" s="90" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="92">
+      <c r="C17" s="91">
         <f>C16/(1+P17)</f>
         <v>1.040978367502899</v>
       </c>
-      <c r="D17" s="92">
+      <c r="D17" s="91">
         <f>D16/(1+P17)^2</f>
         <v>1.0033666311194449</v>
       </c>
-      <c r="E17" s="92">
+      <c r="E17" s="91">
         <f>E16/(1+P17)^3</f>
         <v>0.96711384969407721</v>
       </c>
-      <c r="F17" s="92">
+      <c r="F17" s="91">
         <f>F16/(1+P17)^4</f>
         <v>0.93217092263331902</v>
       </c>
-      <c r="G17" s="92">
+      <c r="G17" s="91">
         <f>G16/(1+P17)^5</f>
         <v>0.89849052340417002</v>
       </c>
-      <c r="H17" s="92">
+      <c r="H17" s="91">
         <f>H16/(1+P17)^6</f>
         <v>0.86602703543527593</v>
       </c>
-      <c r="I17" s="92">
+      <c r="I17" s="91">
         <f>I16/(1+P17)^7</f>
         <v>0.83473649033406372</v>
       </c>
-      <c r="J17" s="92">
+      <c r="J17" s="91">
         <f>J16/(1+P17)^8</f>
         <v>0.80457650833616023</v>
       </c>
-      <c r="K17" s="92">
+      <c r="K17" s="91">
         <f>K16/(1+P17)^9</f>
         <v>0.77550624090644327</v>
       </c>
-      <c r="L17" s="92">
+      <c r="L17" s="91">
         <f>L16/(1+P17)^10</f>
         <v>0.74748631541398081</v>
       </c>
-      <c r="M17" s="159">
+      <c r="M17" s="158">
         <f>M16/POWER((1+P17),10)</f>
         <v>19.940659438279759</v>
       </c>
-      <c r="N17" s="160"/>
-      <c r="O17" s="93" t="s">
+      <c r="N17" s="159"/>
+      <c r="O17" s="92" t="s">
         <v>130</v>
       </c>
-      <c r="P17" s="107">
+      <c r="P17" s="106">
         <f>WACC!$C$25</f>
         <v>6.861010250234828E-2</v>
       </c>
     </row>
     <row r="18" spans="2:16">
-      <c r="B18" s="94"/>
-      <c r="N18" s="95"/>
+      <c r="B18" s="93"/>
+      <c r="N18" s="94"/>
     </row>
     <row r="19" spans="2:16" ht="20" thickBot="1">
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="95" t="s">
         <v>131</v>
       </c>
-      <c r="C19" s="97">
+      <c r="C19" s="96">
         <f>SUM(C17:N17)*(1-P18)</f>
         <v>28.811112323059593</v>
       </c>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="98"/>
-      <c r="J19" s="98"/>
-      <c r="K19" s="98"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="98"/>
-      <c r="N19" s="99"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="97"/>
+      <c r="K19" s="97"/>
+      <c r="L19" s="97"/>
+      <c r="M19" s="97"/>
+      <c r="N19" s="98"/>
     </row>
     <row r="21" spans="2:16" ht="15" thickBot="1"/>
     <row r="22" spans="2:16" ht="20" thickBot="1">
-      <c r="B22" s="161" t="s">
+      <c r="B22" s="160" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="162"/>
+      <c r="C22" s="161"/>
     </row>
     <row r="23" spans="2:16" ht="15" thickBot="1">
-      <c r="B23" s="82" t="s">
+      <c r="B23" s="81" t="s">
         <v>120</v>
       </c>
-      <c r="C23" s="83" t="s">
+      <c r="C23" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="84"/>
-      <c r="K23" s="84"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="84"/>
-      <c r="N23" s="85"/>
-      <c r="O23" s="86" t="s">
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="83"/>
+      <c r="L23" s="83"/>
+      <c r="M23" s="83"/>
+      <c r="N23" s="84"/>
+      <c r="O23" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="P23" s="87" t="s">
+      <c r="P23" s="86" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="24" spans="2:16" ht="15" thickBot="1">
-      <c r="B24" s="88" t="s">
+      <c r="B24" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="89">
+      <c r="C24" s="88">
         <v>1</v>
       </c>
-      <c r="D24" s="89">
+      <c r="D24" s="88">
         <v>2</v>
       </c>
-      <c r="E24" s="89">
+      <c r="E24" s="88">
         <v>3</v>
       </c>
-      <c r="F24" s="89">
+      <c r="F24" s="88">
         <v>4</v>
       </c>
-      <c r="G24" s="89">
+      <c r="G24" s="88">
         <v>5</v>
       </c>
-      <c r="H24" s="89">
+      <c r="H24" s="88">
         <v>6</v>
       </c>
-      <c r="I24" s="89">
+      <c r="I24" s="88">
         <v>7</v>
       </c>
-      <c r="J24" s="89">
+      <c r="J24" s="88">
         <v>8</v>
       </c>
-      <c r="K24" s="89">
+      <c r="K24" s="88">
         <v>9</v>
       </c>
-      <c r="L24" s="89">
+      <c r="L24" s="88">
         <v>10</v>
       </c>
-      <c r="M24" s="163" t="s">
+      <c r="M24" s="162" t="s">
         <v>125</v>
       </c>
-      <c r="N24" s="164"/>
-      <c r="O24" s="90" t="s">
+      <c r="N24" s="163"/>
+      <c r="O24" s="89" t="s">
         <v>126</v>
       </c>
-      <c r="P24" s="108">
+      <c r="P24" s="107">
         <f>C2</f>
         <v>1.08</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="15" thickBot="1">
-      <c r="B25" s="91" t="s">
+      <c r="B25" s="90" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="92">
+      <c r="C25" s="91">
         <f>P24*(1+P25)</f>
         <v>1.1177999999999999</v>
       </c>
-      <c r="D25" s="92">
+      <c r="D25" s="91">
         <f>C25*(1+P25)</f>
         <v>1.1569229999999997</v>
       </c>
-      <c r="E25" s="92">
+      <c r="E25" s="91">
         <f>D25*(1+P25)</f>
         <v>1.1974153049999996</v>
       </c>
-      <c r="F25" s="92">
+      <c r="F25" s="91">
         <f>E25*(1+P25)</f>
         <v>1.2393248406749995</v>
       </c>
-      <c r="G25" s="92">
+      <c r="G25" s="91">
         <f>F25*(1+P25)</f>
         <v>1.2827012100986244</v>
       </c>
-      <c r="H25" s="92">
+      <c r="H25" s="91">
         <f>G25*(1+P25)</f>
         <v>1.3275957524520761</v>
       </c>
-      <c r="I25" s="92">
+      <c r="I25" s="91">
         <f>H25*(1+P25)</f>
         <v>1.3740616037878985</v>
       </c>
-      <c r="J25" s="92">
+      <c r="J25" s="91">
         <f>I25*(1+P25)</f>
         <v>1.422153759920475</v>
       </c>
-      <c r="K25" s="92">
+      <c r="K25" s="91">
         <f>J25*(1+P25)</f>
         <v>1.4719291415176916</v>
       </c>
-      <c r="L25" s="92">
+      <c r="L25" s="91">
         <f>K25*(1+P25)</f>
         <v>1.5234466614708106</v>
       </c>
-      <c r="M25" s="159">
+      <c r="M25" s="158">
         <f>L25*(1+P25)/(P26-P25)</f>
         <v>46.91349258789446</v>
       </c>
-      <c r="N25" s="160"/>
-      <c r="O25" s="90" t="s">
+      <c r="N25" s="159"/>
+      <c r="O25" s="89" t="s">
         <v>128</v>
       </c>
-      <c r="P25" s="106">
+      <c r="P25" s="105">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="15" thickBot="1">
-      <c r="B26" s="91" t="s">
+      <c r="B26" s="90" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="92">
+      <c r="C26" s="91">
         <f>C25/(1+P26)</f>
         <v>1.0460316605490294</v>
       </c>
-      <c r="D26" s="92">
+      <c r="D26" s="91">
         <f>D25/(1+P26)^2</f>
         <v>1.0131316989545924</v>
       </c>
-      <c r="E26" s="92">
+      <c r="E26" s="91">
         <f>E25/(1+P26)^3</f>
         <v>0.98126651241882579</v>
       </c>
-      <c r="F26" s="92">
+      <c r="F26" s="91">
         <f>F25/(1+P26)^4</f>
         <v>0.95040355502464735</v>
       </c>
-      <c r="G26" s="92">
+      <c r="G26" s="91">
         <f>G25/(1+P26)^5</f>
         <v>0.92051130449456742</v>
       </c>
-      <c r="H26" s="92">
+      <c r="H26" s="91">
         <f>H25/(1+P26)^6</f>
         <v>0.89155922999500514</v>
       </c>
-      <c r="I26" s="92">
+      <c r="I26" s="91">
         <f>I25/(1+P26)^7</f>
         <v>0.86351776095323085</v>
       </c>
-      <c r="J26" s="92">
+      <c r="J26" s="91">
         <f>J25/(1+P26)^8</f>
         <v>0.83635825685508158</v>
       </c>
-      <c r="K26" s="92">
+      <c r="K26" s="91">
         <f>K25/(1+P26)^9</f>
         <v>0.81005297799260434</v>
       </c>
-      <c r="L26" s="92">
+      <c r="L26" s="91">
         <f>L25/(1+P26)^10</f>
         <v>0.78457505713175035</v>
       </c>
-      <c r="M26" s="159">
+      <c r="M26" s="158">
         <f>M25/POWER((1+P26),10)</f>
         <v>24.160449498022988</v>
       </c>
-      <c r="N26" s="160"/>
-      <c r="O26" s="93" t="s">
+      <c r="N26" s="159"/>
+      <c r="O26" s="92" t="s">
         <v>130</v>
       </c>
-      <c r="P26" s="107">
+      <c r="P26" s="106">
         <f>WACC!$C$25</f>
         <v>6.861010250234828E-2</v>
       </c>
     </row>
     <row r="27" spans="2:16">
-      <c r="B27" s="94"/>
-      <c r="N27" s="95"/>
+      <c r="B27" s="93"/>
+      <c r="N27" s="94"/>
     </row>
     <row r="28" spans="2:16" ht="20" thickBot="1">
-      <c r="B28" s="96" t="s">
+      <c r="B28" s="95" t="s">
         <v>131</v>
       </c>
-      <c r="C28" s="97">
+      <c r="C28" s="96">
         <f>SUM(C26:N26)*(1-P27)</f>
         <v>33.25785751239232</v>
       </c>
-      <c r="D28" s="98"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="98"/>
-      <c r="G28" s="98"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="98"/>
-      <c r="J28" s="98"/>
-      <c r="K28" s="98"/>
-      <c r="L28" s="98"/>
-      <c r="M28" s="98"/>
-      <c r="N28" s="99"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="97"/>
+      <c r="H28" s="97"/>
+      <c r="I28" s="97"/>
+      <c r="J28" s="97"/>
+      <c r="K28" s="97"/>
+      <c r="L28" s="97"/>
+      <c r="M28" s="97"/>
+      <c r="N28" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -20082,19 +20086,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AJ91"/>
+  <dimension ref="B2:AJ92"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R90" sqref="R90"/>
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="62.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="114" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" style="114" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="11.26953125" style="114" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.6328125" style="114" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="113" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" style="113" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="11.26953125" style="113" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.6328125" style="113" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -20102,35 +20106,35 @@
       <c r="B2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113">
+      <c r="C2" s="112"/>
+      <c r="D2" s="112">
         <v>2013</v>
       </c>
-      <c r="E2" s="113">
+      <c r="E2" s="112">
         <v>2014</v>
       </c>
-      <c r="F2" s="113">
+      <c r="F2" s="112">
         <v>2015</v>
       </c>
-      <c r="G2" s="113">
+      <c r="G2" s="112">
         <v>2016</v>
       </c>
-      <c r="H2" s="113">
+      <c r="H2" s="112">
         <v>2017</v>
       </c>
-      <c r="I2" s="113">
+      <c r="I2" s="112">
         <v>2018</v>
       </c>
-      <c r="J2" s="113">
+      <c r="J2" s="112">
         <v>2019</v>
       </c>
-      <c r="K2" s="113">
+      <c r="K2" s="112">
         <v>2020</v>
       </c>
-      <c r="L2" s="113">
+      <c r="L2" s="112">
         <v>2021</v>
       </c>
-      <c r="M2" s="113">
+      <c r="M2" s="112">
         <v>2022</v>
       </c>
     </row>
@@ -20138,292 +20142,292 @@
       <c r="B3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="131">
+      <c r="C3" s="130">
         <v>62570</v>
       </c>
-      <c r="D3" s="121">
+      <c r="D3" s="120">
         <v>64657</v>
       </c>
-      <c r="E3" s="121">
+      <c r="E3" s="120">
         <v>68775</v>
       </c>
-      <c r="F3" s="121">
+      <c r="F3" s="120">
         <v>74510</v>
       </c>
-      <c r="G3" s="121">
+      <c r="G3" s="120">
         <v>80736</v>
       </c>
-      <c r="H3" s="121">
+      <c r="H3" s="120">
         <v>85029</v>
       </c>
-      <c r="I3" s="121">
+      <c r="I3" s="120">
         <v>94507</v>
       </c>
-      <c r="J3" s="121">
+      <c r="J3" s="120">
         <v>108942</v>
       </c>
-      <c r="K3" s="121">
+      <c r="K3" s="120">
         <v>103564</v>
       </c>
-      <c r="L3" s="121">
+      <c r="L3" s="120">
         <v>116385</v>
       </c>
-      <c r="M3" s="121">
+      <c r="M3" s="120">
         <v>121427</v>
       </c>
-      <c r="Q3" s="110"/>
+      <c r="Q3" s="109"/>
     </row>
     <row r="4" spans="2:17">
       <c r="B4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="119"/>
-      <c r="D4" s="132">
+      <c r="C4" s="118"/>
+      <c r="D4" s="131">
         <f t="shared" ref="D4:M4" si="0">(D3-C3)/C3</f>
         <v>3.3354642800063929E-2</v>
       </c>
-      <c r="E4" s="132">
+      <c r="E4" s="131">
         <f t="shared" si="0"/>
         <v>6.3689933031226317E-2</v>
       </c>
-      <c r="F4" s="132">
+      <c r="F4" s="131">
         <f t="shared" si="0"/>
         <v>8.338785896037805E-2</v>
       </c>
-      <c r="G4" s="132">
+      <c r="G4" s="131">
         <f t="shared" si="0"/>
         <v>8.3559253791437388E-2</v>
       </c>
-      <c r="H4" s="132">
+      <c r="H4" s="131">
         <f t="shared" si="0"/>
         <v>5.3173305588585018E-2</v>
       </c>
-      <c r="I4" s="132">
+      <c r="I4" s="131">
         <f t="shared" si="0"/>
         <v>0.11146785214456244</v>
       </c>
-      <c r="J4" s="132">
+      <c r="J4" s="131">
         <f t="shared" si="0"/>
         <v>0.15274000867660598</v>
       </c>
-      <c r="K4" s="132">
+      <c r="K4" s="131">
         <f t="shared" si="0"/>
         <v>-4.9365717537772393E-2</v>
       </c>
-      <c r="L4" s="132">
+      <c r="L4" s="131">
         <f t="shared" si="0"/>
         <v>0.12379784481093817</v>
       </c>
-      <c r="M4" s="132">
+      <c r="M4" s="131">
         <f t="shared" si="0"/>
         <v>4.3321733900416722E-2</v>
       </c>
-      <c r="Q4" s="110"/>
+      <c r="Q4" s="109"/>
     </row>
     <row r="5" spans="2:17">
       <c r="B5" s="18"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="123"/>
-      <c r="K5" s="123"/>
-      <c r="L5" s="123"/>
-      <c r="M5" s="123"/>
-      <c r="Q5" s="110"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="122"/>
+      <c r="M5" s="122"/>
+      <c r="Q5" s="109"/>
     </row>
     <row r="6" spans="2:17">
       <c r="B6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="114">
+      <c r="C6" s="113">
         <v>6203</v>
       </c>
-      <c r="D6" s="121">
+      <c r="D6" s="120">
         <v>6816</v>
       </c>
-      <c r="E6" s="121">
+      <c r="E6" s="120">
         <v>8380</v>
       </c>
-      <c r="F6" s="121">
+      <c r="F6" s="120">
         <v>8163</v>
       </c>
-      <c r="G6" s="121">
+      <c r="G6" s="120">
         <v>8678</v>
       </c>
-      <c r="H6" s="121">
+      <c r="H6" s="120">
         <v>22735</v>
       </c>
-      <c r="I6" s="121">
+      <c r="I6" s="120">
         <v>11731</v>
       </c>
-      <c r="J6" s="121">
+      <c r="J6" s="120">
         <v>13057</v>
       </c>
-      <c r="K6" s="121">
+      <c r="K6" s="120">
         <v>10534</v>
       </c>
-      <c r="L6" s="121">
+      <c r="L6" s="120">
         <v>14159</v>
       </c>
-      <c r="M6" s="121">
+      <c r="M6" s="120">
         <v>5370</v>
       </c>
-      <c r="Q6" s="110"/>
+      <c r="Q6" s="109"/>
     </row>
     <row r="7" spans="2:17">
       <c r="B7" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="132">
+      <c r="C7" s="118"/>
+      <c r="D7" s="131">
         <f t="shared" ref="D7" si="1">(D6-C6)/C6</f>
         <v>9.8823150088666781E-2</v>
       </c>
-      <c r="E7" s="132">
+      <c r="E7" s="131">
         <f t="shared" ref="E7" si="2">(E6-D6)/D6</f>
         <v>0.22946009389671362</v>
       </c>
-      <c r="F7" s="132">
+      <c r="F7" s="131">
         <f t="shared" ref="F7" si="3">(F6-E6)/E6</f>
         <v>-2.5894988066825775E-2</v>
       </c>
-      <c r="G7" s="132">
+      <c r="G7" s="131">
         <f t="shared" ref="G7" si="4">(G6-F6)/F6</f>
         <v>6.3089550410388343E-2</v>
       </c>
-      <c r="H7" s="132">
+      <c r="H7" s="131">
         <f t="shared" ref="H7" si="5">(H6-G6)/G6</f>
         <v>1.6198432818621802</v>
       </c>
-      <c r="I7" s="132">
+      <c r="I7" s="131">
         <f t="shared" ref="I7" si="6">(I6-H6)/H6</f>
         <v>-0.48401143611172204</v>
       </c>
-      <c r="J7" s="132">
+      <c r="J7" s="131">
         <f t="shared" ref="J7" si="7">(J6-I6)/I6</f>
         <v>0.11303384195720739</v>
       </c>
-      <c r="K7" s="132">
+      <c r="K7" s="131">
         <f t="shared" ref="K7" si="8">(K6-J6)/J6</f>
         <v>-0.1932296852263154</v>
       </c>
-      <c r="L7" s="132">
+      <c r="L7" s="131">
         <f t="shared" ref="L7" si="9">(L6-K6)/K6</f>
         <v>0.34412378963356749</v>
       </c>
-      <c r="M7" s="132">
+      <c r="M7" s="131">
         <f t="shared" ref="M7" si="10">(M6-L6)/L6</f>
         <v>-0.62073592767850838</v>
       </c>
-      <c r="Q7" s="110"/>
+      <c r="Q7" s="109"/>
     </row>
     <row r="8" spans="2:17">
-      <c r="D8" s="123"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="123"/>
-      <c r="L8" s="123"/>
-      <c r="M8" s="123"/>
-      <c r="Q8" s="110"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="122"/>
+      <c r="L8" s="122"/>
+      <c r="M8" s="122"/>
+      <c r="Q8" s="109"/>
     </row>
     <row r="9" spans="2:17">
       <c r="B9" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="114">
+      <c r="C9" s="113">
         <v>19977</v>
       </c>
-      <c r="D9" s="121">
+      <c r="D9" s="120">
         <v>21434</v>
       </c>
-      <c r="E9" s="121">
+      <c r="E9" s="120">
         <v>22923</v>
       </c>
-      <c r="F9" s="121">
+      <c r="F9" s="120">
         <v>24678</v>
       </c>
-      <c r="G9" s="121">
+      <c r="G9" s="120">
         <v>26257</v>
       </c>
-      <c r="H9" s="121">
+      <c r="H9" s="120">
         <v>27706</v>
       </c>
-      <c r="I9" s="121">
+      <c r="I9" s="120">
         <v>29685</v>
       </c>
-      <c r="J9" s="121">
+      <c r="J9" s="120">
         <v>34078</v>
       </c>
-      <c r="K9" s="121">
+      <c r="K9" s="120">
         <v>30593</v>
       </c>
-      <c r="L9" s="121">
+      <c r="L9" s="120">
         <v>34621</v>
       </c>
-      <c r="M9" s="121">
+      <c r="M9" s="120">
         <v>27862</v>
       </c>
-      <c r="Q9" s="110"/>
+      <c r="Q9" s="109"/>
     </row>
     <row r="10" spans="2:17">
       <c r="B10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="119"/>
-      <c r="D10" s="132">
+      <c r="C10" s="118"/>
+      <c r="D10" s="131">
         <f t="shared" ref="D10" si="11">(D9-C9)/C9</f>
         <v>7.2933873955048301E-2</v>
       </c>
-      <c r="E10" s="132">
+      <c r="E10" s="131">
         <f t="shared" ref="E10" si="12">(E9-D9)/D9</f>
         <v>6.9469067836148174E-2</v>
       </c>
-      <c r="F10" s="132">
+      <c r="F10" s="131">
         <f t="shared" ref="F10" si="13">(F9-E9)/E9</f>
         <v>7.656065959952886E-2</v>
       </c>
-      <c r="G10" s="132">
+      <c r="G10" s="131">
         <f t="shared" ref="G10" si="14">(G9-F9)/F9</f>
         <v>6.398411540643488E-2</v>
       </c>
-      <c r="H10" s="132">
+      <c r="H10" s="131">
         <f t="shared" ref="H10" si="15">(H9-G9)/G9</f>
         <v>5.5185283924286857E-2</v>
       </c>
-      <c r="I10" s="132">
+      <c r="I10" s="131">
         <f t="shared" ref="I10" si="16">(I9-H9)/H9</f>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="J10" s="132">
+      <c r="J10" s="131">
         <f t="shared" ref="J10" si="17">(J9-I9)/I9</f>
         <v>0.14798719892201448</v>
       </c>
-      <c r="K10" s="132">
+      <c r="K10" s="131">
         <f t="shared" ref="K10" si="18">(K9-J9)/J9</f>
         <v>-0.10226539116145314</v>
       </c>
-      <c r="L10" s="132">
+      <c r="L10" s="131">
         <f t="shared" ref="L10" si="19">(L9-K9)/K9</f>
         <v>0.13166410616807767</v>
       </c>
-      <c r="M10" s="132">
+      <c r="M10" s="131">
         <f t="shared" ref="M10" si="20">(M9-L9)/L9</f>
         <v>-0.19522832962652725</v>
       </c>
-      <c r="Q10" s="110"/>
+      <c r="Q10" s="109"/>
     </row>
     <row r="11" spans="2:17">
       <c r="B11" s="18"/>
-      <c r="C11" s="119"/>
-      <c r="D11" s="121"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="120"/>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
@@ -20433,13 +20437,13 @@
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11"/>
-      <c r="Q11" s="110"/>
+      <c r="Q11" s="109"/>
     </row>
     <row r="12" spans="2:17">
       <c r="B12" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="C12" s="114">
+      <c r="C12" s="113">
         <v>5434</v>
       </c>
       <c r="D12">
@@ -20472,58 +20476,58 @@
       <c r="M12">
         <v>4430</v>
       </c>
-      <c r="Q12" s="110"/>
+      <c r="Q12" s="109"/>
     </row>
     <row r="13" spans="2:17">
       <c r="B13" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="119"/>
-      <c r="D13" s="132">
+      <c r="C13" s="118"/>
+      <c r="D13" s="131">
         <f t="shared" ref="D13" si="21">(D12-C12)/C12</f>
         <v>-1.9138755980861243E-2</v>
       </c>
-      <c r="E13" s="132">
+      <c r="E13" s="131">
         <f t="shared" ref="E13" si="22">(E12-D12)/D12</f>
         <v>-1.6885553470919325E-2</v>
       </c>
-      <c r="F13" s="132">
+      <c r="F13" s="131">
         <f t="shared" ref="F13" si="23">(F12-E12)/E12</f>
         <v>-3.9122137404580155E-2</v>
       </c>
-      <c r="G13" s="132">
+      <c r="G13" s="131">
         <f t="shared" ref="G13" si="24">(G12-F12)/F12</f>
         <v>-3.1777557100297914E-2</v>
       </c>
-      <c r="H13" s="132">
+      <c r="H13" s="131">
         <f t="shared" ref="H13" si="25">(H12-G12)/G12</f>
         <v>-1.8256410256410255E-2</v>
       </c>
-      <c r="I13" s="132">
+      <c r="I13" s="131">
         <f t="shared" ref="I13" si="26">(I12-H12)/H12</f>
         <v>-3.0505641454241537E-2</v>
       </c>
-      <c r="J13" s="132">
+      <c r="J13" s="131">
         <f t="shared" ref="J13" si="27">(J12-I12)/I12</f>
         <v>-6.4655172413793103E-3</v>
       </c>
-      <c r="K13" s="132">
+      <c r="K13" s="131">
         <f t="shared" ref="K13" si="28">(K12-J12)/J12</f>
         <v>3.036876355748373E-3</v>
       </c>
-      <c r="L13" s="132">
+      <c r="L13" s="131">
         <f t="shared" ref="L13" si="29">(L12-K12)/K12</f>
         <v>6.487889273356401E-3</v>
       </c>
-      <c r="M13" s="132">
+      <c r="M13" s="131">
         <f t="shared" ref="M13" si="30">(M12-L12)/L12</f>
         <v>-4.8130640309411256E-2</v>
       </c>
-      <c r="Q13" s="110"/>
+      <c r="Q13" s="109"/>
     </row>
     <row r="14" spans="2:17">
       <c r="B14" s="18"/>
-      <c r="C14" s="119"/>
+      <c r="C14" s="118"/>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
@@ -20534,92 +20538,92 @@
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
-      <c r="Q14" s="110"/>
+      <c r="Q14" s="109"/>
     </row>
     <row r="15" spans="2:17">
       <c r="B15" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="C15" s="114">
+      <c r="C15" s="113">
         <v>1.1399999856948853</v>
       </c>
-      <c r="D15" s="114">
+      <c r="D15" s="113">
         <v>1.2799999713897705</v>
       </c>
-      <c r="E15" s="114">
+      <c r="E15" s="113">
         <v>1.6000000238418579</v>
       </c>
-      <c r="F15" s="114">
+      <c r="F15" s="113">
         <v>1.6200000047683716</v>
       </c>
-      <c r="G15" s="114">
+      <c r="G15" s="113">
         <v>1.7799999713897705</v>
       </c>
-      <c r="H15" s="114">
+      <c r="H15" s="113">
         <v>4.75</v>
       </c>
-      <c r="I15" s="114">
+      <c r="I15" s="113">
         <v>2.5299999713897705</v>
       </c>
-      <c r="J15" s="114">
+      <c r="J15" s="113">
         <v>2.8299999237060547</v>
       </c>
-      <c r="K15" s="114">
+      <c r="K15" s="113">
         <v>2.2799999713897705</v>
       </c>
-      <c r="L15" s="114">
+      <c r="L15" s="113">
         <v>3.0399999618530273</v>
       </c>
-      <c r="M15" s="114">
+      <c r="M15" s="113">
         <v>1.2100000381469727</v>
       </c>
-      <c r="Q15" s="110"/>
+      <c r="Q15" s="109"/>
     </row>
     <row r="16" spans="2:17">
       <c r="B16" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="132">
+      <c r="D16" s="131">
         <f t="shared" ref="D16" si="31">(D15-C15)/C15</f>
         <v>0.12280700653653823</v>
       </c>
-      <c r="E16" s="132">
+      <c r="E16" s="131">
         <f t="shared" ref="E16" si="32">(E15-D15)/D15</f>
         <v>0.25000004656612979</v>
       </c>
-      <c r="F16" s="132">
+      <c r="F16" s="131">
         <f t="shared" ref="F16" si="33">(F15-E15)/E15</f>
         <v>1.2499987892806711E-2</v>
       </c>
-      <c r="G16" s="132">
+      <c r="G16" s="131">
         <f t="shared" ref="G16" si="34">(G15-F15)/F15</f>
         <v>9.8765411203980705E-2</v>
       </c>
-      <c r="H16" s="132">
+      <c r="H16" s="131">
         <f t="shared" ref="H16" si="35">(H15-G15)/G15</f>
         <v>1.668539368734564</v>
       </c>
-      <c r="I16" s="132">
+      <c r="I16" s="131">
         <f t="shared" ref="I16" si="36">(I15-H15)/H15</f>
         <v>-0.46736842707583781</v>
       </c>
-      <c r="J16" s="132">
+      <c r="J16" s="131">
         <f t="shared" ref="J16" si="37">(J15-I15)/I15</f>
         <v>0.11857705759241147</v>
       </c>
-      <c r="K16" s="132">
+      <c r="K16" s="131">
         <f t="shared" ref="K16" si="38">(K15-J15)/J15</f>
         <v>-0.19434627814266026</v>
       </c>
-      <c r="L16" s="132">
+      <c r="L16" s="131">
         <f t="shared" ref="L16" si="39">(L15-K15)/K15</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="M16" s="132">
+      <c r="M16" s="131">
         <f t="shared" ref="M16" si="40">(M15-L15)/L15</f>
         <v>-0.60197366666760777</v>
       </c>
-      <c r="Q16" s="110"/>
+      <c r="Q16" s="109"/>
     </row>
     <row r="17" spans="2:36">
       <c r="B17" s="18"/>
@@ -20633,41 +20637,41 @@
       <c r="K17"/>
       <c r="L17"/>
       <c r="M17"/>
-      <c r="Q17" s="110"/>
+      <c r="Q17" s="109"/>
     </row>
     <row r="19" spans="2:36" ht="17.5" thickBot="1">
       <c r="B19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="113"/>
-      <c r="D19" s="113">
+      <c r="C19" s="112"/>
+      <c r="D19" s="112">
         <v>2013</v>
       </c>
-      <c r="E19" s="113">
+      <c r="E19" s="112">
         <v>2014</v>
       </c>
-      <c r="F19" s="113">
+      <c r="F19" s="112">
         <v>2015</v>
       </c>
-      <c r="G19" s="113">
+      <c r="G19" s="112">
         <v>2016</v>
       </c>
-      <c r="H19" s="113">
+      <c r="H19" s="112">
         <v>2017</v>
       </c>
-      <c r="I19" s="113">
+      <c r="I19" s="112">
         <v>2018</v>
       </c>
-      <c r="J19" s="113">
+      <c r="J19" s="112">
         <v>2019</v>
       </c>
-      <c r="K19" s="113">
+      <c r="K19" s="112">
         <v>2020</v>
       </c>
-      <c r="L19" s="113">
+      <c r="L19" s="112">
         <v>2021</v>
       </c>
-      <c r="M19" s="113">
+      <c r="M19" s="112">
         <v>2022</v>
       </c>
     </row>
@@ -20675,2669 +20679,2669 @@
       <c r="B20" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="114">
+      <c r="C20" s="113">
         <v>7798</v>
       </c>
-      <c r="D20" s="121">
+      <c r="D20" s="120">
         <v>7871</v>
       </c>
-      <c r="E20" s="121">
+      <c r="E20" s="120">
         <v>8019</v>
       </c>
-      <c r="F20" s="121">
+      <c r="F20" s="120">
         <v>8680</v>
       </c>
-      <c r="G20" s="121">
+      <c r="G20" s="120">
         <v>9426</v>
       </c>
-      <c r="H20" s="121">
+      <c r="H20" s="120">
         <v>9688</v>
       </c>
-      <c r="I20" s="121">
+      <c r="I20" s="120">
         <v>10676</v>
       </c>
-      <c r="J20" s="121">
+      <c r="J20" s="120">
         <v>12953</v>
       </c>
-      <c r="K20" s="121">
+      <c r="K20" s="120">
         <v>13100</v>
       </c>
-      <c r="L20" s="121">
+      <c r="L20" s="120">
         <v>13804</v>
       </c>
-      <c r="M20" s="121">
+      <c r="M20" s="120">
         <v>13821</v>
       </c>
-      <c r="O20" s="110"/>
-      <c r="P20" s="110"/>
-      <c r="Q20" s="110"/>
-      <c r="R20" s="110"/>
-      <c r="S20" s="110"/>
-      <c r="T20" s="110"/>
-      <c r="U20" s="110"/>
-      <c r="V20" s="110"/>
-      <c r="W20" s="110"/>
-      <c r="X20" s="110"/>
-      <c r="Y20" s="110"/>
-      <c r="Z20" s="110"/>
-      <c r="AA20" s="110"/>
-      <c r="AB20" s="110"/>
-      <c r="AC20" s="110"/>
-      <c r="AD20" s="110"/>
-      <c r="AE20" s="110"/>
-      <c r="AF20" s="110"/>
-      <c r="AG20" s="110"/>
-      <c r="AH20" s="110"/>
-      <c r="AI20" s="110"/>
-      <c r="AJ20" s="110"/>
+      <c r="O20" s="109"/>
+      <c r="P20" s="109"/>
+      <c r="Q20" s="109"/>
+      <c r="R20" s="109"/>
+      <c r="S20" s="109"/>
+      <c r="T20" s="109"/>
+      <c r="U20" s="109"/>
+      <c r="V20" s="109"/>
+      <c r="W20" s="109"/>
+      <c r="X20" s="109"/>
+      <c r="Y20" s="109"/>
+      <c r="Z20" s="109"/>
+      <c r="AA20" s="109"/>
+      <c r="AB20" s="109"/>
+      <c r="AC20" s="109"/>
+      <c r="AD20" s="109"/>
+      <c r="AE20" s="109"/>
+      <c r="AF20" s="109"/>
+      <c r="AG20" s="109"/>
+      <c r="AH20" s="109"/>
+      <c r="AI20" s="109"/>
+      <c r="AJ20" s="109"/>
     </row>
     <row r="21" spans="2:36">
-      <c r="D21" s="121"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="121"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="121"/>
-      <c r="J21" s="121"/>
-      <c r="K21" s="121"/>
-      <c r="L21" s="121"/>
-      <c r="M21" s="121"/>
-      <c r="O21" s="110"/>
-      <c r="P21" s="110"/>
-      <c r="Q21" s="110"/>
-      <c r="R21" s="110"/>
-      <c r="S21" s="110"/>
-      <c r="T21" s="110"/>
-      <c r="U21" s="110"/>
-      <c r="V21" s="110"/>
-      <c r="W21" s="110"/>
-      <c r="X21" s="110"/>
-      <c r="Y21" s="110"/>
-      <c r="Z21" s="110"/>
-      <c r="AA21" s="110"/>
-      <c r="AB21" s="110"/>
-      <c r="AC21" s="110"/>
-      <c r="AD21" s="110"/>
-      <c r="AE21" s="110"/>
-      <c r="AF21" s="110"/>
-      <c r="AG21" s="110"/>
-      <c r="AH21" s="110"/>
-      <c r="AI21" s="110"/>
-      <c r="AJ21" s="110"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="120"/>
+      <c r="K21" s="120"/>
+      <c r="L21" s="120"/>
+      <c r="M21" s="120"/>
+      <c r="O21" s="109"/>
+      <c r="P21" s="109"/>
+      <c r="Q21" s="109"/>
+      <c r="R21" s="109"/>
+      <c r="S21" s="109"/>
+      <c r="T21" s="109"/>
+      <c r="U21" s="109"/>
+      <c r="V21" s="109"/>
+      <c r="W21" s="109"/>
+      <c r="X21" s="109"/>
+      <c r="Y21" s="109"/>
+      <c r="Z21" s="109"/>
+      <c r="AA21" s="109"/>
+      <c r="AB21" s="109"/>
+      <c r="AC21" s="109"/>
+      <c r="AD21" s="109"/>
+      <c r="AE21" s="109"/>
+      <c r="AF21" s="109"/>
+      <c r="AG21" s="109"/>
+      <c r="AH21" s="109"/>
+      <c r="AI21" s="109"/>
+      <c r="AJ21" s="109"/>
     </row>
     <row r="22" spans="2:36">
       <c r="B22" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="119">
+      <c r="C22" s="118">
         <v>14854</v>
       </c>
-      <c r="D22" s="121">
+      <c r="D22" s="120">
         <v>14160</v>
       </c>
-      <c r="E22" s="121">
+      <c r="E22" s="120">
         <v>16945</v>
       </c>
-      <c r="F22" s="121">
+      <c r="F22" s="120">
         <v>19485</v>
       </c>
-      <c r="G22" s="121">
+      <c r="G22" s="120">
         <v>19691</v>
       </c>
-      <c r="H22" s="121">
+      <c r="H22" s="120">
         <v>21261</v>
       </c>
-      <c r="I22" s="121">
+      <c r="I22" s="120">
         <v>24297</v>
       </c>
-      <c r="J22" s="121">
+      <c r="J22" s="120">
         <v>25697</v>
       </c>
-      <c r="K22" s="121">
+      <c r="K22" s="120">
         <v>24737</v>
       </c>
-      <c r="L22" s="121">
+      <c r="L22" s="120">
         <v>29146</v>
       </c>
-      <c r="M22" s="121">
+      <c r="M22" s="120">
         <v>26413</v>
       </c>
-      <c r="O22" s="110"/>
-      <c r="P22" s="110"/>
-      <c r="Q22" s="110"/>
-      <c r="R22" s="110"/>
-      <c r="S22" s="109"/>
-      <c r="T22" s="109"/>
-      <c r="U22" s="111"/>
-      <c r="V22" s="110"/>
-      <c r="W22" s="110"/>
-      <c r="X22" s="110"/>
-      <c r="Y22" s="110"/>
-      <c r="Z22" s="110"/>
-      <c r="AA22" s="110"/>
-      <c r="AB22" s="110"/>
-      <c r="AC22" s="110"/>
-      <c r="AD22" s="110"/>
-      <c r="AE22" s="110"/>
-      <c r="AF22" s="110"/>
-      <c r="AG22" s="110"/>
-      <c r="AH22" s="110"/>
-      <c r="AI22" s="110"/>
-      <c r="AJ22" s="110"/>
+      <c r="O22" s="109"/>
+      <c r="P22" s="109"/>
+      <c r="Q22" s="109"/>
+      <c r="R22" s="109"/>
+      <c r="S22" s="108"/>
+      <c r="T22" s="108"/>
+      <c r="U22" s="110"/>
+      <c r="V22" s="109"/>
+      <c r="W22" s="109"/>
+      <c r="X22" s="109"/>
+      <c r="Y22" s="109"/>
+      <c r="Z22" s="109"/>
+      <c r="AA22" s="109"/>
+      <c r="AB22" s="109"/>
+      <c r="AC22" s="109"/>
+      <c r="AD22" s="109"/>
+      <c r="AE22" s="109"/>
+      <c r="AF22" s="109"/>
+      <c r="AG22" s="109"/>
+      <c r="AH22" s="109"/>
+      <c r="AI22" s="109"/>
+      <c r="AJ22" s="109"/>
     </row>
     <row r="23" spans="2:36">
       <c r="B23" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="119"/>
-      <c r="D23" s="132">
+      <c r="C23" s="118"/>
+      <c r="D23" s="131">
         <f t="shared" ref="D23" si="41">(D22-C22)/C22</f>
         <v>-4.6721421839235222E-2</v>
       </c>
-      <c r="E23" s="132">
+      <c r="E23" s="131">
         <f t="shared" ref="E23" si="42">(E22-D22)/D22</f>
         <v>0.19668079096045199</v>
       </c>
-      <c r="F23" s="132">
+      <c r="F23" s="131">
         <f t="shared" ref="F23" si="43">(F22-E22)/E22</f>
         <v>0.14989672469755089</v>
       </c>
-      <c r="G23" s="132">
+      <c r="G23" s="131">
         <f t="shared" ref="G23" si="44">(G22-F22)/F22</f>
         <v>1.0572235052604568E-2</v>
       </c>
-      <c r="H23" s="132">
+      <c r="H23" s="131">
         <f t="shared" ref="H23" si="45">(H22-G22)/G22</f>
         <v>7.9731857193641759E-2</v>
       </c>
-      <c r="I23" s="132">
+      <c r="I23" s="131">
         <f t="shared" ref="I23" si="46">(I22-H22)/H22</f>
         <v>0.14279666995908</v>
       </c>
-      <c r="J23" s="132">
+      <c r="J23" s="131">
         <f t="shared" ref="J23" si="47">(J22-I22)/I22</f>
         <v>5.7620282339383461E-2</v>
       </c>
-      <c r="K23" s="132">
+      <c r="K23" s="131">
         <f t="shared" ref="K23" si="48">(K22-J22)/J22</f>
         <v>-3.7358446511265908E-2</v>
       </c>
-      <c r="L23" s="132">
+      <c r="L23" s="131">
         <f t="shared" ref="L23" si="49">(L22-K22)/K22</f>
         <v>0.17823503254234546</v>
       </c>
-      <c r="M23" s="132">
+      <c r="M23" s="131">
         <f t="shared" ref="M23" si="50">(M22-L22)/L22</f>
         <v>-9.3769299389281552E-2</v>
       </c>
-      <c r="O23" s="110"/>
-      <c r="P23" s="110"/>
-      <c r="Q23" s="110"/>
-      <c r="R23" s="110"/>
-      <c r="S23" s="109"/>
-      <c r="T23" s="110"/>
-      <c r="U23" s="110"/>
-      <c r="V23" s="110"/>
-      <c r="W23" s="110"/>
-      <c r="X23" s="110"/>
-      <c r="Y23" s="110"/>
-      <c r="Z23" s="110"/>
-      <c r="AA23" s="110"/>
-      <c r="AB23" s="110"/>
-      <c r="AC23" s="110"/>
-      <c r="AD23" s="110"/>
-      <c r="AE23" s="110"/>
-      <c r="AF23" s="110"/>
-      <c r="AG23" s="110"/>
-      <c r="AH23" s="110"/>
-      <c r="AI23" s="110"/>
-      <c r="AJ23" s="110"/>
+      <c r="O23" s="109"/>
+      <c r="P23" s="109"/>
+      <c r="Q23" s="109"/>
+      <c r="R23" s="109"/>
+      <c r="S23" s="108"/>
+      <c r="T23" s="109"/>
+      <c r="U23" s="109"/>
+      <c r="V23" s="109"/>
+      <c r="W23" s="109"/>
+      <c r="X23" s="109"/>
+      <c r="Y23" s="109"/>
+      <c r="Z23" s="109"/>
+      <c r="AA23" s="109"/>
+      <c r="AB23" s="109"/>
+      <c r="AC23" s="109"/>
+      <c r="AD23" s="109"/>
+      <c r="AE23" s="109"/>
+      <c r="AF23" s="109"/>
+      <c r="AG23" s="109"/>
+      <c r="AH23" s="109"/>
+      <c r="AI23" s="109"/>
+      <c r="AJ23" s="109"/>
     </row>
     <row r="24" spans="2:36">
-      <c r="D24" s="123"/>
-      <c r="E24" s="123"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="123"/>
-      <c r="H24" s="123"/>
-      <c r="I24" s="123"/>
-      <c r="J24" s="123"/>
-      <c r="K24" s="123"/>
-      <c r="L24" s="123"/>
-      <c r="M24" s="123"/>
-      <c r="O24" s="110"/>
-      <c r="P24" s="110"/>
-      <c r="Q24" s="110"/>
-      <c r="R24" s="110"/>
-      <c r="S24" s="109"/>
-      <c r="T24" s="111"/>
-      <c r="U24" s="110"/>
-      <c r="V24" s="110"/>
-      <c r="W24" s="110"/>
-      <c r="X24" s="110"/>
-      <c r="Y24" s="110"/>
-      <c r="Z24" s="110"/>
-      <c r="AA24" s="110"/>
-      <c r="AB24" s="110"/>
-      <c r="AC24" s="110"/>
-      <c r="AD24" s="110"/>
-      <c r="AE24" s="110"/>
-      <c r="AF24" s="110"/>
-      <c r="AG24" s="110"/>
-      <c r="AH24" s="110"/>
-      <c r="AI24" s="110"/>
-      <c r="AJ24" s="110"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="122"/>
+      <c r="F24" s="122"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="122"/>
+      <c r="I24" s="122"/>
+      <c r="J24" s="122"/>
+      <c r="K24" s="122"/>
+      <c r="L24" s="122"/>
+      <c r="M24" s="122"/>
+      <c r="O24" s="109"/>
+      <c r="P24" s="109"/>
+      <c r="Q24" s="109"/>
+      <c r="R24" s="109"/>
+      <c r="S24" s="108"/>
+      <c r="T24" s="110"/>
+      <c r="U24" s="109"/>
+      <c r="V24" s="109"/>
+      <c r="W24" s="109"/>
+      <c r="X24" s="109"/>
+      <c r="Y24" s="109"/>
+      <c r="Z24" s="109"/>
+      <c r="AA24" s="109"/>
+      <c r="AB24" s="109"/>
+      <c r="AC24" s="109"/>
+      <c r="AD24" s="109"/>
+      <c r="AE24" s="109"/>
+      <c r="AF24" s="109"/>
+      <c r="AG24" s="109"/>
+      <c r="AH24" s="109"/>
+      <c r="AI24" s="109"/>
+      <c r="AJ24" s="109"/>
     </row>
     <row r="25" spans="2:36">
       <c r="B25" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="C25" s="115"/>
-      <c r="D25" s="115">
+      <c r="C25" s="114"/>
+      <c r="D25" s="114">
         <f t="shared" ref="D25:M25" si="51">D36-C36+D20</f>
         <v>10479</v>
       </c>
-      <c r="E25" s="115">
+      <c r="E25" s="114">
         <f t="shared" si="51"/>
         <v>9132</v>
       </c>
-      <c r="F25" s="115">
+      <c r="F25" s="114">
         <f t="shared" si="51"/>
         <v>11392</v>
       </c>
-      <c r="G25" s="115">
+      <c r="G25" s="114">
         <f t="shared" si="51"/>
         <v>12014</v>
       </c>
-      <c r="H25" s="115">
+      <c r="H25" s="114">
         <f t="shared" si="51"/>
         <v>11905</v>
       </c>
-      <c r="I25" s="115">
+      <c r="I25" s="114">
         <f t="shared" si="51"/>
         <v>16643</v>
       </c>
-      <c r="J25" s="115">
+      <c r="J25" s="114">
         <f t="shared" si="51"/>
         <v>16838</v>
       </c>
-      <c r="K25" s="115">
+      <c r="K25" s="114">
         <f t="shared" si="51"/>
         <v>16773</v>
       </c>
-      <c r="L25" s="115">
+      <c r="L25" s="114">
         <f t="shared" si="51"/>
         <v>15856</v>
       </c>
-      <c r="M25" s="115">
+      <c r="M25" s="114">
         <f t="shared" si="51"/>
         <v>15259</v>
       </c>
-      <c r="O25" s="110"/>
-      <c r="P25" s="110"/>
-      <c r="Q25" s="110"/>
-      <c r="R25" s="110"/>
-      <c r="S25" s="109"/>
-      <c r="T25" s="112"/>
-      <c r="U25" s="110"/>
-      <c r="V25" s="110"/>
-      <c r="W25" s="110"/>
-      <c r="X25" s="110"/>
-      <c r="Y25" s="110"/>
-      <c r="Z25" s="110"/>
-      <c r="AA25" s="110"/>
-      <c r="AB25" s="110"/>
-      <c r="AC25" s="110"/>
-      <c r="AD25" s="110"/>
-      <c r="AE25" s="110"/>
-      <c r="AF25" s="110"/>
-      <c r="AG25" s="110"/>
-      <c r="AH25" s="110"/>
-      <c r="AI25" s="110"/>
-      <c r="AJ25" s="110"/>
+      <c r="O25" s="109"/>
+      <c r="P25" s="109"/>
+      <c r="Q25" s="109"/>
+      <c r="R25" s="109"/>
+      <c r="S25" s="108"/>
+      <c r="T25" s="111"/>
+      <c r="U25" s="109"/>
+      <c r="V25" s="109"/>
+      <c r="W25" s="109"/>
+      <c r="X25" s="109"/>
+      <c r="Y25" s="109"/>
+      <c r="Z25" s="109"/>
+      <c r="AA25" s="109"/>
+      <c r="AB25" s="109"/>
+      <c r="AC25" s="109"/>
+      <c r="AD25" s="109"/>
+      <c r="AE25" s="109"/>
+      <c r="AF25" s="109"/>
+      <c r="AG25" s="109"/>
+      <c r="AH25" s="109"/>
+      <c r="AI25" s="109"/>
+      <c r="AJ25" s="109"/>
     </row>
     <row r="26" spans="2:36">
       <c r="B26" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="119"/>
-      <c r="D26" s="132"/>
-      <c r="E26" s="132">
+      <c r="C26" s="118"/>
+      <c r="D26" s="131"/>
+      <c r="E26" s="131">
         <f t="shared" ref="E26" si="52">(E25-D25)/D25</f>
         <v>-0.12854279988548525</v>
       </c>
-      <c r="F26" s="132">
+      <c r="F26" s="131">
         <f t="shared" ref="F26" si="53">(F25-E25)/E25</f>
         <v>0.2474813841436706</v>
       </c>
-      <c r="G26" s="132">
+      <c r="G26" s="131">
         <f t="shared" ref="G26" si="54">(G25-F25)/F25</f>
         <v>5.4599719101123594E-2</v>
       </c>
-      <c r="H26" s="132">
+      <c r="H26" s="131">
         <f t="shared" ref="H26" si="55">(H25-G25)/G25</f>
         <v>-9.0727484601298477E-3</v>
       </c>
-      <c r="I26" s="132">
+      <c r="I26" s="131">
         <f t="shared" ref="I26" si="56">(I25-H25)/H25</f>
         <v>0.3979840403191936</v>
       </c>
-      <c r="J26" s="132">
+      <c r="J26" s="131">
         <f t="shared" ref="J26" si="57">(J25-I25)/I25</f>
         <v>1.1716637625428107E-2</v>
       </c>
-      <c r="K26" s="132">
+      <c r="K26" s="131">
         <f t="shared" ref="K26" si="58">(K25-J25)/J25</f>
         <v>-3.8603159520133033E-3</v>
       </c>
-      <c r="L26" s="132">
+      <c r="L26" s="131">
         <f t="shared" ref="L26" si="59">(L25-K25)/K25</f>
         <v>-5.467119775830203E-2</v>
       </c>
-      <c r="M26" s="132">
+      <c r="M26" s="131">
         <f t="shared" ref="M26" si="60">(M25-L25)/L25</f>
         <v>-3.7651362260343088E-2</v>
       </c>
-      <c r="O26" s="110"/>
-      <c r="P26" s="110"/>
-      <c r="Q26" s="110"/>
-      <c r="R26" s="110"/>
-      <c r="S26" s="109"/>
-      <c r="T26" s="111"/>
-      <c r="U26" s="111"/>
-      <c r="V26" s="110"/>
-      <c r="W26" s="110"/>
-      <c r="X26" s="110"/>
-      <c r="Y26" s="110"/>
-      <c r="Z26" s="110"/>
-      <c r="AA26" s="110"/>
-      <c r="AB26" s="110"/>
-      <c r="AC26" s="110"/>
-      <c r="AD26" s="110"/>
-      <c r="AE26" s="110"/>
-      <c r="AF26" s="110"/>
-      <c r="AG26" s="110"/>
-      <c r="AH26" s="110"/>
-      <c r="AI26" s="110"/>
-      <c r="AJ26" s="110"/>
+      <c r="O26" s="109"/>
+      <c r="P26" s="109"/>
+      <c r="Q26" s="109"/>
+      <c r="R26" s="109"/>
+      <c r="S26" s="108"/>
+      <c r="T26" s="110"/>
+      <c r="U26" s="110"/>
+      <c r="V26" s="109"/>
+      <c r="W26" s="109"/>
+      <c r="X26" s="109"/>
+      <c r="Y26" s="109"/>
+      <c r="Z26" s="109"/>
+      <c r="AA26" s="109"/>
+      <c r="AB26" s="109"/>
+      <c r="AC26" s="109"/>
+      <c r="AD26" s="109"/>
+      <c r="AE26" s="109"/>
+      <c r="AF26" s="109"/>
+      <c r="AG26" s="109"/>
+      <c r="AH26" s="109"/>
+      <c r="AI26" s="109"/>
+      <c r="AJ26" s="109"/>
     </row>
     <row r="27" spans="2:36">
-      <c r="D27" s="121"/>
-      <c r="E27" s="121"/>
-      <c r="F27" s="121"/>
-      <c r="G27" s="121"/>
-      <c r="H27" s="121"/>
-      <c r="I27" s="121"/>
-      <c r="J27" s="121"/>
-      <c r="K27" s="121"/>
-      <c r="L27" s="121"/>
-      <c r="M27" s="121"/>
-      <c r="O27" s="110"/>
-      <c r="P27" s="110"/>
-      <c r="Q27" s="110"/>
-      <c r="R27" s="110"/>
-      <c r="S27" s="110"/>
-      <c r="T27" s="112"/>
-      <c r="U27" s="110"/>
-      <c r="V27" s="110"/>
-      <c r="W27" s="110"/>
-      <c r="X27" s="110"/>
-      <c r="Y27" s="110"/>
-      <c r="Z27" s="110"/>
-      <c r="AA27" s="110"/>
-      <c r="AB27" s="110"/>
-      <c r="AC27" s="110"/>
-      <c r="AD27" s="110"/>
-      <c r="AE27" s="110"/>
-      <c r="AF27" s="110"/>
-      <c r="AG27" s="110"/>
-      <c r="AH27" s="110"/>
-      <c r="AI27" s="110"/>
-      <c r="AJ27" s="110"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="120"/>
+      <c r="H27" s="120"/>
+      <c r="I27" s="120"/>
+      <c r="J27" s="120"/>
+      <c r="K27" s="120"/>
+      <c r="L27" s="120"/>
+      <c r="M27" s="120"/>
+      <c r="O27" s="109"/>
+      <c r="P27" s="109"/>
+      <c r="Q27" s="109"/>
+      <c r="R27" s="109"/>
+      <c r="S27" s="109"/>
+      <c r="T27" s="111"/>
+      <c r="U27" s="109"/>
+      <c r="V27" s="109"/>
+      <c r="W27" s="109"/>
+      <c r="X27" s="109"/>
+      <c r="Y27" s="109"/>
+      <c r="Z27" s="109"/>
+      <c r="AA27" s="109"/>
+      <c r="AB27" s="109"/>
+      <c r="AC27" s="109"/>
+      <c r="AD27" s="109"/>
+      <c r="AE27" s="109"/>
+      <c r="AF27" s="109"/>
+      <c r="AG27" s="109"/>
+      <c r="AH27" s="109"/>
+      <c r="AI27" s="109"/>
+      <c r="AJ27" s="109"/>
     </row>
     <row r="28" spans="2:36">
       <c r="B28" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="120">
+      <c r="C28" s="119">
         <v>1</v>
       </c>
-      <c r="D28" s="116">
+      <c r="D28" s="115">
         <f t="shared" ref="D28:M28" si="61">D22-D25</f>
         <v>3681</v>
       </c>
-      <c r="E28" s="116">
+      <c r="E28" s="115">
         <f t="shared" si="61"/>
         <v>7813</v>
       </c>
-      <c r="F28" s="116">
+      <c r="F28" s="115">
         <f t="shared" si="61"/>
         <v>8093</v>
       </c>
-      <c r="G28" s="116">
+      <c r="G28" s="115">
         <f t="shared" si="61"/>
         <v>7677</v>
       </c>
-      <c r="H28" s="116">
+      <c r="H28" s="115">
         <f t="shared" si="61"/>
         <v>9356</v>
       </c>
-      <c r="I28" s="116">
+      <c r="I28" s="115">
         <f t="shared" si="61"/>
         <v>7654</v>
       </c>
-      <c r="J28" s="116">
+      <c r="J28" s="115">
         <f t="shared" si="61"/>
         <v>8859</v>
       </c>
-      <c r="K28" s="116">
+      <c r="K28" s="115">
         <f t="shared" si="61"/>
         <v>7964</v>
       </c>
-      <c r="L28" s="116">
+      <c r="L28" s="115">
         <f t="shared" si="61"/>
         <v>13290</v>
       </c>
-      <c r="M28" s="116">
+      <c r="M28" s="115">
         <f t="shared" si="61"/>
         <v>11154</v>
       </c>
-      <c r="O28" s="110"/>
-      <c r="P28" s="110"/>
-      <c r="Q28" s="110"/>
-      <c r="R28" s="110"/>
-      <c r="S28" s="110"/>
-      <c r="T28" s="111"/>
-      <c r="U28" s="110"/>
-      <c r="V28" s="110"/>
-      <c r="W28" s="110"/>
-      <c r="X28" s="110"/>
-      <c r="Y28" s="110"/>
-      <c r="Z28" s="110"/>
-      <c r="AA28" s="110"/>
-      <c r="AB28" s="110"/>
-      <c r="AC28" s="110"/>
-      <c r="AD28" s="110"/>
-      <c r="AE28" s="110"/>
-      <c r="AF28" s="110"/>
-      <c r="AG28" s="110"/>
-      <c r="AH28" s="110"/>
-      <c r="AI28" s="110"/>
-      <c r="AJ28" s="110"/>
+      <c r="O28" s="109"/>
+      <c r="P28" s="109"/>
+      <c r="Q28" s="109"/>
+      <c r="R28" s="109"/>
+      <c r="S28" s="109"/>
+      <c r="T28" s="110"/>
+      <c r="U28" s="109"/>
+      <c r="V28" s="109"/>
+      <c r="W28" s="109"/>
+      <c r="X28" s="109"/>
+      <c r="Y28" s="109"/>
+      <c r="Z28" s="109"/>
+      <c r="AA28" s="109"/>
+      <c r="AB28" s="109"/>
+      <c r="AC28" s="109"/>
+      <c r="AD28" s="109"/>
+      <c r="AE28" s="109"/>
+      <c r="AF28" s="109"/>
+      <c r="AG28" s="109"/>
+      <c r="AH28" s="109"/>
+      <c r="AI28" s="109"/>
+      <c r="AJ28" s="109"/>
     </row>
     <row r="29" spans="2:36">
       <c r="B29" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="120"/>
-      <c r="D29" s="132"/>
-      <c r="E29" s="132">
+      <c r="C29" s="119"/>
+      <c r="D29" s="131"/>
+      <c r="E29" s="131">
         <f t="shared" ref="E29" si="62">(E28-D28)/D28</f>
         <v>1.1225210540613964</v>
       </c>
-      <c r="F29" s="132">
+      <c r="F29" s="131">
         <f t="shared" ref="F29" si="63">(F28-E28)/E28</f>
         <v>3.5837706386791249E-2</v>
       </c>
-      <c r="G29" s="132">
+      <c r="G29" s="131">
         <f t="shared" ref="G29" si="64">(G28-F28)/F28</f>
         <v>-5.1402446558754478E-2</v>
       </c>
-      <c r="H29" s="132">
+      <c r="H29" s="131">
         <f t="shared" ref="H29" si="65">(H28-G28)/G28</f>
         <v>0.21870522339455517</v>
       </c>
-      <c r="I29" s="132">
+      <c r="I29" s="131">
         <f t="shared" ref="I29" si="66">(I28-H28)/H28</f>
         <v>-0.18191534843950405</v>
       </c>
-      <c r="J29" s="132">
+      <c r="J29" s="131">
         <f t="shared" ref="J29" si="67">(J28-I28)/I28</f>
         <v>0.15743402142670498</v>
       </c>
-      <c r="K29" s="132">
+      <c r="K29" s="131">
         <f t="shared" ref="K29" si="68">(K28-J28)/J28</f>
         <v>-0.10102720397336043</v>
       </c>
-      <c r="L29" s="132">
+      <c r="L29" s="131">
         <f t="shared" ref="L29" si="69">(L28-K28)/K28</f>
         <v>0.66875941737820188</v>
       </c>
-      <c r="M29" s="132">
+      <c r="M29" s="131">
         <f t="shared" ref="M29" si="70">(M28-L28)/L28</f>
         <v>-0.16072234762979684</v>
       </c>
-      <c r="O29" s="110"/>
-      <c r="P29" s="110"/>
-      <c r="Q29" s="110"/>
-      <c r="R29" s="110"/>
-      <c r="S29" s="110"/>
-      <c r="T29" s="110"/>
-      <c r="U29" s="110"/>
-      <c r="V29" s="110"/>
-      <c r="W29" s="110"/>
-      <c r="X29" s="110"/>
-      <c r="Y29" s="110"/>
-      <c r="Z29" s="110"/>
-      <c r="AA29" s="110"/>
-      <c r="AB29" s="110"/>
-      <c r="AC29" s="110"/>
-      <c r="AD29" s="110"/>
-      <c r="AE29" s="110"/>
-      <c r="AF29" s="110"/>
-      <c r="AG29" s="110"/>
-      <c r="AH29" s="110"/>
-      <c r="AI29" s="110"/>
-      <c r="AJ29" s="110"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="109"/>
+      <c r="U29" s="109"/>
+      <c r="V29" s="109"/>
+      <c r="W29" s="109"/>
+      <c r="X29" s="109"/>
+      <c r="Y29" s="109"/>
+      <c r="Z29" s="109"/>
+      <c r="AA29" s="109"/>
+      <c r="AB29" s="109"/>
+      <c r="AC29" s="109"/>
+      <c r="AD29" s="109"/>
+      <c r="AE29" s="109"/>
+      <c r="AF29" s="109"/>
+      <c r="AG29" s="109"/>
+      <c r="AH29" s="109"/>
+      <c r="AI29" s="109"/>
+      <c r="AJ29" s="109"/>
     </row>
     <row r="30" spans="2:36">
-      <c r="D30" s="121"/>
-      <c r="E30" s="121"/>
-      <c r="F30" s="121"/>
-      <c r="G30" s="121"/>
-      <c r="H30" s="121"/>
-      <c r="I30" s="121"/>
-      <c r="J30" s="121"/>
-      <c r="K30" s="121"/>
-      <c r="L30" s="121"/>
-      <c r="M30" s="121"/>
-      <c r="O30" s="110"/>
-      <c r="P30" s="110"/>
-      <c r="Q30" s="110"/>
-      <c r="R30" s="110"/>
-      <c r="S30" s="110"/>
-      <c r="T30" s="110"/>
-      <c r="U30" s="110"/>
-      <c r="V30" s="110"/>
-      <c r="W30" s="110"/>
-      <c r="X30" s="110"/>
-      <c r="Y30" s="110"/>
-      <c r="Z30" s="110"/>
-      <c r="AA30" s="110"/>
-      <c r="AB30" s="110"/>
-      <c r="AC30" s="110"/>
-      <c r="AD30" s="110"/>
-      <c r="AE30" s="110"/>
-      <c r="AF30" s="110"/>
-      <c r="AG30" s="110"/>
-      <c r="AH30" s="110"/>
-      <c r="AI30" s="110"/>
-      <c r="AJ30" s="110"/>
+      <c r="D30" s="120"/>
+      <c r="E30" s="120"/>
+      <c r="F30" s="120"/>
+      <c r="G30" s="120"/>
+      <c r="H30" s="120"/>
+      <c r="I30" s="120"/>
+      <c r="J30" s="120"/>
+      <c r="K30" s="120"/>
+      <c r="L30" s="120"/>
+      <c r="M30" s="120"/>
+      <c r="O30" s="109"/>
+      <c r="P30" s="109"/>
+      <c r="Q30" s="109"/>
+      <c r="R30" s="109"/>
+      <c r="S30" s="109"/>
+      <c r="T30" s="109"/>
+      <c r="U30" s="109"/>
+      <c r="V30" s="109"/>
+      <c r="W30" s="109"/>
+      <c r="X30" s="109"/>
+      <c r="Y30" s="109"/>
+      <c r="Z30" s="109"/>
+      <c r="AA30" s="109"/>
+      <c r="AB30" s="109"/>
+      <c r="AC30" s="109"/>
+      <c r="AD30" s="109"/>
+      <c r="AE30" s="109"/>
+      <c r="AF30" s="109"/>
+      <c r="AG30" s="109"/>
+      <c r="AH30" s="109"/>
+      <c r="AI30" s="109"/>
+      <c r="AJ30" s="109"/>
     </row>
     <row r="31" spans="2:36">
       <c r="B31" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="119">
+      <c r="C31" s="118">
         <v>1608</v>
       </c>
-      <c r="D31" s="121">
+      <c r="D31" s="120">
         <v>1964</v>
       </c>
-      <c r="E31" s="121">
+      <c r="E31" s="120">
         <v>2254</v>
       </c>
-      <c r="F31" s="121">
+      <c r="F31" s="120">
         <v>2437</v>
       </c>
-      <c r="G31" s="121">
+      <c r="G31" s="120">
         <v>2601</v>
       </c>
-      <c r="H31" s="121">
+      <c r="H31" s="120">
         <v>2883</v>
       </c>
-      <c r="I31" s="121">
+      <c r="I31" s="120">
         <v>3352</v>
       </c>
-      <c r="J31" s="121">
+      <c r="J31" s="120">
         <v>3735</v>
       </c>
-      <c r="K31" s="121">
+      <c r="K31" s="120">
         <v>4140</v>
       </c>
-      <c r="L31" s="121">
+      <c r="L31" s="120">
         <v>4532</v>
       </c>
-      <c r="M31" s="121">
+      <c r="M31" s="120">
         <v>4741</v>
       </c>
-      <c r="O31" s="110"/>
-      <c r="P31" s="110"/>
-      <c r="Q31" s="110"/>
-      <c r="R31" s="110"/>
-      <c r="S31" s="110"/>
-      <c r="T31" s="110"/>
-      <c r="U31" s="110"/>
-      <c r="V31" s="110"/>
-      <c r="W31" s="110"/>
-      <c r="X31" s="110"/>
-      <c r="Y31" s="110"/>
-      <c r="Z31" s="110"/>
-      <c r="AA31" s="110"/>
-      <c r="AB31" s="110"/>
-      <c r="AC31" s="110"/>
-      <c r="AD31" s="110"/>
-      <c r="AE31" s="110"/>
-      <c r="AF31" s="110"/>
-      <c r="AG31" s="110"/>
-      <c r="AH31" s="110"/>
-      <c r="AI31" s="110"/>
-      <c r="AJ31" s="110"/>
+      <c r="O31" s="109"/>
+      <c r="P31" s="109"/>
+      <c r="Q31" s="109"/>
+      <c r="R31" s="109"/>
+      <c r="S31" s="109"/>
+      <c r="T31" s="109"/>
+      <c r="U31" s="109"/>
+      <c r="V31" s="109"/>
+      <c r="W31" s="109"/>
+      <c r="X31" s="109"/>
+      <c r="Y31" s="109"/>
+      <c r="Z31" s="109"/>
+      <c r="AA31" s="109"/>
+      <c r="AB31" s="109"/>
+      <c r="AC31" s="109"/>
+      <c r="AD31" s="109"/>
+      <c r="AE31" s="109"/>
+      <c r="AF31" s="109"/>
+      <c r="AG31" s="109"/>
+      <c r="AH31" s="109"/>
+      <c r="AI31" s="109"/>
+      <c r="AJ31" s="109"/>
     </row>
     <row r="32" spans="2:36">
-      <c r="D32" s="132">
+      <c r="D32" s="131">
         <f t="shared" ref="D32" si="71">(D31-C31)/C31</f>
         <v>0.22139303482587064</v>
       </c>
-      <c r="E32" s="132">
+      <c r="E32" s="131">
         <f t="shared" ref="E32" si="72">(E31-D31)/D31</f>
         <v>0.14765784114052954</v>
       </c>
-      <c r="F32" s="132">
+      <c r="F32" s="131">
         <f t="shared" ref="F32" si="73">(F31-E31)/E31</f>
         <v>8.1188997338065658E-2</v>
       </c>
-      <c r="G32" s="132">
+      <c r="G32" s="131">
         <f t="shared" ref="G32" si="74">(G31-F31)/F31</f>
         <v>6.7295855560114901E-2</v>
       </c>
-      <c r="H32" s="132">
+      <c r="H32" s="131">
         <f t="shared" ref="H32" si="75">(H31-G31)/G31</f>
         <v>0.10841983852364476</v>
       </c>
-      <c r="I32" s="132">
+      <c r="I32" s="131">
         <f t="shared" ref="I32" si="76">(I31-H31)/H31</f>
         <v>0.16267776621574748</v>
       </c>
-      <c r="J32" s="132">
+      <c r="J32" s="131">
         <f t="shared" ref="J32" si="77">(J31-I31)/I31</f>
         <v>0.11426014319809069</v>
       </c>
-      <c r="K32" s="132">
+      <c r="K32" s="131">
         <f t="shared" ref="K32" si="78">(K31-J31)/J31</f>
         <v>0.10843373493975904</v>
       </c>
-      <c r="L32" s="132">
+      <c r="L32" s="131">
         <f t="shared" ref="L32" si="79">(L31-K31)/K31</f>
         <v>9.4685990338164258E-2</v>
       </c>
-      <c r="M32" s="132">
+      <c r="M32" s="131">
         <f t="shared" ref="M32" si="80">(M31-L31)/L31</f>
         <v>4.6116504854368932E-2</v>
       </c>
-      <c r="O32" s="110"/>
-      <c r="P32" s="110"/>
-      <c r="Q32" s="110"/>
-      <c r="R32" s="110"/>
-      <c r="S32" s="110"/>
-      <c r="T32" s="110"/>
-      <c r="U32" s="110"/>
-      <c r="V32" s="110"/>
-      <c r="W32" s="110"/>
-      <c r="X32" s="110"/>
-      <c r="Y32" s="110"/>
-      <c r="Z32" s="110"/>
-      <c r="AA32" s="110"/>
-      <c r="AB32" s="110"/>
-      <c r="AC32" s="110"/>
-      <c r="AD32" s="110"/>
-      <c r="AE32" s="110"/>
-      <c r="AF32" s="110"/>
-      <c r="AG32" s="110"/>
-      <c r="AH32" s="110"/>
-      <c r="AI32" s="110"/>
-      <c r="AJ32" s="110"/>
+      <c r="O32" s="109"/>
+      <c r="P32" s="109"/>
+      <c r="Q32" s="109"/>
+      <c r="R32" s="109"/>
+      <c r="S32" s="109"/>
+      <c r="T32" s="109"/>
+      <c r="U32" s="109"/>
+      <c r="V32" s="109"/>
+      <c r="W32" s="109"/>
+      <c r="X32" s="109"/>
+      <c r="Y32" s="109"/>
+      <c r="Z32" s="109"/>
+      <c r="AA32" s="109"/>
+      <c r="AB32" s="109"/>
+      <c r="AC32" s="109"/>
+      <c r="AD32" s="109"/>
+      <c r="AE32" s="109"/>
+      <c r="AF32" s="109"/>
+      <c r="AG32" s="109"/>
+      <c r="AH32" s="109"/>
+      <c r="AI32" s="109"/>
+      <c r="AJ32" s="109"/>
     </row>
     <row r="33" spans="2:36">
-      <c r="O33" s="110"/>
-      <c r="P33" s="110"/>
-      <c r="Q33" s="110"/>
-      <c r="R33" s="110"/>
-      <c r="S33" s="110"/>
-      <c r="T33" s="110"/>
-      <c r="U33" s="110"/>
-      <c r="V33" s="110"/>
-      <c r="W33" s="110"/>
-      <c r="X33" s="110"/>
-      <c r="Y33" s="110"/>
-      <c r="Z33" s="110"/>
-      <c r="AA33" s="110"/>
-      <c r="AB33" s="110"/>
-      <c r="AC33" s="110"/>
-      <c r="AD33" s="110"/>
-      <c r="AE33" s="110"/>
-      <c r="AF33" s="110"/>
-      <c r="AG33" s="110"/>
-      <c r="AH33" s="110"/>
-      <c r="AI33" s="110"/>
-      <c r="AJ33" s="110"/>
+      <c r="O33" s="109"/>
+      <c r="P33" s="109"/>
+      <c r="Q33" s="109"/>
+      <c r="R33" s="109"/>
+      <c r="S33" s="109"/>
+      <c r="T33" s="109"/>
+      <c r="U33" s="109"/>
+      <c r="V33" s="109"/>
+      <c r="W33" s="109"/>
+      <c r="X33" s="109"/>
+      <c r="Y33" s="109"/>
+      <c r="Z33" s="109"/>
+      <c r="AA33" s="109"/>
+      <c r="AB33" s="109"/>
+      <c r="AC33" s="109"/>
+      <c r="AD33" s="109"/>
+      <c r="AE33" s="109"/>
+      <c r="AF33" s="109"/>
+      <c r="AG33" s="109"/>
+      <c r="AH33" s="109"/>
+      <c r="AI33" s="109"/>
+      <c r="AJ33" s="109"/>
     </row>
     <row r="34" spans="2:36">
-      <c r="O34" s="110"/>
-      <c r="P34" s="110"/>
-      <c r="Q34" s="110"/>
-      <c r="R34" s="110"/>
-      <c r="S34" s="110"/>
-      <c r="T34" s="110"/>
-      <c r="U34" s="110"/>
-      <c r="V34" s="110"/>
-      <c r="W34" s="110"/>
-      <c r="X34" s="110"/>
-      <c r="Y34" s="110"/>
-      <c r="Z34" s="110"/>
-      <c r="AA34" s="110"/>
-      <c r="AB34" s="110"/>
-      <c r="AC34" s="110"/>
-      <c r="AD34" s="110"/>
-      <c r="AE34" s="110"/>
-      <c r="AF34" s="110"/>
-      <c r="AG34" s="110"/>
-      <c r="AH34" s="110"/>
-      <c r="AI34" s="110"/>
-      <c r="AJ34" s="110"/>
+      <c r="O34" s="109"/>
+      <c r="P34" s="109"/>
+      <c r="Q34" s="109"/>
+      <c r="R34" s="109"/>
+      <c r="S34" s="109"/>
+      <c r="T34" s="109"/>
+      <c r="U34" s="109"/>
+      <c r="V34" s="109"/>
+      <c r="W34" s="109"/>
+      <c r="X34" s="109"/>
+      <c r="Y34" s="109"/>
+      <c r="Z34" s="109"/>
+      <c r="AA34" s="109"/>
+      <c r="AB34" s="109"/>
+      <c r="AC34" s="109"/>
+      <c r="AD34" s="109"/>
+      <c r="AE34" s="109"/>
+      <c r="AF34" s="109"/>
+      <c r="AG34" s="109"/>
+      <c r="AH34" s="109"/>
+      <c r="AI34" s="109"/>
+      <c r="AJ34" s="109"/>
     </row>
     <row r="35" spans="2:36" ht="17.5" thickBot="1">
       <c r="B35" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="113">
+      <c r="C35" s="112">
         <v>2012</v>
       </c>
-      <c r="D35" s="113">
+      <c r="D35" s="112">
         <v>2013</v>
       </c>
-      <c r="E35" s="113">
+      <c r="E35" s="112">
         <v>2014</v>
       </c>
-      <c r="F35" s="113">
+      <c r="F35" s="112">
         <v>2015</v>
       </c>
-      <c r="G35" s="113">
+      <c r="G35" s="112">
         <v>2016</v>
       </c>
-      <c r="H35" s="113">
+      <c r="H35" s="112">
         <v>2017</v>
       </c>
-      <c r="I35" s="113">
+      <c r="I35" s="112">
         <v>2018</v>
       </c>
-      <c r="J35" s="113">
+      <c r="J35" s="112">
         <v>2019</v>
       </c>
-      <c r="K35" s="113">
+      <c r="K35" s="112">
         <v>2020</v>
       </c>
-      <c r="L35" s="113">
+      <c r="L35" s="112">
         <v>2021</v>
       </c>
-      <c r="M35" s="113">
+      <c r="M35" s="112">
         <v>2022</v>
       </c>
-      <c r="O35" s="110"/>
-      <c r="P35" s="110"/>
-      <c r="Q35" s="110"/>
-      <c r="R35" s="110"/>
-      <c r="S35" s="110"/>
-      <c r="T35" s="110"/>
-      <c r="U35" s="110"/>
-      <c r="V35" s="110"/>
-      <c r="W35" s="110"/>
-      <c r="X35" s="110"/>
-      <c r="Y35" s="110"/>
-      <c r="Z35" s="110"/>
-      <c r="AA35" s="110"/>
-      <c r="AB35" s="110"/>
-      <c r="AC35" s="110"/>
-      <c r="AD35" s="110"/>
-      <c r="AE35" s="110"/>
-      <c r="AF35" s="110"/>
-      <c r="AG35" s="110"/>
-      <c r="AH35" s="110"/>
-      <c r="AI35" s="110"/>
-      <c r="AJ35" s="110"/>
+      <c r="O35" s="109"/>
+      <c r="P35" s="109"/>
+      <c r="Q35" s="109"/>
+      <c r="R35" s="109"/>
+      <c r="S35" s="109"/>
+      <c r="T35" s="109"/>
+      <c r="U35" s="109"/>
+      <c r="V35" s="109"/>
+      <c r="W35" s="109"/>
+      <c r="X35" s="109"/>
+      <c r="Y35" s="109"/>
+      <c r="Z35" s="109"/>
+      <c r="AA35" s="109"/>
+      <c r="AB35" s="109"/>
+      <c r="AC35" s="109"/>
+      <c r="AD35" s="109"/>
+      <c r="AE35" s="109"/>
+      <c r="AF35" s="109"/>
+      <c r="AG35" s="109"/>
+      <c r="AH35" s="109"/>
+      <c r="AI35" s="109"/>
+      <c r="AJ35" s="109"/>
     </row>
     <row r="36" spans="2:36" ht="15" thickTop="1">
       <c r="B36" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="C36" s="121">
+      <c r="C36" s="120">
         <v>27232</v>
       </c>
-      <c r="D36" s="121">
+      <c r="D36" s="120">
         <v>29840</v>
       </c>
-      <c r="E36" s="121">
+      <c r="E36" s="120">
         <v>30953</v>
       </c>
-      <c r="F36" s="121">
+      <c r="F36" s="120">
         <v>33665</v>
       </c>
-      <c r="G36" s="121">
+      <c r="G36" s="120">
         <v>36253</v>
       </c>
-      <c r="H36" s="121">
+      <c r="H36" s="120">
         <v>38470</v>
       </c>
-      <c r="I36" s="121">
+      <c r="I36" s="120">
         <v>44437</v>
       </c>
-      <c r="J36" s="121">
+      <c r="J36" s="120">
         <v>48322</v>
       </c>
-      <c r="K36" s="121">
+      <c r="K36" s="120">
         <v>51995</v>
       </c>
-      <c r="L36" s="121">
+      <c r="L36" s="120">
         <v>54047</v>
       </c>
-      <c r="M36" s="121">
+      <c r="M36" s="120">
         <v>55485</v>
       </c>
-      <c r="O36" s="110"/>
-      <c r="P36" s="110"/>
-      <c r="Q36" s="110"/>
-      <c r="R36" s="110"/>
-      <c r="S36" s="110"/>
-      <c r="T36" s="110"/>
-      <c r="U36" s="110"/>
-      <c r="V36" s="110"/>
-      <c r="W36" s="110"/>
-      <c r="X36" s="110"/>
-      <c r="Y36" s="110"/>
-      <c r="Z36" s="110"/>
-      <c r="AA36" s="110"/>
-      <c r="AB36" s="110"/>
-      <c r="AC36" s="110"/>
-      <c r="AD36" s="110"/>
-      <c r="AE36" s="110"/>
-      <c r="AF36" s="110"/>
-      <c r="AG36" s="110"/>
-      <c r="AH36" s="110"/>
-      <c r="AI36" s="110"/>
-      <c r="AJ36" s="110"/>
+      <c r="O36" s="109"/>
+      <c r="P36" s="109"/>
+      <c r="Q36" s="109"/>
+      <c r="R36" s="109"/>
+      <c r="S36" s="109"/>
+      <c r="T36" s="109"/>
+      <c r="U36" s="109"/>
+      <c r="V36" s="109"/>
+      <c r="W36" s="109"/>
+      <c r="X36" s="109"/>
+      <c r="Y36" s="109"/>
+      <c r="Z36" s="109"/>
+      <c r="AA36" s="109"/>
+      <c r="AB36" s="109"/>
+      <c r="AC36" s="109"/>
+      <c r="AD36" s="109"/>
+      <c r="AE36" s="109"/>
+      <c r="AF36" s="109"/>
+      <c r="AG36" s="109"/>
+      <c r="AH36" s="109"/>
+      <c r="AI36" s="109"/>
+      <c r="AJ36" s="109"/>
     </row>
     <row r="37" spans="2:36">
-      <c r="C37" s="121"/>
-      <c r="D37" s="121"/>
-      <c r="E37" s="121"/>
-      <c r="F37" s="121"/>
-      <c r="G37" s="121"/>
-      <c r="H37" s="121"/>
-      <c r="I37" s="121"/>
-      <c r="J37" s="121"/>
-      <c r="K37" s="121"/>
-      <c r="L37" s="121"/>
-      <c r="M37" s="121"/>
-      <c r="O37" s="110"/>
-      <c r="P37" s="110"/>
-      <c r="Q37" s="110"/>
-      <c r="R37" s="110"/>
-      <c r="S37" s="110"/>
-      <c r="T37" s="110"/>
-      <c r="U37" s="110"/>
-      <c r="V37" s="110"/>
-      <c r="W37" s="110"/>
-      <c r="X37" s="110"/>
-      <c r="Y37" s="110"/>
-      <c r="Z37" s="110"/>
-      <c r="AA37" s="110"/>
-      <c r="AB37" s="110"/>
-      <c r="AC37" s="110"/>
-      <c r="AD37" s="110"/>
-      <c r="AE37" s="110"/>
-      <c r="AF37" s="110"/>
-      <c r="AG37" s="110"/>
-      <c r="AH37" s="110"/>
-      <c r="AI37" s="110"/>
-      <c r="AJ37" s="110"/>
+      <c r="C37" s="120"/>
+      <c r="D37" s="120"/>
+      <c r="E37" s="120"/>
+      <c r="F37" s="120"/>
+      <c r="G37" s="120"/>
+      <c r="H37" s="120"/>
+      <c r="I37" s="120"/>
+      <c r="J37" s="120"/>
+      <c r="K37" s="120"/>
+      <c r="L37" s="120"/>
+      <c r="M37" s="120"/>
+      <c r="O37" s="109"/>
+      <c r="P37" s="109"/>
+      <c r="Q37" s="109"/>
+      <c r="R37" s="109"/>
+      <c r="S37" s="109"/>
+      <c r="T37" s="109"/>
+      <c r="U37" s="109"/>
+      <c r="V37" s="109"/>
+      <c r="W37" s="109"/>
+      <c r="X37" s="109"/>
+      <c r="Y37" s="109"/>
+      <c r="Z37" s="109"/>
+      <c r="AA37" s="109"/>
+      <c r="AB37" s="109"/>
+      <c r="AC37" s="109"/>
+      <c r="AD37" s="109"/>
+      <c r="AE37" s="109"/>
+      <c r="AF37" s="109"/>
+      <c r="AG37" s="109"/>
+      <c r="AH37" s="109"/>
+      <c r="AI37" s="109"/>
+      <c r="AJ37" s="109"/>
     </row>
     <row r="38" spans="2:36">
       <c r="B38" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="121">
+      <c r="C38" s="120">
         <v>19991</v>
       </c>
-      <c r="D38" s="121">
+      <c r="D38" s="120">
         <v>14075</v>
       </c>
-      <c r="E38" s="121">
+      <c r="E38" s="120">
         <v>13531</v>
       </c>
-      <c r="F38" s="121">
+      <c r="F38" s="120">
         <v>12303</v>
       </c>
-      <c r="G38" s="121">
+      <c r="G38" s="120">
         <v>16361</v>
       </c>
-      <c r="H38" s="121">
+      <c r="H38" s="120">
         <v>16343</v>
       </c>
-      <c r="I38" s="121">
+      <c r="I38" s="120">
         <v>21848</v>
       </c>
-      <c r="J38" s="121">
+      <c r="J38" s="120">
         <v>25392</v>
       </c>
-      <c r="K38" s="121">
+      <c r="K38" s="120">
         <v>26741</v>
       </c>
-      <c r="L38" s="121">
+      <c r="L38" s="120">
         <v>24807</v>
       </c>
-      <c r="M38" s="121">
+      <c r="M38" s="120">
         <v>21826</v>
       </c>
-      <c r="O38" s="110"/>
-      <c r="P38" s="110"/>
-      <c r="Q38" s="110"/>
-      <c r="R38" s="110"/>
-      <c r="S38" s="110"/>
-      <c r="T38" s="110"/>
-      <c r="U38" s="110"/>
-      <c r="V38" s="110"/>
-      <c r="W38" s="110"/>
-      <c r="X38" s="110"/>
-      <c r="Y38" s="110"/>
-      <c r="Z38" s="110"/>
-      <c r="AA38" s="110"/>
-      <c r="AB38" s="110"/>
-      <c r="AC38" s="110"/>
-      <c r="AD38" s="110"/>
-      <c r="AE38" s="110"/>
-      <c r="AF38" s="110"/>
-      <c r="AG38" s="110"/>
-      <c r="AH38" s="110"/>
-      <c r="AI38" s="110"/>
-      <c r="AJ38" s="110"/>
+      <c r="O38" s="109"/>
+      <c r="P38" s="109"/>
+      <c r="Q38" s="109"/>
+      <c r="R38" s="109"/>
+      <c r="S38" s="109"/>
+      <c r="T38" s="109"/>
+      <c r="U38" s="109"/>
+      <c r="V38" s="109"/>
+      <c r="W38" s="109"/>
+      <c r="X38" s="109"/>
+      <c r="Y38" s="109"/>
+      <c r="Z38" s="109"/>
+      <c r="AA38" s="109"/>
+      <c r="AB38" s="109"/>
+      <c r="AC38" s="109"/>
+      <c r="AD38" s="109"/>
+      <c r="AE38" s="109"/>
+      <c r="AF38" s="109"/>
+      <c r="AG38" s="109"/>
+      <c r="AH38" s="109"/>
+      <c r="AI38" s="109"/>
+      <c r="AJ38" s="109"/>
     </row>
     <row r="39" spans="2:36">
       <c r="B39" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="124"/>
-      <c r="D39" s="132">
+      <c r="C39" s="123"/>
+      <c r="D39" s="131">
         <f t="shared" ref="D39" si="81">(D38-C38)/C38</f>
         <v>-0.2959331699264669</v>
       </c>
-      <c r="E39" s="132">
+      <c r="E39" s="131">
         <f t="shared" ref="E39" si="82">(E38-D38)/D38</f>
         <v>-3.8650088809946713E-2</v>
       </c>
-      <c r="F39" s="132">
+      <c r="F39" s="131">
         <f t="shared" ref="F39" si="83">(F38-E38)/E38</f>
         <v>-9.0754563594708446E-2</v>
       </c>
-      <c r="G39" s="132">
+      <c r="G39" s="131">
         <f t="shared" ref="G39" si="84">(G38-F38)/F38</f>
         <v>0.32983825083313012</v>
       </c>
-      <c r="H39" s="132">
+      <c r="H39" s="131">
         <f t="shared" ref="H39" si="85">(H38-G38)/G38</f>
         <v>-1.1001772507792922E-3</v>
       </c>
-      <c r="I39" s="132">
+      <c r="I39" s="131">
         <f t="shared" ref="I39" si="86">(I38-H38)/H38</f>
         <v>0.33684146117603869</v>
       </c>
-      <c r="J39" s="132">
+      <c r="J39" s="131">
         <f t="shared" ref="J39" si="87">(J38-I38)/I38</f>
         <v>0.16221164408641522</v>
       </c>
-      <c r="K39" s="132">
+      <c r="K39" s="131">
         <f t="shared" ref="K39" si="88">(K38-J38)/J38</f>
         <v>5.3126969124133588E-2</v>
       </c>
-      <c r="L39" s="132">
+      <c r="L39" s="131">
         <f t="shared" ref="L39" si="89">(L38-K38)/K38</f>
         <v>-7.2323398526607088E-2</v>
       </c>
-      <c r="M39" s="132">
+      <c r="M39" s="131">
         <f t="shared" ref="M39" si="90">(M38-L38)/L38</f>
         <v>-0.12016769460232998</v>
       </c>
-      <c r="O39" s="110"/>
-      <c r="P39" s="110"/>
-      <c r="Q39" s="110"/>
-      <c r="R39" s="110"/>
-      <c r="S39" s="110"/>
-      <c r="T39" s="110"/>
-      <c r="U39" s="110"/>
-      <c r="V39" s="110"/>
-      <c r="W39" s="110"/>
-      <c r="X39" s="110"/>
-      <c r="Y39" s="110"/>
-      <c r="Z39" s="110"/>
-      <c r="AA39" s="110"/>
-      <c r="AB39" s="110"/>
-      <c r="AC39" s="110"/>
-      <c r="AD39" s="110"/>
-      <c r="AE39" s="110"/>
-      <c r="AF39" s="110"/>
-      <c r="AG39" s="110"/>
-      <c r="AH39" s="110"/>
-      <c r="AI39" s="110"/>
-      <c r="AJ39" s="110"/>
+      <c r="O39" s="109"/>
+      <c r="P39" s="109"/>
+      <c r="Q39" s="109"/>
+      <c r="R39" s="109"/>
+      <c r="S39" s="109"/>
+      <c r="T39" s="109"/>
+      <c r="U39" s="109"/>
+      <c r="V39" s="109"/>
+      <c r="W39" s="109"/>
+      <c r="X39" s="109"/>
+      <c r="Y39" s="109"/>
+      <c r="Z39" s="109"/>
+      <c r="AA39" s="109"/>
+      <c r="AB39" s="109"/>
+      <c r="AC39" s="109"/>
+      <c r="AD39" s="109"/>
+      <c r="AE39" s="109"/>
+      <c r="AF39" s="109"/>
+      <c r="AG39" s="109"/>
+      <c r="AH39" s="109"/>
+      <c r="AI39" s="109"/>
+      <c r="AJ39" s="109"/>
     </row>
     <row r="40" spans="2:36">
-      <c r="C40" s="121"/>
-      <c r="D40" s="121"/>
-      <c r="E40" s="121"/>
-      <c r="F40" s="121"/>
-      <c r="G40" s="121"/>
-      <c r="H40" s="121"/>
-      <c r="I40" s="121"/>
-      <c r="J40" s="121"/>
-      <c r="K40" s="121"/>
-      <c r="L40" s="121"/>
-      <c r="M40" s="121"/>
-      <c r="O40" s="110"/>
-      <c r="P40" s="110"/>
-      <c r="Q40" s="110"/>
-      <c r="R40" s="110"/>
-      <c r="S40" s="110"/>
-      <c r="T40" s="110"/>
-      <c r="U40" s="110"/>
-      <c r="V40" s="110"/>
-      <c r="W40" s="110"/>
-      <c r="X40" s="110"/>
-      <c r="Y40" s="110"/>
-      <c r="Z40" s="110"/>
-      <c r="AA40" s="110"/>
-      <c r="AB40" s="110"/>
-      <c r="AC40" s="110"/>
-      <c r="AD40" s="110"/>
-      <c r="AE40" s="110"/>
-      <c r="AF40" s="110"/>
-      <c r="AG40" s="110"/>
-      <c r="AH40" s="110"/>
-      <c r="AI40" s="110"/>
-      <c r="AJ40" s="110"/>
+      <c r="C40" s="120"/>
+      <c r="D40" s="120"/>
+      <c r="E40" s="120"/>
+      <c r="F40" s="120"/>
+      <c r="G40" s="120"/>
+      <c r="H40" s="120"/>
+      <c r="I40" s="120"/>
+      <c r="J40" s="120"/>
+      <c r="K40" s="120"/>
+      <c r="L40" s="120"/>
+      <c r="M40" s="120"/>
+      <c r="O40" s="109"/>
+      <c r="P40" s="109"/>
+      <c r="Q40" s="109"/>
+      <c r="R40" s="109"/>
+      <c r="S40" s="109"/>
+      <c r="T40" s="109"/>
+      <c r="U40" s="109"/>
+      <c r="V40" s="109"/>
+      <c r="W40" s="109"/>
+      <c r="X40" s="109"/>
+      <c r="Y40" s="109"/>
+      <c r="Z40" s="109"/>
+      <c r="AA40" s="109"/>
+      <c r="AB40" s="109"/>
+      <c r="AC40" s="109"/>
+      <c r="AD40" s="109"/>
+      <c r="AE40" s="109"/>
+      <c r="AF40" s="109"/>
+      <c r="AG40" s="109"/>
+      <c r="AH40" s="109"/>
+      <c r="AI40" s="109"/>
+      <c r="AJ40" s="109"/>
     </row>
     <row r="41" spans="2:36">
       <c r="B41" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="121">
+      <c r="C41" s="120">
         <v>144980</v>
       </c>
-      <c r="D41" s="121">
+      <c r="D41" s="120">
         <v>144738</v>
       </c>
-      <c r="E41" s="121">
+      <c r="E41" s="120">
         <v>145655</v>
       </c>
-      <c r="F41" s="121">
+      <c r="F41" s="120">
         <v>154271</v>
       </c>
-      <c r="G41" s="121">
+      <c r="G41" s="120">
         <v>164139</v>
       </c>
-      <c r="H41" s="121">
+      <c r="H41" s="120">
         <v>171119</v>
       </c>
-      <c r="I41" s="121">
+      <c r="I41" s="120">
         <v>229836</v>
       </c>
-      <c r="J41" s="121">
+      <c r="J41" s="120">
         <v>238022</v>
       </c>
-      <c r="K41" s="121">
+      <c r="K41" s="120">
         <v>247128</v>
       </c>
-      <c r="L41" s="121">
+      <c r="L41" s="120">
         <v>251098</v>
       </c>
-      <c r="M41" s="121">
+      <c r="M41" s="120">
         <v>235449</v>
       </c>
-      <c r="O41" s="110"/>
-      <c r="P41" s="110"/>
-      <c r="Q41" s="110"/>
-      <c r="R41" s="110"/>
-      <c r="S41" s="110"/>
-      <c r="T41" s="110"/>
-      <c r="U41" s="110"/>
-      <c r="V41" s="110"/>
-      <c r="W41" s="110"/>
-      <c r="X41" s="110"/>
-      <c r="Y41" s="110"/>
-      <c r="Z41" s="110"/>
-      <c r="AA41" s="110"/>
-      <c r="AB41" s="110"/>
-      <c r="AC41" s="110"/>
-      <c r="AD41" s="110"/>
-      <c r="AE41" s="110"/>
-      <c r="AF41" s="110"/>
-      <c r="AG41" s="110"/>
-      <c r="AH41" s="110"/>
-      <c r="AI41" s="110"/>
-      <c r="AJ41" s="110"/>
+      <c r="O41" s="109"/>
+      <c r="P41" s="109"/>
+      <c r="Q41" s="109"/>
+      <c r="R41" s="109"/>
+      <c r="S41" s="109"/>
+      <c r="T41" s="109"/>
+      <c r="U41" s="109"/>
+      <c r="V41" s="109"/>
+      <c r="W41" s="109"/>
+      <c r="X41" s="109"/>
+      <c r="Y41" s="109"/>
+      <c r="Z41" s="109"/>
+      <c r="AA41" s="109"/>
+      <c r="AB41" s="109"/>
+      <c r="AC41" s="109"/>
+      <c r="AD41" s="109"/>
+      <c r="AE41" s="109"/>
+      <c r="AF41" s="109"/>
+      <c r="AG41" s="109"/>
+      <c r="AH41" s="109"/>
+      <c r="AI41" s="109"/>
+      <c r="AJ41" s="109"/>
     </row>
     <row r="42" spans="2:36">
       <c r="B42" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="124"/>
-      <c r="D42" s="132">
+      <c r="C42" s="123"/>
+      <c r="D42" s="131">
         <f t="shared" ref="D42" si="91">(D41-C41)/C41</f>
         <v>-1.669195751138088E-3</v>
       </c>
-      <c r="E42" s="132">
+      <c r="E42" s="131">
         <f t="shared" ref="E42" si="92">(E41-D41)/D41</f>
         <v>6.3355856789509323E-3</v>
       </c>
-      <c r="F42" s="132">
+      <c r="F42" s="131">
         <f t="shared" ref="F42" si="93">(F41-E41)/E41</f>
         <v>5.9153479111599329E-2</v>
       </c>
-      <c r="G42" s="132">
+      <c r="G42" s="131">
         <f t="shared" ref="G42" si="94">(G41-F41)/F41</f>
         <v>6.3965359659300836E-2</v>
       </c>
-      <c r="H42" s="132">
+      <c r="H42" s="131">
         <f t="shared" ref="H42" si="95">(H41-G41)/G41</f>
         <v>4.2524933135939663E-2</v>
       </c>
-      <c r="I42" s="132">
+      <c r="I42" s="131">
         <f t="shared" ref="I42" si="96">(I41-H41)/H41</f>
         <v>0.34313547881883366</v>
       </c>
-      <c r="J42" s="132">
+      <c r="J42" s="131">
         <f t="shared" ref="J42" si="97">(J41-I41)/I41</f>
         <v>3.5616700603908875E-2</v>
       </c>
-      <c r="K42" s="132">
+      <c r="K42" s="131">
         <f t="shared" ref="K42" si="98">(K41-J41)/J41</f>
         <v>3.8256967843308599E-2</v>
       </c>
-      <c r="L42" s="132">
+      <c r="L42" s="131">
         <f t="shared" ref="L42" si="99">(L41-K41)/K41</f>
         <v>1.6064549545174969E-2</v>
       </c>
-      <c r="M42" s="132">
+      <c r="M42" s="131">
         <f t="shared" ref="M42" si="100">(M41-L41)/L41</f>
         <v>-6.2322280543851402E-2</v>
       </c>
-      <c r="O42" s="110"/>
-      <c r="P42" s="110"/>
-      <c r="Q42" s="110"/>
-      <c r="R42" s="110"/>
-      <c r="S42" s="110"/>
-      <c r="T42" s="110"/>
-      <c r="U42" s="110"/>
-      <c r="V42" s="110"/>
-      <c r="W42" s="110"/>
-      <c r="X42" s="110"/>
-      <c r="Y42" s="110"/>
-      <c r="Z42" s="110"/>
-      <c r="AA42" s="110"/>
-      <c r="AB42" s="110"/>
-      <c r="AC42" s="110"/>
-      <c r="AD42" s="110"/>
-      <c r="AE42" s="110"/>
-      <c r="AF42" s="110"/>
-      <c r="AG42" s="110"/>
-      <c r="AH42" s="110"/>
-      <c r="AI42" s="110"/>
-      <c r="AJ42" s="110"/>
+      <c r="O42" s="109"/>
+      <c r="P42" s="109"/>
+      <c r="Q42" s="109"/>
+      <c r="R42" s="109"/>
+      <c r="S42" s="109"/>
+      <c r="T42" s="109"/>
+      <c r="U42" s="109"/>
+      <c r="V42" s="109"/>
+      <c r="W42" s="109"/>
+      <c r="X42" s="109"/>
+      <c r="Y42" s="109"/>
+      <c r="Z42" s="109"/>
+      <c r="AA42" s="109"/>
+      <c r="AB42" s="109"/>
+      <c r="AC42" s="109"/>
+      <c r="AD42" s="109"/>
+      <c r="AE42" s="109"/>
+      <c r="AF42" s="109"/>
+      <c r="AG42" s="109"/>
+      <c r="AH42" s="109"/>
+      <c r="AI42" s="109"/>
+      <c r="AJ42" s="109"/>
     </row>
     <row r="43" spans="2:36">
-      <c r="C43" s="121"/>
-      <c r="D43" s="121"/>
-      <c r="E43" s="121"/>
-      <c r="F43" s="121"/>
-      <c r="G43" s="121"/>
-      <c r="H43" s="121"/>
-      <c r="I43" s="121"/>
-      <c r="J43" s="121"/>
-      <c r="K43" s="121"/>
-      <c r="L43" s="121"/>
-      <c r="M43" s="121"/>
-      <c r="O43" s="110"/>
-      <c r="P43" s="110"/>
-      <c r="Q43" s="110"/>
-      <c r="R43" s="110"/>
-      <c r="S43" s="110"/>
-      <c r="T43" s="110"/>
-      <c r="U43" s="110"/>
-      <c r="V43" s="110"/>
-      <c r="W43" s="110"/>
-      <c r="X43" s="110"/>
-      <c r="Y43" s="110"/>
-      <c r="Z43" s="110"/>
-      <c r="AA43" s="110"/>
-      <c r="AB43" s="110"/>
-      <c r="AC43" s="110"/>
-      <c r="AD43" s="110"/>
-      <c r="AE43" s="110"/>
-      <c r="AF43" s="110"/>
-      <c r="AG43" s="110"/>
-      <c r="AH43" s="110"/>
-      <c r="AI43" s="110"/>
-      <c r="AJ43" s="110"/>
+      <c r="C43" s="120"/>
+      <c r="D43" s="120"/>
+      <c r="E43" s="120"/>
+      <c r="F43" s="120"/>
+      <c r="G43" s="120"/>
+      <c r="H43" s="120"/>
+      <c r="I43" s="120"/>
+      <c r="J43" s="120"/>
+      <c r="K43" s="120"/>
+      <c r="L43" s="120"/>
+      <c r="M43" s="120"/>
+      <c r="O43" s="109"/>
+      <c r="P43" s="109"/>
+      <c r="Q43" s="109"/>
+      <c r="R43" s="109"/>
+      <c r="S43" s="109"/>
+      <c r="T43" s="109"/>
+      <c r="U43" s="109"/>
+      <c r="V43" s="109"/>
+      <c r="W43" s="109"/>
+      <c r="X43" s="109"/>
+      <c r="Y43" s="109"/>
+      <c r="Z43" s="109"/>
+      <c r="AA43" s="109"/>
+      <c r="AB43" s="109"/>
+      <c r="AC43" s="109"/>
+      <c r="AD43" s="109"/>
+      <c r="AE43" s="109"/>
+      <c r="AF43" s="109"/>
+      <c r="AG43" s="109"/>
+      <c r="AH43" s="109"/>
+      <c r="AI43" s="109"/>
+      <c r="AJ43" s="109"/>
     </row>
     <row r="44" spans="2:36">
       <c r="B44" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="117"/>
-      <c r="D44" s="117">
+      <c r="C44" s="116"/>
+      <c r="D44" s="116">
         <f>D38+D41</f>
         <v>158813</v>
       </c>
-      <c r="E44" s="117">
+      <c r="E44" s="116">
         <f t="shared" ref="E44:M44" si="101">E38+E41</f>
         <v>159186</v>
       </c>
-      <c r="F44" s="117">
+      <c r="F44" s="116">
         <f t="shared" si="101"/>
         <v>166574</v>
       </c>
-      <c r="G44" s="117">
+      <c r="G44" s="116">
         <f t="shared" si="101"/>
         <v>180500</v>
       </c>
-      <c r="H44" s="117">
+      <c r="H44" s="116">
         <f t="shared" si="101"/>
         <v>187462</v>
       </c>
-      <c r="I44" s="117">
+      <c r="I44" s="116">
         <f t="shared" si="101"/>
         <v>251684</v>
       </c>
-      <c r="J44" s="117">
+      <c r="J44" s="116">
         <f t="shared" si="101"/>
         <v>263414</v>
       </c>
-      <c r="K44" s="117">
+      <c r="K44" s="116">
         <f t="shared" si="101"/>
         <v>273869</v>
       </c>
-      <c r="L44" s="117">
+      <c r="L44" s="116">
         <f t="shared" si="101"/>
         <v>275905</v>
       </c>
-      <c r="M44" s="117">
+      <c r="M44" s="116">
         <f t="shared" si="101"/>
         <v>257275</v>
       </c>
-      <c r="O44" s="110"/>
-      <c r="P44" s="110"/>
-      <c r="Q44" s="110"/>
-      <c r="R44" s="110"/>
-      <c r="S44" s="110"/>
-      <c r="T44" s="110"/>
-      <c r="U44" s="110"/>
-      <c r="V44" s="110"/>
-      <c r="W44" s="110"/>
-      <c r="X44" s="110"/>
-      <c r="Y44" s="110"/>
-      <c r="Z44" s="110"/>
-      <c r="AA44" s="110"/>
-      <c r="AB44" s="110"/>
-      <c r="AC44" s="110"/>
-      <c r="AD44" s="110"/>
-      <c r="AE44" s="110"/>
-      <c r="AF44" s="110"/>
-      <c r="AG44" s="110"/>
-      <c r="AH44" s="110"/>
-      <c r="AI44" s="110"/>
-      <c r="AJ44" s="110"/>
+      <c r="O44" s="109"/>
+      <c r="P44" s="109"/>
+      <c r="Q44" s="109"/>
+      <c r="R44" s="109"/>
+      <c r="S44" s="109"/>
+      <c r="T44" s="109"/>
+      <c r="U44" s="109"/>
+      <c r="V44" s="109"/>
+      <c r="W44" s="109"/>
+      <c r="X44" s="109"/>
+      <c r="Y44" s="109"/>
+      <c r="Z44" s="109"/>
+      <c r="AA44" s="109"/>
+      <c r="AB44" s="109"/>
+      <c r="AC44" s="109"/>
+      <c r="AD44" s="109"/>
+      <c r="AE44" s="109"/>
+      <c r="AF44" s="109"/>
+      <c r="AG44" s="109"/>
+      <c r="AH44" s="109"/>
+      <c r="AI44" s="109"/>
+      <c r="AJ44" s="109"/>
     </row>
     <row r="45" spans="2:36">
-      <c r="C45" s="121"/>
-      <c r="D45" s="121"/>
-      <c r="E45" s="121"/>
-      <c r="F45" s="121"/>
-      <c r="G45" s="121"/>
-      <c r="H45" s="121"/>
-      <c r="I45" s="121"/>
-      <c r="J45" s="121"/>
-      <c r="K45" s="121"/>
-      <c r="L45" s="121"/>
-      <c r="M45" s="121"/>
-      <c r="O45" s="110"/>
-      <c r="P45" s="110"/>
-      <c r="Q45" s="110"/>
-      <c r="R45" s="110"/>
-      <c r="S45" s="110"/>
-      <c r="T45" s="110"/>
-      <c r="U45" s="110"/>
-      <c r="V45" s="110"/>
-      <c r="W45" s="110"/>
-      <c r="X45" s="110"/>
-      <c r="Y45" s="110"/>
-      <c r="Z45" s="110"/>
-      <c r="AA45" s="110"/>
-      <c r="AB45" s="110"/>
-      <c r="AC45" s="110"/>
-      <c r="AD45" s="110"/>
-      <c r="AE45" s="110"/>
-      <c r="AF45" s="110"/>
-      <c r="AG45" s="110"/>
-      <c r="AH45" s="110"/>
-      <c r="AI45" s="110"/>
-      <c r="AJ45" s="110"/>
+      <c r="C45" s="120"/>
+      <c r="D45" s="120"/>
+      <c r="E45" s="120"/>
+      <c r="F45" s="120"/>
+      <c r="G45" s="120"/>
+      <c r="H45" s="120"/>
+      <c r="I45" s="120"/>
+      <c r="J45" s="120"/>
+      <c r="K45" s="120"/>
+      <c r="L45" s="120"/>
+      <c r="M45" s="120"/>
+      <c r="O45" s="109"/>
+      <c r="P45" s="109"/>
+      <c r="Q45" s="109"/>
+      <c r="R45" s="109"/>
+      <c r="S45" s="109"/>
+      <c r="T45" s="109"/>
+      <c r="U45" s="109"/>
+      <c r="V45" s="109"/>
+      <c r="W45" s="109"/>
+      <c r="X45" s="109"/>
+      <c r="Y45" s="109"/>
+      <c r="Z45" s="109"/>
+      <c r="AA45" s="109"/>
+      <c r="AB45" s="109"/>
+      <c r="AC45" s="109"/>
+      <c r="AD45" s="109"/>
+      <c r="AE45" s="109"/>
+      <c r="AF45" s="109"/>
+      <c r="AG45" s="109"/>
+      <c r="AH45" s="109"/>
+      <c r="AI45" s="109"/>
+      <c r="AJ45" s="109"/>
     </row>
     <row r="46" spans="2:36">
       <c r="B46" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="124">
+      <c r="C46" s="123">
         <v>16714</v>
       </c>
-      <c r="D46" s="127">
+      <c r="D46" s="126">
         <v>18912</v>
       </c>
-      <c r="E46" s="121">
+      <c r="E46" s="120">
         <v>17410</v>
       </c>
-      <c r="F46" s="121">
+      <c r="F46" s="120">
         <v>18178</v>
       </c>
-      <c r="G46" s="121">
+      <c r="G46" s="120">
         <v>21535</v>
       </c>
-      <c r="H46" s="121">
+      <c r="H46" s="120">
         <v>21993</v>
       </c>
-      <c r="I46" s="121">
+      <c r="I46" s="120">
         <v>27603</v>
       </c>
-      <c r="J46" s="121">
+      <c r="J46" s="120">
         <v>30292</v>
       </c>
-      <c r="K46" s="121">
+      <c r="K46" s="120">
         <v>28796</v>
       </c>
-      <c r="L46" s="121">
+      <c r="L46" s="120">
         <v>29348</v>
       </c>
-      <c r="M46" s="121">
+      <c r="M46" s="120">
         <v>27887</v>
       </c>
-      <c r="O46" s="110"/>
-      <c r="P46" s="110"/>
-      <c r="Q46" s="110"/>
-      <c r="R46" s="110"/>
-      <c r="S46" s="110"/>
-      <c r="T46" s="110"/>
-      <c r="U46" s="110"/>
-      <c r="V46" s="110"/>
-      <c r="W46" s="110"/>
-      <c r="X46" s="110"/>
-      <c r="Y46" s="110"/>
-      <c r="Z46" s="110"/>
-      <c r="AA46" s="110"/>
-      <c r="AB46" s="110"/>
-      <c r="AC46" s="110"/>
-      <c r="AD46" s="110"/>
-      <c r="AE46" s="110"/>
-      <c r="AF46" s="110"/>
-      <c r="AG46" s="110"/>
-      <c r="AH46" s="110"/>
-      <c r="AI46" s="110"/>
-      <c r="AJ46" s="110"/>
+      <c r="O46" s="109"/>
+      <c r="P46" s="109"/>
+      <c r="Q46" s="109"/>
+      <c r="R46" s="109"/>
+      <c r="S46" s="109"/>
+      <c r="T46" s="109"/>
+      <c r="U46" s="109"/>
+      <c r="V46" s="109"/>
+      <c r="W46" s="109"/>
+      <c r="X46" s="109"/>
+      <c r="Y46" s="109"/>
+      <c r="Z46" s="109"/>
+      <c r="AA46" s="109"/>
+      <c r="AB46" s="109"/>
+      <c r="AC46" s="109"/>
+      <c r="AD46" s="109"/>
+      <c r="AE46" s="109"/>
+      <c r="AF46" s="109"/>
+      <c r="AG46" s="109"/>
+      <c r="AH46" s="109"/>
+      <c r="AI46" s="109"/>
+      <c r="AJ46" s="109"/>
     </row>
     <row r="47" spans="2:36">
       <c r="B47" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C47" s="124"/>
-      <c r="D47" s="132">
+      <c r="C47" s="123"/>
+      <c r="D47" s="131">
         <f t="shared" ref="D47" si="102">(D46-C46)/C46</f>
         <v>0.13150652147899963</v>
       </c>
-      <c r="E47" s="132">
+      <c r="E47" s="131">
         <f t="shared" ref="E47" si="103">(E46-D46)/D46</f>
         <v>-7.9420473773265651E-2</v>
       </c>
-      <c r="F47" s="132">
+      <c r="F47" s="131">
         <f t="shared" ref="F47" si="104">(F46-E46)/E46</f>
         <v>4.4112578977599078E-2</v>
       </c>
-      <c r="G47" s="132">
+      <c r="G47" s="131">
         <f t="shared" ref="G47" si="105">(G46-F46)/F46</f>
         <v>0.18467378149411376</v>
       </c>
-      <c r="H47" s="132">
+      <c r="H47" s="131">
         <f t="shared" ref="H47" si="106">(H46-G46)/G46</f>
         <v>2.1267703738100767E-2</v>
       </c>
-      <c r="I47" s="132">
+      <c r="I47" s="131">
         <f t="shared" ref="I47" si="107">(I46-H46)/H46</f>
         <v>0.25508116218796889</v>
       </c>
-      <c r="J47" s="132">
+      <c r="J47" s="131">
         <f t="shared" ref="J47" si="108">(J46-I46)/I46</f>
         <v>9.7416947433250009E-2</v>
       </c>
-      <c r="K47" s="132">
+      <c r="K47" s="131">
         <f t="shared" ref="K47" si="109">(K46-J46)/J46</f>
         <v>-4.9385976495444343E-2</v>
       </c>
-      <c r="L47" s="132">
+      <c r="L47" s="131">
         <f t="shared" ref="L47" si="110">(L46-K46)/K46</f>
         <v>1.9169329073482427E-2</v>
       </c>
-      <c r="M47" s="132">
+      <c r="M47" s="131">
         <f t="shared" ref="M47" si="111">(M46-L46)/L46</f>
         <v>-4.9781927218209079E-2</v>
       </c>
-      <c r="O47" s="110"/>
-      <c r="P47" s="110"/>
-      <c r="Q47" s="110"/>
-      <c r="R47" s="110"/>
-      <c r="S47" s="110"/>
-      <c r="T47" s="110"/>
-      <c r="U47" s="110"/>
-      <c r="V47" s="110"/>
-      <c r="W47" s="110"/>
-      <c r="X47" s="110"/>
-      <c r="Y47" s="110"/>
-      <c r="Z47" s="110"/>
-      <c r="AA47" s="110"/>
-      <c r="AB47" s="110"/>
-      <c r="AC47" s="110"/>
-      <c r="AD47" s="110"/>
-      <c r="AE47" s="110"/>
-      <c r="AF47" s="110"/>
-      <c r="AG47" s="110"/>
-      <c r="AH47" s="110"/>
-      <c r="AI47" s="110"/>
-      <c r="AJ47" s="110"/>
+      <c r="O47" s="109"/>
+      <c r="P47" s="109"/>
+      <c r="Q47" s="109"/>
+      <c r="R47" s="109"/>
+      <c r="S47" s="109"/>
+      <c r="T47" s="109"/>
+      <c r="U47" s="109"/>
+      <c r="V47" s="109"/>
+      <c r="W47" s="109"/>
+      <c r="X47" s="109"/>
+      <c r="Y47" s="109"/>
+      <c r="Z47" s="109"/>
+      <c r="AA47" s="109"/>
+      <c r="AB47" s="109"/>
+      <c r="AC47" s="109"/>
+      <c r="AD47" s="109"/>
+      <c r="AE47" s="109"/>
+      <c r="AF47" s="109"/>
+      <c r="AG47" s="109"/>
+      <c r="AH47" s="109"/>
+      <c r="AI47" s="109"/>
+      <c r="AJ47" s="109"/>
     </row>
     <row r="48" spans="2:36">
-      <c r="C48" s="121"/>
-      <c r="D48" s="121"/>
-      <c r="E48" s="121"/>
-      <c r="F48" s="121"/>
-      <c r="G48" s="121"/>
-      <c r="H48" s="121"/>
-      <c r="I48" s="121"/>
-      <c r="J48" s="121"/>
-      <c r="K48" s="121"/>
-      <c r="L48" s="121"/>
-      <c r="M48" s="121"/>
-      <c r="O48" s="110"/>
-      <c r="P48" s="110"/>
-      <c r="Q48" s="110"/>
-      <c r="R48" s="110"/>
-      <c r="S48" s="110"/>
-      <c r="T48" s="110"/>
-      <c r="U48" s="110"/>
-      <c r="V48" s="110"/>
-      <c r="W48" s="110"/>
-      <c r="X48" s="110"/>
-      <c r="Y48" s="110"/>
-      <c r="Z48" s="110"/>
-      <c r="AA48" s="110"/>
-      <c r="AB48" s="110"/>
-      <c r="AC48" s="110"/>
-      <c r="AD48" s="110"/>
-      <c r="AE48" s="110"/>
-      <c r="AF48" s="110"/>
-      <c r="AG48" s="110"/>
-      <c r="AH48" s="110"/>
-      <c r="AI48" s="110"/>
-      <c r="AJ48" s="110"/>
+      <c r="C48" s="120"/>
+      <c r="D48" s="120"/>
+      <c r="E48" s="120"/>
+      <c r="F48" s="120"/>
+      <c r="G48" s="120"/>
+      <c r="H48" s="120"/>
+      <c r="I48" s="120"/>
+      <c r="J48" s="120"/>
+      <c r="K48" s="120"/>
+      <c r="L48" s="120"/>
+      <c r="M48" s="120"/>
+      <c r="O48" s="109"/>
+      <c r="P48" s="109"/>
+      <c r="Q48" s="109"/>
+      <c r="R48" s="109"/>
+      <c r="S48" s="109"/>
+      <c r="T48" s="109"/>
+      <c r="U48" s="109"/>
+      <c r="V48" s="109"/>
+      <c r="W48" s="109"/>
+      <c r="X48" s="109"/>
+      <c r="Y48" s="109"/>
+      <c r="Z48" s="109"/>
+      <c r="AA48" s="109"/>
+      <c r="AB48" s="109"/>
+      <c r="AC48" s="109"/>
+      <c r="AD48" s="109"/>
+      <c r="AE48" s="109"/>
+      <c r="AF48" s="109"/>
+      <c r="AG48" s="109"/>
+      <c r="AH48" s="109"/>
+      <c r="AI48" s="109"/>
+      <c r="AJ48" s="109"/>
     </row>
     <row r="49" spans="2:36">
       <c r="B49" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C49" s="124">
+      <c r="C49" s="123">
         <v>98461</v>
       </c>
-      <c r="D49" s="121">
+      <c r="D49" s="120">
         <v>88843</v>
       </c>
-      <c r="E49" s="121">
+      <c r="E49" s="120">
         <v>88708</v>
       </c>
-      <c r="F49" s="121">
+      <c r="F49" s="120">
         <v>94418</v>
       </c>
-      <c r="G49" s="121">
+      <c r="G49" s="120">
         <v>102791</v>
       </c>
-      <c r="H49" s="121">
+      <c r="H49" s="120">
         <v>96010</v>
       </c>
-      <c r="I49" s="121">
+      <c r="I49" s="120">
         <v>151579</v>
       </c>
-      <c r="J49" s="121">
+      <c r="J49" s="120">
         <v>149248</v>
       </c>
-      <c r="K49" s="121">
+      <c r="K49" s="120">
         <v>153335</v>
       </c>
-      <c r="L49" s="121">
+      <c r="L49" s="120">
         <v>149068</v>
       </c>
-      <c r="M49" s="121">
+      <c r="M49" s="120">
         <v>147760</v>
       </c>
-      <c r="O49" s="110"/>
-      <c r="P49" s="110"/>
-      <c r="Q49" s="110"/>
-      <c r="R49" s="110"/>
-      <c r="S49" s="110"/>
-      <c r="T49" s="110"/>
-      <c r="U49" s="110"/>
-      <c r="V49" s="110"/>
-      <c r="W49" s="110"/>
-      <c r="X49" s="110"/>
-      <c r="Y49" s="110"/>
-      <c r="Z49" s="110"/>
-      <c r="AA49" s="110"/>
-      <c r="AB49" s="110"/>
-      <c r="AC49" s="110"/>
-      <c r="AD49" s="110"/>
-      <c r="AE49" s="110"/>
-      <c r="AF49" s="110"/>
-      <c r="AG49" s="110"/>
-      <c r="AH49" s="110"/>
-      <c r="AI49" s="110"/>
-      <c r="AJ49" s="110"/>
+      <c r="O49" s="109"/>
+      <c r="P49" s="109"/>
+      <c r="Q49" s="109"/>
+      <c r="R49" s="109"/>
+      <c r="S49" s="109"/>
+      <c r="T49" s="109"/>
+      <c r="U49" s="109"/>
+      <c r="V49" s="109"/>
+      <c r="W49" s="109"/>
+      <c r="X49" s="109"/>
+      <c r="Y49" s="109"/>
+      <c r="Z49" s="109"/>
+      <c r="AA49" s="109"/>
+      <c r="AB49" s="109"/>
+      <c r="AC49" s="109"/>
+      <c r="AD49" s="109"/>
+      <c r="AE49" s="109"/>
+      <c r="AF49" s="109"/>
+      <c r="AG49" s="109"/>
+      <c r="AH49" s="109"/>
+      <c r="AI49" s="109"/>
+      <c r="AJ49" s="109"/>
     </row>
     <row r="50" spans="2:36">
       <c r="B50" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="124"/>
-      <c r="D50" s="132">
+      <c r="C50" s="123"/>
+      <c r="D50" s="131">
         <f t="shared" ref="D50" si="112">(D49-C49)/C49</f>
         <v>-9.7683346705802296E-2</v>
       </c>
-      <c r="E50" s="132">
+      <c r="E50" s="131">
         <f t="shared" ref="E50" si="113">(E49-D49)/D49</f>
         <v>-1.519534459664802E-3</v>
       </c>
-      <c r="F50" s="132">
+      <c r="F50" s="131">
         <f t="shared" ref="F50" si="114">(F49-E49)/E49</f>
         <v>6.4368489876899485E-2</v>
       </c>
-      <c r="G50" s="132">
+      <c r="G50" s="131">
         <f t="shared" ref="G50" si="115">(G49-F49)/F49</f>
         <v>8.8680124552521764E-2</v>
       </c>
-      <c r="H50" s="132">
+      <c r="H50" s="131">
         <f t="shared" ref="H50" si="116">(H49-G49)/G49</f>
         <v>-6.5968810498973643E-2</v>
       </c>
-      <c r="I50" s="132">
+      <c r="I50" s="131">
         <f t="shared" ref="I50" si="117">(I49-H49)/H49</f>
         <v>0.57878346005624415</v>
       </c>
-      <c r="J50" s="132">
+      <c r="J50" s="131">
         <f t="shared" ref="J50" si="118">(J49-I49)/I49</f>
         <v>-1.5378119660375118E-2</v>
       </c>
-      <c r="K50" s="132">
+      <c r="K50" s="131">
         <f t="shared" ref="K50" si="119">(K49-J49)/J49</f>
         <v>2.7383951543739279E-2</v>
       </c>
-      <c r="L50" s="132">
+      <c r="L50" s="131">
         <f t="shared" ref="L50" si="120">(L49-K49)/K49</f>
         <v>-2.782795839175661E-2</v>
       </c>
-      <c r="M50" s="132">
+      <c r="M50" s="131">
         <f t="shared" ref="M50" si="121">(M49-L49)/L49</f>
         <v>-8.7745190114578587E-3</v>
       </c>
-      <c r="O50" s="110"/>
-      <c r="P50" s="110"/>
-      <c r="Q50" s="110"/>
-      <c r="R50" s="110"/>
-      <c r="S50" s="110"/>
-      <c r="T50" s="110"/>
-      <c r="U50" s="110"/>
-      <c r="V50" s="110"/>
-      <c r="W50" s="110"/>
-      <c r="X50" s="110"/>
-      <c r="Y50" s="110"/>
-      <c r="Z50" s="110"/>
-      <c r="AA50" s="110"/>
-      <c r="AB50" s="110"/>
-      <c r="AC50" s="110"/>
-      <c r="AD50" s="110"/>
-      <c r="AE50" s="110"/>
-      <c r="AF50" s="110"/>
-      <c r="AG50" s="110"/>
-      <c r="AH50" s="110"/>
-      <c r="AI50" s="110"/>
-      <c r="AJ50" s="110"/>
+      <c r="O50" s="109"/>
+      <c r="P50" s="109"/>
+      <c r="Q50" s="109"/>
+      <c r="R50" s="109"/>
+      <c r="S50" s="109"/>
+      <c r="T50" s="109"/>
+      <c r="U50" s="109"/>
+      <c r="V50" s="109"/>
+      <c r="W50" s="109"/>
+      <c r="X50" s="109"/>
+      <c r="Y50" s="109"/>
+      <c r="Z50" s="109"/>
+      <c r="AA50" s="109"/>
+      <c r="AB50" s="109"/>
+      <c r="AC50" s="109"/>
+      <c r="AD50" s="109"/>
+      <c r="AE50" s="109"/>
+      <c r="AF50" s="109"/>
+      <c r="AG50" s="109"/>
+      <c r="AH50" s="109"/>
+      <c r="AI50" s="109"/>
+      <c r="AJ50" s="109"/>
     </row>
     <row r="51" spans="2:36">
-      <c r="C51" s="121"/>
-      <c r="D51" s="121"/>
-      <c r="E51" s="121"/>
-      <c r="F51" s="121"/>
-      <c r="G51" s="121"/>
-      <c r="H51" s="121"/>
-      <c r="I51" s="121"/>
-      <c r="J51" s="121"/>
-      <c r="K51" s="121"/>
-      <c r="L51" s="121"/>
-      <c r="M51" s="121"/>
-      <c r="O51" s="110"/>
-      <c r="P51" s="110"/>
-      <c r="Q51" s="110"/>
-      <c r="R51" s="110"/>
-      <c r="S51" s="110"/>
-      <c r="T51" s="110"/>
-      <c r="U51" s="110"/>
-      <c r="V51" s="110"/>
-      <c r="W51" s="110"/>
-      <c r="X51" s="110"/>
-      <c r="Y51" s="110"/>
-      <c r="Z51" s="110"/>
-      <c r="AA51" s="110"/>
-      <c r="AB51" s="110"/>
-      <c r="AC51" s="110"/>
-      <c r="AD51" s="110"/>
-      <c r="AE51" s="110"/>
-      <c r="AF51" s="110"/>
-      <c r="AG51" s="110"/>
-      <c r="AH51" s="110"/>
-      <c r="AI51" s="110"/>
-      <c r="AJ51" s="110"/>
+      <c r="C51" s="120"/>
+      <c r="D51" s="120"/>
+      <c r="E51" s="120"/>
+      <c r="F51" s="120"/>
+      <c r="G51" s="120"/>
+      <c r="H51" s="120"/>
+      <c r="I51" s="120"/>
+      <c r="J51" s="120"/>
+      <c r="K51" s="120"/>
+      <c r="L51" s="120"/>
+      <c r="M51" s="120"/>
+      <c r="O51" s="109"/>
+      <c r="P51" s="109"/>
+      <c r="Q51" s="109"/>
+      <c r="R51" s="109"/>
+      <c r="S51" s="109"/>
+      <c r="T51" s="109"/>
+      <c r="U51" s="109"/>
+      <c r="V51" s="109"/>
+      <c r="W51" s="109"/>
+      <c r="X51" s="109"/>
+      <c r="Y51" s="109"/>
+      <c r="Z51" s="109"/>
+      <c r="AA51" s="109"/>
+      <c r="AB51" s="109"/>
+      <c r="AC51" s="109"/>
+      <c r="AD51" s="109"/>
+      <c r="AE51" s="109"/>
+      <c r="AF51" s="109"/>
+      <c r="AG51" s="109"/>
+      <c r="AH51" s="109"/>
+      <c r="AI51" s="109"/>
+      <c r="AJ51" s="109"/>
     </row>
     <row r="52" spans="2:36">
       <c r="B52" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="125">
+      <c r="C52" s="124">
         <v>1</v>
       </c>
-      <c r="D52" s="117">
+      <c r="D52" s="116">
         <f>D46+D49</f>
         <v>107755</v>
       </c>
-      <c r="E52" s="117">
+      <c r="E52" s="116">
         <f t="shared" ref="E52:M52" si="122">E46+E49</f>
         <v>106118</v>
       </c>
-      <c r="F52" s="117">
+      <c r="F52" s="116">
         <f t="shared" si="122"/>
         <v>112596</v>
       </c>
-      <c r="G52" s="117">
+      <c r="G52" s="116">
         <f t="shared" si="122"/>
         <v>124326</v>
       </c>
-      <c r="H52" s="117">
+      <c r="H52" s="116">
         <f t="shared" si="122"/>
         <v>118003</v>
       </c>
-      <c r="I52" s="117">
+      <c r="I52" s="116">
         <f t="shared" si="122"/>
         <v>179182</v>
       </c>
-      <c r="J52" s="117">
+      <c r="J52" s="116">
         <f t="shared" si="122"/>
         <v>179540</v>
       </c>
-      <c r="K52" s="117">
+      <c r="K52" s="116">
         <f t="shared" si="122"/>
         <v>182131</v>
       </c>
-      <c r="L52" s="117">
+      <c r="L52" s="116">
         <f t="shared" si="122"/>
         <v>178416</v>
       </c>
-      <c r="M52" s="117">
+      <c r="M52" s="116">
         <f t="shared" si="122"/>
         <v>175647</v>
       </c>
-      <c r="O52" s="110"/>
-      <c r="P52" s="110"/>
-      <c r="Q52" s="110"/>
-      <c r="R52" s="110"/>
-      <c r="S52" s="110"/>
-      <c r="T52" s="110"/>
-      <c r="U52" s="110"/>
-      <c r="V52" s="110"/>
-      <c r="W52" s="110"/>
-      <c r="X52" s="110"/>
-      <c r="Y52" s="110"/>
-      <c r="Z52" s="110"/>
-      <c r="AA52" s="110"/>
-      <c r="AB52" s="110"/>
-      <c r="AC52" s="110"/>
-      <c r="AD52" s="110"/>
-      <c r="AE52" s="110"/>
-      <c r="AF52" s="110"/>
-      <c r="AG52" s="110"/>
-      <c r="AH52" s="110"/>
-      <c r="AI52" s="110"/>
-      <c r="AJ52" s="110"/>
+      <c r="O52" s="109"/>
+      <c r="P52" s="109"/>
+      <c r="Q52" s="109"/>
+      <c r="R52" s="109"/>
+      <c r="S52" s="109"/>
+      <c r="T52" s="109"/>
+      <c r="U52" s="109"/>
+      <c r="V52" s="109"/>
+      <c r="W52" s="109"/>
+      <c r="X52" s="109"/>
+      <c r="Y52" s="109"/>
+      <c r="Z52" s="109"/>
+      <c r="AA52" s="109"/>
+      <c r="AB52" s="109"/>
+      <c r="AC52" s="109"/>
+      <c r="AD52" s="109"/>
+      <c r="AE52" s="109"/>
+      <c r="AF52" s="109"/>
+      <c r="AG52" s="109"/>
+      <c r="AH52" s="109"/>
+      <c r="AI52" s="109"/>
+      <c r="AJ52" s="109"/>
     </row>
     <row r="53" spans="2:36">
       <c r="B53" s="18"/>
-      <c r="C53" s="124"/>
-      <c r="D53" s="121"/>
-      <c r="E53" s="121"/>
-      <c r="F53" s="121"/>
-      <c r="G53" s="121"/>
-      <c r="H53" s="121"/>
-      <c r="I53" s="121"/>
-      <c r="J53" s="121"/>
-      <c r="K53" s="121"/>
-      <c r="L53" s="121"/>
-      <c r="M53" s="121"/>
-      <c r="O53" s="110"/>
-      <c r="P53" s="110"/>
-      <c r="Q53" s="110"/>
-      <c r="R53" s="110"/>
-      <c r="S53" s="110"/>
-      <c r="T53" s="110"/>
-      <c r="U53" s="110"/>
-      <c r="V53" s="110"/>
-      <c r="W53" s="110"/>
-      <c r="X53" s="110"/>
-      <c r="Y53" s="110"/>
-      <c r="Z53" s="110"/>
-      <c r="AA53" s="110"/>
-      <c r="AB53" s="110"/>
-      <c r="AC53" s="110"/>
-      <c r="AD53" s="110"/>
-      <c r="AE53" s="110"/>
-      <c r="AF53" s="110"/>
-      <c r="AG53" s="110"/>
-      <c r="AH53" s="110"/>
-      <c r="AI53" s="110"/>
-      <c r="AJ53" s="110"/>
+      <c r="C53" s="123"/>
+      <c r="D53" s="120"/>
+      <c r="E53" s="120"/>
+      <c r="F53" s="120"/>
+      <c r="G53" s="120"/>
+      <c r="H53" s="120"/>
+      <c r="I53" s="120"/>
+      <c r="J53" s="120"/>
+      <c r="K53" s="120"/>
+      <c r="L53" s="120"/>
+      <c r="M53" s="120"/>
+      <c r="O53" s="109"/>
+      <c r="P53" s="109"/>
+      <c r="Q53" s="109"/>
+      <c r="R53" s="109"/>
+      <c r="S53" s="109"/>
+      <c r="T53" s="109"/>
+      <c r="U53" s="109"/>
+      <c r="V53" s="109"/>
+      <c r="W53" s="109"/>
+      <c r="X53" s="109"/>
+      <c r="Y53" s="109"/>
+      <c r="Z53" s="109"/>
+      <c r="AA53" s="109"/>
+      <c r="AB53" s="109"/>
+      <c r="AC53" s="109"/>
+      <c r="AD53" s="109"/>
+      <c r="AE53" s="109"/>
+      <c r="AF53" s="109"/>
+      <c r="AG53" s="109"/>
+      <c r="AH53" s="109"/>
+      <c r="AI53" s="109"/>
+      <c r="AJ53" s="109"/>
     </row>
     <row r="54" spans="2:36">
       <c r="B54" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="125">
+      <c r="C54" s="124">
         <v>1</v>
       </c>
-      <c r="D54" s="116">
+      <c r="D54" s="115">
         <f>D44-D52</f>
         <v>51058</v>
       </c>
-      <c r="E54" s="116">
+      <c r="E54" s="115">
         <f t="shared" ref="E54:M54" si="123">E44-E52</f>
         <v>53068</v>
       </c>
-      <c r="F54" s="116">
+      <c r="F54" s="115">
         <f t="shared" si="123"/>
         <v>53978</v>
       </c>
-      <c r="G54" s="116">
+      <c r="G54" s="115">
         <f t="shared" si="123"/>
         <v>56174</v>
       </c>
-      <c r="H54" s="116">
+      <c r="H54" s="115">
         <f t="shared" si="123"/>
         <v>69459</v>
       </c>
-      <c r="I54" s="116">
+      <c r="I54" s="115">
         <f t="shared" si="123"/>
         <v>72502</v>
       </c>
-      <c r="J54" s="116">
+      <c r="J54" s="115">
         <f t="shared" si="123"/>
         <v>83874</v>
       </c>
-      <c r="K54" s="116">
+      <c r="K54" s="115">
         <f t="shared" si="123"/>
         <v>91738</v>
       </c>
-      <c r="L54" s="116">
+      <c r="L54" s="115">
         <f t="shared" si="123"/>
         <v>97489</v>
       </c>
-      <c r="M54" s="116">
+      <c r="M54" s="115">
         <f t="shared" si="123"/>
         <v>81628</v>
       </c>
-      <c r="O54" s="110"/>
-      <c r="P54" s="110"/>
-      <c r="Q54" s="110"/>
-      <c r="R54" s="110"/>
-      <c r="S54" s="110"/>
-      <c r="T54" s="110"/>
-      <c r="U54" s="110"/>
-      <c r="V54" s="110"/>
-      <c r="W54" s="110"/>
-      <c r="X54" s="110"/>
-      <c r="Y54" s="110"/>
-      <c r="Z54" s="110"/>
-      <c r="AA54" s="110"/>
-      <c r="AB54" s="110"/>
-      <c r="AC54" s="110"/>
-      <c r="AD54" s="110"/>
-      <c r="AE54" s="110"/>
-      <c r="AF54" s="110"/>
-      <c r="AG54" s="110"/>
-      <c r="AH54" s="110"/>
-      <c r="AI54" s="110"/>
-      <c r="AJ54" s="110"/>
+      <c r="O54" s="109"/>
+      <c r="P54" s="109"/>
+      <c r="Q54" s="109"/>
+      <c r="R54" s="109"/>
+      <c r="S54" s="109"/>
+      <c r="T54" s="109"/>
+      <c r="U54" s="109"/>
+      <c r="V54" s="109"/>
+      <c r="W54" s="109"/>
+      <c r="X54" s="109"/>
+      <c r="Y54" s="109"/>
+      <c r="Z54" s="109"/>
+      <c r="AA54" s="109"/>
+      <c r="AB54" s="109"/>
+      <c r="AC54" s="109"/>
+      <c r="AD54" s="109"/>
+      <c r="AE54" s="109"/>
+      <c r="AF54" s="109"/>
+      <c r="AG54" s="109"/>
+      <c r="AH54" s="109"/>
+      <c r="AI54" s="109"/>
+      <c r="AJ54" s="109"/>
     </row>
     <row r="55" spans="2:36">
-      <c r="O55" s="110"/>
-      <c r="P55" s="110"/>
-      <c r="Q55" s="110"/>
-      <c r="R55" s="110"/>
-      <c r="S55" s="110"/>
-      <c r="T55" s="110"/>
-      <c r="U55" s="110"/>
-      <c r="V55" s="110"/>
-      <c r="W55" s="110"/>
-      <c r="X55" s="110"/>
-      <c r="Y55" s="110"/>
-      <c r="Z55" s="110"/>
-      <c r="AA55" s="110"/>
-      <c r="AB55" s="110"/>
-      <c r="AC55" s="110"/>
-      <c r="AD55" s="110"/>
-      <c r="AE55" s="110"/>
-      <c r="AF55" s="110"/>
-      <c r="AG55" s="110"/>
-      <c r="AH55" s="110"/>
-      <c r="AI55" s="110"/>
-      <c r="AJ55" s="110"/>
+      <c r="O55" s="109"/>
+      <c r="P55" s="109"/>
+      <c r="Q55" s="109"/>
+      <c r="R55" s="109"/>
+      <c r="S55" s="109"/>
+      <c r="T55" s="109"/>
+      <c r="U55" s="109"/>
+      <c r="V55" s="109"/>
+      <c r="W55" s="109"/>
+      <c r="X55" s="109"/>
+      <c r="Y55" s="109"/>
+      <c r="Z55" s="109"/>
+      <c r="AA55" s="109"/>
+      <c r="AB55" s="109"/>
+      <c r="AC55" s="109"/>
+      <c r="AD55" s="109"/>
+      <c r="AE55" s="109"/>
+      <c r="AF55" s="109"/>
+      <c r="AG55" s="109"/>
+      <c r="AH55" s="109"/>
+      <c r="AI55" s="109"/>
+      <c r="AJ55" s="109"/>
     </row>
     <row r="56" spans="2:36">
-      <c r="O56" s="110"/>
-      <c r="P56" s="110"/>
-      <c r="Q56" s="110"/>
-      <c r="R56" s="110"/>
-      <c r="S56" s="110"/>
-      <c r="T56" s="110"/>
-      <c r="U56" s="110"/>
-      <c r="V56" s="110"/>
-      <c r="W56" s="110"/>
-      <c r="X56" s="110"/>
-      <c r="Y56" s="110"/>
-      <c r="Z56" s="110"/>
-      <c r="AA56" s="110"/>
-      <c r="AB56" s="110"/>
-      <c r="AC56" s="110"/>
-      <c r="AD56" s="110"/>
-      <c r="AE56" s="110"/>
-      <c r="AF56" s="110"/>
-      <c r="AG56" s="110"/>
-      <c r="AH56" s="110"/>
-      <c r="AI56" s="110"/>
-      <c r="AJ56" s="110"/>
+      <c r="O56" s="109"/>
+      <c r="P56" s="109"/>
+      <c r="Q56" s="109"/>
+      <c r="R56" s="109"/>
+      <c r="S56" s="109"/>
+      <c r="T56" s="109"/>
+      <c r="U56" s="109"/>
+      <c r="V56" s="109"/>
+      <c r="W56" s="109"/>
+      <c r="X56" s="109"/>
+      <c r="Y56" s="109"/>
+      <c r="Z56" s="109"/>
+      <c r="AA56" s="109"/>
+      <c r="AB56" s="109"/>
+      <c r="AC56" s="109"/>
+      <c r="AD56" s="109"/>
+      <c r="AE56" s="109"/>
+      <c r="AF56" s="109"/>
+      <c r="AG56" s="109"/>
+      <c r="AH56" s="109"/>
+      <c r="AI56" s="109"/>
+      <c r="AJ56" s="109"/>
     </row>
     <row r="57" spans="2:36">
-      <c r="O57" s="110"/>
-      <c r="P57" s="110"/>
-      <c r="Q57" s="110"/>
-      <c r="R57" s="110"/>
-      <c r="S57" s="110"/>
-      <c r="T57" s="110"/>
-      <c r="U57" s="110"/>
-      <c r="V57" s="110"/>
-      <c r="W57" s="110"/>
-      <c r="X57" s="110"/>
-      <c r="Y57" s="110"/>
-      <c r="Z57" s="110"/>
-      <c r="AA57" s="110"/>
-      <c r="AB57" s="110"/>
-      <c r="AC57" s="110"/>
-      <c r="AD57" s="110"/>
-      <c r="AE57" s="110"/>
-      <c r="AF57" s="110"/>
-      <c r="AG57" s="110"/>
-      <c r="AH57" s="110"/>
-      <c r="AI57" s="110"/>
-      <c r="AJ57" s="110"/>
+      <c r="O57" s="109"/>
+      <c r="P57" s="109"/>
+      <c r="Q57" s="109"/>
+      <c r="R57" s="109"/>
+      <c r="S57" s="109"/>
+      <c r="T57" s="109"/>
+      <c r="U57" s="109"/>
+      <c r="V57" s="109"/>
+      <c r="W57" s="109"/>
+      <c r="X57" s="109"/>
+      <c r="Y57" s="109"/>
+      <c r="Z57" s="109"/>
+      <c r="AA57" s="109"/>
+      <c r="AB57" s="109"/>
+      <c r="AC57" s="109"/>
+      <c r="AD57" s="109"/>
+      <c r="AE57" s="109"/>
+      <c r="AF57" s="109"/>
+      <c r="AG57" s="109"/>
+      <c r="AH57" s="109"/>
+      <c r="AI57" s="109"/>
+      <c r="AJ57" s="109"/>
     </row>
     <row r="58" spans="2:36">
-      <c r="O58" s="110"/>
-      <c r="P58" s="110"/>
-      <c r="Q58" s="110"/>
-      <c r="R58" s="110"/>
-      <c r="S58" s="110"/>
-      <c r="T58" s="110"/>
-      <c r="U58" s="110"/>
-      <c r="V58" s="110"/>
-      <c r="W58" s="110"/>
-      <c r="X58" s="110"/>
-      <c r="Y58" s="110"/>
-      <c r="Z58" s="110"/>
-      <c r="AA58" s="110"/>
-      <c r="AB58" s="110"/>
-      <c r="AC58" s="110"/>
-      <c r="AD58" s="110"/>
-      <c r="AE58" s="110"/>
-      <c r="AF58" s="110"/>
-      <c r="AG58" s="110"/>
-      <c r="AH58" s="110"/>
-      <c r="AI58" s="110"/>
-      <c r="AJ58" s="110"/>
+      <c r="O58" s="109"/>
+      <c r="P58" s="109"/>
+      <c r="Q58" s="109"/>
+      <c r="R58" s="109"/>
+      <c r="S58" s="109"/>
+      <c r="T58" s="109"/>
+      <c r="U58" s="109"/>
+      <c r="V58" s="109"/>
+      <c r="W58" s="109"/>
+      <c r="X58" s="109"/>
+      <c r="Y58" s="109"/>
+      <c r="Z58" s="109"/>
+      <c r="AA58" s="109"/>
+      <c r="AB58" s="109"/>
+      <c r="AC58" s="109"/>
+      <c r="AD58" s="109"/>
+      <c r="AE58" s="109"/>
+      <c r="AF58" s="109"/>
+      <c r="AG58" s="109"/>
+      <c r="AH58" s="109"/>
+      <c r="AI58" s="109"/>
+      <c r="AJ58" s="109"/>
     </row>
     <row r="59" spans="2:36" ht="17.5" thickBot="1">
       <c r="B59" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C59" s="113"/>
-      <c r="D59" s="113">
+      <c r="C59" s="112"/>
+      <c r="D59" s="112">
         <v>2013</v>
       </c>
-      <c r="E59" s="113">
+      <c r="E59" s="112">
         <v>2014</v>
       </c>
-      <c r="F59" s="113">
+      <c r="F59" s="112">
         <v>2015</v>
       </c>
-      <c r="G59" s="113">
+      <c r="G59" s="112">
         <v>2016</v>
       </c>
-      <c r="H59" s="113">
+      <c r="H59" s="112">
         <v>2017</v>
       </c>
-      <c r="I59" s="113">
+      <c r="I59" s="112">
         <v>2018</v>
       </c>
-      <c r="J59" s="113">
+      <c r="J59" s="112">
         <v>2019</v>
       </c>
-      <c r="K59" s="113">
+      <c r="K59" s="112">
         <v>2020</v>
       </c>
-      <c r="L59" s="113">
+      <c r="L59" s="112">
         <v>2021</v>
       </c>
-      <c r="M59" s="113">
+      <c r="M59" s="112">
         <v>2022</v>
       </c>
-      <c r="O59" s="110"/>
-      <c r="P59" s="110"/>
-      <c r="Q59" s="110"/>
-      <c r="R59" s="110"/>
-      <c r="S59" s="110"/>
-      <c r="T59" s="110"/>
-      <c r="U59" s="110"/>
-      <c r="V59" s="110"/>
-      <c r="W59" s="110"/>
-      <c r="X59" s="110"/>
-      <c r="Y59" s="110"/>
-      <c r="Z59" s="110"/>
-      <c r="AA59" s="110"/>
-      <c r="AB59" s="110"/>
-      <c r="AC59" s="110"/>
-      <c r="AD59" s="110"/>
-      <c r="AE59" s="110"/>
-      <c r="AF59" s="110"/>
-      <c r="AG59" s="110"/>
-      <c r="AH59" s="110"/>
-      <c r="AI59" s="110"/>
-      <c r="AJ59" s="110"/>
+      <c r="O59" s="109"/>
+      <c r="P59" s="109"/>
+      <c r="Q59" s="109"/>
+      <c r="R59" s="109"/>
+      <c r="S59" s="109"/>
+      <c r="T59" s="109"/>
+      <c r="U59" s="109"/>
+      <c r="V59" s="109"/>
+      <c r="W59" s="109"/>
+      <c r="X59" s="109"/>
+      <c r="Y59" s="109"/>
+      <c r="Z59" s="109"/>
+      <c r="AA59" s="109"/>
+      <c r="AB59" s="109"/>
+      <c r="AC59" s="109"/>
+      <c r="AD59" s="109"/>
+      <c r="AE59" s="109"/>
+      <c r="AF59" s="109"/>
+      <c r="AG59" s="109"/>
+      <c r="AH59" s="109"/>
+      <c r="AI59" s="109"/>
+      <c r="AJ59" s="109"/>
     </row>
     <row r="60" spans="2:36" ht="15" thickTop="1">
       <c r="B60" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C60" s="119"/>
-      <c r="D60" s="137">
+      <c r="C60" s="118"/>
+      <c r="D60" s="136">
         <f>D6/D3</f>
         <v>0.10541782018961597</v>
       </c>
-      <c r="E60" s="137">
+      <c r="E60" s="136">
         <f t="shared" ref="E60:M60" si="124">E6/E3</f>
         <v>0.12184660123591422</v>
       </c>
-      <c r="F60" s="137">
+      <c r="F60" s="136">
         <f t="shared" si="124"/>
         <v>0.10955576432693598</v>
       </c>
-      <c r="G60" s="137">
+      <c r="G60" s="136">
         <f t="shared" si="124"/>
         <v>0.10748612762584225</v>
       </c>
-      <c r="H60" s="137">
+      <c r="H60" s="136">
         <f>H6/H3</f>
         <v>0.26737936468734197</v>
       </c>
-      <c r="I60" s="137">
+      <c r="I60" s="136">
         <f t="shared" si="124"/>
         <v>0.12412837144338515</v>
       </c>
-      <c r="J60" s="137">
+      <c r="J60" s="136">
         <f t="shared" si="124"/>
         <v>0.11985276569183602</v>
       </c>
-      <c r="K60" s="137">
+      <c r="K60" s="136">
         <f>K6/K3</f>
         <v>0.10171488161909543</v>
       </c>
-      <c r="L60" s="137">
+      <c r="L60" s="136">
         <f>L6/L3</f>
         <v>0.12165657086394295</v>
       </c>
-      <c r="M60" s="137">
+      <c r="M60" s="136">
         <f t="shared" si="124"/>
         <v>4.4224101723669362E-2</v>
       </c>
-      <c r="O60" s="110"/>
-      <c r="P60" s="110"/>
-      <c r="Q60" s="110"/>
-      <c r="R60" s="110"/>
-      <c r="S60" s="110"/>
-      <c r="T60" s="110"/>
-      <c r="U60" s="110"/>
-      <c r="V60" s="110"/>
-      <c r="W60" s="110"/>
-      <c r="X60" s="110"/>
-      <c r="Y60" s="110"/>
-      <c r="Z60" s="110"/>
-      <c r="AA60" s="110"/>
-      <c r="AB60" s="110"/>
-      <c r="AC60" s="110"/>
-      <c r="AD60" s="110"/>
-      <c r="AE60" s="110"/>
-      <c r="AF60" s="110"/>
-      <c r="AG60" s="110"/>
-      <c r="AH60" s="110"/>
-      <c r="AI60" s="110"/>
-      <c r="AJ60" s="110"/>
+      <c r="O60" s="109"/>
+      <c r="P60" s="109"/>
+      <c r="Q60" s="109"/>
+      <c r="R60" s="109"/>
+      <c r="S60" s="109"/>
+      <c r="T60" s="109"/>
+      <c r="U60" s="109"/>
+      <c r="V60" s="109"/>
+      <c r="W60" s="109"/>
+      <c r="X60" s="109"/>
+      <c r="Y60" s="109"/>
+      <c r="Z60" s="109"/>
+      <c r="AA60" s="109"/>
+      <c r="AB60" s="109"/>
+      <c r="AC60" s="109"/>
+      <c r="AD60" s="109"/>
+      <c r="AE60" s="109"/>
+      <c r="AF60" s="109"/>
+      <c r="AG60" s="109"/>
+      <c r="AH60" s="109"/>
+      <c r="AI60" s="109"/>
+      <c r="AJ60" s="109"/>
     </row>
     <row r="61" spans="2:36">
       <c r="B61" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C61" s="119"/>
-      <c r="D61" s="137">
+      <c r="C61" s="118"/>
+      <c r="D61" s="136">
         <f t="shared" ref="D61:M61" si="125">D9/D3</f>
         <v>0.33150316284393028</v>
       </c>
-      <c r="E61" s="137">
+      <c r="E61" s="136">
         <f t="shared" si="125"/>
         <v>0.33330425299890948</v>
       </c>
-      <c r="F61" s="137">
+      <c r="F61" s="136">
         <f t="shared" si="125"/>
         <v>0.33120386525298617</v>
       </c>
-      <c r="G61" s="137">
+      <c r="G61" s="136">
         <f t="shared" si="125"/>
         <v>0.32522047166072138</v>
       </c>
-      <c r="H61" s="137">
+      <c r="H61" s="136">
         <f t="shared" si="125"/>
         <v>0.32584177163085537</v>
       </c>
-      <c r="I61" s="137">
+      <c r="I61" s="136">
         <f t="shared" si="125"/>
         <v>0.31410371718497043</v>
       </c>
-      <c r="J61" s="137">
+      <c r="J61" s="136">
         <f t="shared" si="125"/>
         <v>0.31280865047456446</v>
       </c>
-      <c r="K61" s="137">
+      <c r="K61" s="136">
         <f>K9/K3</f>
         <v>0.29540187710015064</v>
       </c>
-      <c r="L61" s="137">
+      <c r="L61" s="136">
         <f t="shared" si="125"/>
         <v>0.29746960518967219</v>
       </c>
-      <c r="M61" s="137">
+      <c r="M61" s="136">
         <f t="shared" si="125"/>
         <v>0.2294547341200886</v>
       </c>
-      <c r="O61" s="110"/>
-      <c r="P61" s="110"/>
-      <c r="Q61" s="110"/>
-      <c r="R61" s="110"/>
-      <c r="S61" s="110"/>
-      <c r="T61" s="110"/>
-      <c r="U61" s="110"/>
-      <c r="V61" s="110"/>
-      <c r="W61" s="110"/>
-      <c r="X61" s="110"/>
-      <c r="Y61" s="110"/>
-      <c r="Z61" s="110"/>
-      <c r="AA61" s="110"/>
-      <c r="AB61" s="110"/>
-      <c r="AC61" s="110"/>
-      <c r="AD61" s="110"/>
-      <c r="AE61" s="110"/>
-      <c r="AF61" s="110"/>
-      <c r="AG61" s="110"/>
-      <c r="AH61" s="110"/>
-      <c r="AI61" s="110"/>
-      <c r="AJ61" s="110"/>
+      <c r="O61" s="109"/>
+      <c r="P61" s="109"/>
+      <c r="Q61" s="109"/>
+      <c r="R61" s="109"/>
+      <c r="S61" s="109"/>
+      <c r="T61" s="109"/>
+      <c r="U61" s="109"/>
+      <c r="V61" s="109"/>
+      <c r="W61" s="109"/>
+      <c r="X61" s="109"/>
+      <c r="Y61" s="109"/>
+      <c r="Z61" s="109"/>
+      <c r="AA61" s="109"/>
+      <c r="AB61" s="109"/>
+      <c r="AC61" s="109"/>
+      <c r="AD61" s="109"/>
+      <c r="AE61" s="109"/>
+      <c r="AF61" s="109"/>
+      <c r="AG61" s="109"/>
+      <c r="AH61" s="109"/>
+      <c r="AI61" s="109"/>
+      <c r="AJ61" s="109"/>
     </row>
     <row r="62" spans="2:36">
       <c r="B62" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C62" s="119"/>
-      <c r="D62" s="137">
+      <c r="C62" s="118"/>
+      <c r="D62" s="136">
         <f t="shared" ref="D62:L62" si="126">D28/D3</f>
         <v>5.6931190745008277E-2</v>
       </c>
-      <c r="E62" s="137">
+      <c r="E62" s="136">
         <f t="shared" si="126"/>
         <v>0.11360232642675391</v>
       </c>
-      <c r="F62" s="137">
+      <c r="F62" s="136">
         <f t="shared" si="126"/>
         <v>0.10861629311501812</v>
       </c>
-      <c r="G62" s="137">
+      <c r="G62" s="136">
         <f t="shared" si="126"/>
         <v>9.5087693222354344E-2</v>
       </c>
-      <c r="H62" s="137">
+      <c r="H62" s="136">
         <f t="shared" si="126"/>
         <v>0.11003304754848346</v>
       </c>
-      <c r="I62" s="137">
+      <c r="I62" s="136">
         <f t="shared" si="126"/>
         <v>8.0988709831017802E-2</v>
       </c>
-      <c r="J62" s="137">
+      <c r="J62" s="136">
         <f t="shared" si="126"/>
         <v>8.1318499752161696E-2</v>
       </c>
-      <c r="K62" s="137">
+      <c r="K62" s="136">
         <f t="shared" si="126"/>
         <v>7.689930864006797E-2</v>
       </c>
-      <c r="L62" s="137">
+      <c r="L62" s="136">
         <f t="shared" si="126"/>
         <v>0.11418997293465653</v>
       </c>
-      <c r="M62" s="137">
+      <c r="M62" s="136">
         <f>M28/M3</f>
         <v>9.1857659334414921E-2</v>
       </c>
-      <c r="O62" s="110"/>
-      <c r="P62" s="110"/>
-      <c r="Q62" s="110"/>
-      <c r="R62" s="110"/>
-      <c r="S62" s="110"/>
-      <c r="T62" s="110"/>
-      <c r="U62" s="110"/>
-      <c r="V62" s="110"/>
-      <c r="W62" s="110"/>
-      <c r="X62" s="110"/>
-      <c r="Y62" s="110"/>
-      <c r="Z62" s="110"/>
-      <c r="AA62" s="110"/>
-      <c r="AB62" s="110"/>
-      <c r="AC62" s="110"/>
-      <c r="AD62" s="110"/>
-      <c r="AE62" s="110"/>
-      <c r="AF62" s="110"/>
-      <c r="AG62" s="110"/>
-      <c r="AH62" s="110"/>
-      <c r="AI62" s="110"/>
-      <c r="AJ62" s="110"/>
+      <c r="O62" s="109"/>
+      <c r="P62" s="109"/>
+      <c r="Q62" s="109"/>
+      <c r="R62" s="109"/>
+      <c r="S62" s="109"/>
+      <c r="T62" s="109"/>
+      <c r="U62" s="109"/>
+      <c r="V62" s="109"/>
+      <c r="W62" s="109"/>
+      <c r="X62" s="109"/>
+      <c r="Y62" s="109"/>
+      <c r="Z62" s="109"/>
+      <c r="AA62" s="109"/>
+      <c r="AB62" s="109"/>
+      <c r="AC62" s="109"/>
+      <c r="AD62" s="109"/>
+      <c r="AE62" s="109"/>
+      <c r="AF62" s="109"/>
+      <c r="AG62" s="109"/>
+      <c r="AH62" s="109"/>
+      <c r="AI62" s="109"/>
+      <c r="AJ62" s="109"/>
     </row>
     <row r="63" spans="2:36">
-      <c r="O63" s="110"/>
-      <c r="P63" s="110"/>
-      <c r="Q63" s="110"/>
-      <c r="R63" s="110"/>
-      <c r="S63" s="110"/>
-      <c r="T63" s="110"/>
-      <c r="U63" s="110"/>
-      <c r="V63" s="110"/>
-      <c r="W63" s="110"/>
-      <c r="X63" s="110"/>
-      <c r="Y63" s="110"/>
-      <c r="Z63" s="110"/>
-      <c r="AA63" s="110"/>
-      <c r="AB63" s="110"/>
-      <c r="AC63" s="110"/>
-      <c r="AD63" s="110"/>
-      <c r="AE63" s="110"/>
-      <c r="AF63" s="110"/>
-      <c r="AG63" s="110"/>
-      <c r="AH63" s="110"/>
-      <c r="AI63" s="110"/>
-      <c r="AJ63" s="110"/>
+      <c r="O63" s="109"/>
+      <c r="P63" s="109"/>
+      <c r="Q63" s="109"/>
+      <c r="R63" s="109"/>
+      <c r="S63" s="109"/>
+      <c r="T63" s="109"/>
+      <c r="U63" s="109"/>
+      <c r="V63" s="109"/>
+      <c r="W63" s="109"/>
+      <c r="X63" s="109"/>
+      <c r="Y63" s="109"/>
+      <c r="Z63" s="109"/>
+      <c r="AA63" s="109"/>
+      <c r="AB63" s="109"/>
+      <c r="AC63" s="109"/>
+      <c r="AD63" s="109"/>
+      <c r="AE63" s="109"/>
+      <c r="AF63" s="109"/>
+      <c r="AG63" s="109"/>
+      <c r="AH63" s="109"/>
+      <c r="AI63" s="109"/>
+      <c r="AJ63" s="109"/>
     </row>
     <row r="64" spans="2:36" ht="17.5" thickBot="1">
       <c r="B64" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C64" s="113"/>
-      <c r="D64" s="113">
+      <c r="C64" s="112"/>
+      <c r="D64" s="112">
         <v>2013</v>
       </c>
-      <c r="E64" s="113">
+      <c r="E64" s="112">
         <v>2014</v>
       </c>
-      <c r="F64" s="113">
+      <c r="F64" s="112">
         <v>2015</v>
       </c>
-      <c r="G64" s="113">
+      <c r="G64" s="112">
         <v>2016</v>
       </c>
-      <c r="H64" s="113">
+      <c r="H64" s="112">
         <v>2017</v>
       </c>
-      <c r="I64" s="113">
+      <c r="I64" s="112">
         <v>2018</v>
       </c>
-      <c r="J64" s="113">
+      <c r="J64" s="112">
         <v>2019</v>
       </c>
-      <c r="K64" s="113">
+      <c r="K64" s="112">
         <v>2020</v>
       </c>
-      <c r="L64" s="113">
+      <c r="L64" s="112">
         <v>2021</v>
       </c>
-      <c r="M64" s="113">
+      <c r="M64" s="112">
         <v>2022</v>
       </c>
-      <c r="O64" s="110"/>
-      <c r="P64" s="110"/>
-      <c r="Q64" s="110"/>
-      <c r="R64" s="110"/>
-      <c r="S64" s="110"/>
-      <c r="T64" s="110"/>
-      <c r="U64" s="110"/>
-      <c r="V64" s="110"/>
-      <c r="W64" s="110"/>
-      <c r="X64" s="110"/>
-      <c r="Y64" s="110"/>
-      <c r="Z64" s="110"/>
-      <c r="AA64" s="110"/>
-      <c r="AB64" s="110"/>
-      <c r="AC64" s="110"/>
-      <c r="AD64" s="110"/>
-      <c r="AE64" s="110"/>
-      <c r="AF64" s="110"/>
-      <c r="AG64" s="110"/>
-      <c r="AH64" s="110"/>
-      <c r="AI64" s="110"/>
-      <c r="AJ64" s="110"/>
+      <c r="O64" s="109"/>
+      <c r="P64" s="109"/>
+      <c r="Q64" s="109"/>
+      <c r="R64" s="109"/>
+      <c r="S64" s="109"/>
+      <c r="T64" s="109"/>
+      <c r="U64" s="109"/>
+      <c r="V64" s="109"/>
+      <c r="W64" s="109"/>
+      <c r="X64" s="109"/>
+      <c r="Y64" s="109"/>
+      <c r="Z64" s="109"/>
+      <c r="AA64" s="109"/>
+      <c r="AB64" s="109"/>
+      <c r="AC64" s="109"/>
+      <c r="AD64" s="109"/>
+      <c r="AE64" s="109"/>
+      <c r="AF64" s="109"/>
+      <c r="AG64" s="109"/>
+      <c r="AH64" s="109"/>
+      <c r="AI64" s="109"/>
+      <c r="AJ64" s="109"/>
     </row>
     <row r="65" spans="2:36" ht="15" thickTop="1">
       <c r="B65" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C65" s="122"/>
-      <c r="D65" s="137">
+      <c r="C65" s="121"/>
+      <c r="D65" s="136">
         <f t="shared" ref="D65:M65" si="127">D31/D6</f>
         <v>0.28814553990610331</v>
       </c>
-      <c r="E65" s="137">
+      <c r="E65" s="136">
         <f t="shared" si="127"/>
         <v>0.26897374701670645</v>
       </c>
-      <c r="F65" s="137">
+      <c r="F65" s="136">
         <f t="shared" si="127"/>
         <v>0.29854220262158521</v>
       </c>
-      <c r="G65" s="137">
+      <c r="G65" s="136">
         <f t="shared" si="127"/>
         <v>0.29972343858031802</v>
       </c>
-      <c r="H65" s="137">
+      <c r="H65" s="136">
         <f t="shared" si="127"/>
         <v>0.12680888497910711</v>
       </c>
-      <c r="I65" s="137">
+      <c r="I65" s="136">
         <f t="shared" si="127"/>
         <v>0.28573864120705822</v>
       </c>
-      <c r="J65" s="137">
+      <c r="J65" s="136">
         <f t="shared" si="127"/>
         <v>0.28605345791529446</v>
       </c>
-      <c r="K65" s="137">
+      <c r="K65" s="136">
         <f t="shared" si="127"/>
         <v>0.3930131004366812</v>
       </c>
-      <c r="L65" s="137">
+      <c r="L65" s="136">
         <f t="shared" si="127"/>
         <v>0.32007910163147113</v>
       </c>
-      <c r="M65" s="137">
+      <c r="M65" s="136">
         <f t="shared" si="127"/>
         <v>0.88286778398510246</v>
       </c>
-      <c r="O65" s="110"/>
-      <c r="P65" s="110"/>
-      <c r="Q65" s="110"/>
-      <c r="R65" s="110"/>
-      <c r="S65" s="110"/>
-      <c r="T65" s="110"/>
-      <c r="U65" s="110"/>
-      <c r="V65" s="110"/>
-      <c r="W65" s="110"/>
-      <c r="X65" s="110"/>
-      <c r="Y65" s="110"/>
-      <c r="Z65" s="110"/>
-      <c r="AA65" s="110"/>
-      <c r="AB65" s="110"/>
-      <c r="AC65" s="110"/>
-      <c r="AD65" s="110"/>
-      <c r="AE65" s="110"/>
-      <c r="AF65" s="110"/>
-      <c r="AG65" s="110"/>
-      <c r="AH65" s="110"/>
-      <c r="AI65" s="110"/>
-      <c r="AJ65" s="110"/>
+      <c r="O65" s="109"/>
+      <c r="P65" s="109"/>
+      <c r="Q65" s="109"/>
+      <c r="R65" s="109"/>
+      <c r="S65" s="109"/>
+      <c r="T65" s="109"/>
+      <c r="U65" s="109"/>
+      <c r="V65" s="109"/>
+      <c r="W65" s="109"/>
+      <c r="X65" s="109"/>
+      <c r="Y65" s="109"/>
+      <c r="Z65" s="109"/>
+      <c r="AA65" s="109"/>
+      <c r="AB65" s="109"/>
+      <c r="AC65" s="109"/>
+      <c r="AD65" s="109"/>
+      <c r="AE65" s="109"/>
+      <c r="AF65" s="109"/>
+      <c r="AG65" s="109"/>
+      <c r="AH65" s="109"/>
+      <c r="AI65" s="109"/>
+      <c r="AJ65" s="109"/>
     </row>
     <row r="66" spans="2:36">
-      <c r="O66" s="110"/>
-      <c r="P66" s="110"/>
-      <c r="Q66" s="110"/>
-      <c r="R66" s="110"/>
-      <c r="S66" s="110"/>
-      <c r="T66" s="110"/>
-      <c r="U66" s="110"/>
-      <c r="V66" s="110"/>
-      <c r="W66" s="110"/>
-      <c r="X66" s="110"/>
-      <c r="Y66" s="110"/>
-      <c r="Z66" s="110"/>
-      <c r="AA66" s="110"/>
-      <c r="AB66" s="110"/>
-      <c r="AC66" s="110"/>
-      <c r="AD66" s="110"/>
-      <c r="AE66" s="110"/>
-      <c r="AF66" s="110"/>
-      <c r="AG66" s="110"/>
-      <c r="AH66" s="110"/>
-      <c r="AI66" s="110"/>
-      <c r="AJ66" s="110"/>
+      <c r="O66" s="109"/>
+      <c r="P66" s="109"/>
+      <c r="Q66" s="109"/>
+      <c r="R66" s="109"/>
+      <c r="S66" s="109"/>
+      <c r="T66" s="109"/>
+      <c r="U66" s="109"/>
+      <c r="V66" s="109"/>
+      <c r="W66" s="109"/>
+      <c r="X66" s="109"/>
+      <c r="Y66" s="109"/>
+      <c r="Z66" s="109"/>
+      <c r="AA66" s="109"/>
+      <c r="AB66" s="109"/>
+      <c r="AC66" s="109"/>
+      <c r="AD66" s="109"/>
+      <c r="AE66" s="109"/>
+      <c r="AF66" s="109"/>
+      <c r="AG66" s="109"/>
+      <c r="AH66" s="109"/>
+      <c r="AI66" s="109"/>
+      <c r="AJ66" s="109"/>
     </row>
     <row r="67" spans="2:36" ht="17.5" thickBot="1">
       <c r="B67" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C67" s="113"/>
-      <c r="D67" s="113">
+      <c r="C67" s="112"/>
+      <c r="D67" s="112">
         <v>2013</v>
       </c>
-      <c r="E67" s="113">
+      <c r="E67" s="112">
         <v>2014</v>
       </c>
-      <c r="F67" s="113">
+      <c r="F67" s="112">
         <v>2015</v>
       </c>
-      <c r="G67" s="113">
+      <c r="G67" s="112">
         <v>2016</v>
       </c>
-      <c r="H67" s="113">
+      <c r="H67" s="112">
         <v>2017</v>
       </c>
-      <c r="I67" s="113">
+      <c r="I67" s="112">
         <v>2018</v>
       </c>
-      <c r="J67" s="113">
+      <c r="J67" s="112">
         <v>2019</v>
       </c>
-      <c r="K67" s="113">
+      <c r="K67" s="112">
         <v>2020</v>
       </c>
-      <c r="L67" s="113">
+      <c r="L67" s="112">
         <v>2021</v>
       </c>
-      <c r="M67" s="113">
+      <c r="M67" s="112">
         <v>2022</v>
       </c>
-      <c r="O67" s="110"/>
-      <c r="P67" s="110"/>
-      <c r="Q67" s="110"/>
-      <c r="R67" s="110"/>
-      <c r="S67" s="110"/>
-      <c r="T67" s="110"/>
-      <c r="U67" s="110"/>
-      <c r="V67" s="110"/>
-      <c r="W67" s="110"/>
-      <c r="X67" s="110"/>
-      <c r="Y67" s="110"/>
-      <c r="Z67" s="110"/>
-      <c r="AA67" s="110"/>
-      <c r="AB67" s="110"/>
-      <c r="AC67" s="110"/>
-      <c r="AD67" s="110"/>
-      <c r="AE67" s="110"/>
-      <c r="AF67" s="110"/>
-      <c r="AG67" s="110"/>
-      <c r="AH67" s="110"/>
-      <c r="AI67" s="110"/>
-      <c r="AJ67" s="110"/>
+      <c r="O67" s="109"/>
+      <c r="P67" s="109"/>
+      <c r="Q67" s="109"/>
+      <c r="R67" s="109"/>
+      <c r="S67" s="109"/>
+      <c r="T67" s="109"/>
+      <c r="U67" s="109"/>
+      <c r="V67" s="109"/>
+      <c r="W67" s="109"/>
+      <c r="X67" s="109"/>
+      <c r="Y67" s="109"/>
+      <c r="Z67" s="109"/>
+      <c r="AA67" s="109"/>
+      <c r="AB67" s="109"/>
+      <c r="AC67" s="109"/>
+      <c r="AD67" s="109"/>
+      <c r="AE67" s="109"/>
+      <c r="AF67" s="109"/>
+      <c r="AG67" s="109"/>
+      <c r="AH67" s="109"/>
+      <c r="AI67" s="109"/>
+      <c r="AJ67" s="109"/>
     </row>
     <row r="68" spans="2:36" ht="15" thickTop="1">
       <c r="B68" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C68" s="119"/>
-      <c r="D68" s="118">
+      <c r="C68" s="118"/>
+      <c r="D68" s="117">
         <f>D52/D54</f>
         <v>2.1104430255787534</v>
       </c>
-      <c r="E68" s="118">
+      <c r="E68" s="117">
         <f t="shared" ref="E68:M68" si="128">E52/E54</f>
         <v>1.9996608125423985</v>
       </c>
-      <c r="F68" s="118">
+      <c r="F68" s="117">
         <f t="shared" si="128"/>
         <v>2.0859609470525027</v>
       </c>
-      <c r="G68" s="118">
+      <c r="G68" s="117">
         <f t="shared" si="128"/>
         <v>2.2132303200769039</v>
       </c>
-      <c r="H68" s="118">
+      <c r="H68" s="117">
         <f t="shared" si="128"/>
         <v>1.6988871132610606</v>
       </c>
-      <c r="I68" s="118">
+      <c r="I68" s="117">
         <f t="shared" si="128"/>
         <v>2.4714076853052331</v>
       </c>
-      <c r="J68" s="118">
+      <c r="J68" s="117">
         <f t="shared" si="128"/>
         <v>2.1405918401411643</v>
       </c>
-      <c r="K68" s="118">
+      <c r="K68" s="117">
         <f t="shared" si="128"/>
         <v>1.98533868189845</v>
       </c>
-      <c r="L68" s="118">
+      <c r="L68" s="117">
         <f t="shared" si="128"/>
         <v>1.8301141667265024</v>
       </c>
-      <c r="M68" s="118">
+      <c r="M68" s="117">
         <f t="shared" si="128"/>
         <v>2.1517984025089429</v>
       </c>
-      <c r="O68" s="110"/>
-      <c r="P68" s="110"/>
-      <c r="Q68" s="110"/>
-      <c r="R68" s="110"/>
-      <c r="S68" s="110"/>
-      <c r="T68" s="110"/>
-      <c r="U68" s="110"/>
-      <c r="V68" s="110"/>
-      <c r="W68" s="110"/>
-      <c r="X68" s="110"/>
-      <c r="Y68" s="110"/>
-      <c r="Z68" s="110"/>
-      <c r="AA68" s="110"/>
-      <c r="AB68" s="110"/>
-      <c r="AC68" s="110"/>
-      <c r="AD68" s="110"/>
-      <c r="AE68" s="110"/>
-      <c r="AF68" s="110"/>
-      <c r="AG68" s="110"/>
-      <c r="AH68" s="110"/>
-      <c r="AI68" s="110"/>
-      <c r="AJ68" s="110"/>
+      <c r="O68" s="109"/>
+      <c r="P68" s="109"/>
+      <c r="Q68" s="109"/>
+      <c r="R68" s="109"/>
+      <c r="S68" s="109"/>
+      <c r="T68" s="109"/>
+      <c r="U68" s="109"/>
+      <c r="V68" s="109"/>
+      <c r="W68" s="109"/>
+      <c r="X68" s="109"/>
+      <c r="Y68" s="109"/>
+      <c r="Z68" s="109"/>
+      <c r="AA68" s="109"/>
+      <c r="AB68" s="109"/>
+      <c r="AC68" s="109"/>
+      <c r="AD68" s="109"/>
+      <c r="AE68" s="109"/>
+      <c r="AF68" s="109"/>
+      <c r="AG68" s="109"/>
+      <c r="AH68" s="109"/>
+      <c r="AI68" s="109"/>
+      <c r="AJ68" s="109"/>
     </row>
     <row r="69" spans="2:36">
       <c r="B69" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C69" s="119"/>
-      <c r="D69" s="118">
+      <c r="C69" s="118"/>
+      <c r="D69" s="117">
         <f>D38/D46</f>
         <v>0.74423646362098139</v>
       </c>
-      <c r="E69" s="118">
+      <c r="E69" s="117">
         <f t="shared" ref="E69:M69" si="129">E38/E46</f>
         <v>0.77719701321079837</v>
       </c>
-      <c r="F69" s="118">
+      <c r="F69" s="117">
         <f t="shared" si="129"/>
         <v>0.67680712949719446</v>
       </c>
-      <c r="G69" s="118">
+      <c r="G69" s="117">
         <f t="shared" si="129"/>
         <v>0.75973995820756912</v>
       </c>
-      <c r="H69" s="118">
+      <c r="H69" s="117">
         <f t="shared" si="129"/>
         <v>0.74310007729732186</v>
       </c>
-      <c r="I69" s="118">
+      <c r="I69" s="117">
         <f t="shared" si="129"/>
         <v>0.79150816940187663</v>
       </c>
-      <c r="J69" s="118">
+      <c r="J69" s="117">
         <f t="shared" si="129"/>
         <v>0.83824111976759541</v>
       </c>
-      <c r="K69" s="118">
+      <c r="K69" s="117">
         <f t="shared" si="129"/>
         <v>0.92863592165578557</v>
       </c>
-      <c r="L69" s="118">
+      <c r="L69" s="117">
         <f t="shared" si="129"/>
         <v>0.84527054654490941</v>
       </c>
-      <c r="M69" s="118">
+      <c r="M69" s="117">
         <f t="shared" si="129"/>
         <v>0.78265858643812525</v>
       </c>
-      <c r="O69" s="110"/>
-      <c r="P69" s="110"/>
-      <c r="Q69" s="110"/>
-      <c r="R69" s="110"/>
-      <c r="S69" s="110"/>
-      <c r="T69" s="110"/>
-      <c r="U69" s="110"/>
-      <c r="V69" s="110"/>
-      <c r="W69" s="110"/>
-      <c r="X69" s="110"/>
-      <c r="Y69" s="110"/>
-      <c r="Z69" s="110"/>
-      <c r="AA69" s="110"/>
-      <c r="AB69" s="110"/>
-      <c r="AC69" s="110"/>
-      <c r="AD69" s="110"/>
-      <c r="AE69" s="110"/>
-      <c r="AF69" s="110"/>
-      <c r="AG69" s="110"/>
-      <c r="AH69" s="110"/>
-      <c r="AI69" s="110"/>
-      <c r="AJ69" s="110"/>
+      <c r="O69" s="109"/>
+      <c r="P69" s="109"/>
+      <c r="Q69" s="109"/>
+      <c r="R69" s="109"/>
+      <c r="S69" s="109"/>
+      <c r="T69" s="109"/>
+      <c r="U69" s="109"/>
+      <c r="V69" s="109"/>
+      <c r="W69" s="109"/>
+      <c r="X69" s="109"/>
+      <c r="Y69" s="109"/>
+      <c r="Z69" s="109"/>
+      <c r="AA69" s="109"/>
+      <c r="AB69" s="109"/>
+      <c r="AC69" s="109"/>
+      <c r="AD69" s="109"/>
+      <c r="AE69" s="109"/>
+      <c r="AF69" s="109"/>
+      <c r="AG69" s="109"/>
+      <c r="AH69" s="109"/>
+      <c r="AI69" s="109"/>
+      <c r="AJ69" s="109"/>
     </row>
     <row r="70" spans="2:36">
-      <c r="O70" s="110"/>
-      <c r="P70" s="110"/>
-      <c r="Q70" s="110"/>
-      <c r="R70" s="110"/>
-      <c r="S70" s="110"/>
-      <c r="T70" s="110"/>
-      <c r="U70" s="110"/>
-      <c r="V70" s="110"/>
-      <c r="W70" s="110"/>
-      <c r="X70" s="110"/>
-      <c r="Y70" s="110"/>
-      <c r="Z70" s="110"/>
-      <c r="AA70" s="110"/>
-      <c r="AB70" s="110"/>
-      <c r="AC70" s="110"/>
-      <c r="AD70" s="110"/>
-      <c r="AE70" s="110"/>
-      <c r="AF70" s="110"/>
-      <c r="AG70" s="110"/>
-      <c r="AH70" s="110"/>
-      <c r="AI70" s="110"/>
-      <c r="AJ70" s="110"/>
+      <c r="O70" s="109"/>
+      <c r="P70" s="109"/>
+      <c r="Q70" s="109"/>
+      <c r="R70" s="109"/>
+      <c r="S70" s="109"/>
+      <c r="T70" s="109"/>
+      <c r="U70" s="109"/>
+      <c r="V70" s="109"/>
+      <c r="W70" s="109"/>
+      <c r="X70" s="109"/>
+      <c r="Y70" s="109"/>
+      <c r="Z70" s="109"/>
+      <c r="AA70" s="109"/>
+      <c r="AB70" s="109"/>
+      <c r="AC70" s="109"/>
+      <c r="AD70" s="109"/>
+      <c r="AE70" s="109"/>
+      <c r="AF70" s="109"/>
+      <c r="AG70" s="109"/>
+      <c r="AH70" s="109"/>
+      <c r="AI70" s="109"/>
+      <c r="AJ70" s="109"/>
     </row>
     <row r="71" spans="2:36" ht="17.5" thickBot="1">
       <c r="B71" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C71" s="113"/>
-      <c r="D71" s="113"/>
-      <c r="O71" s="110"/>
-      <c r="P71" s="110"/>
-      <c r="Q71" s="110"/>
-      <c r="R71" s="110"/>
-      <c r="S71" s="110"/>
-      <c r="T71" s="110"/>
-      <c r="U71" s="110"/>
-      <c r="V71" s="110"/>
-      <c r="W71" s="110"/>
-      <c r="X71" s="110"/>
-      <c r="Y71" s="110"/>
-      <c r="Z71" s="110"/>
-      <c r="AA71" s="110"/>
-      <c r="AB71" s="110"/>
-      <c r="AC71" s="110"/>
-      <c r="AD71" s="110"/>
-      <c r="AE71" s="110"/>
-      <c r="AF71" s="110"/>
-      <c r="AG71" s="110"/>
-      <c r="AH71" s="110"/>
-      <c r="AI71" s="110"/>
-      <c r="AJ71" s="110"/>
+      <c r="C71" s="112"/>
+      <c r="D71" s="112"/>
+      <c r="O71" s="109"/>
+      <c r="P71" s="109"/>
+      <c r="Q71" s="109"/>
+      <c r="R71" s="109"/>
+      <c r="S71" s="109"/>
+      <c r="T71" s="109"/>
+      <c r="U71" s="109"/>
+      <c r="V71" s="109"/>
+      <c r="W71" s="109"/>
+      <c r="X71" s="109"/>
+      <c r="Y71" s="109"/>
+      <c r="Z71" s="109"/>
+      <c r="AA71" s="109"/>
+      <c r="AB71" s="109"/>
+      <c r="AC71" s="109"/>
+      <c r="AD71" s="109"/>
+      <c r="AE71" s="109"/>
+      <c r="AF71" s="109"/>
+      <c r="AG71" s="109"/>
+      <c r="AH71" s="109"/>
+      <c r="AI71" s="109"/>
+      <c r="AJ71" s="109"/>
     </row>
     <row r="72" spans="2:36" ht="15" thickTop="1">
       <c r="B72" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="119"/>
-      <c r="D72" s="132">
+      <c r="C72" s="118"/>
+      <c r="D72" s="131">
         <f>(M28/I28)^0.2 - 1</f>
         <v>7.8222614573602911E-2</v>
       </c>
-      <c r="O72" s="110"/>
-      <c r="P72" s="110"/>
-      <c r="Q72" s="110"/>
-      <c r="R72" s="110"/>
-      <c r="S72" s="110"/>
-      <c r="T72" s="110"/>
-      <c r="U72" s="110"/>
-      <c r="V72" s="110"/>
-      <c r="W72" s="110"/>
-      <c r="X72" s="110"/>
-      <c r="Y72" s="110"/>
-      <c r="Z72" s="110"/>
-      <c r="AA72" s="110"/>
-      <c r="AB72" s="110"/>
-      <c r="AC72" s="110"/>
-      <c r="AD72" s="110"/>
-      <c r="AE72" s="110"/>
-      <c r="AF72" s="110"/>
-      <c r="AG72" s="110"/>
-      <c r="AH72" s="110"/>
-      <c r="AI72" s="110"/>
-      <c r="AJ72" s="110"/>
+      <c r="O72" s="109"/>
+      <c r="P72" s="109"/>
+      <c r="Q72" s="109"/>
+      <c r="R72" s="109"/>
+      <c r="S72" s="109"/>
+      <c r="T72" s="109"/>
+      <c r="U72" s="109"/>
+      <c r="V72" s="109"/>
+      <c r="W72" s="109"/>
+      <c r="X72" s="109"/>
+      <c r="Y72" s="109"/>
+      <c r="Z72" s="109"/>
+      <c r="AA72" s="109"/>
+      <c r="AB72" s="109"/>
+      <c r="AC72" s="109"/>
+      <c r="AD72" s="109"/>
+      <c r="AE72" s="109"/>
+      <c r="AF72" s="109"/>
+      <c r="AG72" s="109"/>
+      <c r="AH72" s="109"/>
+      <c r="AI72" s="109"/>
+      <c r="AJ72" s="109"/>
     </row>
     <row r="73" spans="2:36">
       <c r="B73" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C73" s="119"/>
-      <c r="D73" s="132">
+      <c r="C73" s="118"/>
+      <c r="D73" s="131">
         <f>(M28/D28)^0.1 - 1</f>
         <v>0.11724001576861531</v>
       </c>
@@ -23346,8 +23350,8 @@
       <c r="B74" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C74" s="122"/>
-      <c r="D74" s="132">
+      <c r="C74" s="121"/>
+      <c r="D74" s="131">
         <f>(M6/I6)^0.2 - 1</f>
         <v>-0.14468153045679921</v>
       </c>
@@ -23356,8 +23360,8 @@
       <c r="B75" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C75" s="122"/>
-      <c r="D75" s="132">
+      <c r="C75" s="121"/>
+      <c r="D75" s="131">
         <f>(M6/D6)^0.1 - 1</f>
         <v>-2.3562454391197973E-2</v>
       </c>
@@ -23366,8 +23370,8 @@
       <c r="B76" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C76" s="122"/>
-      <c r="D76" s="132">
+      <c r="C76" s="121"/>
+      <c r="D76" s="131">
         <f>(M3/I3)^0.2 - 1</f>
         <v>5.140553170801887E-2</v>
       </c>
@@ -23376,8 +23380,8 @@
       <c r="B77" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C77" s="122"/>
-      <c r="D77" s="132">
+      <c r="C77" s="121"/>
+      <c r="D77" s="131">
         <f>(M3/D3)^0.1 - 1</f>
         <v>6.5049938261403595E-2</v>
       </c>
@@ -23386,8 +23390,8 @@
       <c r="B78" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C78" s="122"/>
-      <c r="D78" s="132">
+      <c r="C78" s="121"/>
+      <c r="D78" s="131">
         <f>(M9/I9)^0.2 - 1</f>
         <v>-1.2595625542054179E-2</v>
       </c>
@@ -23396,8 +23400,8 @@
       <c r="B79" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C79" s="122"/>
-      <c r="D79" s="132">
+      <c r="C79" s="121"/>
+      <c r="D79" s="131">
         <f>(M9/D9)^0.2 - 1</f>
         <v>5.3857309948096344E-2</v>
       </c>
@@ -23406,7 +23410,7 @@
       <c r="B80" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="D80" s="132">
+      <c r="D80" s="131">
         <f>(M31/I31)^0.2 - 1</f>
         <v>7.1798608998944413E-2</v>
       </c>
@@ -23415,7 +23419,7 @@
       <c r="B81" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="D81" s="132">
+      <c r="D81" s="131">
         <f>AVERAGE(I32:M32)</f>
         <v>0.10523482790922609</v>
       </c>
@@ -23424,7 +23428,7 @@
       <c r="B82" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D82" s="132">
+      <c r="D82" s="131">
         <f>AVERAGE(I65:M65)</f>
         <v>0.43355041703512143</v>
       </c>
@@ -23433,35 +23437,35 @@
       <c r="B84" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C84" s="113"/>
-      <c r="D84" s="113">
+      <c r="C84" s="112"/>
+      <c r="D84" s="112">
         <v>2013</v>
       </c>
-      <c r="E84" s="113">
+      <c r="E84" s="112">
         <v>2014</v>
       </c>
-      <c r="F84" s="113">
+      <c r="F84" s="112">
         <v>2015</v>
       </c>
-      <c r="G84" s="113">
+      <c r="G84" s="112">
         <v>2016</v>
       </c>
-      <c r="H84" s="113">
+      <c r="H84" s="112">
         <v>2017</v>
       </c>
-      <c r="I84" s="113">
+      <c r="I84" s="112">
         <v>2018</v>
       </c>
-      <c r="J84" s="113">
+      <c r="J84" s="112">
         <v>2019</v>
       </c>
-      <c r="K84" s="113">
+      <c r="K84" s="112">
         <v>2020</v>
       </c>
-      <c r="L84" s="113">
+      <c r="L84" s="112">
         <v>2021</v>
       </c>
-      <c r="M84" s="113">
+      <c r="M84" s="112">
         <v>2022</v>
       </c>
     </row>
@@ -23469,46 +23473,46 @@
       <c r="B85" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C85" s="114">
+      <c r="C85" s="113">
         <v>0</v>
       </c>
-      <c r="D85" s="128">
+      <c r="D85" s="127">
         <f>100*D6/D44</f>
         <v>4.2918400886577297</v>
       </c>
-      <c r="E85" s="128">
+      <c r="E85" s="127">
         <f t="shared" ref="E85:M85" si="130">100*E6/E44</f>
         <v>5.2642820348523109</v>
       </c>
-      <c r="F85" s="128">
+      <c r="F85" s="127">
         <f t="shared" si="130"/>
         <v>4.9005246917286014</v>
       </c>
-      <c r="G85" s="128">
+      <c r="G85" s="127">
         <f t="shared" si="130"/>
         <v>4.8077562326869803</v>
       </c>
-      <c r="H85" s="128">
+      <c r="H85" s="127">
         <f t="shared" si="130"/>
         <v>12.127791232356424</v>
       </c>
-      <c r="I85" s="128">
+      <c r="I85" s="127">
         <f t="shared" si="130"/>
         <v>4.6610034805549816</v>
       </c>
-      <c r="J85" s="128">
+      <c r="J85" s="127">
         <f t="shared" si="130"/>
         <v>4.9568360071977953</v>
       </c>
-      <c r="K85" s="128">
+      <c r="K85" s="127">
         <f t="shared" si="130"/>
         <v>3.8463645027367099</v>
       </c>
-      <c r="L85" s="128">
+      <c r="L85" s="127">
         <f t="shared" si="130"/>
         <v>5.1318388575777893</v>
       </c>
-      <c r="M85" s="128">
+      <c r="M85" s="127">
         <f t="shared" si="130"/>
         <v>2.0872607132445826</v>
       </c>
@@ -23517,46 +23521,46 @@
       <c r="B86" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="C86" s="114">
+      <c r="C86" s="113">
         <v>0</v>
       </c>
-      <c r="D86" s="128">
+      <c r="D86" s="127">
         <f>100*D6/D54</f>
         <v>13.349524070664733</v>
       </c>
-      <c r="E86" s="128">
+      <c r="E86" s="127">
         <f t="shared" ref="E86:M86" si="131">100*E6/E54</f>
         <v>15.791060526117434</v>
       </c>
-      <c r="F86" s="128">
+      <c r="F86" s="127">
         <f t="shared" si="131"/>
         <v>15.122827818740969</v>
       </c>
-      <c r="G86" s="128">
+      <c r="G86" s="127">
         <f t="shared" si="131"/>
         <v>15.448428098408517</v>
       </c>
-      <c r="H86" s="128">
+      <c r="H86" s="127">
         <f t="shared" si="131"/>
         <v>32.731539469327231</v>
       </c>
-      <c r="I86" s="128">
+      <c r="I86" s="127">
         <f t="shared" si="131"/>
         <v>16.180243303633002</v>
       </c>
-      <c r="J86" s="128">
+      <c r="J86" s="127">
         <f t="shared" si="131"/>
         <v>15.567398717123304</v>
       </c>
-      <c r="K86" s="128">
+      <c r="K86" s="127">
         <f t="shared" si="131"/>
         <v>11.482700734700996</v>
       </c>
-      <c r="L86" s="128">
+      <c r="L86" s="127">
         <f t="shared" si="131"/>
         <v>14.523689852188452</v>
       </c>
-      <c r="M86" s="128">
+      <c r="M86" s="127">
         <f t="shared" si="131"/>
         <v>6.5786249816239524</v>
       </c>
@@ -23565,7 +23569,7 @@
       <c r="B87" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C87" s="114">
+      <c r="C87" s="113">
         <v>0</v>
       </c>
       <c r="D87" s="40">
@@ -23603,43 +23607,43 @@
       <c r="B89" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C89" s="113"/>
-      <c r="D89" s="113">
+      <c r="C89" s="112"/>
+      <c r="D89" s="112">
         <v>2013</v>
       </c>
-      <c r="E89" s="113">
+      <c r="E89" s="112">
         <v>2014</v>
       </c>
-      <c r="F89" s="113">
+      <c r="F89" s="112">
         <v>2015</v>
       </c>
-      <c r="G89" s="113">
+      <c r="G89" s="112">
         <v>2016</v>
       </c>
-      <c r="H89" s="113">
+      <c r="H89" s="112">
         <v>2017</v>
       </c>
-      <c r="I89" s="113">
+      <c r="I89" s="112">
         <v>2018</v>
       </c>
-      <c r="J89" s="113">
+      <c r="J89" s="112">
         <v>2019</v>
       </c>
-      <c r="K89" s="113">
+      <c r="K89" s="112">
         <v>2020</v>
       </c>
-      <c r="L89" s="113">
+      <c r="L89" s="112">
         <v>2021</v>
       </c>
-      <c r="M89" s="113">
+      <c r="M89" s="112">
         <v>2022</v>
       </c>
     </row>
     <row r="90" spans="2:13" ht="15" thickTop="1">
-      <c r="B90" s="133" t="s">
+      <c r="B90" s="132" t="s">
         <v>153</v>
       </c>
-      <c r="C90" s="114">
+      <c r="C90" s="113">
         <v>0</v>
       </c>
       <c r="D90" s="40">
@@ -23674,10 +23678,10 @@
       </c>
     </row>
     <row r="91" spans="2:13">
-      <c r="B91" s="133" t="s">
+      <c r="B91" s="132" t="s">
         <v>154</v>
       </c>
-      <c r="C91" s="114">
+      <c r="C91" s="113">
         <v>0</v>
       </c>
       <c r="D91" s="40">
@@ -23709,6 +23713,14 @@
       </c>
       <c r="M91" s="40">
         <v>5.5900001525878906</v>
+      </c>
+    </row>
+    <row r="92" spans="2:13">
+      <c r="B92" s="132" t="s">
+        <v>162</v>
+      </c>
+      <c r="C92" s="113">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/companies/template.xlsx
+++ b/src/main/resources/companies/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Valuation Metrics" sheetId="5" r:id="rId1"/>
@@ -1415,6 +1415,9 @@
     <xf numFmtId="10" fontId="11" fillId="3" borderId="5" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1492,9 +1495,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="4" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="20% - Accent1" xfId="9" builtinId="30"/>
@@ -2115,11 +2115,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="358191240"/>
-        <c:axId val="358191624"/>
+        <c:axId val="133839888"/>
+        <c:axId val="133837536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="358191240"/>
+        <c:axId val="133839888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2161,7 +2161,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="358191624"/>
+        <c:crossAx val="133837536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2169,7 +2169,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="358191624"/>
+        <c:axId val="133837536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2272,7 +2272,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="358191240"/>
+        <c:crossAx val="133839888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2877,11 +2877,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="359338400"/>
-        <c:axId val="359339184"/>
+        <c:axId val="357086440"/>
+        <c:axId val="357084088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="359338400"/>
+        <c:axId val="357086440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2923,7 +2923,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359339184"/>
+        <c:crossAx val="357084088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2931,7 +2931,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="359339184"/>
+        <c:axId val="357084088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2981,7 +2981,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359338400"/>
+        <c:crossAx val="357086440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3327,11 +3327,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="359339968"/>
-        <c:axId val="359334872"/>
+        <c:axId val="357088400"/>
+        <c:axId val="357089968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="359339968"/>
+        <c:axId val="357088400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3373,7 +3373,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359334872"/>
+        <c:crossAx val="357089968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3381,7 +3381,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="359334872"/>
+        <c:axId val="357089968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3431,7 +3431,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359339968"/>
+        <c:crossAx val="357088400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3892,8 +3892,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="358612440"/>
-        <c:axId val="358629224"/>
+        <c:axId val="133839104"/>
+        <c:axId val="133838320"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -4031,11 +4031,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="358629992"/>
-        <c:axId val="358629608"/>
+        <c:axId val="356441048"/>
+        <c:axId val="133840280"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="358612440"/>
+        <c:axId val="133839104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4077,7 +4077,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="358629224"/>
+        <c:crossAx val="133838320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4085,7 +4085,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="358629224"/>
+        <c:axId val="133838320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4135,12 +4135,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="358612440"/>
+        <c:crossAx val="133839104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="358629608"/>
+        <c:axId val="133840280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4176,12 +4176,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="358629992"/>
+        <c:crossAx val="356441048"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="358629992"/>
+        <c:axId val="356441048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4190,7 +4190,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="358629608"/>
+        <c:crossAx val="133840280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4689,11 +4689,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="100"/>
-        <c:axId val="358711920"/>
-        <c:axId val="358712304"/>
+        <c:axId val="356439480"/>
+        <c:axId val="356443792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="358711920"/>
+        <c:axId val="356439480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4735,7 +4735,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="358712304"/>
+        <c:crossAx val="356443792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4743,7 +4743,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="358712304"/>
+        <c:axId val="356443792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4793,7 +4793,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="358711920"/>
+        <c:crossAx val="356439480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5255,11 +5255,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="358733056"/>
-        <c:axId val="358851712"/>
+        <c:axId val="356438304"/>
+        <c:axId val="356445360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="358733056"/>
+        <c:axId val="356438304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5301,7 +5301,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="358851712"/>
+        <c:crossAx val="356445360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5309,7 +5309,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="358851712"/>
+        <c:axId val="356445360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5359,7 +5359,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="358733056"/>
+        <c:crossAx val="356438304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5800,8 +5800,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="358777552"/>
-        <c:axId val="359173888"/>
+        <c:axId val="356439088"/>
+        <c:axId val="356439872"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -5939,11 +5939,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="359171928"/>
-        <c:axId val="359172712"/>
+        <c:axId val="356443008"/>
+        <c:axId val="356440264"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="358777552"/>
+        <c:axId val="356439088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5985,7 +5985,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359173888"/>
+        <c:crossAx val="356439872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5993,7 +5993,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="359173888"/>
+        <c:axId val="356439872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6043,12 +6043,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="358777552"/>
+        <c:crossAx val="356439088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="359172712"/>
+        <c:axId val="356440264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6084,12 +6084,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359171928"/>
+        <c:crossAx val="356443008"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="359171928"/>
+        <c:axId val="356443008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6098,7 +6098,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="359172712"/>
+        <c:crossAx val="356440264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6519,8 +6519,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="359174672"/>
-        <c:axId val="359171536"/>
+        <c:axId val="356440656"/>
+        <c:axId val="356441440"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -6699,11 +6699,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="359174280"/>
-        <c:axId val="359175064"/>
+        <c:axId val="356444184"/>
+        <c:axId val="356441832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="359174672"/>
+        <c:axId val="356440656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6745,7 +6745,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359171536"/>
+        <c:crossAx val="356441440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6753,7 +6753,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="359171536"/>
+        <c:axId val="356441440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6803,12 +6803,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359174672"/>
+        <c:crossAx val="356440656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="359175064"/>
+        <c:axId val="356441832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6844,12 +6844,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359174280"/>
+        <c:crossAx val="356444184"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="359174280"/>
+        <c:axId val="356444184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6886,7 +6886,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359175064"/>
+        <c:crossAx val="356441832"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7860,11 +7860,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="359336048"/>
-        <c:axId val="359173104"/>
+        <c:axId val="357084480"/>
+        <c:axId val="356442616"/>
       </c:barChart>
       <c:valAx>
-        <c:axId val="359173104"/>
+        <c:axId val="356442616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7914,12 +7914,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359336048"/>
+        <c:crossAx val="357084480"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="359336048"/>
+        <c:axId val="357084480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7961,7 +7961,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359173104"/>
+        <c:crossAx val="356442616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8628,11 +8628,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="359337616"/>
-        <c:axId val="359336832"/>
+        <c:axId val="357087224"/>
+        <c:axId val="357083304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="359337616"/>
+        <c:axId val="357087224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8693,7 +8693,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359336832"/>
+        <c:crossAx val="357083304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8701,7 +8701,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="359336832"/>
+        <c:axId val="357083304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8762,7 +8762,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359337616"/>
+        <c:crossAx val="357087224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9112,11 +9112,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="359337224"/>
-        <c:axId val="359335656"/>
+        <c:axId val="357089576"/>
+        <c:axId val="357086048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="359337224"/>
+        <c:axId val="357089576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9158,7 +9158,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359335656"/>
+        <c:crossAx val="357086048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9166,7 +9166,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="359335656"/>
+        <c:axId val="357086048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9216,7 +9216,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359337224"/>
+        <c:crossAx val="357089576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16430,7 +16430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:V45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="75" workbookViewId="0">
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
@@ -16446,74 +16446,74 @@
   <sheetData>
     <row r="2" spans="2:22" ht="15" thickBot="1"/>
     <row r="3" spans="2:22">
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="139" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139"/>
-      <c r="M3" s="139"/>
-      <c r="N3" s="139"/>
-      <c r="O3" s="139"/>
-      <c r="P3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="140"/>
+      <c r="M3" s="140"/>
+      <c r="N3" s="140"/>
+      <c r="O3" s="140"/>
+      <c r="P3" s="141"/>
     </row>
     <row r="4" spans="2:22">
-      <c r="B4" s="141"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="142"/>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="142"/>
-      <c r="H4" s="142"/>
-      <c r="I4" s="142"/>
-      <c r="J4" s="142"/>
-      <c r="K4" s="142"/>
-      <c r="L4" s="142"/>
-      <c r="M4" s="142"/>
-      <c r="N4" s="142"/>
-      <c r="O4" s="142"/>
-      <c r="P4" s="143"/>
+      <c r="B4" s="142"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="143"/>
+      <c r="H4" s="143"/>
+      <c r="I4" s="143"/>
+      <c r="J4" s="143"/>
+      <c r="K4" s="143"/>
+      <c r="L4" s="143"/>
+      <c r="M4" s="143"/>
+      <c r="N4" s="143"/>
+      <c r="O4" s="143"/>
+      <c r="P4" s="144"/>
     </row>
     <row r="5" spans="2:22">
-      <c r="B5" s="141"/>
-      <c r="C5" s="142"/>
-      <c r="D5" s="142"/>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="142"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="142"/>
-      <c r="K5" s="142"/>
-      <c r="L5" s="142"/>
-      <c r="M5" s="142"/>
-      <c r="N5" s="142"/>
-      <c r="O5" s="142"/>
-      <c r="P5" s="143"/>
+      <c r="B5" s="142"/>
+      <c r="C5" s="143"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="143"/>
+      <c r="K5" s="143"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="143"/>
+      <c r="N5" s="143"/>
+      <c r="O5" s="143"/>
+      <c r="P5" s="144"/>
     </row>
     <row r="6" spans="2:22" ht="15" thickBot="1">
-      <c r="B6" s="144"/>
-      <c r="C6" s="145"/>
-      <c r="D6" s="145"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="145"/>
-      <c r="K6" s="145"/>
-      <c r="L6" s="145"/>
-      <c r="M6" s="145"/>
-      <c r="N6" s="145"/>
-      <c r="O6" s="145"/>
-      <c r="P6" s="146"/>
+      <c r="B6" s="145"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="146"/>
+      <c r="L6" s="146"/>
+      <c r="M6" s="146"/>
+      <c r="N6" s="146"/>
+      <c r="O6" s="146"/>
+      <c r="P6" s="147"/>
     </row>
     <row r="8" spans="2:22" ht="13.5" customHeight="1"/>
     <row r="10" spans="2:22" ht="17.5" thickBot="1">
@@ -16562,7 +16562,7 @@
       </c>
     </row>
     <row r="11" spans="2:22" ht="19" thickTop="1">
-      <c r="B11" s="147" t="s">
+      <c r="B11" s="148" t="s">
         <v>89</v>
       </c>
       <c r="C11" s="35"/>
@@ -16590,7 +16590,7 @@
       </c>
     </row>
     <row r="12" spans="2:22" ht="18.5">
-      <c r="B12" s="148"/>
+      <c r="B12" s="149"/>
       <c r="C12" s="35" t="s">
         <v>155</v>
       </c>
@@ -16646,7 +16646,7 @@
       </c>
     </row>
     <row r="13" spans="2:22">
-      <c r="B13" s="148"/>
+      <c r="B13" s="149"/>
       <c r="C13" s="35"/>
       <c r="D13" s="35"/>
       <c r="E13" s="45"/>
@@ -16663,7 +16663,7 @@
       <c r="P13" s="128"/>
     </row>
     <row r="14" spans="2:22" ht="18.5">
-      <c r="B14" s="149"/>
+      <c r="B14" s="150"/>
       <c r="C14" s="35" t="s">
         <v>156</v>
       </c>
@@ -16722,7 +16722,7 @@
       <c r="T14" s="44"/>
     </row>
     <row r="15" spans="2:22">
-      <c r="B15" s="149"/>
+      <c r="B15" s="150"/>
       <c r="C15" s="35"/>
       <c r="D15" s="35"/>
       <c r="E15" s="45"/>
@@ -16742,7 +16742,7 @@
       <c r="T15" s="44"/>
     </row>
     <row r="16" spans="2:22" ht="18.5">
-      <c r="B16" s="149"/>
+      <c r="B16" s="150"/>
       <c r="C16" s="35" t="s">
         <v>157</v>
       </c>
@@ -16802,7 +16802,7 @@
       <c r="T16" s="44"/>
     </row>
     <row r="17" spans="2:20">
-      <c r="B17" s="150" t="s">
+      <c r="B17" s="151" t="s">
         <v>65</v>
       </c>
       <c r="C17" s="36"/>
@@ -16825,7 +16825,7 @@
       <c r="T17" s="44"/>
     </row>
     <row r="18" spans="2:20" ht="18.5">
-      <c r="B18" s="151"/>
+      <c r="B18" s="152"/>
       <c r="C18" s="36" t="s">
         <v>158</v>
       </c>
@@ -16885,7 +16885,7 @@
       <c r="T18" s="44"/>
     </row>
     <row r="19" spans="2:20">
-      <c r="B19" s="151"/>
+      <c r="B19" s="152"/>
       <c r="C19" s="36"/>
       <c r="D19" s="36"/>
       <c r="E19" s="48"/>
@@ -16906,7 +16906,7 @@
       <c r="T19" s="44"/>
     </row>
     <row r="20" spans="2:20" ht="18.5">
-      <c r="B20" s="151"/>
+      <c r="B20" s="152"/>
       <c r="C20" s="36" t="s">
         <v>159</v>
       </c>
@@ -16966,7 +16966,7 @@
       <c r="T20" s="44"/>
     </row>
     <row r="21" spans="2:20">
-      <c r="B21" s="156" t="s">
+      <c r="B21" s="157" t="s">
         <v>96</v>
       </c>
       <c r="C21" s="35"/>
@@ -16989,7 +16989,7 @@
       <c r="T21" s="44"/>
     </row>
     <row r="22" spans="2:20" ht="18.5">
-      <c r="B22" s="156"/>
+      <c r="B22" s="157"/>
       <c r="C22" s="35" t="s">
         <v>148</v>
       </c>
@@ -17046,7 +17046,7 @@
       <c r="T22" s="44"/>
     </row>
     <row r="23" spans="2:20">
-      <c r="B23" s="154" t="s">
+      <c r="B23" s="155" t="s">
         <v>95</v>
       </c>
       <c r="C23" s="36"/>
@@ -17069,7 +17069,7 @@
       <c r="T23" s="44"/>
     </row>
     <row r="24" spans="2:20" ht="18.5">
-      <c r="B24" s="155"/>
+      <c r="B24" s="156"/>
       <c r="C24" s="36" t="s">
         <v>98</v>
       </c>
@@ -17129,7 +17129,7 @@
       <c r="T24" s="44"/>
     </row>
     <row r="25" spans="2:20">
-      <c r="B25" s="155"/>
+      <c r="B25" s="156"/>
       <c r="C25" s="36"/>
       <c r="D25" s="36"/>
       <c r="E25" s="51"/>
@@ -17150,7 +17150,7 @@
       <c r="T25" s="44"/>
     </row>
     <row r="26" spans="2:20" ht="18.5">
-      <c r="B26" s="155"/>
+      <c r="B26" s="156"/>
       <c r="C26" s="36" t="s">
         <v>106</v>
       </c>
@@ -17210,7 +17210,7 @@
       <c r="T26" s="44"/>
     </row>
     <row r="27" spans="2:20">
-      <c r="B27" s="155"/>
+      <c r="B27" s="156"/>
       <c r="C27" s="36"/>
       <c r="D27" s="36"/>
       <c r="E27" s="51"/>
@@ -17227,7 +17227,7 @@
       <c r="P27" s="38"/>
     </row>
     <row r="28" spans="2:20" ht="18.5">
-      <c r="B28" s="155"/>
+      <c r="B28" s="156"/>
       <c r="C28" s="36" t="s">
         <v>73</v>
       </c>
@@ -17237,7 +17237,7 @@
       <c r="E28" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="F28" s="164">
+      <c r="F28" s="137">
         <f>Financials!$C$92</f>
         <v>0</v>
       </c>
@@ -17253,7 +17253,7 @@
       <c r="P28" s="38"/>
     </row>
     <row r="29" spans="2:20">
-      <c r="B29" s="152" t="s">
+      <c r="B29" s="153" t="s">
         <v>94</v>
       </c>
       <c r="C29" s="34"/>
@@ -17262,7 +17262,7 @@
       <c r="F29" s="34"/>
     </row>
     <row r="30" spans="2:20" ht="18.5">
-      <c r="B30" s="152"/>
+      <c r="B30" s="153"/>
       <c r="C30" s="35" t="s">
         <v>78</v>
       </c>
@@ -17278,7 +17278,7 @@
       </c>
     </row>
     <row r="31" spans="2:20" ht="18.5">
-      <c r="B31" s="153"/>
+      <c r="B31" s="154"/>
       <c r="C31" s="35" t="s">
         <v>82</v>
       </c>
@@ -17294,14 +17294,14 @@
       </c>
     </row>
     <row r="32" spans="2:20">
-      <c r="B32" s="153"/>
+      <c r="B32" s="154"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
       <c r="E32" s="50"/>
       <c r="F32" s="52"/>
     </row>
     <row r="33" spans="2:17" ht="18.5">
-      <c r="B33" s="153"/>
+      <c r="B33" s="154"/>
       <c r="C33" s="35" t="s">
         <v>92</v>
       </c>
@@ -17317,7 +17317,7 @@
       </c>
     </row>
     <row r="34" spans="2:17" ht="18.5">
-      <c r="B34" s="153"/>
+      <c r="B34" s="154"/>
       <c r="C34" s="35" t="s">
         <v>93</v>
       </c>
@@ -17333,7 +17333,7 @@
       </c>
     </row>
     <row r="35" spans="2:17">
-      <c r="B35" s="153"/>
+      <c r="B35" s="154"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
       <c r="E35" s="50"/>
@@ -17341,7 +17341,7 @@
       <c r="Q35" s="37"/>
     </row>
     <row r="36" spans="2:17" ht="18.5">
-      <c r="B36" s="153"/>
+      <c r="B36" s="154"/>
       <c r="C36" s="35" t="s">
         <v>80</v>
       </c>
@@ -17357,7 +17357,7 @@
       </c>
     </row>
     <row r="37" spans="2:17" ht="18.5">
-      <c r="B37" s="153"/>
+      <c r="B37" s="154"/>
       <c r="C37" s="35" t="s">
         <v>83</v>
       </c>
@@ -17373,14 +17373,14 @@
       </c>
     </row>
     <row r="38" spans="2:17">
-      <c r="B38" s="153"/>
+      <c r="B38" s="154"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
       <c r="E38" s="50"/>
       <c r="F38" s="53"/>
     </row>
     <row r="39" spans="2:17" ht="18.5">
-      <c r="B39" s="153"/>
+      <c r="B39" s="154"/>
       <c r="C39" s="35" t="s">
         <v>81</v>
       </c>
@@ -17396,7 +17396,7 @@
       </c>
     </row>
     <row r="40" spans="2:17" ht="18.5">
-      <c r="B40" s="153"/>
+      <c r="B40" s="154"/>
       <c r="C40" s="35" t="s">
         <v>84</v>
       </c>
@@ -17412,12 +17412,12 @@
       </c>
     </row>
     <row r="41" spans="2:17">
-      <c r="B41" s="137" t="s">
+      <c r="B41" s="138" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="42" spans="2:17" ht="18.5">
-      <c r="B42" s="137"/>
+      <c r="B42" s="138"/>
       <c r="C42" s="101" t="s">
         <v>134</v>
       </c>
@@ -17433,7 +17433,7 @@
       </c>
     </row>
     <row r="43" spans="2:17" ht="18.5">
-      <c r="B43" s="137"/>
+      <c r="B43" s="138"/>
       <c r="C43" s="101" t="s">
         <v>139</v>
       </c>
@@ -17449,7 +17449,7 @@
       </c>
     </row>
     <row r="44" spans="2:17" ht="18.5">
-      <c r="B44" s="137"/>
+      <c r="B44" s="138"/>
       <c r="C44" s="101" t="s">
         <v>136</v>
       </c>
@@ -17465,7 +17465,7 @@
       </c>
     </row>
     <row r="45" spans="2:17" ht="18.5">
-      <c r="B45" s="137"/>
+      <c r="B45" s="138"/>
       <c r="C45" s="101" t="s">
         <v>135</v>
       </c>
@@ -17757,8 +17757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:L80"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="R68" sqref="R68"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -17819,7 +17819,7 @@
       </c>
       <c r="C8" s="65">
         <f>AVERAGE(C35:L35)</f>
-        <v>0.75395455593523353</v>
+        <v>0.88626859754841403</v>
       </c>
     </row>
     <row r="9" spans="2:12">
@@ -18511,7 +18511,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="24">
-        <f t="shared" ref="C35:K35" si="7">C28/C19</f>
+        <f t="shared" ref="C35:L35" si="7">C28/C19</f>
         <v>0.54005281690140849</v>
       </c>
       <c r="D35" s="24">
@@ -18546,7 +18546,10 @@
         <f t="shared" si="7"/>
         <v>0.93862560915318882</v>
       </c>
-      <c r="L35" s="24"/>
+      <c r="L35" s="24">
+        <f t="shared" si="7"/>
+        <v>2.0770949720670391</v>
+      </c>
     </row>
     <row r="38" spans="2:12" ht="20" thickBot="1">
       <c r="B38" s="3" t="s">
@@ -18795,43 +18798,43 @@
       </c>
       <c r="C48" s="21">
         <f>C45*C8</f>
-        <v>11084.790786631389</v>
+        <v>13030.098309306186</v>
       </c>
       <c r="D48" s="21">
         <f>D45*C8</f>
-        <v>11394.056449578406</v>
+        <v>13393.638052135828</v>
       </c>
       <c r="E48" s="21">
         <f>E45*C8</f>
-        <v>11389.498826998575</v>
+        <v>13388.280596914976</v>
       </c>
       <c r="F48" s="21">
         <f>F45*C8</f>
-        <v>11503.393815268561</v>
+        <v>13522.163402884124</v>
       </c>
       <c r="G48" s="21">
         <f>G45*C8</f>
-        <v>11618.427753421245</v>
+        <v>13657.385036912965</v>
       </c>
       <c r="H48" s="21">
         <f>H45*C8</f>
-        <v>11734.612030955459</v>
+        <v>13793.958887282097</v>
       </c>
       <c r="I48" s="21">
         <f>I45*C8</f>
-        <v>11851.958151265013</v>
+        <v>13931.898476154916</v>
       </c>
       <c r="J48" s="21">
         <f>J45*C8</f>
-        <v>11970.477732777663</v>
+        <v>14071.217460916467</v>
       </c>
       <c r="K48" s="21">
         <f>K45*C8</f>
-        <v>12090.18251010544</v>
+        <v>14211.92963552563</v>
       </c>
       <c r="L48" s="21">
         <f>L45*C8</f>
-        <v>12211.084335206495</v>
+        <v>14354.048931880889</v>
       </c>
     </row>
     <row r="49" spans="2:12">
@@ -18840,43 +18843,43 @@
       </c>
       <c r="C49" s="20">
         <f>(C48-L28)/L28</f>
-        <v>-6.2048783726565372E-3</v>
+        <v>0.16819959739162507</v>
       </c>
       <c r="D49" s="20">
         <f>(D48-C48)/C48</f>
-        <v>2.7900000000000078E-2</v>
+        <v>2.7899999999999949E-2</v>
       </c>
       <c r="E49" s="20">
         <f t="shared" ref="E49:L49" si="10">(E48-D48)/D48</f>
-        <v>-3.9999999999991751E-4</v>
+        <v>-3.9999999999982514E-4</v>
       </c>
       <c r="F49" s="20">
         <f t="shared" si="10"/>
-        <v>9.9999999999999638E-3</v>
+        <v>9.9999999999998493E-3</v>
       </c>
       <c r="G49" s="20">
         <f t="shared" si="10"/>
-        <v>9.9999999999999169E-3</v>
+        <v>1.0000000000000014E-2</v>
       </c>
       <c r="H49" s="20">
         <f t="shared" si="10"/>
-        <v>1.0000000000000118E-2</v>
+        <v>1.000000000000016E-2</v>
       </c>
       <c r="I49" s="20">
         <f t="shared" si="10"/>
-        <v>9.9999999999999464E-3</v>
+        <v>9.9999999999998944E-3</v>
       </c>
       <c r="J49" s="20">
         <f t="shared" si="10"/>
-        <v>9.9999999999999794E-3</v>
+        <v>1.0000000000000087E-2</v>
       </c>
       <c r="K49" s="20">
         <f t="shared" si="10"/>
-        <v>1.0000000000000054E-2</v>
+        <v>9.99999999999991E-3</v>
       </c>
       <c r="L49" s="20">
         <f t="shared" si="10"/>
-        <v>1.0000000000000031E-2</v>
+        <v>1.0000000000000153E-2</v>
       </c>
     </row>
     <row r="51" spans="2:12">
@@ -19076,43 +19079,43 @@
       </c>
       <c r="C59" s="21">
         <f t="shared" ref="C59:L59" si="12">C48/C57</f>
-        <v>10373.091888869758</v>
+        <v>12193.500958669398</v>
       </c>
       <c r="D59" s="21">
         <f t="shared" si="12"/>
-        <v>9977.9153571550614</v>
+        <v>11728.973557396001</v>
       </c>
       <c r="E59" s="21">
         <f t="shared" si="12"/>
-        <v>9333.548473532499</v>
+        <v>10971.524544376354</v>
       </c>
       <c r="F59" s="21">
         <f t="shared" si="12"/>
-        <v>8821.6309542582749</v>
+        <v>10369.768883778417</v>
       </c>
       <c r="G59" s="21">
         <f t="shared" si="12"/>
-        <v>8337.7905963426729</v>
+        <v>9801.0177407930569</v>
       </c>
       <c r="H59" s="21">
         <f t="shared" si="12"/>
-        <v>7880.4874505550488</v>
+        <v>9263.4609152773155</v>
       </c>
       <c r="I59" s="21">
         <f t="shared" si="12"/>
-        <v>7448.2660293239269</v>
+        <v>8755.3874912103674</v>
       </c>
       <c r="J59" s="21">
         <f t="shared" si="12"/>
-        <v>7039.7506742648775</v>
+        <v>8275.1803912531705</v>
       </c>
       <c r="K59" s="21">
         <f t="shared" si="12"/>
-        <v>6653.6411777857984</v>
+        <v>7821.3112299743907</v>
       </c>
       <c r="L59" s="21">
         <f t="shared" si="12"/>
-        <v>6288.7086448341797</v>
+        <v>7392.335449361688</v>
       </c>
     </row>
     <row r="60" spans="2:12">
@@ -19160,32 +19163,32 @@
       <c r="L62" s="21"/>
     </row>
     <row r="63" spans="2:12">
-      <c r="B63" s="157" t="s">
+      <c r="B63" s="158" t="s">
         <v>103</v>
       </c>
-      <c r="C63" s="157"/>
-      <c r="D63" s="157"/>
-      <c r="E63" s="157"/>
-      <c r="F63" s="157"/>
-      <c r="G63" s="157"/>
-      <c r="H63" s="157"/>
-      <c r="I63" s="157"/>
-      <c r="J63" s="157"/>
-      <c r="K63" s="157"/>
-      <c r="L63" s="157"/>
+      <c r="C63" s="158"/>
+      <c r="D63" s="158"/>
+      <c r="E63" s="158"/>
+      <c r="F63" s="158"/>
+      <c r="G63" s="158"/>
+      <c r="H63" s="158"/>
+      <c r="I63" s="158"/>
+      <c r="J63" s="158"/>
+      <c r="K63" s="158"/>
+      <c r="L63" s="158"/>
     </row>
     <row r="64" spans="2:12">
-      <c r="B64" s="157"/>
-      <c r="C64" s="157"/>
-      <c r="D64" s="157"/>
-      <c r="E64" s="157"/>
-      <c r="F64" s="157"/>
-      <c r="G64" s="157"/>
-      <c r="H64" s="157"/>
-      <c r="I64" s="157"/>
-      <c r="J64" s="157"/>
-      <c r="K64" s="157"/>
-      <c r="L64" s="157"/>
+      <c r="B64" s="158"/>
+      <c r="C64" s="158"/>
+      <c r="D64" s="158"/>
+      <c r="E64" s="158"/>
+      <c r="F64" s="158"/>
+      <c r="G64" s="158"/>
+      <c r="H64" s="158"/>
+      <c r="I64" s="158"/>
+      <c r="J64" s="158"/>
+      <c r="K64" s="158"/>
+      <c r="L64" s="158"/>
     </row>
     <row r="65" spans="2:12">
       <c r="B65" s="18" t="s">
@@ -19193,7 +19196,7 @@
       </c>
       <c r="C65" s="25">
         <f>L59*(1+C5)/(C4-C5)</f>
-        <v>147808.09929552308</v>
+        <v>173747.4438448688</v>
       </c>
     </row>
     <row r="66" spans="2:12" ht="15" thickBot="1">
@@ -19202,7 +19205,7 @@
       </c>
       <c r="C66" s="23">
         <f>C65/C61</f>
-        <v>71233.81439828701</v>
+        <v>83734.878034501948</v>
       </c>
     </row>
     <row r="67" spans="2:12" ht="15" thickTop="1"/>
@@ -19212,7 +19215,7 @@
       </c>
       <c r="C68" s="71">
         <f>(SUM(C59:L59)+C65)</f>
-        <v>229962.93054244519</v>
+        <v>270319.90500695899</v>
       </c>
     </row>
     <row r="69" spans="2:12" ht="15" thickTop="1">
@@ -19224,38 +19227,38 @@
       </c>
       <c r="C70" s="70">
         <f>C68/(C11/1000000)</f>
-        <v>54.667017807155744</v>
+        <v>64.260718133075443</v>
       </c>
       <c r="D70" s="29"/>
       <c r="E70" s="30"/>
     </row>
     <row r="73" spans="2:12">
-      <c r="B73" s="157" t="s">
+      <c r="B73" s="158" t="s">
         <v>104</v>
       </c>
-      <c r="C73" s="157"/>
-      <c r="D73" s="157"/>
-      <c r="E73" s="157"/>
-      <c r="F73" s="157"/>
-      <c r="G73" s="157"/>
-      <c r="H73" s="157"/>
-      <c r="I73" s="157"/>
-      <c r="J73" s="157"/>
-      <c r="K73" s="157"/>
-      <c r="L73" s="157"/>
+      <c r="C73" s="158"/>
+      <c r="D73" s="158"/>
+      <c r="E73" s="158"/>
+      <c r="F73" s="158"/>
+      <c r="G73" s="158"/>
+      <c r="H73" s="158"/>
+      <c r="I73" s="158"/>
+      <c r="J73" s="158"/>
+      <c r="K73" s="158"/>
+      <c r="L73" s="158"/>
     </row>
     <row r="74" spans="2:12">
-      <c r="B74" s="157"/>
-      <c r="C74" s="157"/>
-      <c r="D74" s="157"/>
-      <c r="E74" s="157"/>
-      <c r="F74" s="157"/>
-      <c r="G74" s="157"/>
-      <c r="H74" s="157"/>
-      <c r="I74" s="157"/>
-      <c r="J74" s="157"/>
-      <c r="K74" s="157"/>
-      <c r="L74" s="157"/>
+      <c r="B74" s="158"/>
+      <c r="C74" s="158"/>
+      <c r="D74" s="158"/>
+      <c r="E74" s="158"/>
+      <c r="F74" s="158"/>
+      <c r="G74" s="158"/>
+      <c r="H74" s="158"/>
+      <c r="I74" s="158"/>
+      <c r="J74" s="158"/>
+      <c r="K74" s="158"/>
+      <c r="L74" s="158"/>
     </row>
     <row r="75" spans="2:12">
       <c r="B75" s="18" t="s">
@@ -19285,7 +19288,7 @@
       </c>
       <c r="C78" s="72">
         <f>SUM(C59:L59)+C76</f>
-        <v>208760.54809047969</v>
+        <v>223178.17800564773</v>
       </c>
     </row>
     <row r="79" spans="2:12" ht="15" thickTop="1"/>
@@ -19295,7 +19298,7 @@
       </c>
       <c r="C80" s="70">
         <f>C78/(C11/1000000)</f>
-        <v>49.626766248690807</v>
+        <v>53.054139649483318</v>
       </c>
     </row>
   </sheetData>
@@ -19416,10 +19419,10 @@
     </row>
     <row r="3" spans="2:16" ht="15" thickBot="1"/>
     <row r="4" spans="2:16" ht="20" thickBot="1">
-      <c r="B4" s="160" t="s">
+      <c r="B4" s="161" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="161"/>
+      <c r="C4" s="162"/>
     </row>
     <row r="5" spans="2:16" ht="15" thickBot="1">
       <c r="B5" s="81" t="s">
@@ -19480,10 +19483,10 @@
       <c r="L6" s="88">
         <v>10</v>
       </c>
-      <c r="M6" s="162" t="s">
+      <c r="M6" s="163" t="s">
         <v>125</v>
       </c>
-      <c r="N6" s="163"/>
+      <c r="N6" s="164"/>
       <c r="O6" s="89" t="s">
         <v>126</v>
       </c>
@@ -19536,11 +19539,11 @@
         <f>K7*(1+P7)</f>
         <v>1.3824913077320653</v>
       </c>
-      <c r="M7" s="158">
+      <c r="M7" s="159">
         <f>L7*(1+P7)/(P8-P7)</f>
         <v>32.49370006293983</v>
       </c>
-      <c r="N7" s="159"/>
+      <c r="N7" s="160"/>
       <c r="O7" s="89" t="s">
         <v>128</v>
       </c>
@@ -19592,11 +19595,11 @@
         <f>L7/(1+P8)^10</f>
         <v>0.71198304750679042</v>
       </c>
-      <c r="M8" s="158">
+      <c r="M8" s="159">
         <f>M7/POWER((1+P8),10)</f>
         <v>16.734256097085837</v>
       </c>
-      <c r="N8" s="159"/>
+      <c r="N8" s="160"/>
       <c r="O8" s="92" t="s">
         <v>130</v>
       </c>
@@ -19637,10 +19640,10 @@
       <c r="O12" s="100"/>
     </row>
     <row r="13" spans="2:16" ht="20" thickBot="1">
-      <c r="B13" s="160" t="s">
+      <c r="B13" s="161" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="161"/>
+      <c r="C13" s="162"/>
     </row>
     <row r="14" spans="2:16" ht="15" thickBot="1">
       <c r="B14" s="81" t="s">
@@ -19701,10 +19704,10 @@
       <c r="L15" s="88">
         <v>10</v>
       </c>
-      <c r="M15" s="162" t="s">
+      <c r="M15" s="163" t="s">
         <v>125</v>
       </c>
-      <c r="N15" s="163"/>
+      <c r="N15" s="164"/>
       <c r="O15" s="89" t="s">
         <v>126</v>
       </c>
@@ -19757,11 +19760,11 @@
         <f>K16*(1+P16)</f>
         <v>1.4514296896916519</v>
       </c>
-      <c r="M16" s="158">
+      <c r="M16" s="159">
         <f>L16*(1+P16)/(P17-P16)</f>
         <v>38.719725758083044</v>
       </c>
-      <c r="N16" s="159"/>
+      <c r="N16" s="160"/>
       <c r="O16" s="89" t="s">
         <v>128</v>
       </c>
@@ -19813,11 +19816,11 @@
         <f>L16/(1+P17)^10</f>
         <v>0.74748631541398081</v>
       </c>
-      <c r="M17" s="158">
+      <c r="M17" s="159">
         <f>M16/POWER((1+P17),10)</f>
         <v>19.940659438279759</v>
       </c>
-      <c r="N17" s="159"/>
+      <c r="N17" s="160"/>
       <c r="O17" s="92" t="s">
         <v>130</v>
       </c>
@@ -19852,10 +19855,10 @@
     </row>
     <row r="21" spans="2:16" ht="15" thickBot="1"/>
     <row r="22" spans="2:16" ht="20" thickBot="1">
-      <c r="B22" s="160" t="s">
+      <c r="B22" s="161" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="161"/>
+      <c r="C22" s="162"/>
     </row>
     <row r="23" spans="2:16" ht="15" thickBot="1">
       <c r="B23" s="81" t="s">
@@ -19916,10 +19919,10 @@
       <c r="L24" s="88">
         <v>10</v>
       </c>
-      <c r="M24" s="162" t="s">
+      <c r="M24" s="163" t="s">
         <v>125</v>
       </c>
-      <c r="N24" s="163"/>
+      <c r="N24" s="164"/>
       <c r="O24" s="89" t="s">
         <v>126</v>
       </c>
@@ -19972,11 +19975,11 @@
         <f>K25*(1+P25)</f>
         <v>1.5234466614708106</v>
       </c>
-      <c r="M25" s="158">
+      <c r="M25" s="159">
         <f>L25*(1+P25)/(P26-P25)</f>
         <v>46.91349258789446</v>
       </c>
-      <c r="N25" s="159"/>
+      <c r="N25" s="160"/>
       <c r="O25" s="89" t="s">
         <v>128</v>
       </c>
@@ -20028,11 +20031,11 @@
         <f>L25/(1+P26)^10</f>
         <v>0.78457505713175035</v>
       </c>
-      <c r="M26" s="158">
+      <c r="M26" s="159">
         <f>M25/POWER((1+P26),10)</f>
         <v>24.160449498022988</v>
       </c>
-      <c r="N26" s="159"/>
+      <c r="N26" s="160"/>
       <c r="O26" s="92" t="s">
         <v>130</v>
       </c>

--- a/src/main/resources/companies/template.xlsx
+++ b/src/main/resources/companies/template.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C22D9A-4730-413B-B632-FE39C21E0A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valuation Metrics" sheetId="5" r:id="rId1"/>
@@ -15,7 +16,7 @@
     <sheet name="DDM" sheetId="7" r:id="rId6"/>
     <sheet name="Financials" sheetId="3" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -375,9 +376,6 @@
     <t>P/E of company no growth [7, 8.5]</t>
   </si>
   <si>
-    <t>FCF Rate Projection</t>
-  </si>
-  <si>
     <t>Free Cash Flow Ratio</t>
   </si>
   <si>
@@ -521,11 +519,14 @@
   <si>
     <t>PEG</t>
   </si>
+  <si>
+    <t>EPS Growth esitmation (%)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -1177,7 +1178,7 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="161">
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
@@ -1297,7 +1298,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="2" borderId="4" xfId="5" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="6" fillId="8" borderId="6" xfId="7" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="3" applyBorder="1"/>
@@ -1370,16 +1370,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="3" borderId="0" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1391,11 +1385,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="2" fontId="12" fillId="8" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1418,6 +1408,7 @@
     <xf numFmtId="2" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1524,7 +1515,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1769,7 +1760,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5FE3-402B-88B1-A32EEE73278E}"/>
             </c:ext>
@@ -1934,7 +1925,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5FE3-402B-88B1-A32EEE73278E}"/>
             </c:ext>
@@ -2099,7 +2090,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5FE3-402B-88B1-A32EEE73278E}"/>
             </c:ext>
@@ -2363,7 +2354,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2657,6 +2648,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2E99-43A2-91C6-E54CD548E410}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2866,6 +2862,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2E99-43A2-91C6-E54CD548E410}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3072,7 +3073,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3315,6 +3316,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CD4E-4D0E-B961-FAF8C19FC55E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="outEnd"/>
@@ -3522,7 +3528,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3740,7 +3746,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0DED-4E4A-AA11-E50E447108A8}"/>
             </c:ext>
@@ -3877,7 +3883,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0DED-4E4A-AA11-E50E447108A8}"/>
             </c:ext>
@@ -4017,7 +4023,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0DED-4E4A-AA11-E50E447108A8}"/>
             </c:ext>
@@ -4318,7 +4324,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4536,7 +4542,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E31F-4C09-80D9-ADBB573BF7C8}"/>
             </c:ext>
@@ -4673,7 +4679,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E31F-4C09-80D9-ADBB573BF7C8}"/>
             </c:ext>
@@ -4884,7 +4890,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5102,7 +5108,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3568-4E8A-8CFA-F7ADD20FD77D}"/>
             </c:ext>
@@ -5239,7 +5245,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3568-4E8A-8CFA-F7ADD20FD77D}"/>
             </c:ext>
@@ -5450,7 +5456,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5668,7 +5674,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4D91-4451-902B-E5C55349FE88}"/>
             </c:ext>
@@ -5785,7 +5791,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4D91-4451-902B-E5C55349FE88}"/>
             </c:ext>
@@ -5925,7 +5931,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-4D91-4451-902B-E5C55349FE88}"/>
             </c:ext>
@@ -6189,7 +6195,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6387,7 +6393,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-39A7-4D67-B636-EDCF6282012C}"/>
             </c:ext>
@@ -6504,7 +6510,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-39A7-4D67-B636-EDCF6282012C}"/>
             </c:ext>
@@ -6683,7 +6689,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-39A7-4D67-B636-EDCF6282012C}"/>
             </c:ext>
@@ -6980,7 +6986,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7165,7 +7171,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -7262,7 +7268,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6B5D-49BE-8C18-62B89DC40B3C}"/>
             </c:ext>
@@ -7358,7 +7364,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -7455,7 +7461,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6B5D-49BE-8C18-62B89DC40B3C}"/>
             </c:ext>
@@ -7551,7 +7557,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -7648,7 +7654,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-6B5D-49BE-8C18-62B89DC40B3C}"/>
             </c:ext>
@@ -7747,7 +7753,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -7844,7 +7850,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-6B5D-49BE-8C18-62B89DC40B3C}"/>
             </c:ext>
@@ -8055,7 +8061,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8187,7 +8193,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -8285,7 +8291,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3D6F-45DB-907A-A59C0CB47A38}"/>
             </c:ext>
@@ -8351,7 +8357,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -8449,7 +8455,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3D6F-45DB-907A-A59C0CB47A38}"/>
             </c:ext>
@@ -8515,7 +8521,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -8613,7 +8619,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-3D6F-45DB-907A-A59C0CB47A38}"/>
             </c:ext>
@@ -8806,14 +8812,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8852,7 +8858,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8998,7 +9004,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -9095,7 +9101,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2C55-4179-91AC-A4368A515C12}"/>
             </c:ext>
@@ -9230,14 +9236,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -15288,7 +15294,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15324,7 +15330,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15360,7 +15366,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15396,7 +15402,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15432,7 +15438,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15468,7 +15474,7 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15504,7 +15510,7 @@
         <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15540,7 +15546,7 @@
         <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35FF4A1F-B7E1-A659-6C44-65F6168FFBF9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15576,7 +15582,7 @@
         <xdr:cNvPr id="11" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A4C19D4-A5AF-6D9C-9EB4-184B6B571282}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15609,7 +15615,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -15639,7 +15651,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -15677,7 +15695,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15721,7 +15739,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15765,7 +15783,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15806,7 +15824,7 @@
             <xdr:cNvPr id="5" name="TextBox 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16015,7 +16033,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16059,7 +16077,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16108,7 +16126,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16217,6 +16235,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -16252,6 +16287,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -16427,7 +16479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:V45"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="75" workbookViewId="0">
@@ -16446,74 +16498,74 @@
   <sheetData>
     <row r="2" spans="2:22" ht="15" thickBot="1"/>
     <row r="3" spans="2:22">
-      <c r="B3" s="139" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140"/>
-      <c r="K3" s="140"/>
-      <c r="L3" s="140"/>
-      <c r="M3" s="140"/>
-      <c r="N3" s="140"/>
-      <c r="O3" s="140"/>
-      <c r="P3" s="141"/>
+      <c r="B3" s="135" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="136"/>
+      <c r="O3" s="136"/>
+      <c r="P3" s="137"/>
     </row>
     <row r="4" spans="2:22">
-      <c r="B4" s="142"/>
-      <c r="C4" s="143"/>
-      <c r="D4" s="143"/>
-      <c r="E4" s="143"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="143"/>
-      <c r="H4" s="143"/>
-      <c r="I4" s="143"/>
-      <c r="J4" s="143"/>
-      <c r="K4" s="143"/>
-      <c r="L4" s="143"/>
-      <c r="M4" s="143"/>
-      <c r="N4" s="143"/>
-      <c r="O4" s="143"/>
-      <c r="P4" s="144"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="139"/>
+      <c r="M4" s="139"/>
+      <c r="N4" s="139"/>
+      <c r="O4" s="139"/>
+      <c r="P4" s="140"/>
     </row>
     <row r="5" spans="2:22">
-      <c r="B5" s="142"/>
-      <c r="C5" s="143"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="143"/>
-      <c r="K5" s="143"/>
-      <c r="L5" s="143"/>
-      <c r="M5" s="143"/>
-      <c r="N5" s="143"/>
-      <c r="O5" s="143"/>
-      <c r="P5" s="144"/>
+      <c r="B5" s="138"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="139"/>
+      <c r="K5" s="139"/>
+      <c r="L5" s="139"/>
+      <c r="M5" s="139"/>
+      <c r="N5" s="139"/>
+      <c r="O5" s="139"/>
+      <c r="P5" s="140"/>
     </row>
     <row r="6" spans="2:22" ht="15" thickBot="1">
-      <c r="B6" s="145"/>
-      <c r="C6" s="146"/>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="146"/>
-      <c r="K6" s="146"/>
-      <c r="L6" s="146"/>
-      <c r="M6" s="146"/>
-      <c r="N6" s="146"/>
-      <c r="O6" s="146"/>
-      <c r="P6" s="147"/>
+      <c r="B6" s="141"/>
+      <c r="C6" s="142"/>
+      <c r="D6" s="142"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="142"/>
+      <c r="I6" s="142"/>
+      <c r="J6" s="142"/>
+      <c r="K6" s="142"/>
+      <c r="L6" s="142"/>
+      <c r="M6" s="142"/>
+      <c r="N6" s="142"/>
+      <c r="O6" s="142"/>
+      <c r="P6" s="143"/>
     </row>
     <row r="8" spans="2:22" ht="13.5" customHeight="1"/>
     <row r="10" spans="2:22" ht="17.5" thickBot="1">
@@ -16562,7 +16614,7 @@
       </c>
     </row>
     <row r="11" spans="2:22" ht="19" thickTop="1">
-      <c r="B11" s="148" t="s">
+      <c r="B11" s="144" t="s">
         <v>89</v>
       </c>
       <c r="C11" s="35"/>
@@ -16590,82 +16642,82 @@
       </c>
     </row>
     <row r="12" spans="2:22" ht="18.5">
-      <c r="B12" s="149"/>
+      <c r="B12" s="145"/>
       <c r="C12" s="35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D12" s="56" t="s">
         <v>100</v>
       </c>
       <c r="E12" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="F12" s="133">
+        <v>146</v>
+      </c>
+      <c r="F12" s="128">
         <f>AVERAGE(L12:P12)</f>
         <v>4.1366607122623718</v>
       </c>
-      <c r="G12" s="128">
+      <c r="G12" s="124">
         <f>Financials!D85</f>
         <v>4.2918400886577297</v>
       </c>
-      <c r="H12" s="128">
+      <c r="H12" s="124">
         <f>Financials!E85</f>
         <v>5.2642820348523109</v>
       </c>
-      <c r="I12" s="128">
+      <c r="I12" s="124">
         <f>Financials!F85</f>
         <v>4.9005246917286014</v>
       </c>
-      <c r="J12" s="128">
+      <c r="J12" s="124">
         <f>Financials!G85</f>
         <v>4.8077562326869803</v>
       </c>
-      <c r="K12" s="128">
+      <c r="K12" s="124">
         <f>Financials!H85</f>
         <v>12.127791232356424</v>
       </c>
-      <c r="L12" s="128">
+      <c r="L12" s="124">
         <f>Financials!I85</f>
         <v>4.6610034805549816</v>
       </c>
-      <c r="M12" s="128">
+      <c r="M12" s="124">
         <f>Financials!J85</f>
         <v>4.9568360071977953</v>
       </c>
-      <c r="N12" s="128">
+      <c r="N12" s="124">
         <f>Financials!K85</f>
         <v>3.8463645027367099</v>
       </c>
-      <c r="O12" s="128">
+      <c r="O12" s="124">
         <f>Financials!L85</f>
         <v>5.1318388575777893</v>
       </c>
-      <c r="P12" s="128">
+      <c r="P12" s="124">
         <f>Financials!M85</f>
         <v>2.0872607132445826</v>
       </c>
     </row>
     <row r="13" spans="2:22">
-      <c r="B13" s="149"/>
+      <c r="B13" s="145"/>
       <c r="C13" s="35"/>
       <c r="D13" s="35"/>
       <c r="E13" s="45"/>
       <c r="F13" s="45"/>
-      <c r="G13" s="128"/>
-      <c r="H13" s="128"/>
-      <c r="I13" s="128"/>
-      <c r="J13" s="128"/>
-      <c r="K13" s="128"/>
-      <c r="L13" s="128"/>
-      <c r="M13" s="128"/>
-      <c r="N13" s="128"/>
-      <c r="O13" s="128"/>
-      <c r="P13" s="128"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="124"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="124"/>
+      <c r="M13" s="124"/>
+      <c r="N13" s="124"/>
+      <c r="O13" s="124"/>
+      <c r="P13" s="124"/>
     </row>
     <row r="14" spans="2:22" ht="18.5">
-      <c r="B14" s="150"/>
+      <c r="B14" s="146"/>
       <c r="C14" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D14" s="56" t="s">
         <v>100</v>
@@ -16673,47 +16725,47 @@
       <c r="E14" s="46">
         <v>0.08</v>
       </c>
-      <c r="F14" s="134">
+      <c r="F14" s="129">
         <f>AVERAGE(L14:P14)</f>
         <v>12.866531517853939</v>
       </c>
-      <c r="G14" s="129">
+      <c r="G14" s="40">
         <f>Financials!D86</f>
         <v>13.349524070664733</v>
       </c>
-      <c r="H14" s="129">
+      <c r="H14" s="40">
         <f>Financials!E86</f>
         <v>15.791060526117434</v>
       </c>
-      <c r="I14" s="129">
+      <c r="I14" s="40">
         <f>Financials!F86</f>
         <v>15.122827818740969</v>
       </c>
-      <c r="J14" s="129">
+      <c r="J14" s="40">
         <f>Financials!G86</f>
         <v>15.448428098408517</v>
       </c>
-      <c r="K14" s="129">
+      <c r="K14" s="40">
         <f>Financials!H86</f>
         <v>32.731539469327231</v>
       </c>
-      <c r="L14" s="129">
+      <c r="L14" s="40">
         <f>Financials!I86</f>
         <v>16.180243303633002</v>
       </c>
-      <c r="M14" s="129">
+      <c r="M14" s="40">
         <f>Financials!J86</f>
         <v>15.567398717123304</v>
       </c>
-      <c r="N14" s="129">
+      <c r="N14" s="40">
         <f>Financials!K86</f>
         <v>11.482700734700996</v>
       </c>
-      <c r="O14" s="129">
+      <c r="O14" s="40">
         <f>Financials!L86</f>
         <v>14.523689852188452</v>
       </c>
-      <c r="P14" s="129">
+      <c r="P14" s="40">
         <f>Financials!M86</f>
         <v>6.5786249816239524</v>
       </c>
@@ -16722,7 +16774,7 @@
       <c r="T14" s="44"/>
     </row>
     <row r="15" spans="2:22">
-      <c r="B15" s="150"/>
+      <c r="B15" s="146"/>
       <c r="C15" s="35"/>
       <c r="D15" s="35"/>
       <c r="E15" s="45"/>
@@ -16742,9 +16794,9 @@
       <c r="T15" s="44"/>
     </row>
     <row r="16" spans="2:22" ht="18.5">
-      <c r="B16" s="150"/>
+      <c r="B16" s="146"/>
       <c r="C16" s="35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D16" s="56" t="s">
         <v>100</v>
@@ -16753,7 +16805,7 @@
         <f>WACC!$C$25</f>
         <v>6.861010250234828E-2</v>
       </c>
-      <c r="F16" s="134">
+      <c r="F16" s="129">
         <f>AVERAGE(L16:P16)</f>
         <v>7.7499999046325687</v>
       </c>
@@ -16802,7 +16854,7 @@
       <c r="T16" s="44"/>
     </row>
     <row r="17" spans="2:20">
-      <c r="B17" s="151" t="s">
+      <c r="B17" s="147" t="s">
         <v>65</v>
       </c>
       <c r="C17" s="36"/>
@@ -16825,9 +16877,9 @@
       <c r="T17" s="44"/>
     </row>
     <row r="18" spans="2:20" ht="18.5">
-      <c r="B18" s="152"/>
+      <c r="B18" s="148"/>
       <c r="C18" s="36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D18" s="56" t="s">
         <v>100</v>
@@ -16835,7 +16887,7 @@
       <c r="E18" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="135">
+      <c r="F18" s="130">
         <f>AVERAGE(L18:P18)</f>
         <v>0.83726286876165845</v>
       </c>
@@ -16885,7 +16937,7 @@
       <c r="T18" s="44"/>
     </row>
     <row r="19" spans="2:20">
-      <c r="B19" s="152"/>
+      <c r="B19" s="148"/>
       <c r="C19" s="36"/>
       <c r="D19" s="36"/>
       <c r="E19" s="48"/>
@@ -16906,17 +16958,17 @@
       <c r="T19" s="44"/>
     </row>
     <row r="20" spans="2:20" ht="18.5">
-      <c r="B20" s="152"/>
+      <c r="B20" s="148"/>
       <c r="C20" s="36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D20" s="56" t="s">
         <v>100</v>
       </c>
       <c r="E20" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="F20" s="135">
+        <v>142</v>
+      </c>
+      <c r="F20" s="130">
         <f>AVERAGE(L20:P20)</f>
         <v>2.1158501553160587</v>
       </c>
@@ -16966,7 +17018,7 @@
       <c r="T20" s="44"/>
     </row>
     <row r="21" spans="2:20">
-      <c r="B21" s="157" t="s">
+      <c r="B21" s="153" t="s">
         <v>96</v>
       </c>
       <c r="C21" s="35"/>
@@ -16989,9 +17041,9 @@
       <c r="T21" s="44"/>
     </row>
     <row r="22" spans="2:20" ht="18.5">
-      <c r="B22" s="157"/>
+      <c r="B22" s="153"/>
       <c r="C22" s="35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D22" s="56" t="s">
         <v>100</v>
@@ -17046,7 +17098,7 @@
       <c r="T22" s="44"/>
     </row>
     <row r="23" spans="2:20">
-      <c r="B23" s="155" t="s">
+      <c r="B23" s="151" t="s">
         <v>95</v>
       </c>
       <c r="C23" s="36"/>
@@ -17069,7 +17121,7 @@
       <c r="T23" s="44"/>
     </row>
     <row r="24" spans="2:20" ht="18.5">
-      <c r="B24" s="156"/>
+      <c r="B24" s="152"/>
       <c r="C24" s="36" t="s">
         <v>98</v>
       </c>
@@ -17077,7 +17129,7 @@
         <v>100</v>
       </c>
       <c r="E24" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F24" s="57">
         <f>AVERAGE(L24:P24)</f>
@@ -17129,7 +17181,7 @@
       <c r="T24" s="44"/>
     </row>
     <row r="25" spans="2:20">
-      <c r="B25" s="156"/>
+      <c r="B25" s="152"/>
       <c r="C25" s="36"/>
       <c r="D25" s="36"/>
       <c r="E25" s="51"/>
@@ -17150,7 +17202,7 @@
       <c r="T25" s="44"/>
     </row>
     <row r="26" spans="2:20" ht="18.5">
-      <c r="B26" s="156"/>
+      <c r="B26" s="152"/>
       <c r="C26" s="36" t="s">
         <v>106</v>
       </c>
@@ -17158,7 +17210,7 @@
         <v>100</v>
       </c>
       <c r="E26" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F26" s="57">
         <f>AVERAGE(L26:P26)</f>
@@ -17210,7 +17262,7 @@
       <c r="T26" s="44"/>
     </row>
     <row r="27" spans="2:20">
-      <c r="B27" s="156"/>
+      <c r="B27" s="152"/>
       <c r="C27" s="36"/>
       <c r="D27" s="36"/>
       <c r="E27" s="51"/>
@@ -17227,7 +17279,7 @@
       <c r="P27" s="38"/>
     </row>
     <row r="28" spans="2:20" ht="18.5">
-      <c r="B28" s="156"/>
+      <c r="B28" s="152"/>
       <c r="C28" s="36" t="s">
         <v>73</v>
       </c>
@@ -17237,7 +17289,7 @@
       <c r="E28" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="F28" s="137">
+      <c r="F28" s="132">
         <f>Financials!$C$92</f>
         <v>0</v>
       </c>
@@ -17253,7 +17305,7 @@
       <c r="P28" s="38"/>
     </row>
     <row r="29" spans="2:20">
-      <c r="B29" s="153" t="s">
+      <c r="B29" s="149" t="s">
         <v>94</v>
       </c>
       <c r="C29" s="34"/>
@@ -17262,7 +17314,7 @@
       <c r="F29" s="34"/>
     </row>
     <row r="30" spans="2:20" ht="18.5">
-      <c r="B30" s="153"/>
+      <c r="B30" s="149"/>
       <c r="C30" s="35" t="s">
         <v>78</v>
       </c>
@@ -17278,7 +17330,7 @@
       </c>
     </row>
     <row r="31" spans="2:20" ht="18.5">
-      <c r="B31" s="154"/>
+      <c r="B31" s="150"/>
       <c r="C31" s="35" t="s">
         <v>82</v>
       </c>
@@ -17294,14 +17346,14 @@
       </c>
     </row>
     <row r="32" spans="2:20">
-      <c r="B32" s="154"/>
+      <c r="B32" s="150"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
       <c r="E32" s="50"/>
       <c r="F32" s="52"/>
     </row>
     <row r="33" spans="2:17" ht="18.5">
-      <c r="B33" s="154"/>
+      <c r="B33" s="150"/>
       <c r="C33" s="35" t="s">
         <v>92</v>
       </c>
@@ -17317,7 +17369,7 @@
       </c>
     </row>
     <row r="34" spans="2:17" ht="18.5">
-      <c r="B34" s="154"/>
+      <c r="B34" s="150"/>
       <c r="C34" s="35" t="s">
         <v>93</v>
       </c>
@@ -17333,7 +17385,7 @@
       </c>
     </row>
     <row r="35" spans="2:17">
-      <c r="B35" s="154"/>
+      <c r="B35" s="150"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
       <c r="E35" s="50"/>
@@ -17341,7 +17393,7 @@
       <c r="Q35" s="37"/>
     </row>
     <row r="36" spans="2:17" ht="18.5">
-      <c r="B36" s="154"/>
+      <c r="B36" s="150"/>
       <c r="C36" s="35" t="s">
         <v>80</v>
       </c>
@@ -17357,7 +17409,7 @@
       </c>
     </row>
     <row r="37" spans="2:17" ht="18.5">
-      <c r="B37" s="154"/>
+      <c r="B37" s="150"/>
       <c r="C37" s="35" t="s">
         <v>83</v>
       </c>
@@ -17373,14 +17425,14 @@
       </c>
     </row>
     <row r="38" spans="2:17">
-      <c r="B38" s="154"/>
+      <c r="B38" s="150"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
       <c r="E38" s="50"/>
       <c r="F38" s="53"/>
     </row>
     <row r="39" spans="2:17" ht="18.5">
-      <c r="B39" s="154"/>
+      <c r="B39" s="150"/>
       <c r="C39" s="35" t="s">
         <v>81</v>
       </c>
@@ -17396,7 +17448,7 @@
       </c>
     </row>
     <row r="40" spans="2:17" ht="18.5">
-      <c r="B40" s="154"/>
+      <c r="B40" s="150"/>
       <c r="C40" s="35" t="s">
         <v>84</v>
       </c>
@@ -17412,46 +17464,46 @@
       </c>
     </row>
     <row r="41" spans="2:17">
-      <c r="B41" s="138" t="s">
+      <c r="B41" s="134" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="42" spans="2:17" ht="18.5">
-      <c r="B42" s="138"/>
-      <c r="C42" s="101" t="s">
-        <v>134</v>
+      <c r="B42" s="134"/>
+      <c r="C42" s="100" t="s">
+        <v>133</v>
       </c>
       <c r="D42" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="E42" s="102">
+      <c r="E42" s="101">
         <v>0.75</v>
       </c>
-      <c r="F42" s="104">
+      <c r="F42" s="103">
         <f>Financials!$D$82</f>
         <v>0.43355041703512143</v>
       </c>
     </row>
     <row r="43" spans="2:17" ht="18.5">
-      <c r="B43" s="138"/>
-      <c r="C43" s="101" t="s">
-        <v>139</v>
+      <c r="B43" s="134"/>
+      <c r="C43" s="100" t="s">
+        <v>138</v>
       </c>
       <c r="D43" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="E43" s="102" t="s">
-        <v>140</v>
-      </c>
-      <c r="F43" s="104">
+      <c r="E43" s="101" t="s">
+        <v>139</v>
+      </c>
+      <c r="F43" s="103">
         <f>Financials!D80</f>
         <v>7.1798608998944413E-2</v>
       </c>
     </row>
     <row r="44" spans="2:17" ht="18.5">
-      <c r="B44" s="138"/>
-      <c r="C44" s="101" t="s">
-        <v>136</v>
+      <c r="B44" s="134"/>
+      <c r="C44" s="100" t="s">
+        <v>135</v>
       </c>
       <c r="D44" s="56" t="s">
         <v>100</v>
@@ -17459,23 +17511,23 @@
       <c r="E44" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F44" s="104">
+      <c r="F44" s="103">
         <f>Financials!D81</f>
         <v>0.10523482790922609</v>
       </c>
     </row>
     <row r="45" spans="2:17" ht="18.5">
-      <c r="B45" s="138"/>
-      <c r="C45" s="101" t="s">
-        <v>135</v>
+      <c r="B45" s="134"/>
+      <c r="C45" s="100" t="s">
+        <v>134</v>
       </c>
       <c r="D45" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="E45" s="102">
+      <c r="E45" s="101">
         <v>0.12</v>
       </c>
-      <c r="F45" s="103">
+      <c r="F45" s="102">
         <f>F43+F44</f>
         <v>0.1770334369081705</v>
       </c>
@@ -17496,7 +17548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
@@ -17514,7 +17566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:P27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -17754,10 +17806,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:L80"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -17815,7 +17867,7 @@
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C8" s="65">
         <f>AVERAGE(C35:L35)</f>
@@ -17824,7 +17876,7 @@
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C9" s="66">
         <v>8.9700000000000006</v>
@@ -19041,23 +19093,23 @@
       </c>
       <c r="H57" s="61">
         <f>POWER((1+C4),6)</f>
-        <v>1.489071850514647</v>
+        <v>1.4890718505146472</v>
       </c>
       <c r="I57" s="61">
         <f>POWER((1+C4),7)</f>
-        <v>1.5912372228118181</v>
+        <v>1.5912372228118183</v>
       </c>
       <c r="J57" s="61">
         <f>POWER((1+C4),8)</f>
-        <v>1.7004121717744889</v>
+        <v>1.7004121717744891</v>
       </c>
       <c r="K57" s="61">
         <f>POWER((1+C4),9)</f>
-        <v>1.8170776251761771</v>
+        <v>1.8170776251761773</v>
       </c>
       <c r="L57" s="61">
         <f>POWER((1+C4),10)</f>
-        <v>1.9417475072942381</v>
+        <v>1.9417475072942385</v>
       </c>
     </row>
     <row r="58" spans="2:12">
@@ -19099,23 +19151,23 @@
       </c>
       <c r="H59" s="21">
         <f t="shared" si="12"/>
-        <v>9263.4609152773155</v>
+        <v>9263.4609152773137</v>
       </c>
       <c r="I59" s="21">
         <f t="shared" si="12"/>
-        <v>8755.3874912103674</v>
+        <v>8755.3874912103656</v>
       </c>
       <c r="J59" s="21">
         <f t="shared" si="12"/>
-        <v>8275.1803912531705</v>
+        <v>8275.1803912531686</v>
       </c>
       <c r="K59" s="21">
         <f t="shared" si="12"/>
-        <v>7821.3112299743907</v>
+        <v>7821.3112299743898</v>
       </c>
       <c r="L59" s="21">
         <f t="shared" si="12"/>
-        <v>7392.335449361688</v>
+        <v>7392.3354493616862</v>
       </c>
     </row>
     <row r="60" spans="2:12">
@@ -19137,7 +19189,7 @@
       </c>
       <c r="C61" s="74">
         <f>POWER((1+C4),11)</f>
-        <v>2.074971002803375</v>
+        <v>2.0749710028033754</v>
       </c>
       <c r="D61" s="21"/>
       <c r="E61" s="21"/>
@@ -19163,32 +19215,32 @@
       <c r="L62" s="21"/>
     </row>
     <row r="63" spans="2:12">
-      <c r="B63" s="158" t="s">
+      <c r="B63" s="154" t="s">
         <v>103</v>
       </c>
-      <c r="C63" s="158"/>
-      <c r="D63" s="158"/>
-      <c r="E63" s="158"/>
-      <c r="F63" s="158"/>
-      <c r="G63" s="158"/>
-      <c r="H63" s="158"/>
-      <c r="I63" s="158"/>
-      <c r="J63" s="158"/>
-      <c r="K63" s="158"/>
-      <c r="L63" s="158"/>
+      <c r="C63" s="154"/>
+      <c r="D63" s="154"/>
+      <c r="E63" s="154"/>
+      <c r="F63" s="154"/>
+      <c r="G63" s="154"/>
+      <c r="H63" s="154"/>
+      <c r="I63" s="154"/>
+      <c r="J63" s="154"/>
+      <c r="K63" s="154"/>
+      <c r="L63" s="154"/>
     </row>
     <row r="64" spans="2:12">
-      <c r="B64" s="158"/>
-      <c r="C64" s="158"/>
-      <c r="D64" s="158"/>
-      <c r="E64" s="158"/>
-      <c r="F64" s="158"/>
-      <c r="G64" s="158"/>
-      <c r="H64" s="158"/>
-      <c r="I64" s="158"/>
-      <c r="J64" s="158"/>
-      <c r="K64" s="158"/>
-      <c r="L64" s="158"/>
+      <c r="B64" s="154"/>
+      <c r="C64" s="154"/>
+      <c r="D64" s="154"/>
+      <c r="E64" s="154"/>
+      <c r="F64" s="154"/>
+      <c r="G64" s="154"/>
+      <c r="H64" s="154"/>
+      <c r="I64" s="154"/>
+      <c r="J64" s="154"/>
+      <c r="K64" s="154"/>
+      <c r="L64" s="154"/>
     </row>
     <row r="65" spans="2:12">
       <c r="B65" s="18" t="s">
@@ -19196,7 +19248,7 @@
       </c>
       <c r="C65" s="25">
         <f>L59*(1+C5)/(C4-C5)</f>
-        <v>173747.4438448688</v>
+        <v>173747.44384486874</v>
       </c>
     </row>
     <row r="66" spans="2:12" ht="15" thickBot="1">
@@ -19205,7 +19257,7 @@
       </c>
       <c r="C66" s="23">
         <f>C65/C61</f>
-        <v>83734.878034501948</v>
+        <v>83734.878034501904</v>
       </c>
     </row>
     <row r="67" spans="2:12" ht="15" thickTop="1"/>
@@ -19215,7 +19267,7 @@
       </c>
       <c r="C68" s="71">
         <f>(SUM(C59:L59)+C65)</f>
-        <v>270319.90500695899</v>
+        <v>270319.90500695887</v>
       </c>
     </row>
     <row r="69" spans="2:12" ht="15" thickTop="1">
@@ -19227,38 +19279,38 @@
       </c>
       <c r="C70" s="70">
         <f>C68/(C11/1000000)</f>
-        <v>64.260718133075443</v>
+        <v>64.260718133075414</v>
       </c>
       <c r="D70" s="29"/>
       <c r="E70" s="30"/>
     </row>
     <row r="73" spans="2:12">
-      <c r="B73" s="158" t="s">
+      <c r="B73" s="154" t="s">
         <v>104</v>
       </c>
-      <c r="C73" s="158"/>
-      <c r="D73" s="158"/>
-      <c r="E73" s="158"/>
-      <c r="F73" s="158"/>
-      <c r="G73" s="158"/>
-      <c r="H73" s="158"/>
-      <c r="I73" s="158"/>
-      <c r="J73" s="158"/>
-      <c r="K73" s="158"/>
-      <c r="L73" s="158"/>
+      <c r="C73" s="154"/>
+      <c r="D73" s="154"/>
+      <c r="E73" s="154"/>
+      <c r="F73" s="154"/>
+      <c r="G73" s="154"/>
+      <c r="H73" s="154"/>
+      <c r="I73" s="154"/>
+      <c r="J73" s="154"/>
+      <c r="K73" s="154"/>
+      <c r="L73" s="154"/>
     </row>
     <row r="74" spans="2:12">
-      <c r="B74" s="158"/>
-      <c r="C74" s="158"/>
-      <c r="D74" s="158"/>
-      <c r="E74" s="158"/>
-      <c r="F74" s="158"/>
-      <c r="G74" s="158"/>
-      <c r="H74" s="158"/>
-      <c r="I74" s="158"/>
-      <c r="J74" s="158"/>
-      <c r="K74" s="158"/>
-      <c r="L74" s="158"/>
+      <c r="B74" s="154"/>
+      <c r="C74" s="154"/>
+      <c r="D74" s="154"/>
+      <c r="E74" s="154"/>
+      <c r="F74" s="154"/>
+      <c r="G74" s="154"/>
+      <c r="H74" s="154"/>
+      <c r="I74" s="154"/>
+      <c r="J74" s="154"/>
+      <c r="K74" s="154"/>
+      <c r="L74" s="154"/>
     </row>
     <row r="75" spans="2:12">
       <c r="B75" s="18" t="s">
@@ -19275,7 +19327,7 @@
       </c>
       <c r="C76" s="23">
         <f>C75/C61</f>
-        <v>126605.71684355756</v>
+        <v>126605.71684355753</v>
       </c>
     </row>
     <row r="77" spans="2:12" ht="15" thickTop="1">
@@ -19288,7 +19340,7 @@
       </c>
       <c r="C78" s="72">
         <f>SUM(C59:L59)+C76</f>
-        <v>223178.17800564773</v>
+        <v>223178.17800564767</v>
       </c>
     </row>
     <row r="79" spans="2:12" ht="15" thickTop="1"/>
@@ -19298,7 +19350,7 @@
       </c>
       <c r="C80" s="70">
         <f>C78/(C11/1000000)</f>
-        <v>53.054139649483318</v>
+        <v>53.054139649483304</v>
       </c>
     </row>
   </sheetData>
@@ -19313,11 +19365,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B13:E21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -19344,23 +19396,23 @@
       <c r="B16" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="78">
-        <v>8.5</v>
+      <c r="C16" s="133">
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="18" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="C17" s="78">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="79">
+      <c r="C18">
         <v>4.42</v>
       </c>
       <c r="D18" s="77" t="s">
@@ -19369,23 +19421,20 @@
       <c r="E18" s="76" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="C19" s="79"/>
     </row>
     <row r="20" spans="2:5" ht="15" thickBot="1">
       <c r="B20" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="80">
+      <c r="C20" s="79">
         <f>(C15*(C16+C17)*4.4)/C18</f>
-        <v>25.250226244343892</v>
+        <v>42.526696832579191</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="15" thickTop="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E18" r:id="rId1"/>
+    <hyperlink ref="E18" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -19394,11 +19443,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -19411,662 +19460,662 @@
   <sheetData>
     <row r="2" spans="2:16" ht="15" thickBot="1">
       <c r="B2" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="125">
+        <v>125</v>
+      </c>
+      <c r="C2" s="122">
         <v>1.08</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="15" thickBot="1"/>
     <row r="4" spans="2:16" ht="20" thickBot="1">
-      <c r="B4" s="161" t="s">
+      <c r="B4" s="157" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="158"/>
+    </row>
+    <row r="5" spans="2:16" ht="15" thickBot="1">
+      <c r="B5" s="80" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="162"/>
-    </row>
-    <row r="5" spans="2:16" ht="15" thickBot="1">
-      <c r="B5" s="81" t="s">
+      <c r="C5" s="81" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="85" t="s">
+      <c r="P5" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="P5" s="86" t="s">
+    </row>
+    <row r="6" spans="2:16" ht="15" thickBot="1">
+      <c r="B6" s="86" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="6" spans="2:16" ht="15" thickBot="1">
-      <c r="B6" s="87" t="s">
+      <c r="C6" s="87">
+        <v>1</v>
+      </c>
+      <c r="D6" s="87">
+        <v>2</v>
+      </c>
+      <c r="E6" s="87">
+        <v>3</v>
+      </c>
+      <c r="F6" s="87">
+        <v>4</v>
+      </c>
+      <c r="G6" s="87">
+        <v>5</v>
+      </c>
+      <c r="H6" s="87">
+        <v>6</v>
+      </c>
+      <c r="I6" s="87">
+        <v>7</v>
+      </c>
+      <c r="J6" s="87">
+        <v>8</v>
+      </c>
+      <c r="K6" s="87">
+        <v>9</v>
+      </c>
+      <c r="L6" s="87">
+        <v>10</v>
+      </c>
+      <c r="M6" s="159" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="88">
-        <v>1</v>
-      </c>
-      <c r="D6" s="88">
-        <v>2</v>
-      </c>
-      <c r="E6" s="88">
-        <v>3</v>
-      </c>
-      <c r="F6" s="88">
-        <v>4</v>
-      </c>
-      <c r="G6" s="88">
-        <v>5</v>
-      </c>
-      <c r="H6" s="88">
-        <v>6</v>
-      </c>
-      <c r="I6" s="88">
-        <v>7</v>
-      </c>
-      <c r="J6" s="88">
-        <v>8</v>
-      </c>
-      <c r="K6" s="88">
-        <v>9</v>
-      </c>
-      <c r="L6" s="88">
-        <v>10</v>
-      </c>
-      <c r="M6" s="163" t="s">
+      <c r="N6" s="160"/>
+      <c r="O6" s="88" t="s">
         <v>125</v>
       </c>
-      <c r="N6" s="164"/>
-      <c r="O6" s="89" t="s">
-        <v>126</v>
-      </c>
-      <c r="P6" s="107">
+      <c r="P6" s="106">
         <f>C2</f>
         <v>1.08</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="15" thickBot="1">
-      <c r="B7" s="90" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" s="91">
+      <c r="B7" s="89" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="90">
         <f>P6*(1+P7)</f>
         <v>1.107</v>
       </c>
-      <c r="D7" s="91">
+      <c r="D7" s="90">
         <f>C7*(1+P7)</f>
         <v>1.1346749999999999</v>
       </c>
-      <c r="E7" s="91">
+      <c r="E7" s="90">
         <f>D7*(1+P7)</f>
         <v>1.1630418749999998</v>
       </c>
-      <c r="F7" s="91">
+      <c r="F7" s="90">
         <f>E7*(1+P7)</f>
         <v>1.1921179218749998</v>
       </c>
-      <c r="G7" s="91">
+      <c r="G7" s="90">
         <f>F7*(1+P7)</f>
         <v>1.2219208699218747</v>
       </c>
-      <c r="H7" s="91">
+      <c r="H7" s="90">
         <f>G7*(1+P7)</f>
         <v>1.2524688916699214</v>
       </c>
-      <c r="I7" s="91">
+      <c r="I7" s="90">
         <f>H7*(1+P7)</f>
         <v>1.2837806139616692</v>
       </c>
-      <c r="J7" s="91">
+      <c r="J7" s="90">
         <f>I7*(1+P7)</f>
         <v>1.3158751293107107</v>
       </c>
-      <c r="K7" s="91">
+      <c r="K7" s="90">
         <f>J7*(1+P7)</f>
         <v>1.3487720075434784</v>
       </c>
-      <c r="L7" s="91">
+      <c r="L7" s="90">
         <f>K7*(1+P7)</f>
         <v>1.3824913077320653</v>
       </c>
-      <c r="M7" s="159">
+      <c r="M7" s="155">
         <f>L7*(1+P7)/(P8-P7)</f>
         <v>32.49370006293983</v>
       </c>
-      <c r="N7" s="160"/>
-      <c r="O7" s="89" t="s">
+      <c r="N7" s="156"/>
+      <c r="O7" s="88" t="s">
+        <v>127</v>
+      </c>
+      <c r="P7" s="104">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="15" thickBot="1">
+      <c r="B8" s="89" t="s">
         <v>128</v>
       </c>
-      <c r="P7" s="105">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" ht="15" thickBot="1">
-      <c r="B8" s="90" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" s="91">
+      <c r="C8" s="90">
         <f>C7/(1+P8)</f>
         <v>1.0359250744567683</v>
       </c>
-      <c r="D8" s="91">
+      <c r="D8" s="90">
         <f>D7/(1+P8)^2</f>
         <v>0.99364885174838979</v>
       </c>
-      <c r="E8" s="91">
+      <c r="E8" s="90">
         <f>E7/(1+P8)^3</f>
         <v>0.95309792660308623</v>
       </c>
-      <c r="F8" s="91">
+      <c r="F8" s="90">
         <f>F7/(1+P8)^4</f>
         <v>0.91420188942675329</v>
       </c>
-      <c r="G8" s="91">
+      <c r="G8" s="90">
         <f>G7/(1+P8)^5</f>
         <v>0.87689320404900717</v>
       </c>
-      <c r="H8" s="91">
+      <c r="H8" s="90">
         <f>H7/(1+P8)^6</f>
-        <v>0.84110709045842758</v>
-      </c>
-      <c r="I8" s="91">
+        <v>0.84110709045842746</v>
+      </c>
+      <c r="I8" s="90">
         <f>I7/(1+P8)^7</f>
-        <v>0.80678141232339107</v>
-      </c>
-      <c r="J8" s="91">
+        <v>0.80678141232339096</v>
+      </c>
+      <c r="J8" s="90">
         <f>J7/(1+P8)^8</f>
-        <v>0.77385656910319034</v>
-      </c>
-      <c r="K8" s="91">
+        <v>0.77385656910319023</v>
+      </c>
+      <c r="K8" s="90">
         <f>K7/(1+P8)^9</f>
-        <v>0.74227539256211272</v>
-      </c>
-      <c r="L8" s="91">
+        <v>0.74227539256211261</v>
+      </c>
+      <c r="L8" s="90">
         <f>L7/(1+P8)^10</f>
-        <v>0.71198304750679042</v>
-      </c>
-      <c r="M8" s="159">
+        <v>0.7119830475067902</v>
+      </c>
+      <c r="M8" s="155">
         <f>M7/POWER((1+P8),10)</f>
-        <v>16.734256097085837</v>
-      </c>
-      <c r="N8" s="160"/>
-      <c r="O8" s="92" t="s">
-        <v>130</v>
-      </c>
-      <c r="P8" s="106">
+        <v>16.734256097085833</v>
+      </c>
+      <c r="N8" s="156"/>
+      <c r="O8" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="P8" s="105">
         <f>WACC!$C$25</f>
         <v>6.861010250234828E-2</v>
       </c>
     </row>
     <row r="9" spans="2:16">
-      <c r="B9" s="93"/>
-      <c r="N9" s="94"/>
+      <c r="B9" s="92"/>
+      <c r="N9" s="93"/>
     </row>
     <row r="10" spans="2:16" ht="20" thickBot="1">
-      <c r="B10" s="95" t="s">
+      <c r="B10" s="94" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="95">
+        <f>SUM(C8:N8)*(1-P9)</f>
+        <v>25.38402655532375</v>
+      </c>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="97"/>
+    </row>
+    <row r="11" spans="2:16">
+      <c r="B11" s="98"/>
+      <c r="C11" s="98"/>
+    </row>
+    <row r="12" spans="2:16" ht="15" thickBot="1">
+      <c r="O12" s="99"/>
+    </row>
+    <row r="13" spans="2:16" ht="20" thickBot="1">
+      <c r="B13" s="157" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="158"/>
+    </row>
+    <row r="14" spans="2:16" ht="15" thickBot="1">
+      <c r="B14" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="81" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="96">
-        <f>SUM(C8:N8)*(1-P9)</f>
-        <v>25.384026555323754</v>
-      </c>
-      <c r="D10" s="97"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="97"/>
-      <c r="J10" s="97"/>
-      <c r="K10" s="97"/>
-      <c r="L10" s="97"/>
-      <c r="M10" s="97"/>
-      <c r="N10" s="98"/>
-    </row>
-    <row r="11" spans="2:16">
-      <c r="B11" s="99"/>
-      <c r="C11" s="99"/>
-    </row>
-    <row r="12" spans="2:16" ht="15" thickBot="1">
-      <c r="O12" s="100"/>
-    </row>
-    <row r="13" spans="2:16" ht="20" thickBot="1">
-      <c r="B13" s="161" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" s="162"/>
-    </row>
-    <row r="14" spans="2:16" ht="15" thickBot="1">
-      <c r="B14" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" s="82" t="s">
-        <v>132</v>
-      </c>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="84"/>
-      <c r="O14" s="85" t="s">
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="84" t="s">
+        <v>121</v>
+      </c>
+      <c r="P14" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="P14" s="86" t="s">
+    </row>
+    <row r="15" spans="2:16" ht="15" thickBot="1">
+      <c r="B15" s="86" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="15" spans="2:16" ht="15" thickBot="1">
-      <c r="B15" s="87" t="s">
+      <c r="C15" s="87">
+        <v>1</v>
+      </c>
+      <c r="D15" s="87">
+        <v>2</v>
+      </c>
+      <c r="E15" s="87">
+        <v>3</v>
+      </c>
+      <c r="F15" s="87">
+        <v>4</v>
+      </c>
+      <c r="G15" s="87">
+        <v>5</v>
+      </c>
+      <c r="H15" s="87">
+        <v>6</v>
+      </c>
+      <c r="I15" s="87">
+        <v>7</v>
+      </c>
+      <c r="J15" s="87">
+        <v>8</v>
+      </c>
+      <c r="K15" s="87">
+        <v>9</v>
+      </c>
+      <c r="L15" s="87">
+        <v>10</v>
+      </c>
+      <c r="M15" s="159" t="s">
         <v>124</v>
       </c>
-      <c r="C15" s="88">
-        <v>1</v>
-      </c>
-      <c r="D15" s="88">
-        <v>2</v>
-      </c>
-      <c r="E15" s="88">
-        <v>3</v>
-      </c>
-      <c r="F15" s="88">
-        <v>4</v>
-      </c>
-      <c r="G15" s="88">
-        <v>5</v>
-      </c>
-      <c r="H15" s="88">
-        <v>6</v>
-      </c>
-      <c r="I15" s="88">
-        <v>7</v>
-      </c>
-      <c r="J15" s="88">
-        <v>8</v>
-      </c>
-      <c r="K15" s="88">
-        <v>9</v>
-      </c>
-      <c r="L15" s="88">
-        <v>10</v>
-      </c>
-      <c r="M15" s="163" t="s">
+      <c r="N15" s="160"/>
+      <c r="O15" s="88" t="s">
         <v>125</v>
       </c>
-      <c r="N15" s="164"/>
-      <c r="O15" s="89" t="s">
-        <v>126</v>
-      </c>
-      <c r="P15" s="107">
+      <c r="P15" s="106">
         <f>C2</f>
         <v>1.08</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="15" thickBot="1">
-      <c r="B16" s="90" t="s">
-        <v>127</v>
-      </c>
-      <c r="C16" s="91">
+      <c r="B16" s="89" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="90">
         <f>P15*(1+P16)</f>
         <v>1.1124000000000001</v>
       </c>
-      <c r="D16" s="91">
+      <c r="D16" s="90">
         <f>C16*(1+P16)</f>
         <v>1.145772</v>
       </c>
-      <c r="E16" s="91">
+      <c r="E16" s="90">
         <f>D16*(1+P16)</f>
         <v>1.1801451600000001</v>
       </c>
-      <c r="F16" s="91">
+      <c r="F16" s="90">
         <f>E16*(1+P16)</f>
         <v>1.2155495148000002</v>
       </c>
-      <c r="G16" s="91">
+      <c r="G16" s="90">
         <f>F16*(1+P16)</f>
         <v>1.2520160002440002</v>
       </c>
-      <c r="H16" s="91">
+      <c r="H16" s="90">
         <f>G16*(1+P16)</f>
         <v>1.2895764802513201</v>
       </c>
-      <c r="I16" s="91">
+      <c r="I16" s="90">
         <f>H16*(1+P16)</f>
         <v>1.3282637746588597</v>
       </c>
-      <c r="J16" s="91">
+      <c r="J16" s="90">
         <f>I16*(1+P16)</f>
         <v>1.3681116878986255</v>
       </c>
-      <c r="K16" s="91">
+      <c r="K16" s="90">
         <f>J16*(1+P16)</f>
         <v>1.4091550385355842</v>
       </c>
-      <c r="L16" s="91">
+      <c r="L16" s="90">
         <f>K16*(1+P16)</f>
         <v>1.4514296896916519</v>
       </c>
-      <c r="M16" s="159">
+      <c r="M16" s="155">
         <f>L16*(1+P16)/(P17-P16)</f>
         <v>38.719725758083044</v>
       </c>
-      <c r="N16" s="160"/>
-      <c r="O16" s="89" t="s">
+      <c r="N16" s="156"/>
+      <c r="O16" s="88" t="s">
+        <v>127</v>
+      </c>
+      <c r="P16" s="104">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" ht="15" thickBot="1">
+      <c r="B17" s="89" t="s">
         <v>128</v>
       </c>
-      <c r="P16" s="105">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" ht="15" thickBot="1">
-      <c r="B17" s="90" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" s="91">
+      <c r="C17" s="90">
         <f>C16/(1+P17)</f>
         <v>1.040978367502899</v>
       </c>
-      <c r="D17" s="91">
+      <c r="D17" s="90">
         <f>D16/(1+P17)^2</f>
         <v>1.0033666311194449</v>
       </c>
-      <c r="E17" s="91">
+      <c r="E17" s="90">
         <f>E16/(1+P17)^3</f>
         <v>0.96711384969407721</v>
       </c>
-      <c r="F17" s="91">
+      <c r="F17" s="90">
         <f>F16/(1+P17)^4</f>
         <v>0.93217092263331902</v>
       </c>
-      <c r="G17" s="91">
+      <c r="G17" s="90">
         <f>G16/(1+P17)^5</f>
         <v>0.89849052340417002</v>
       </c>
-      <c r="H17" s="91">
+      <c r="H17" s="90">
         <f>H16/(1+P17)^6</f>
-        <v>0.86602703543527593</v>
-      </c>
-      <c r="I17" s="91">
+        <v>0.86602703543527582</v>
+      </c>
+      <c r="I17" s="90">
         <f>I16/(1+P17)^7</f>
-        <v>0.83473649033406372</v>
-      </c>
-      <c r="J17" s="91">
+        <v>0.83473649033406361</v>
+      </c>
+      <c r="J17" s="90">
         <f>J16/(1+P17)^8</f>
-        <v>0.80457650833616023</v>
-      </c>
-      <c r="K17" s="91">
+        <v>0.80457650833616012</v>
+      </c>
+      <c r="K17" s="90">
         <f>K16/(1+P17)^9</f>
-        <v>0.77550624090644327</v>
-      </c>
-      <c r="L17" s="91">
+        <v>0.77550624090644316</v>
+      </c>
+      <c r="L17" s="90">
         <f>L16/(1+P17)^10</f>
-        <v>0.74748631541398081</v>
-      </c>
-      <c r="M17" s="159">
+        <v>0.7474863154139807</v>
+      </c>
+      <c r="M17" s="155">
         <f>M16/POWER((1+P17),10)</f>
-        <v>19.940659438279759</v>
-      </c>
-      <c r="N17" s="160"/>
-      <c r="O17" s="92" t="s">
-        <v>130</v>
-      </c>
-      <c r="P17" s="106">
+        <v>19.940659438279756</v>
+      </c>
+      <c r="N17" s="156"/>
+      <c r="O17" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="P17" s="105">
         <f>WACC!$C$25</f>
         <v>6.861010250234828E-2</v>
       </c>
     </row>
     <row r="18" spans="2:16">
-      <c r="B18" s="93"/>
-      <c r="N18" s="94"/>
+      <c r="B18" s="92"/>
+      <c r="N18" s="93"/>
     </row>
     <row r="19" spans="2:16" ht="20" thickBot="1">
-      <c r="B19" s="95" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" s="96">
+      <c r="B19" s="94" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="95">
         <f>SUM(C17:N17)*(1-P18)</f>
-        <v>28.811112323059593</v>
-      </c>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="97"/>
-      <c r="J19" s="97"/>
-      <c r="K19" s="97"/>
-      <c r="L19" s="97"/>
-      <c r="M19" s="97"/>
-      <c r="N19" s="98"/>
+        <v>28.811112323059589</v>
+      </c>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="96"/>
+      <c r="N19" s="97"/>
     </row>
     <row r="21" spans="2:16" ht="15" thickBot="1"/>
     <row r="22" spans="2:16" ht="20" thickBot="1">
-      <c r="B22" s="161" t="s">
+      <c r="B22" s="157" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="158"/>
+    </row>
+    <row r="23" spans="2:16" ht="15" thickBot="1">
+      <c r="B23" s="80" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="162"/>
-    </row>
-    <row r="23" spans="2:16" ht="15" thickBot="1">
-      <c r="B23" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="C23" s="82" t="s">
-        <v>133</v>
-      </c>
-      <c r="D23" s="83"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="83"/>
-      <c r="L23" s="83"/>
-      <c r="M23" s="83"/>
-      <c r="N23" s="84"/>
-      <c r="O23" s="85" t="s">
+      <c r="C23" s="81" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="82"/>
+      <c r="N23" s="83"/>
+      <c r="O23" s="84" t="s">
+        <v>121</v>
+      </c>
+      <c r="P23" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="P23" s="86" t="s">
+    </row>
+    <row r="24" spans="2:16" ht="15" thickBot="1">
+      <c r="B24" s="86" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="24" spans="2:16" ht="15" thickBot="1">
-      <c r="B24" s="87" t="s">
+      <c r="C24" s="87">
+        <v>1</v>
+      </c>
+      <c r="D24" s="87">
+        <v>2</v>
+      </c>
+      <c r="E24" s="87">
+        <v>3</v>
+      </c>
+      <c r="F24" s="87">
+        <v>4</v>
+      </c>
+      <c r="G24" s="87">
+        <v>5</v>
+      </c>
+      <c r="H24" s="87">
+        <v>6</v>
+      </c>
+      <c r="I24" s="87">
+        <v>7</v>
+      </c>
+      <c r="J24" s="87">
+        <v>8</v>
+      </c>
+      <c r="K24" s="87">
+        <v>9</v>
+      </c>
+      <c r="L24" s="87">
+        <v>10</v>
+      </c>
+      <c r="M24" s="159" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="88">
-        <v>1</v>
-      </c>
-      <c r="D24" s="88">
-        <v>2</v>
-      </c>
-      <c r="E24" s="88">
-        <v>3</v>
-      </c>
-      <c r="F24" s="88">
-        <v>4</v>
-      </c>
-      <c r="G24" s="88">
-        <v>5</v>
-      </c>
-      <c r="H24" s="88">
-        <v>6</v>
-      </c>
-      <c r="I24" s="88">
-        <v>7</v>
-      </c>
-      <c r="J24" s="88">
-        <v>8</v>
-      </c>
-      <c r="K24" s="88">
-        <v>9</v>
-      </c>
-      <c r="L24" s="88">
-        <v>10</v>
-      </c>
-      <c r="M24" s="163" t="s">
+      <c r="N24" s="160"/>
+      <c r="O24" s="88" t="s">
         <v>125</v>
       </c>
-      <c r="N24" s="164"/>
-      <c r="O24" s="89" t="s">
-        <v>126</v>
-      </c>
-      <c r="P24" s="107">
+      <c r="P24" s="106">
         <f>C2</f>
         <v>1.08</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="15" thickBot="1">
-      <c r="B25" s="90" t="s">
-        <v>127</v>
-      </c>
-      <c r="C25" s="91">
+      <c r="B25" s="89" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="90">
         <f>P24*(1+P25)</f>
         <v>1.1177999999999999</v>
       </c>
-      <c r="D25" s="91">
+      <c r="D25" s="90">
         <f>C25*(1+P25)</f>
         <v>1.1569229999999997</v>
       </c>
-      <c r="E25" s="91">
+      <c r="E25" s="90">
         <f>D25*(1+P25)</f>
         <v>1.1974153049999996</v>
       </c>
-      <c r="F25" s="91">
+      <c r="F25" s="90">
         <f>E25*(1+P25)</f>
         <v>1.2393248406749995</v>
       </c>
-      <c r="G25" s="91">
+      <c r="G25" s="90">
         <f>F25*(1+P25)</f>
         <v>1.2827012100986244</v>
       </c>
-      <c r="H25" s="91">
+      <c r="H25" s="90">
         <f>G25*(1+P25)</f>
         <v>1.3275957524520761</v>
       </c>
-      <c r="I25" s="91">
+      <c r="I25" s="90">
         <f>H25*(1+P25)</f>
         <v>1.3740616037878985</v>
       </c>
-      <c r="J25" s="91">
+      <c r="J25" s="90">
         <f>I25*(1+P25)</f>
         <v>1.422153759920475</v>
       </c>
-      <c r="K25" s="91">
+      <c r="K25" s="90">
         <f>J25*(1+P25)</f>
         <v>1.4719291415176916</v>
       </c>
-      <c r="L25" s="91">
+      <c r="L25" s="90">
         <f>K25*(1+P25)</f>
         <v>1.5234466614708106</v>
       </c>
-      <c r="M25" s="159">
+      <c r="M25" s="155">
         <f>L25*(1+P25)/(P26-P25)</f>
         <v>46.91349258789446</v>
       </c>
-      <c r="N25" s="160"/>
-      <c r="O25" s="89" t="s">
+      <c r="N25" s="156"/>
+      <c r="O25" s="88" t="s">
+        <v>127</v>
+      </c>
+      <c r="P25" s="104">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" ht="15" thickBot="1">
+      <c r="B26" s="89" t="s">
         <v>128</v>
       </c>
-      <c r="P25" s="105">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" ht="15" thickBot="1">
-      <c r="B26" s="90" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26" s="91">
+      <c r="C26" s="90">
         <f>C25/(1+P26)</f>
         <v>1.0460316605490294</v>
       </c>
-      <c r="D26" s="91">
+      <c r="D26" s="90">
         <f>D25/(1+P26)^2</f>
         <v>1.0131316989545924</v>
       </c>
-      <c r="E26" s="91">
+      <c r="E26" s="90">
         <f>E25/(1+P26)^3</f>
         <v>0.98126651241882579</v>
       </c>
-      <c r="F26" s="91">
+      <c r="F26" s="90">
         <f>F25/(1+P26)^4</f>
         <v>0.95040355502464735</v>
       </c>
-      <c r="G26" s="91">
+      <c r="G26" s="90">
         <f>G25/(1+P26)^5</f>
         <v>0.92051130449456742</v>
       </c>
-      <c r="H26" s="91">
+      <c r="H26" s="90">
         <f>H25/(1+P26)^6</f>
-        <v>0.89155922999500514</v>
-      </c>
-      <c r="I26" s="91">
+        <v>0.89155922999500503</v>
+      </c>
+      <c r="I26" s="90">
         <f>I25/(1+P26)^7</f>
-        <v>0.86351776095323085</v>
-      </c>
-      <c r="J26" s="91">
+        <v>0.86351776095323074</v>
+      </c>
+      <c r="J26" s="90">
         <f>J25/(1+P26)^8</f>
-        <v>0.83635825685508158</v>
-      </c>
-      <c r="K26" s="91">
+        <v>0.83635825685508147</v>
+      </c>
+      <c r="K26" s="90">
         <f>K25/(1+P26)^9</f>
-        <v>0.81005297799260434</v>
-      </c>
-      <c r="L26" s="91">
+        <v>0.81005297799260423</v>
+      </c>
+      <c r="L26" s="90">
         <f>L25/(1+P26)^10</f>
-        <v>0.78457505713175035</v>
-      </c>
-      <c r="M26" s="159">
+        <v>0.78457505713175013</v>
+      </c>
+      <c r="M26" s="155">
         <f>M25/POWER((1+P26),10)</f>
-        <v>24.160449498022988</v>
-      </c>
-      <c r="N26" s="160"/>
-      <c r="O26" s="92" t="s">
-        <v>130</v>
-      </c>
-      <c r="P26" s="106">
+        <v>24.160449498022981</v>
+      </c>
+      <c r="N26" s="156"/>
+      <c r="O26" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="P26" s="105">
         <f>WACC!$C$25</f>
         <v>6.861010250234828E-2</v>
       </c>
     </row>
     <row r="27" spans="2:16">
-      <c r="B27" s="93"/>
-      <c r="N27" s="94"/>
+      <c r="B27" s="92"/>
+      <c r="N27" s="93"/>
     </row>
     <row r="28" spans="2:16" ht="20" thickBot="1">
-      <c r="B28" s="95" t="s">
-        <v>131</v>
-      </c>
-      <c r="C28" s="96">
+      <c r="B28" s="94" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="95">
         <f>SUM(C26:N26)*(1-P27)</f>
         <v>33.25785751239232</v>
       </c>
-      <c r="D28" s="97"/>
-      <c r="E28" s="97"/>
-      <c r="F28" s="97"/>
-      <c r="G28" s="97"/>
-      <c r="H28" s="97"/>
-      <c r="I28" s="97"/>
-      <c r="J28" s="97"/>
-      <c r="K28" s="97"/>
-      <c r="L28" s="97"/>
-      <c r="M28" s="97"/>
-      <c r="N28" s="98"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="96"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="96"/>
+      <c r="I28" s="96"/>
+      <c r="J28" s="96"/>
+      <c r="K28" s="96"/>
+      <c r="L28" s="96"/>
+      <c r="M28" s="96"/>
+      <c r="N28" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -20088,7 +20137,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:AJ92"/>
   <sheetViews>
     <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -20098,10 +20147,10 @@
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="62.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="113" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" style="113" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="11.26953125" style="113" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.6328125" style="113" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="112" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" style="112" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="11.26953125" style="112" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.6328125" style="112" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -20109,35 +20158,35 @@
       <c r="B2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112">
+      <c r="C2" s="111"/>
+      <c r="D2" s="111">
         <v>2013</v>
       </c>
-      <c r="E2" s="112">
+      <c r="E2" s="111">
         <v>2014</v>
       </c>
-      <c r="F2" s="112">
+      <c r="F2" s="111">
         <v>2015</v>
       </c>
-      <c r="G2" s="112">
+      <c r="G2" s="111">
         <v>2016</v>
       </c>
-      <c r="H2" s="112">
+      <c r="H2" s="111">
         <v>2017</v>
       </c>
-      <c r="I2" s="112">
+      <c r="I2" s="111">
         <v>2018</v>
       </c>
-      <c r="J2" s="112">
+      <c r="J2" s="111">
         <v>2019</v>
       </c>
-      <c r="K2" s="112">
+      <c r="K2" s="111">
         <v>2020</v>
       </c>
-      <c r="L2" s="112">
+      <c r="L2" s="111">
         <v>2021</v>
       </c>
-      <c r="M2" s="112">
+      <c r="M2" s="111">
         <v>2022</v>
       </c>
     </row>
@@ -20145,292 +20194,291 @@
       <c r="B3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="130">
+      <c r="C3" s="125">
         <v>62570</v>
       </c>
-      <c r="D3" s="120">
+      <c r="D3" s="112">
         <v>64657</v>
       </c>
-      <c r="E3" s="120">
+      <c r="E3" s="112">
         <v>68775</v>
       </c>
-      <c r="F3" s="120">
+      <c r="F3" s="112">
         <v>74510</v>
       </c>
-      <c r="G3" s="120">
+      <c r="G3" s="112">
         <v>80736</v>
       </c>
-      <c r="H3" s="120">
+      <c r="H3" s="112">
         <v>85029</v>
       </c>
-      <c r="I3" s="120">
+      <c r="I3" s="112">
         <v>94507</v>
       </c>
-      <c r="J3" s="120">
+      <c r="J3" s="112">
         <v>108942</v>
       </c>
-      <c r="K3" s="120">
+      <c r="K3" s="112">
         <v>103564</v>
       </c>
-      <c r="L3" s="120">
+      <c r="L3" s="112">
         <v>116385</v>
       </c>
-      <c r="M3" s="120">
+      <c r="M3" s="112">
         <v>121427</v>
       </c>
-      <c r="Q3" s="109"/>
+      <c r="Q3" s="108"/>
     </row>
     <row r="4" spans="2:17">
       <c r="B4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="118"/>
-      <c r="D4" s="131">
+      <c r="C4" s="117"/>
+      <c r="D4" s="126">
         <f t="shared" ref="D4:M4" si="0">(D3-C3)/C3</f>
         <v>3.3354642800063929E-2</v>
       </c>
-      <c r="E4" s="131">
+      <c r="E4" s="126">
         <f t="shared" si="0"/>
         <v>6.3689933031226317E-2</v>
       </c>
-      <c r="F4" s="131">
+      <c r="F4" s="126">
         <f t="shared" si="0"/>
         <v>8.338785896037805E-2</v>
       </c>
-      <c r="G4" s="131">
+      <c r="G4" s="126">
         <f t="shared" si="0"/>
         <v>8.3559253791437388E-2</v>
       </c>
-      <c r="H4" s="131">
+      <c r="H4" s="126">
         <f t="shared" si="0"/>
         <v>5.3173305588585018E-2</v>
       </c>
-      <c r="I4" s="131">
+      <c r="I4" s="126">
         <f t="shared" si="0"/>
         <v>0.11146785214456244</v>
       </c>
-      <c r="J4" s="131">
+      <c r="J4" s="126">
         <f t="shared" si="0"/>
         <v>0.15274000867660598</v>
       </c>
-      <c r="K4" s="131">
+      <c r="K4" s="126">
         <f t="shared" si="0"/>
         <v>-4.9365717537772393E-2</v>
       </c>
-      <c r="L4" s="131">
+      <c r="L4" s="126">
         <f t="shared" si="0"/>
         <v>0.12379784481093817</v>
       </c>
-      <c r="M4" s="131">
+      <c r="M4" s="126">
         <f t="shared" si="0"/>
         <v>4.3321733900416722E-2</v>
       </c>
-      <c r="Q4" s="109"/>
+      <c r="Q4" s="108"/>
     </row>
     <row r="5" spans="2:17">
       <c r="B5" s="18"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="122"/>
-      <c r="M5" s="122"/>
-      <c r="Q5" s="109"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="120"/>
+      <c r="Q5" s="108"/>
     </row>
     <row r="6" spans="2:17">
       <c r="B6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="113">
+      <c r="C6" s="112">
         <v>6203</v>
       </c>
-      <c r="D6" s="120">
+      <c r="D6" s="112">
         <v>6816</v>
       </c>
-      <c r="E6" s="120">
+      <c r="E6" s="112">
         <v>8380</v>
       </c>
-      <c r="F6" s="120">
+      <c r="F6" s="112">
         <v>8163</v>
       </c>
-      <c r="G6" s="120">
+      <c r="G6" s="112">
         <v>8678</v>
       </c>
-      <c r="H6" s="120">
+      <c r="H6" s="112">
         <v>22735</v>
       </c>
-      <c r="I6" s="120">
+      <c r="I6" s="112">
         <v>11731</v>
       </c>
-      <c r="J6" s="120">
+      <c r="J6" s="112">
         <v>13057</v>
       </c>
-      <c r="K6" s="120">
+      <c r="K6" s="112">
         <v>10534</v>
       </c>
-      <c r="L6" s="120">
+      <c r="L6" s="112">
         <v>14159</v>
       </c>
-      <c r="M6" s="120">
+      <c r="M6" s="112">
         <v>5370</v>
       </c>
-      <c r="Q6" s="109"/>
+      <c r="Q6" s="108"/>
     </row>
     <row r="7" spans="2:17">
       <c r="B7" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="131">
+      <c r="C7" s="117"/>
+      <c r="D7" s="126">
         <f t="shared" ref="D7" si="1">(D6-C6)/C6</f>
         <v>9.8823150088666781E-2</v>
       </c>
-      <c r="E7" s="131">
+      <c r="E7" s="126">
         <f t="shared" ref="E7" si="2">(E6-D6)/D6</f>
         <v>0.22946009389671362</v>
       </c>
-      <c r="F7" s="131">
+      <c r="F7" s="126">
         <f t="shared" ref="F7" si="3">(F6-E6)/E6</f>
         <v>-2.5894988066825775E-2</v>
       </c>
-      <c r="G7" s="131">
+      <c r="G7" s="126">
         <f t="shared" ref="G7" si="4">(G6-F6)/F6</f>
         <v>6.3089550410388343E-2</v>
       </c>
-      <c r="H7" s="131">
+      <c r="H7" s="126">
         <f t="shared" ref="H7" si="5">(H6-G6)/G6</f>
         <v>1.6198432818621802</v>
       </c>
-      <c r="I7" s="131">
+      <c r="I7" s="126">
         <f t="shared" ref="I7" si="6">(I6-H6)/H6</f>
         <v>-0.48401143611172204</v>
       </c>
-      <c r="J7" s="131">
+      <c r="J7" s="126">
         <f t="shared" ref="J7" si="7">(J6-I6)/I6</f>
         <v>0.11303384195720739</v>
       </c>
-      <c r="K7" s="131">
+      <c r="K7" s="126">
         <f t="shared" ref="K7" si="8">(K6-J6)/J6</f>
         <v>-0.1932296852263154</v>
       </c>
-      <c r="L7" s="131">
+      <c r="L7" s="126">
         <f t="shared" ref="L7" si="9">(L6-K6)/K6</f>
         <v>0.34412378963356749</v>
       </c>
-      <c r="M7" s="131">
+      <c r="M7" s="126">
         <f t="shared" ref="M7" si="10">(M6-L6)/L6</f>
         <v>-0.62073592767850838</v>
       </c>
-      <c r="Q7" s="109"/>
+      <c r="Q7" s="108"/>
     </row>
     <row r="8" spans="2:17">
-      <c r="D8" s="122"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="122"/>
-      <c r="H8" s="122"/>
-      <c r="I8" s="122"/>
-      <c r="J8" s="122"/>
-      <c r="K8" s="122"/>
-      <c r="L8" s="122"/>
-      <c r="M8" s="122"/>
-      <c r="Q8" s="109"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="120"/>
+      <c r="Q8" s="108"/>
     </row>
     <row r="9" spans="2:17">
       <c r="B9" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="113">
+      <c r="C9" s="112">
         <v>19977</v>
       </c>
-      <c r="D9" s="120">
+      <c r="D9" s="112">
         <v>21434</v>
       </c>
-      <c r="E9" s="120">
+      <c r="E9" s="112">
         <v>22923</v>
       </c>
-      <c r="F9" s="120">
+      <c r="F9" s="112">
         <v>24678</v>
       </c>
-      <c r="G9" s="120">
+      <c r="G9" s="112">
         <v>26257</v>
       </c>
-      <c r="H9" s="120">
+      <c r="H9" s="112">
         <v>27706</v>
       </c>
-      <c r="I9" s="120">
+      <c r="I9" s="112">
         <v>29685</v>
       </c>
-      <c r="J9" s="120">
+      <c r="J9" s="112">
         <v>34078</v>
       </c>
-      <c r="K9" s="120">
+      <c r="K9" s="112">
         <v>30593</v>
       </c>
-      <c r="L9" s="120">
+      <c r="L9" s="112">
         <v>34621</v>
       </c>
-      <c r="M9" s="120">
+      <c r="M9" s="112">
         <v>27862</v>
       </c>
-      <c r="Q9" s="109"/>
+      <c r="Q9" s="108"/>
     </row>
     <row r="10" spans="2:17">
       <c r="B10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="118"/>
-      <c r="D10" s="131">
+      <c r="C10" s="117"/>
+      <c r="D10" s="126">
         <f t="shared" ref="D10" si="11">(D9-C9)/C9</f>
         <v>7.2933873955048301E-2</v>
       </c>
-      <c r="E10" s="131">
+      <c r="E10" s="126">
         <f t="shared" ref="E10" si="12">(E9-D9)/D9</f>
         <v>6.9469067836148174E-2</v>
       </c>
-      <c r="F10" s="131">
+      <c r="F10" s="126">
         <f t="shared" ref="F10" si="13">(F9-E9)/E9</f>
         <v>7.656065959952886E-2</v>
       </c>
-      <c r="G10" s="131">
+      <c r="G10" s="126">
         <f t="shared" ref="G10" si="14">(G9-F9)/F9</f>
         <v>6.398411540643488E-2</v>
       </c>
-      <c r="H10" s="131">
+      <c r="H10" s="126">
         <f t="shared" ref="H10" si="15">(H9-G9)/G9</f>
         <v>5.5185283924286857E-2</v>
       </c>
-      <c r="I10" s="131">
+      <c r="I10" s="126">
         <f t="shared" ref="I10" si="16">(I9-H9)/H9</f>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="J10" s="131">
+      <c r="J10" s="126">
         <f t="shared" ref="J10" si="17">(J9-I9)/I9</f>
         <v>0.14798719892201448</v>
       </c>
-      <c r="K10" s="131">
+      <c r="K10" s="126">
         <f t="shared" ref="K10" si="18">(K9-J9)/J9</f>
         <v>-0.10226539116145314</v>
       </c>
-      <c r="L10" s="131">
+      <c r="L10" s="126">
         <f t="shared" ref="L10" si="19">(L9-K9)/K9</f>
         <v>0.13166410616807767</v>
       </c>
-      <c r="M10" s="131">
+      <c r="M10" s="126">
         <f t="shared" ref="M10" si="20">(M9-L9)/L9</f>
         <v>-0.19522832962652725</v>
       </c>
-      <c r="Q10" s="109"/>
+      <c r="Q10" s="108"/>
     </row>
     <row r="11" spans="2:17">
       <c r="B11" s="18"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="120"/>
+      <c r="C11" s="117"/>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
@@ -20440,13 +20488,13 @@
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11"/>
-      <c r="Q11" s="109"/>
+      <c r="Q11" s="108"/>
     </row>
     <row r="12" spans="2:17">
       <c r="B12" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="C12" s="113">
+        <v>148</v>
+      </c>
+      <c r="C12" s="112">
         <v>5434</v>
       </c>
       <c r="D12">
@@ -20479,58 +20527,58 @@
       <c r="M12">
         <v>4430</v>
       </c>
-      <c r="Q12" s="109"/>
+      <c r="Q12" s="108"/>
     </row>
     <row r="13" spans="2:17">
       <c r="B13" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="118"/>
-      <c r="D13" s="131">
+      <c r="C13" s="117"/>
+      <c r="D13" s="126">
         <f t="shared" ref="D13" si="21">(D12-C12)/C12</f>
         <v>-1.9138755980861243E-2</v>
       </c>
-      <c r="E13" s="131">
+      <c r="E13" s="126">
         <f t="shared" ref="E13" si="22">(E12-D12)/D12</f>
         <v>-1.6885553470919325E-2</v>
       </c>
-      <c r="F13" s="131">
+      <c r="F13" s="126">
         <f t="shared" ref="F13" si="23">(F12-E12)/E12</f>
         <v>-3.9122137404580155E-2</v>
       </c>
-      <c r="G13" s="131">
+      <c r="G13" s="126">
         <f t="shared" ref="G13" si="24">(G12-F12)/F12</f>
         <v>-3.1777557100297914E-2</v>
       </c>
-      <c r="H13" s="131">
+      <c r="H13" s="126">
         <f t="shared" ref="H13" si="25">(H12-G12)/G12</f>
         <v>-1.8256410256410255E-2</v>
       </c>
-      <c r="I13" s="131">
+      <c r="I13" s="126">
         <f t="shared" ref="I13" si="26">(I12-H12)/H12</f>
         <v>-3.0505641454241537E-2</v>
       </c>
-      <c r="J13" s="131">
+      <c r="J13" s="126">
         <f t="shared" ref="J13" si="27">(J12-I12)/I12</f>
         <v>-6.4655172413793103E-3</v>
       </c>
-      <c r="K13" s="131">
+      <c r="K13" s="126">
         <f t="shared" ref="K13" si="28">(K12-J12)/J12</f>
         <v>3.036876355748373E-3</v>
       </c>
-      <c r="L13" s="131">
+      <c r="L13" s="126">
         <f t="shared" ref="L13" si="29">(L12-K12)/K12</f>
         <v>6.487889273356401E-3</v>
       </c>
-      <c r="M13" s="131">
+      <c r="M13" s="126">
         <f t="shared" ref="M13" si="30">(M12-L12)/L12</f>
         <v>-4.8130640309411256E-2</v>
       </c>
-      <c r="Q13" s="109"/>
+      <c r="Q13" s="108"/>
     </row>
     <row r="14" spans="2:17">
       <c r="B14" s="18"/>
-      <c r="C14" s="118"/>
+      <c r="C14" s="117"/>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
@@ -20541,92 +20589,92 @@
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
-      <c r="Q14" s="109"/>
+      <c r="Q14" s="108"/>
     </row>
     <row r="15" spans="2:17">
       <c r="B15" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="C15" s="113">
+        <v>149</v>
+      </c>
+      <c r="C15" s="112">
         <v>1.1399999856948853</v>
       </c>
-      <c r="D15" s="113">
+      <c r="D15" s="112">
         <v>1.2799999713897705</v>
       </c>
-      <c r="E15" s="113">
+      <c r="E15" s="112">
         <v>1.6000000238418579</v>
       </c>
-      <c r="F15" s="113">
+      <c r="F15" s="112">
         <v>1.6200000047683716</v>
       </c>
-      <c r="G15" s="113">
+      <c r="G15" s="112">
         <v>1.7799999713897705</v>
       </c>
-      <c r="H15" s="113">
+      <c r="H15" s="112">
         <v>4.75</v>
       </c>
-      <c r="I15" s="113">
+      <c r="I15" s="112">
         <v>2.5299999713897705</v>
       </c>
-      <c r="J15" s="113">
+      <c r="J15" s="112">
         <v>2.8299999237060547</v>
       </c>
-      <c r="K15" s="113">
+      <c r="K15" s="112">
         <v>2.2799999713897705</v>
       </c>
-      <c r="L15" s="113">
+      <c r="L15" s="112">
         <v>3.0399999618530273</v>
       </c>
-      <c r="M15" s="113">
+      <c r="M15" s="112">
         <v>1.2100000381469727</v>
       </c>
-      <c r="Q15" s="109"/>
+      <c r="Q15" s="108"/>
     </row>
     <row r="16" spans="2:17">
       <c r="B16" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="131">
+      <c r="D16" s="126">
         <f t="shared" ref="D16" si="31">(D15-C15)/C15</f>
         <v>0.12280700653653823</v>
       </c>
-      <c r="E16" s="131">
+      <c r="E16" s="126">
         <f t="shared" ref="E16" si="32">(E15-D15)/D15</f>
         <v>0.25000004656612979</v>
       </c>
-      <c r="F16" s="131">
+      <c r="F16" s="126">
         <f t="shared" ref="F16" si="33">(F15-E15)/E15</f>
         <v>1.2499987892806711E-2</v>
       </c>
-      <c r="G16" s="131">
+      <c r="G16" s="126">
         <f t="shared" ref="G16" si="34">(G15-F15)/F15</f>
         <v>9.8765411203980705E-2</v>
       </c>
-      <c r="H16" s="131">
+      <c r="H16" s="126">
         <f t="shared" ref="H16" si="35">(H15-G15)/G15</f>
         <v>1.668539368734564</v>
       </c>
-      <c r="I16" s="131">
+      <c r="I16" s="126">
         <f t="shared" ref="I16" si="36">(I15-H15)/H15</f>
         <v>-0.46736842707583781</v>
       </c>
-      <c r="J16" s="131">
+      <c r="J16" s="126">
         <f t="shared" ref="J16" si="37">(J15-I15)/I15</f>
         <v>0.11857705759241147</v>
       </c>
-      <c r="K16" s="131">
+      <c r="K16" s="126">
         <f t="shared" ref="K16" si="38">(K15-J15)/J15</f>
         <v>-0.19434627814266026</v>
       </c>
-      <c r="L16" s="131">
+      <c r="L16" s="126">
         <f t="shared" ref="L16" si="39">(L15-K15)/K15</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="M16" s="131">
+      <c r="M16" s="126">
         <f t="shared" ref="M16" si="40">(M15-L15)/L15</f>
         <v>-0.60197366666760777</v>
       </c>
-      <c r="Q16" s="109"/>
+      <c r="Q16" s="108"/>
     </row>
     <row r="17" spans="2:36">
       <c r="B17" s="18"/>
@@ -20640,2711 +20688,2605 @@
       <c r="K17"/>
       <c r="L17"/>
       <c r="M17"/>
-      <c r="Q17" s="109"/>
+      <c r="Q17" s="108"/>
     </row>
     <row r="19" spans="2:36" ht="17.5" thickBot="1">
       <c r="B19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="112"/>
-      <c r="D19" s="112">
+      <c r="C19" s="111"/>
+      <c r="D19" s="111">
         <v>2013</v>
       </c>
-      <c r="E19" s="112">
+      <c r="E19" s="111">
         <v>2014</v>
       </c>
-      <c r="F19" s="112">
+      <c r="F19" s="111">
         <v>2015</v>
       </c>
-      <c r="G19" s="112">
+      <c r="G19" s="111">
         <v>2016</v>
       </c>
-      <c r="H19" s="112">
+      <c r="H19" s="111">
         <v>2017</v>
       </c>
-      <c r="I19" s="112">
+      <c r="I19" s="111">
         <v>2018</v>
       </c>
-      <c r="J19" s="112">
+      <c r="J19" s="111">
         <v>2019</v>
       </c>
-      <c r="K19" s="112">
+      <c r="K19" s="111">
         <v>2020</v>
       </c>
-      <c r="L19" s="112">
+      <c r="L19" s="111">
         <v>2021</v>
       </c>
-      <c r="M19" s="112">
+      <c r="M19" s="111">
         <v>2022</v>
       </c>
     </row>
     <row r="20" spans="2:36" ht="15" thickTop="1">
       <c r="B20" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="C20" s="113">
+        <v>116</v>
+      </c>
+      <c r="C20" s="112">
         <v>7798</v>
       </c>
-      <c r="D20" s="120">
+      <c r="D20" s="112">
         <v>7871</v>
       </c>
-      <c r="E20" s="120">
+      <c r="E20" s="112">
         <v>8019</v>
       </c>
-      <c r="F20" s="120">
+      <c r="F20" s="112">
         <v>8680</v>
       </c>
-      <c r="G20" s="120">
+      <c r="G20" s="112">
         <v>9426</v>
       </c>
-      <c r="H20" s="120">
+      <c r="H20" s="112">
         <v>9688</v>
       </c>
-      <c r="I20" s="120">
+      <c r="I20" s="112">
         <v>10676</v>
       </c>
-      <c r="J20" s="120">
+      <c r="J20" s="112">
         <v>12953</v>
       </c>
-      <c r="K20" s="120">
+      <c r="K20" s="112">
         <v>13100</v>
       </c>
-      <c r="L20" s="120">
+      <c r="L20" s="112">
         <v>13804</v>
       </c>
-      <c r="M20" s="120">
+      <c r="M20" s="112">
         <v>13821</v>
       </c>
-      <c r="O20" s="109"/>
-      <c r="P20" s="109"/>
-      <c r="Q20" s="109"/>
-      <c r="R20" s="109"/>
-      <c r="S20" s="109"/>
-      <c r="T20" s="109"/>
-      <c r="U20" s="109"/>
-      <c r="V20" s="109"/>
-      <c r="W20" s="109"/>
-      <c r="X20" s="109"/>
-      <c r="Y20" s="109"/>
-      <c r="Z20" s="109"/>
-      <c r="AA20" s="109"/>
-      <c r="AB20" s="109"/>
-      <c r="AC20" s="109"/>
-      <c r="AD20" s="109"/>
-      <c r="AE20" s="109"/>
-      <c r="AF20" s="109"/>
-      <c r="AG20" s="109"/>
-      <c r="AH20" s="109"/>
-      <c r="AI20" s="109"/>
-      <c r="AJ20" s="109"/>
+      <c r="O20" s="108"/>
+      <c r="P20" s="108"/>
+      <c r="Q20" s="108"/>
+      <c r="R20" s="108"/>
+      <c r="S20" s="108"/>
+      <c r="T20" s="108"/>
+      <c r="U20" s="108"/>
+      <c r="V20" s="108"/>
+      <c r="W20" s="108"/>
+      <c r="X20" s="108"/>
+      <c r="Y20" s="108"/>
+      <c r="Z20" s="108"/>
+      <c r="AA20" s="108"/>
+      <c r="AB20" s="108"/>
+      <c r="AC20" s="108"/>
+      <c r="AD20" s="108"/>
+      <c r="AE20" s="108"/>
+      <c r="AF20" s="108"/>
+      <c r="AG20" s="108"/>
+      <c r="AH20" s="108"/>
+      <c r="AI20" s="108"/>
+      <c r="AJ20" s="108"/>
     </row>
     <row r="21" spans="2:36">
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="120"/>
-      <c r="J21" s="120"/>
-      <c r="K21" s="120"/>
-      <c r="L21" s="120"/>
-      <c r="M21" s="120"/>
-      <c r="O21" s="109"/>
-      <c r="P21" s="109"/>
-      <c r="Q21" s="109"/>
-      <c r="R21" s="109"/>
-      <c r="S21" s="109"/>
-      <c r="T21" s="109"/>
-      <c r="U21" s="109"/>
-      <c r="V21" s="109"/>
-      <c r="W21" s="109"/>
-      <c r="X21" s="109"/>
-      <c r="Y21" s="109"/>
-      <c r="Z21" s="109"/>
-      <c r="AA21" s="109"/>
-      <c r="AB21" s="109"/>
-      <c r="AC21" s="109"/>
-      <c r="AD21" s="109"/>
-      <c r="AE21" s="109"/>
-      <c r="AF21" s="109"/>
-      <c r="AG21" s="109"/>
-      <c r="AH21" s="109"/>
-      <c r="AI21" s="109"/>
-      <c r="AJ21" s="109"/>
+      <c r="O21" s="108"/>
+      <c r="P21" s="108"/>
+      <c r="Q21" s="108"/>
+      <c r="R21" s="108"/>
+      <c r="S21" s="108"/>
+      <c r="T21" s="108"/>
+      <c r="U21" s="108"/>
+      <c r="V21" s="108"/>
+      <c r="W21" s="108"/>
+      <c r="X21" s="108"/>
+      <c r="Y21" s="108"/>
+      <c r="Z21" s="108"/>
+      <c r="AA21" s="108"/>
+      <c r="AB21" s="108"/>
+      <c r="AC21" s="108"/>
+      <c r="AD21" s="108"/>
+      <c r="AE21" s="108"/>
+      <c r="AF21" s="108"/>
+      <c r="AG21" s="108"/>
+      <c r="AH21" s="108"/>
+      <c r="AI21" s="108"/>
+      <c r="AJ21" s="108"/>
     </row>
     <row r="22" spans="2:36">
       <c r="B22" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="118">
+      <c r="C22" s="117">
         <v>14854</v>
       </c>
-      <c r="D22" s="120">
+      <c r="D22" s="112">
         <v>14160</v>
       </c>
-      <c r="E22" s="120">
+      <c r="E22" s="112">
         <v>16945</v>
       </c>
-      <c r="F22" s="120">
+      <c r="F22" s="112">
         <v>19485</v>
       </c>
-      <c r="G22" s="120">
+      <c r="G22" s="112">
         <v>19691</v>
       </c>
-      <c r="H22" s="120">
+      <c r="H22" s="112">
         <v>21261</v>
       </c>
-      <c r="I22" s="120">
+      <c r="I22" s="112">
         <v>24297</v>
       </c>
-      <c r="J22" s="120">
+      <c r="J22" s="112">
         <v>25697</v>
       </c>
-      <c r="K22" s="120">
+      <c r="K22" s="112">
         <v>24737</v>
       </c>
-      <c r="L22" s="120">
+      <c r="L22" s="112">
         <v>29146</v>
       </c>
-      <c r="M22" s="120">
+      <c r="M22" s="112">
         <v>26413</v>
       </c>
-      <c r="O22" s="109"/>
-      <c r="P22" s="109"/>
-      <c r="Q22" s="109"/>
-      <c r="R22" s="109"/>
-      <c r="S22" s="108"/>
-      <c r="T22" s="108"/>
-      <c r="U22" s="110"/>
-      <c r="V22" s="109"/>
-      <c r="W22" s="109"/>
-      <c r="X22" s="109"/>
-      <c r="Y22" s="109"/>
-      <c r="Z22" s="109"/>
-      <c r="AA22" s="109"/>
-      <c r="AB22" s="109"/>
-      <c r="AC22" s="109"/>
-      <c r="AD22" s="109"/>
-      <c r="AE22" s="109"/>
-      <c r="AF22" s="109"/>
-      <c r="AG22" s="109"/>
-      <c r="AH22" s="109"/>
-      <c r="AI22" s="109"/>
-      <c r="AJ22" s="109"/>
+      <c r="O22" s="108"/>
+      <c r="P22" s="108"/>
+      <c r="Q22" s="108"/>
+      <c r="R22" s="108"/>
+      <c r="S22" s="107"/>
+      <c r="T22" s="107"/>
+      <c r="U22" s="109"/>
+      <c r="V22" s="108"/>
+      <c r="W22" s="108"/>
+      <c r="X22" s="108"/>
+      <c r="Y22" s="108"/>
+      <c r="Z22" s="108"/>
+      <c r="AA22" s="108"/>
+      <c r="AB22" s="108"/>
+      <c r="AC22" s="108"/>
+      <c r="AD22" s="108"/>
+      <c r="AE22" s="108"/>
+      <c r="AF22" s="108"/>
+      <c r="AG22" s="108"/>
+      <c r="AH22" s="108"/>
+      <c r="AI22" s="108"/>
+      <c r="AJ22" s="108"/>
     </row>
     <row r="23" spans="2:36">
       <c r="B23" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="118"/>
-      <c r="D23" s="131">
+      <c r="C23" s="117"/>
+      <c r="D23" s="126">
         <f t="shared" ref="D23" si="41">(D22-C22)/C22</f>
         <v>-4.6721421839235222E-2</v>
       </c>
-      <c r="E23" s="131">
+      <c r="E23" s="126">
         <f t="shared" ref="E23" si="42">(E22-D22)/D22</f>
         <v>0.19668079096045199</v>
       </c>
-      <c r="F23" s="131">
+      <c r="F23" s="126">
         <f t="shared" ref="F23" si="43">(F22-E22)/E22</f>
         <v>0.14989672469755089</v>
       </c>
-      <c r="G23" s="131">
+      <c r="G23" s="126">
         <f t="shared" ref="G23" si="44">(G22-F22)/F22</f>
         <v>1.0572235052604568E-2</v>
       </c>
-      <c r="H23" s="131">
+      <c r="H23" s="126">
         <f t="shared" ref="H23" si="45">(H22-G22)/G22</f>
         <v>7.9731857193641759E-2</v>
       </c>
-      <c r="I23" s="131">
+      <c r="I23" s="126">
         <f t="shared" ref="I23" si="46">(I22-H22)/H22</f>
         <v>0.14279666995908</v>
       </c>
-      <c r="J23" s="131">
+      <c r="J23" s="126">
         <f t="shared" ref="J23" si="47">(J22-I22)/I22</f>
         <v>5.7620282339383461E-2</v>
       </c>
-      <c r="K23" s="131">
+      <c r="K23" s="126">
         <f t="shared" ref="K23" si="48">(K22-J22)/J22</f>
         <v>-3.7358446511265908E-2</v>
       </c>
-      <c r="L23" s="131">
+      <c r="L23" s="126">
         <f t="shared" ref="L23" si="49">(L22-K22)/K22</f>
         <v>0.17823503254234546</v>
       </c>
-      <c r="M23" s="131">
+      <c r="M23" s="126">
         <f t="shared" ref="M23" si="50">(M22-L22)/L22</f>
         <v>-9.3769299389281552E-2</v>
       </c>
-      <c r="O23" s="109"/>
-      <c r="P23" s="109"/>
-      <c r="Q23" s="109"/>
-      <c r="R23" s="109"/>
-      <c r="S23" s="108"/>
-      <c r="T23" s="109"/>
-      <c r="U23" s="109"/>
-      <c r="V23" s="109"/>
-      <c r="W23" s="109"/>
-      <c r="X23" s="109"/>
-      <c r="Y23" s="109"/>
-      <c r="Z23" s="109"/>
-      <c r="AA23" s="109"/>
-      <c r="AB23" s="109"/>
-      <c r="AC23" s="109"/>
-      <c r="AD23" s="109"/>
-      <c r="AE23" s="109"/>
-      <c r="AF23" s="109"/>
-      <c r="AG23" s="109"/>
-      <c r="AH23" s="109"/>
-      <c r="AI23" s="109"/>
-      <c r="AJ23" s="109"/>
+      <c r="O23" s="108"/>
+      <c r="P23" s="108"/>
+      <c r="Q23" s="108"/>
+      <c r="R23" s="108"/>
+      <c r="S23" s="107"/>
+      <c r="T23" s="108"/>
+      <c r="U23" s="108"/>
+      <c r="V23" s="108"/>
+      <c r="W23" s="108"/>
+      <c r="X23" s="108"/>
+      <c r="Y23" s="108"/>
+      <c r="Z23" s="108"/>
+      <c r="AA23" s="108"/>
+      <c r="AB23" s="108"/>
+      <c r="AC23" s="108"/>
+      <c r="AD23" s="108"/>
+      <c r="AE23" s="108"/>
+      <c r="AF23" s="108"/>
+      <c r="AG23" s="108"/>
+      <c r="AH23" s="108"/>
+      <c r="AI23" s="108"/>
+      <c r="AJ23" s="108"/>
     </row>
     <row r="24" spans="2:36">
-      <c r="D24" s="122"/>
-      <c r="E24" s="122"/>
-      <c r="F24" s="122"/>
-      <c r="G24" s="122"/>
-      <c r="H24" s="122"/>
-      <c r="I24" s="122"/>
-      <c r="J24" s="122"/>
-      <c r="K24" s="122"/>
-      <c r="L24" s="122"/>
-      <c r="M24" s="122"/>
-      <c r="O24" s="109"/>
-      <c r="P24" s="109"/>
-      <c r="Q24" s="109"/>
-      <c r="R24" s="109"/>
-      <c r="S24" s="108"/>
-      <c r="T24" s="110"/>
-      <c r="U24" s="109"/>
-      <c r="V24" s="109"/>
-      <c r="W24" s="109"/>
-      <c r="X24" s="109"/>
-      <c r="Y24" s="109"/>
-      <c r="Z24" s="109"/>
-      <c r="AA24" s="109"/>
-      <c r="AB24" s="109"/>
-      <c r="AC24" s="109"/>
-      <c r="AD24" s="109"/>
-      <c r="AE24" s="109"/>
-      <c r="AF24" s="109"/>
-      <c r="AG24" s="109"/>
-      <c r="AH24" s="109"/>
-      <c r="AI24" s="109"/>
-      <c r="AJ24" s="109"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="120"/>
+      <c r="H24" s="120"/>
+      <c r="I24" s="120"/>
+      <c r="J24" s="120"/>
+      <c r="K24" s="120"/>
+      <c r="L24" s="120"/>
+      <c r="M24" s="120"/>
+      <c r="O24" s="108"/>
+      <c r="P24" s="108"/>
+      <c r="Q24" s="108"/>
+      <c r="R24" s="108"/>
+      <c r="S24" s="107"/>
+      <c r="T24" s="109"/>
+      <c r="U24" s="108"/>
+      <c r="V24" s="108"/>
+      <c r="W24" s="108"/>
+      <c r="X24" s="108"/>
+      <c r="Y24" s="108"/>
+      <c r="Z24" s="108"/>
+      <c r="AA24" s="108"/>
+      <c r="AB24" s="108"/>
+      <c r="AC24" s="108"/>
+      <c r="AD24" s="108"/>
+      <c r="AE24" s="108"/>
+      <c r="AF24" s="108"/>
+      <c r="AG24" s="108"/>
+      <c r="AH24" s="108"/>
+      <c r="AI24" s="108"/>
+      <c r="AJ24" s="108"/>
     </row>
     <row r="25" spans="2:36">
       <c r="B25" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="C25" s="114"/>
-      <c r="D25" s="114">
+        <v>117</v>
+      </c>
+      <c r="C25" s="113"/>
+      <c r="D25" s="113">
         <f t="shared" ref="D25:M25" si="51">D36-C36+D20</f>
         <v>10479</v>
       </c>
-      <c r="E25" s="114">
+      <c r="E25" s="113">
         <f t="shared" si="51"/>
         <v>9132</v>
       </c>
-      <c r="F25" s="114">
+      <c r="F25" s="113">
         <f t="shared" si="51"/>
         <v>11392</v>
       </c>
-      <c r="G25" s="114">
+      <c r="G25" s="113">
         <f t="shared" si="51"/>
         <v>12014</v>
       </c>
-      <c r="H25" s="114">
+      <c r="H25" s="113">
         <f t="shared" si="51"/>
         <v>11905</v>
       </c>
-      <c r="I25" s="114">
+      <c r="I25" s="113">
         <f t="shared" si="51"/>
         <v>16643</v>
       </c>
-      <c r="J25" s="114">
+      <c r="J25" s="113">
         <f t="shared" si="51"/>
         <v>16838</v>
       </c>
-      <c r="K25" s="114">
+      <c r="K25" s="113">
         <f t="shared" si="51"/>
         <v>16773</v>
       </c>
-      <c r="L25" s="114">
+      <c r="L25" s="113">
         <f t="shared" si="51"/>
         <v>15856</v>
       </c>
-      <c r="M25" s="114">
+      <c r="M25" s="113">
         <f t="shared" si="51"/>
         <v>15259</v>
       </c>
-      <c r="O25" s="109"/>
-      <c r="P25" s="109"/>
-      <c r="Q25" s="109"/>
-      <c r="R25" s="109"/>
-      <c r="S25" s="108"/>
-      <c r="T25" s="111"/>
-      <c r="U25" s="109"/>
-      <c r="V25" s="109"/>
-      <c r="W25" s="109"/>
-      <c r="X25" s="109"/>
-      <c r="Y25" s="109"/>
-      <c r="Z25" s="109"/>
-      <c r="AA25" s="109"/>
-      <c r="AB25" s="109"/>
-      <c r="AC25" s="109"/>
-      <c r="AD25" s="109"/>
-      <c r="AE25" s="109"/>
-      <c r="AF25" s="109"/>
-      <c r="AG25" s="109"/>
-      <c r="AH25" s="109"/>
-      <c r="AI25" s="109"/>
-      <c r="AJ25" s="109"/>
+      <c r="O25" s="108"/>
+      <c r="P25" s="108"/>
+      <c r="Q25" s="108"/>
+      <c r="R25" s="108"/>
+      <c r="S25" s="107"/>
+      <c r="T25" s="110"/>
+      <c r="U25" s="108"/>
+      <c r="V25" s="108"/>
+      <c r="W25" s="108"/>
+      <c r="X25" s="108"/>
+      <c r="Y25" s="108"/>
+      <c r="Z25" s="108"/>
+      <c r="AA25" s="108"/>
+      <c r="AB25" s="108"/>
+      <c r="AC25" s="108"/>
+      <c r="AD25" s="108"/>
+      <c r="AE25" s="108"/>
+      <c r="AF25" s="108"/>
+      <c r="AG25" s="108"/>
+      <c r="AH25" s="108"/>
+      <c r="AI25" s="108"/>
+      <c r="AJ25" s="108"/>
     </row>
     <row r="26" spans="2:36">
       <c r="B26" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="118"/>
-      <c r="D26" s="131"/>
-      <c r="E26" s="131">
+      <c r="C26" s="117"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="126">
         <f t="shared" ref="E26" si="52">(E25-D25)/D25</f>
         <v>-0.12854279988548525</v>
       </c>
-      <c r="F26" s="131">
+      <c r="F26" s="126">
         <f t="shared" ref="F26" si="53">(F25-E25)/E25</f>
         <v>0.2474813841436706</v>
       </c>
-      <c r="G26" s="131">
+      <c r="G26" s="126">
         <f t="shared" ref="G26" si="54">(G25-F25)/F25</f>
         <v>5.4599719101123594E-2</v>
       </c>
-      <c r="H26" s="131">
+      <c r="H26" s="126">
         <f t="shared" ref="H26" si="55">(H25-G25)/G25</f>
         <v>-9.0727484601298477E-3</v>
       </c>
-      <c r="I26" s="131">
+      <c r="I26" s="126">
         <f t="shared" ref="I26" si="56">(I25-H25)/H25</f>
         <v>0.3979840403191936</v>
       </c>
-      <c r="J26" s="131">
+      <c r="J26" s="126">
         <f t="shared" ref="J26" si="57">(J25-I25)/I25</f>
         <v>1.1716637625428107E-2</v>
       </c>
-      <c r="K26" s="131">
+      <c r="K26" s="126">
         <f t="shared" ref="K26" si="58">(K25-J25)/J25</f>
         <v>-3.8603159520133033E-3</v>
       </c>
-      <c r="L26" s="131">
+      <c r="L26" s="126">
         <f t="shared" ref="L26" si="59">(L25-K25)/K25</f>
         <v>-5.467119775830203E-2</v>
       </c>
-      <c r="M26" s="131">
+      <c r="M26" s="126">
         <f t="shared" ref="M26" si="60">(M25-L25)/L25</f>
         <v>-3.7651362260343088E-2</v>
       </c>
-      <c r="O26" s="109"/>
-      <c r="P26" s="109"/>
-      <c r="Q26" s="109"/>
-      <c r="R26" s="109"/>
-      <c r="S26" s="108"/>
-      <c r="T26" s="110"/>
-      <c r="U26" s="110"/>
-      <c r="V26" s="109"/>
-      <c r="W26" s="109"/>
-      <c r="X26" s="109"/>
-      <c r="Y26" s="109"/>
-      <c r="Z26" s="109"/>
-      <c r="AA26" s="109"/>
-      <c r="AB26" s="109"/>
-      <c r="AC26" s="109"/>
-      <c r="AD26" s="109"/>
-      <c r="AE26" s="109"/>
-      <c r="AF26" s="109"/>
-      <c r="AG26" s="109"/>
-      <c r="AH26" s="109"/>
-      <c r="AI26" s="109"/>
-      <c r="AJ26" s="109"/>
+      <c r="O26" s="108"/>
+      <c r="P26" s="108"/>
+      <c r="Q26" s="108"/>
+      <c r="R26" s="108"/>
+      <c r="S26" s="107"/>
+      <c r="T26" s="109"/>
+      <c r="U26" s="109"/>
+      <c r="V26" s="108"/>
+      <c r="W26" s="108"/>
+      <c r="X26" s="108"/>
+      <c r="Y26" s="108"/>
+      <c r="Z26" s="108"/>
+      <c r="AA26" s="108"/>
+      <c r="AB26" s="108"/>
+      <c r="AC26" s="108"/>
+      <c r="AD26" s="108"/>
+      <c r="AE26" s="108"/>
+      <c r="AF26" s="108"/>
+      <c r="AG26" s="108"/>
+      <c r="AH26" s="108"/>
+      <c r="AI26" s="108"/>
+      <c r="AJ26" s="108"/>
     </row>
     <row r="27" spans="2:36">
-      <c r="D27" s="120"/>
-      <c r="E27" s="120"/>
-      <c r="F27" s="120"/>
-      <c r="G27" s="120"/>
-      <c r="H27" s="120"/>
-      <c r="I27" s="120"/>
-      <c r="J27" s="120"/>
-      <c r="K27" s="120"/>
-      <c r="L27" s="120"/>
-      <c r="M27" s="120"/>
-      <c r="O27" s="109"/>
-      <c r="P27" s="109"/>
-      <c r="Q27" s="109"/>
-      <c r="R27" s="109"/>
-      <c r="S27" s="109"/>
-      <c r="T27" s="111"/>
-      <c r="U27" s="109"/>
-      <c r="V27" s="109"/>
-      <c r="W27" s="109"/>
-      <c r="X27" s="109"/>
-      <c r="Y27" s="109"/>
-      <c r="Z27" s="109"/>
-      <c r="AA27" s="109"/>
-      <c r="AB27" s="109"/>
-      <c r="AC27" s="109"/>
-      <c r="AD27" s="109"/>
-      <c r="AE27" s="109"/>
-      <c r="AF27" s="109"/>
-      <c r="AG27" s="109"/>
-      <c r="AH27" s="109"/>
-      <c r="AI27" s="109"/>
-      <c r="AJ27" s="109"/>
+      <c r="O27" s="108"/>
+      <c r="P27" s="108"/>
+      <c r="Q27" s="108"/>
+      <c r="R27" s="108"/>
+      <c r="S27" s="108"/>
+      <c r="T27" s="110"/>
+      <c r="U27" s="108"/>
+      <c r="V27" s="108"/>
+      <c r="W27" s="108"/>
+      <c r="X27" s="108"/>
+      <c r="Y27" s="108"/>
+      <c r="Z27" s="108"/>
+      <c r="AA27" s="108"/>
+      <c r="AB27" s="108"/>
+      <c r="AC27" s="108"/>
+      <c r="AD27" s="108"/>
+      <c r="AE27" s="108"/>
+      <c r="AF27" s="108"/>
+      <c r="AG27" s="108"/>
+      <c r="AH27" s="108"/>
+      <c r="AI27" s="108"/>
+      <c r="AJ27" s="108"/>
     </row>
     <row r="28" spans="2:36">
       <c r="B28" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="119">
+      <c r="C28" s="118">
         <v>1</v>
       </c>
-      <c r="D28" s="115">
+      <c r="D28" s="114">
         <f t="shared" ref="D28:M28" si="61">D22-D25</f>
         <v>3681</v>
       </c>
-      <c r="E28" s="115">
+      <c r="E28" s="114">
         <f t="shared" si="61"/>
         <v>7813</v>
       </c>
-      <c r="F28" s="115">
+      <c r="F28" s="114">
         <f t="shared" si="61"/>
         <v>8093</v>
       </c>
-      <c r="G28" s="115">
+      <c r="G28" s="114">
         <f t="shared" si="61"/>
         <v>7677</v>
       </c>
-      <c r="H28" s="115">
+      <c r="H28" s="114">
         <f t="shared" si="61"/>
         <v>9356</v>
       </c>
-      <c r="I28" s="115">
+      <c r="I28" s="114">
         <f t="shared" si="61"/>
         <v>7654</v>
       </c>
-      <c r="J28" s="115">
+      <c r="J28" s="114">
         <f t="shared" si="61"/>
         <v>8859</v>
       </c>
-      <c r="K28" s="115">
+      <c r="K28" s="114">
         <f t="shared" si="61"/>
         <v>7964</v>
       </c>
-      <c r="L28" s="115">
+      <c r="L28" s="114">
         <f t="shared" si="61"/>
         <v>13290</v>
       </c>
-      <c r="M28" s="115">
+      <c r="M28" s="114">
         <f t="shared" si="61"/>
         <v>11154</v>
       </c>
-      <c r="O28" s="109"/>
-      <c r="P28" s="109"/>
-      <c r="Q28" s="109"/>
-      <c r="R28" s="109"/>
-      <c r="S28" s="109"/>
-      <c r="T28" s="110"/>
-      <c r="U28" s="109"/>
-      <c r="V28" s="109"/>
-      <c r="W28" s="109"/>
-      <c r="X28" s="109"/>
-      <c r="Y28" s="109"/>
-      <c r="Z28" s="109"/>
-      <c r="AA28" s="109"/>
-      <c r="AB28" s="109"/>
-      <c r="AC28" s="109"/>
-      <c r="AD28" s="109"/>
-      <c r="AE28" s="109"/>
-      <c r="AF28" s="109"/>
-      <c r="AG28" s="109"/>
-      <c r="AH28" s="109"/>
-      <c r="AI28" s="109"/>
-      <c r="AJ28" s="109"/>
+      <c r="O28" s="108"/>
+      <c r="P28" s="108"/>
+      <c r="Q28" s="108"/>
+      <c r="R28" s="108"/>
+      <c r="S28" s="108"/>
+      <c r="T28" s="109"/>
+      <c r="U28" s="108"/>
+      <c r="V28" s="108"/>
+      <c r="W28" s="108"/>
+      <c r="X28" s="108"/>
+      <c r="Y28" s="108"/>
+      <c r="Z28" s="108"/>
+      <c r="AA28" s="108"/>
+      <c r="AB28" s="108"/>
+      <c r="AC28" s="108"/>
+      <c r="AD28" s="108"/>
+      <c r="AE28" s="108"/>
+      <c r="AF28" s="108"/>
+      <c r="AG28" s="108"/>
+      <c r="AH28" s="108"/>
+      <c r="AI28" s="108"/>
+      <c r="AJ28" s="108"/>
     </row>
     <row r="29" spans="2:36">
       <c r="B29" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="119"/>
-      <c r="D29" s="131"/>
-      <c r="E29" s="131">
+      <c r="C29" s="118"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="126">
         <f t="shared" ref="E29" si="62">(E28-D28)/D28</f>
         <v>1.1225210540613964</v>
       </c>
-      <c r="F29" s="131">
+      <c r="F29" s="126">
         <f t="shared" ref="F29" si="63">(F28-E28)/E28</f>
         <v>3.5837706386791249E-2</v>
       </c>
-      <c r="G29" s="131">
+      <c r="G29" s="126">
         <f t="shared" ref="G29" si="64">(G28-F28)/F28</f>
         <v>-5.1402446558754478E-2</v>
       </c>
-      <c r="H29" s="131">
+      <c r="H29" s="126">
         <f t="shared" ref="H29" si="65">(H28-G28)/G28</f>
         <v>0.21870522339455517</v>
       </c>
-      <c r="I29" s="131">
+      <c r="I29" s="126">
         <f t="shared" ref="I29" si="66">(I28-H28)/H28</f>
         <v>-0.18191534843950405</v>
       </c>
-      <c r="J29" s="131">
+      <c r="J29" s="126">
         <f t="shared" ref="J29" si="67">(J28-I28)/I28</f>
         <v>0.15743402142670498</v>
       </c>
-      <c r="K29" s="131">
+      <c r="K29" s="126">
         <f t="shared" ref="K29" si="68">(K28-J28)/J28</f>
         <v>-0.10102720397336043</v>
       </c>
-      <c r="L29" s="131">
+      <c r="L29" s="126">
         <f t="shared" ref="L29" si="69">(L28-K28)/K28</f>
         <v>0.66875941737820188</v>
       </c>
-      <c r="M29" s="131">
+      <c r="M29" s="126">
         <f t="shared" ref="M29" si="70">(M28-L28)/L28</f>
         <v>-0.16072234762979684</v>
       </c>
-      <c r="O29" s="109"/>
-      <c r="P29" s="109"/>
-      <c r="Q29" s="109"/>
-      <c r="R29" s="109"/>
-      <c r="S29" s="109"/>
-      <c r="T29" s="109"/>
-      <c r="U29" s="109"/>
-      <c r="V29" s="109"/>
-      <c r="W29" s="109"/>
-      <c r="X29" s="109"/>
-      <c r="Y29" s="109"/>
-      <c r="Z29" s="109"/>
-      <c r="AA29" s="109"/>
-      <c r="AB29" s="109"/>
-      <c r="AC29" s="109"/>
-      <c r="AD29" s="109"/>
-      <c r="AE29" s="109"/>
-      <c r="AF29" s="109"/>
-      <c r="AG29" s="109"/>
-      <c r="AH29" s="109"/>
-      <c r="AI29" s="109"/>
-      <c r="AJ29" s="109"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="108"/>
+      <c r="Q29" s="108"/>
+      <c r="R29" s="108"/>
+      <c r="S29" s="108"/>
+      <c r="T29" s="108"/>
+      <c r="U29" s="108"/>
+      <c r="V29" s="108"/>
+      <c r="W29" s="108"/>
+      <c r="X29" s="108"/>
+      <c r="Y29" s="108"/>
+      <c r="Z29" s="108"/>
+      <c r="AA29" s="108"/>
+      <c r="AB29" s="108"/>
+      <c r="AC29" s="108"/>
+      <c r="AD29" s="108"/>
+      <c r="AE29" s="108"/>
+      <c r="AF29" s="108"/>
+      <c r="AG29" s="108"/>
+      <c r="AH29" s="108"/>
+      <c r="AI29" s="108"/>
+      <c r="AJ29" s="108"/>
     </row>
     <row r="30" spans="2:36">
-      <c r="D30" s="120"/>
-      <c r="E30" s="120"/>
-      <c r="F30" s="120"/>
-      <c r="G30" s="120"/>
-      <c r="H30" s="120"/>
-      <c r="I30" s="120"/>
-      <c r="J30" s="120"/>
-      <c r="K30" s="120"/>
-      <c r="L30" s="120"/>
-      <c r="M30" s="120"/>
-      <c r="O30" s="109"/>
-      <c r="P30" s="109"/>
-      <c r="Q30" s="109"/>
-      <c r="R30" s="109"/>
-      <c r="S30" s="109"/>
-      <c r="T30" s="109"/>
-      <c r="U30" s="109"/>
-      <c r="V30" s="109"/>
-      <c r="W30" s="109"/>
-      <c r="X30" s="109"/>
-      <c r="Y30" s="109"/>
-      <c r="Z30" s="109"/>
-      <c r="AA30" s="109"/>
-      <c r="AB30" s="109"/>
-      <c r="AC30" s="109"/>
-      <c r="AD30" s="109"/>
-      <c r="AE30" s="109"/>
-      <c r="AF30" s="109"/>
-      <c r="AG30" s="109"/>
-      <c r="AH30" s="109"/>
-      <c r="AI30" s="109"/>
-      <c r="AJ30" s="109"/>
+      <c r="O30" s="108"/>
+      <c r="P30" s="108"/>
+      <c r="Q30" s="108"/>
+      <c r="R30" s="108"/>
+      <c r="S30" s="108"/>
+      <c r="T30" s="108"/>
+      <c r="U30" s="108"/>
+      <c r="V30" s="108"/>
+      <c r="W30" s="108"/>
+      <c r="X30" s="108"/>
+      <c r="Y30" s="108"/>
+      <c r="Z30" s="108"/>
+      <c r="AA30" s="108"/>
+      <c r="AB30" s="108"/>
+      <c r="AC30" s="108"/>
+      <c r="AD30" s="108"/>
+      <c r="AE30" s="108"/>
+      <c r="AF30" s="108"/>
+      <c r="AG30" s="108"/>
+      <c r="AH30" s="108"/>
+      <c r="AI30" s="108"/>
+      <c r="AJ30" s="108"/>
     </row>
     <row r="31" spans="2:36">
       <c r="B31" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="118">
+      <c r="C31" s="117">
         <v>1608</v>
       </c>
-      <c r="D31" s="120">
+      <c r="D31" s="112">
         <v>1964</v>
       </c>
-      <c r="E31" s="120">
+      <c r="E31" s="112">
         <v>2254</v>
       </c>
-      <c r="F31" s="120">
+      <c r="F31" s="112">
         <v>2437</v>
       </c>
-      <c r="G31" s="120">
+      <c r="G31" s="112">
         <v>2601</v>
       </c>
-      <c r="H31" s="120">
+      <c r="H31" s="112">
         <v>2883</v>
       </c>
-      <c r="I31" s="120">
+      <c r="I31" s="112">
         <v>3352</v>
       </c>
-      <c r="J31" s="120">
+      <c r="J31" s="112">
         <v>3735</v>
       </c>
-      <c r="K31" s="120">
+      <c r="K31" s="112">
         <v>4140</v>
       </c>
-      <c r="L31" s="120">
+      <c r="L31" s="112">
         <v>4532</v>
       </c>
-      <c r="M31" s="120">
+      <c r="M31" s="112">
         <v>4741</v>
       </c>
-      <c r="O31" s="109"/>
-      <c r="P31" s="109"/>
-      <c r="Q31" s="109"/>
-      <c r="R31" s="109"/>
-      <c r="S31" s="109"/>
-      <c r="T31" s="109"/>
-      <c r="U31" s="109"/>
-      <c r="V31" s="109"/>
-      <c r="W31" s="109"/>
-      <c r="X31" s="109"/>
-      <c r="Y31" s="109"/>
-      <c r="Z31" s="109"/>
-      <c r="AA31" s="109"/>
-      <c r="AB31" s="109"/>
-      <c r="AC31" s="109"/>
-      <c r="AD31" s="109"/>
-      <c r="AE31" s="109"/>
-      <c r="AF31" s="109"/>
-      <c r="AG31" s="109"/>
-      <c r="AH31" s="109"/>
-      <c r="AI31" s="109"/>
-      <c r="AJ31" s="109"/>
+      <c r="O31" s="108"/>
+      <c r="P31" s="108"/>
+      <c r="Q31" s="108"/>
+      <c r="R31" s="108"/>
+      <c r="S31" s="108"/>
+      <c r="T31" s="108"/>
+      <c r="U31" s="108"/>
+      <c r="V31" s="108"/>
+      <c r="W31" s="108"/>
+      <c r="X31" s="108"/>
+      <c r="Y31" s="108"/>
+      <c r="Z31" s="108"/>
+      <c r="AA31" s="108"/>
+      <c r="AB31" s="108"/>
+      <c r="AC31" s="108"/>
+      <c r="AD31" s="108"/>
+      <c r="AE31" s="108"/>
+      <c r="AF31" s="108"/>
+      <c r="AG31" s="108"/>
+      <c r="AH31" s="108"/>
+      <c r="AI31" s="108"/>
+      <c r="AJ31" s="108"/>
     </row>
     <row r="32" spans="2:36">
-      <c r="D32" s="131">
+      <c r="D32" s="126">
         <f t="shared" ref="D32" si="71">(D31-C31)/C31</f>
         <v>0.22139303482587064</v>
       </c>
-      <c r="E32" s="131">
+      <c r="E32" s="126">
         <f t="shared" ref="E32" si="72">(E31-D31)/D31</f>
         <v>0.14765784114052954</v>
       </c>
-      <c r="F32" s="131">
+      <c r="F32" s="126">
         <f t="shared" ref="F32" si="73">(F31-E31)/E31</f>
         <v>8.1188997338065658E-2</v>
       </c>
-      <c r="G32" s="131">
+      <c r="G32" s="126">
         <f t="shared" ref="G32" si="74">(G31-F31)/F31</f>
         <v>6.7295855560114901E-2</v>
       </c>
-      <c r="H32" s="131">
+      <c r="H32" s="126">
         <f t="shared" ref="H32" si="75">(H31-G31)/G31</f>
         <v>0.10841983852364476</v>
       </c>
-      <c r="I32" s="131">
+      <c r="I32" s="126">
         <f t="shared" ref="I32" si="76">(I31-H31)/H31</f>
         <v>0.16267776621574748</v>
       </c>
-      <c r="J32" s="131">
+      <c r="J32" s="126">
         <f t="shared" ref="J32" si="77">(J31-I31)/I31</f>
         <v>0.11426014319809069</v>
       </c>
-      <c r="K32" s="131">
+      <c r="K32" s="126">
         <f t="shared" ref="K32" si="78">(K31-J31)/J31</f>
         <v>0.10843373493975904</v>
       </c>
-      <c r="L32" s="131">
+      <c r="L32" s="126">
         <f t="shared" ref="L32" si="79">(L31-K31)/K31</f>
         <v>9.4685990338164258E-2</v>
       </c>
-      <c r="M32" s="131">
+      <c r="M32" s="126">
         <f t="shared" ref="M32" si="80">(M31-L31)/L31</f>
         <v>4.6116504854368932E-2</v>
       </c>
-      <c r="O32" s="109"/>
-      <c r="P32" s="109"/>
-      <c r="Q32" s="109"/>
-      <c r="R32" s="109"/>
-      <c r="S32" s="109"/>
-      <c r="T32" s="109"/>
-      <c r="U32" s="109"/>
-      <c r="V32" s="109"/>
-      <c r="W32" s="109"/>
-      <c r="X32" s="109"/>
-      <c r="Y32" s="109"/>
-      <c r="Z32" s="109"/>
-      <c r="AA32" s="109"/>
-      <c r="AB32" s="109"/>
-      <c r="AC32" s="109"/>
-      <c r="AD32" s="109"/>
-      <c r="AE32" s="109"/>
-      <c r="AF32" s="109"/>
-      <c r="AG32" s="109"/>
-      <c r="AH32" s="109"/>
-      <c r="AI32" s="109"/>
-      <c r="AJ32" s="109"/>
+      <c r="O32" s="108"/>
+      <c r="P32" s="108"/>
+      <c r="Q32" s="108"/>
+      <c r="R32" s="108"/>
+      <c r="S32" s="108"/>
+      <c r="T32" s="108"/>
+      <c r="U32" s="108"/>
+      <c r="V32" s="108"/>
+      <c r="W32" s="108"/>
+      <c r="X32" s="108"/>
+      <c r="Y32" s="108"/>
+      <c r="Z32" s="108"/>
+      <c r="AA32" s="108"/>
+      <c r="AB32" s="108"/>
+      <c r="AC32" s="108"/>
+      <c r="AD32" s="108"/>
+      <c r="AE32" s="108"/>
+      <c r="AF32" s="108"/>
+      <c r="AG32" s="108"/>
+      <c r="AH32" s="108"/>
+      <c r="AI32" s="108"/>
+      <c r="AJ32" s="108"/>
     </row>
     <row r="33" spans="2:36">
-      <c r="O33" s="109"/>
-      <c r="P33" s="109"/>
-      <c r="Q33" s="109"/>
-      <c r="R33" s="109"/>
-      <c r="S33" s="109"/>
-      <c r="T33" s="109"/>
-      <c r="U33" s="109"/>
-      <c r="V33" s="109"/>
-      <c r="W33" s="109"/>
-      <c r="X33" s="109"/>
-      <c r="Y33" s="109"/>
-      <c r="Z33" s="109"/>
-      <c r="AA33" s="109"/>
-      <c r="AB33" s="109"/>
-      <c r="AC33" s="109"/>
-      <c r="AD33" s="109"/>
-      <c r="AE33" s="109"/>
-      <c r="AF33" s="109"/>
-      <c r="AG33" s="109"/>
-      <c r="AH33" s="109"/>
-      <c r="AI33" s="109"/>
-      <c r="AJ33" s="109"/>
+      <c r="O33" s="108"/>
+      <c r="P33" s="108"/>
+      <c r="Q33" s="108"/>
+      <c r="R33" s="108"/>
+      <c r="S33" s="108"/>
+      <c r="T33" s="108"/>
+      <c r="U33" s="108"/>
+      <c r="V33" s="108"/>
+      <c r="W33" s="108"/>
+      <c r="X33" s="108"/>
+      <c r="Y33" s="108"/>
+      <c r="Z33" s="108"/>
+      <c r="AA33" s="108"/>
+      <c r="AB33" s="108"/>
+      <c r="AC33" s="108"/>
+      <c r="AD33" s="108"/>
+      <c r="AE33" s="108"/>
+      <c r="AF33" s="108"/>
+      <c r="AG33" s="108"/>
+      <c r="AH33" s="108"/>
+      <c r="AI33" s="108"/>
+      <c r="AJ33" s="108"/>
     </row>
     <row r="34" spans="2:36">
-      <c r="O34" s="109"/>
-      <c r="P34" s="109"/>
-      <c r="Q34" s="109"/>
-      <c r="R34" s="109"/>
-      <c r="S34" s="109"/>
-      <c r="T34" s="109"/>
-      <c r="U34" s="109"/>
-      <c r="V34" s="109"/>
-      <c r="W34" s="109"/>
-      <c r="X34" s="109"/>
-      <c r="Y34" s="109"/>
-      <c r="Z34" s="109"/>
-      <c r="AA34" s="109"/>
-      <c r="AB34" s="109"/>
-      <c r="AC34" s="109"/>
-      <c r="AD34" s="109"/>
-      <c r="AE34" s="109"/>
-      <c r="AF34" s="109"/>
-      <c r="AG34" s="109"/>
-      <c r="AH34" s="109"/>
-      <c r="AI34" s="109"/>
-      <c r="AJ34" s="109"/>
+      <c r="O34" s="108"/>
+      <c r="P34" s="108"/>
+      <c r="Q34" s="108"/>
+      <c r="R34" s="108"/>
+      <c r="S34" s="108"/>
+      <c r="T34" s="108"/>
+      <c r="U34" s="108"/>
+      <c r="V34" s="108"/>
+      <c r="W34" s="108"/>
+      <c r="X34" s="108"/>
+      <c r="Y34" s="108"/>
+      <c r="Z34" s="108"/>
+      <c r="AA34" s="108"/>
+      <c r="AB34" s="108"/>
+      <c r="AC34" s="108"/>
+      <c r="AD34" s="108"/>
+      <c r="AE34" s="108"/>
+      <c r="AF34" s="108"/>
+      <c r="AG34" s="108"/>
+      <c r="AH34" s="108"/>
+      <c r="AI34" s="108"/>
+      <c r="AJ34" s="108"/>
     </row>
     <row r="35" spans="2:36" ht="17.5" thickBot="1">
       <c r="B35" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="112">
+      <c r="C35" s="111">
         <v>2012</v>
       </c>
-      <c r="D35" s="112">
+      <c r="D35" s="111">
         <v>2013</v>
       </c>
-      <c r="E35" s="112">
+      <c r="E35" s="111">
         <v>2014</v>
       </c>
-      <c r="F35" s="112">
+      <c r="F35" s="111">
         <v>2015</v>
       </c>
-      <c r="G35" s="112">
+      <c r="G35" s="111">
         <v>2016</v>
       </c>
-      <c r="H35" s="112">
+      <c r="H35" s="111">
         <v>2017</v>
       </c>
-      <c r="I35" s="112">
+      <c r="I35" s="111">
         <v>2018</v>
       </c>
-      <c r="J35" s="112">
+      <c r="J35" s="111">
         <v>2019</v>
       </c>
-      <c r="K35" s="112">
+      <c r="K35" s="111">
         <v>2020</v>
       </c>
-      <c r="L35" s="112">
+      <c r="L35" s="111">
         <v>2021</v>
       </c>
-      <c r="M35" s="112">
+      <c r="M35" s="111">
         <v>2022</v>
       </c>
-      <c r="O35" s="109"/>
-      <c r="P35" s="109"/>
-      <c r="Q35" s="109"/>
-      <c r="R35" s="109"/>
-      <c r="S35" s="109"/>
-      <c r="T35" s="109"/>
-      <c r="U35" s="109"/>
-      <c r="V35" s="109"/>
-      <c r="W35" s="109"/>
-      <c r="X35" s="109"/>
-      <c r="Y35" s="109"/>
-      <c r="Z35" s="109"/>
-      <c r="AA35" s="109"/>
-      <c r="AB35" s="109"/>
-      <c r="AC35" s="109"/>
-      <c r="AD35" s="109"/>
-      <c r="AE35" s="109"/>
-      <c r="AF35" s="109"/>
-      <c r="AG35" s="109"/>
-      <c r="AH35" s="109"/>
-      <c r="AI35" s="109"/>
-      <c r="AJ35" s="109"/>
+      <c r="O35" s="108"/>
+      <c r="P35" s="108"/>
+      <c r="Q35" s="108"/>
+      <c r="R35" s="108"/>
+      <c r="S35" s="108"/>
+      <c r="T35" s="108"/>
+      <c r="U35" s="108"/>
+      <c r="V35" s="108"/>
+      <c r="W35" s="108"/>
+      <c r="X35" s="108"/>
+      <c r="Y35" s="108"/>
+      <c r="Z35" s="108"/>
+      <c r="AA35" s="108"/>
+      <c r="AB35" s="108"/>
+      <c r="AC35" s="108"/>
+      <c r="AD35" s="108"/>
+      <c r="AE35" s="108"/>
+      <c r="AF35" s="108"/>
+      <c r="AG35" s="108"/>
+      <c r="AH35" s="108"/>
+      <c r="AI35" s="108"/>
+      <c r="AJ35" s="108"/>
     </row>
     <row r="36" spans="2:36" ht="15" thickTop="1">
       <c r="B36" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="C36" s="120">
+        <v>115</v>
+      </c>
+      <c r="C36" s="112">
         <v>27232</v>
       </c>
-      <c r="D36" s="120">
+      <c r="D36" s="112">
         <v>29840</v>
       </c>
-      <c r="E36" s="120">
+      <c r="E36" s="112">
         <v>30953</v>
       </c>
-      <c r="F36" s="120">
+      <c r="F36" s="112">
         <v>33665</v>
       </c>
-      <c r="G36" s="120">
+      <c r="G36" s="112">
         <v>36253</v>
       </c>
-      <c r="H36" s="120">
+      <c r="H36" s="112">
         <v>38470</v>
       </c>
-      <c r="I36" s="120">
+      <c r="I36" s="112">
         <v>44437</v>
       </c>
-      <c r="J36" s="120">
+      <c r="J36" s="112">
         <v>48322</v>
       </c>
-      <c r="K36" s="120">
+      <c r="K36" s="112">
         <v>51995</v>
       </c>
-      <c r="L36" s="120">
+      <c r="L36" s="112">
         <v>54047</v>
       </c>
-      <c r="M36" s="120">
+      <c r="M36" s="112">
         <v>55485</v>
       </c>
-      <c r="O36" s="109"/>
-      <c r="P36" s="109"/>
-      <c r="Q36" s="109"/>
-      <c r="R36" s="109"/>
-      <c r="S36" s="109"/>
-      <c r="T36" s="109"/>
-      <c r="U36" s="109"/>
-      <c r="V36" s="109"/>
-      <c r="W36" s="109"/>
-      <c r="X36" s="109"/>
-      <c r="Y36" s="109"/>
-      <c r="Z36" s="109"/>
-      <c r="AA36" s="109"/>
-      <c r="AB36" s="109"/>
-      <c r="AC36" s="109"/>
-      <c r="AD36" s="109"/>
-      <c r="AE36" s="109"/>
-      <c r="AF36" s="109"/>
-      <c r="AG36" s="109"/>
-      <c r="AH36" s="109"/>
-      <c r="AI36" s="109"/>
-      <c r="AJ36" s="109"/>
+      <c r="O36" s="108"/>
+      <c r="P36" s="108"/>
+      <c r="Q36" s="108"/>
+      <c r="R36" s="108"/>
+      <c r="S36" s="108"/>
+      <c r="T36" s="108"/>
+      <c r="U36" s="108"/>
+      <c r="V36" s="108"/>
+      <c r="W36" s="108"/>
+      <c r="X36" s="108"/>
+      <c r="Y36" s="108"/>
+      <c r="Z36" s="108"/>
+      <c r="AA36" s="108"/>
+      <c r="AB36" s="108"/>
+      <c r="AC36" s="108"/>
+      <c r="AD36" s="108"/>
+      <c r="AE36" s="108"/>
+      <c r="AF36" s="108"/>
+      <c r="AG36" s="108"/>
+      <c r="AH36" s="108"/>
+      <c r="AI36" s="108"/>
+      <c r="AJ36" s="108"/>
     </row>
     <row r="37" spans="2:36">
-      <c r="C37" s="120"/>
-      <c r="D37" s="120"/>
-      <c r="E37" s="120"/>
-      <c r="F37" s="120"/>
-      <c r="G37" s="120"/>
-      <c r="H37" s="120"/>
-      <c r="I37" s="120"/>
-      <c r="J37" s="120"/>
-      <c r="K37" s="120"/>
-      <c r="L37" s="120"/>
-      <c r="M37" s="120"/>
-      <c r="O37" s="109"/>
-      <c r="P37" s="109"/>
-      <c r="Q37" s="109"/>
-      <c r="R37" s="109"/>
-      <c r="S37" s="109"/>
-      <c r="T37" s="109"/>
-      <c r="U37" s="109"/>
-      <c r="V37" s="109"/>
-      <c r="W37" s="109"/>
-      <c r="X37" s="109"/>
-      <c r="Y37" s="109"/>
-      <c r="Z37" s="109"/>
-      <c r="AA37" s="109"/>
-      <c r="AB37" s="109"/>
-      <c r="AC37" s="109"/>
-      <c r="AD37" s="109"/>
-      <c r="AE37" s="109"/>
-      <c r="AF37" s="109"/>
-      <c r="AG37" s="109"/>
-      <c r="AH37" s="109"/>
-      <c r="AI37" s="109"/>
-      <c r="AJ37" s="109"/>
+      <c r="O37" s="108"/>
+      <c r="P37" s="108"/>
+      <c r="Q37" s="108"/>
+      <c r="R37" s="108"/>
+      <c r="S37" s="108"/>
+      <c r="T37" s="108"/>
+      <c r="U37" s="108"/>
+      <c r="V37" s="108"/>
+      <c r="W37" s="108"/>
+      <c r="X37" s="108"/>
+      <c r="Y37" s="108"/>
+      <c r="Z37" s="108"/>
+      <c r="AA37" s="108"/>
+      <c r="AB37" s="108"/>
+      <c r="AC37" s="108"/>
+      <c r="AD37" s="108"/>
+      <c r="AE37" s="108"/>
+      <c r="AF37" s="108"/>
+      <c r="AG37" s="108"/>
+      <c r="AH37" s="108"/>
+      <c r="AI37" s="108"/>
+      <c r="AJ37" s="108"/>
     </row>
     <row r="38" spans="2:36">
       <c r="B38" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="120">
+      <c r="C38" s="112">
         <v>19991</v>
       </c>
-      <c r="D38" s="120">
+      <c r="D38" s="112">
         <v>14075</v>
       </c>
-      <c r="E38" s="120">
+      <c r="E38" s="112">
         <v>13531</v>
       </c>
-      <c r="F38" s="120">
+      <c r="F38" s="112">
         <v>12303</v>
       </c>
-      <c r="G38" s="120">
+      <c r="G38" s="112">
         <v>16361</v>
       </c>
-      <c r="H38" s="120">
+      <c r="H38" s="112">
         <v>16343</v>
       </c>
-      <c r="I38" s="120">
+      <c r="I38" s="112">
         <v>21848</v>
       </c>
-      <c r="J38" s="120">
+      <c r="J38" s="112">
         <v>25392</v>
       </c>
-      <c r="K38" s="120">
+      <c r="K38" s="112">
         <v>26741</v>
       </c>
-      <c r="L38" s="120">
+      <c r="L38" s="112">
         <v>24807</v>
       </c>
-      <c r="M38" s="120">
+      <c r="M38" s="112">
         <v>21826</v>
       </c>
-      <c r="O38" s="109"/>
-      <c r="P38" s="109"/>
-      <c r="Q38" s="109"/>
-      <c r="R38" s="109"/>
-      <c r="S38" s="109"/>
-      <c r="T38" s="109"/>
-      <c r="U38" s="109"/>
-      <c r="V38" s="109"/>
-      <c r="W38" s="109"/>
-      <c r="X38" s="109"/>
-      <c r="Y38" s="109"/>
-      <c r="Z38" s="109"/>
-      <c r="AA38" s="109"/>
-      <c r="AB38" s="109"/>
-      <c r="AC38" s="109"/>
-      <c r="AD38" s="109"/>
-      <c r="AE38" s="109"/>
-      <c r="AF38" s="109"/>
-      <c r="AG38" s="109"/>
-      <c r="AH38" s="109"/>
-      <c r="AI38" s="109"/>
-      <c r="AJ38" s="109"/>
+      <c r="O38" s="108"/>
+      <c r="P38" s="108"/>
+      <c r="Q38" s="108"/>
+      <c r="R38" s="108"/>
+      <c r="S38" s="108"/>
+      <c r="T38" s="108"/>
+      <c r="U38" s="108"/>
+      <c r="V38" s="108"/>
+      <c r="W38" s="108"/>
+      <c r="X38" s="108"/>
+      <c r="Y38" s="108"/>
+      <c r="Z38" s="108"/>
+      <c r="AA38" s="108"/>
+      <c r="AB38" s="108"/>
+      <c r="AC38" s="108"/>
+      <c r="AD38" s="108"/>
+      <c r="AE38" s="108"/>
+      <c r="AF38" s="108"/>
+      <c r="AG38" s="108"/>
+      <c r="AH38" s="108"/>
+      <c r="AI38" s="108"/>
+      <c r="AJ38" s="108"/>
     </row>
     <row r="39" spans="2:36">
       <c r="B39" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="123"/>
-      <c r="D39" s="131">
+      <c r="C39" s="117"/>
+      <c r="D39" s="126">
         <f t="shared" ref="D39" si="81">(D38-C38)/C38</f>
         <v>-0.2959331699264669</v>
       </c>
-      <c r="E39" s="131">
+      <c r="E39" s="126">
         <f t="shared" ref="E39" si="82">(E38-D38)/D38</f>
         <v>-3.8650088809946713E-2</v>
       </c>
-      <c r="F39" s="131">
+      <c r="F39" s="126">
         <f t="shared" ref="F39" si="83">(F38-E38)/E38</f>
         <v>-9.0754563594708446E-2</v>
       </c>
-      <c r="G39" s="131">
+      <c r="G39" s="126">
         <f t="shared" ref="G39" si="84">(G38-F38)/F38</f>
         <v>0.32983825083313012</v>
       </c>
-      <c r="H39" s="131">
+      <c r="H39" s="126">
         <f t="shared" ref="H39" si="85">(H38-G38)/G38</f>
         <v>-1.1001772507792922E-3</v>
       </c>
-      <c r="I39" s="131">
+      <c r="I39" s="126">
         <f t="shared" ref="I39" si="86">(I38-H38)/H38</f>
         <v>0.33684146117603869</v>
       </c>
-      <c r="J39" s="131">
+      <c r="J39" s="126">
         <f t="shared" ref="J39" si="87">(J38-I38)/I38</f>
         <v>0.16221164408641522</v>
       </c>
-      <c r="K39" s="131">
+      <c r="K39" s="126">
         <f t="shared" ref="K39" si="88">(K38-J38)/J38</f>
         <v>5.3126969124133588E-2</v>
       </c>
-      <c r="L39" s="131">
+      <c r="L39" s="126">
         <f t="shared" ref="L39" si="89">(L38-K38)/K38</f>
         <v>-7.2323398526607088E-2</v>
       </c>
-      <c r="M39" s="131">
+      <c r="M39" s="126">
         <f t="shared" ref="M39" si="90">(M38-L38)/L38</f>
         <v>-0.12016769460232998</v>
       </c>
-      <c r="O39" s="109"/>
-      <c r="P39" s="109"/>
-      <c r="Q39" s="109"/>
-      <c r="R39" s="109"/>
-      <c r="S39" s="109"/>
-      <c r="T39" s="109"/>
-      <c r="U39" s="109"/>
-      <c r="V39" s="109"/>
-      <c r="W39" s="109"/>
-      <c r="X39" s="109"/>
-      <c r="Y39" s="109"/>
-      <c r="Z39" s="109"/>
-      <c r="AA39" s="109"/>
-      <c r="AB39" s="109"/>
-      <c r="AC39" s="109"/>
-      <c r="AD39" s="109"/>
-      <c r="AE39" s="109"/>
-      <c r="AF39" s="109"/>
-      <c r="AG39" s="109"/>
-      <c r="AH39" s="109"/>
-      <c r="AI39" s="109"/>
-      <c r="AJ39" s="109"/>
+      <c r="O39" s="108"/>
+      <c r="P39" s="108"/>
+      <c r="Q39" s="108"/>
+      <c r="R39" s="108"/>
+      <c r="S39" s="108"/>
+      <c r="T39" s="108"/>
+      <c r="U39" s="108"/>
+      <c r="V39" s="108"/>
+      <c r="W39" s="108"/>
+      <c r="X39" s="108"/>
+      <c r="Y39" s="108"/>
+      <c r="Z39" s="108"/>
+      <c r="AA39" s="108"/>
+      <c r="AB39" s="108"/>
+      <c r="AC39" s="108"/>
+      <c r="AD39" s="108"/>
+      <c r="AE39" s="108"/>
+      <c r="AF39" s="108"/>
+      <c r="AG39" s="108"/>
+      <c r="AH39" s="108"/>
+      <c r="AI39" s="108"/>
+      <c r="AJ39" s="108"/>
     </row>
     <row r="40" spans="2:36">
-      <c r="C40" s="120"/>
-      <c r="D40" s="120"/>
-      <c r="E40" s="120"/>
-      <c r="F40" s="120"/>
-      <c r="G40" s="120"/>
-      <c r="H40" s="120"/>
-      <c r="I40" s="120"/>
-      <c r="J40" s="120"/>
-      <c r="K40" s="120"/>
-      <c r="L40" s="120"/>
-      <c r="M40" s="120"/>
-      <c r="O40" s="109"/>
-      <c r="P40" s="109"/>
-      <c r="Q40" s="109"/>
-      <c r="R40" s="109"/>
-      <c r="S40" s="109"/>
-      <c r="T40" s="109"/>
-      <c r="U40" s="109"/>
-      <c r="V40" s="109"/>
-      <c r="W40" s="109"/>
-      <c r="X40" s="109"/>
-      <c r="Y40" s="109"/>
-      <c r="Z40" s="109"/>
-      <c r="AA40" s="109"/>
-      <c r="AB40" s="109"/>
-      <c r="AC40" s="109"/>
-      <c r="AD40" s="109"/>
-      <c r="AE40" s="109"/>
-      <c r="AF40" s="109"/>
-      <c r="AG40" s="109"/>
-      <c r="AH40" s="109"/>
-      <c r="AI40" s="109"/>
-      <c r="AJ40" s="109"/>
+      <c r="O40" s="108"/>
+      <c r="P40" s="108"/>
+      <c r="Q40" s="108"/>
+      <c r="R40" s="108"/>
+      <c r="S40" s="108"/>
+      <c r="T40" s="108"/>
+      <c r="U40" s="108"/>
+      <c r="V40" s="108"/>
+      <c r="W40" s="108"/>
+      <c r="X40" s="108"/>
+      <c r="Y40" s="108"/>
+      <c r="Z40" s="108"/>
+      <c r="AA40" s="108"/>
+      <c r="AB40" s="108"/>
+      <c r="AC40" s="108"/>
+      <c r="AD40" s="108"/>
+      <c r="AE40" s="108"/>
+      <c r="AF40" s="108"/>
+      <c r="AG40" s="108"/>
+      <c r="AH40" s="108"/>
+      <c r="AI40" s="108"/>
+      <c r="AJ40" s="108"/>
     </row>
     <row r="41" spans="2:36">
       <c r="B41" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="120">
+      <c r="C41" s="112">
         <v>144980</v>
       </c>
-      <c r="D41" s="120">
+      <c r="D41" s="112">
         <v>144738</v>
       </c>
-      <c r="E41" s="120">
+      <c r="E41" s="112">
         <v>145655</v>
       </c>
-      <c r="F41" s="120">
+      <c r="F41" s="112">
         <v>154271</v>
       </c>
-      <c r="G41" s="120">
+      <c r="G41" s="112">
         <v>164139</v>
       </c>
-      <c r="H41" s="120">
+      <c r="H41" s="112">
         <v>171119</v>
       </c>
-      <c r="I41" s="120">
+      <c r="I41" s="112">
         <v>229836</v>
       </c>
-      <c r="J41" s="120">
+      <c r="J41" s="112">
         <v>238022</v>
       </c>
-      <c r="K41" s="120">
+      <c r="K41" s="112">
         <v>247128</v>
       </c>
-      <c r="L41" s="120">
+      <c r="L41" s="112">
         <v>251098</v>
       </c>
-      <c r="M41" s="120">
+      <c r="M41" s="112">
         <v>235449</v>
       </c>
-      <c r="O41" s="109"/>
-      <c r="P41" s="109"/>
-      <c r="Q41" s="109"/>
-      <c r="R41" s="109"/>
-      <c r="S41" s="109"/>
-      <c r="T41" s="109"/>
-      <c r="U41" s="109"/>
-      <c r="V41" s="109"/>
-      <c r="W41" s="109"/>
-      <c r="X41" s="109"/>
-      <c r="Y41" s="109"/>
-      <c r="Z41" s="109"/>
-      <c r="AA41" s="109"/>
-      <c r="AB41" s="109"/>
-      <c r="AC41" s="109"/>
-      <c r="AD41" s="109"/>
-      <c r="AE41" s="109"/>
-      <c r="AF41" s="109"/>
-      <c r="AG41" s="109"/>
-      <c r="AH41" s="109"/>
-      <c r="AI41" s="109"/>
-      <c r="AJ41" s="109"/>
+      <c r="O41" s="108"/>
+      <c r="P41" s="108"/>
+      <c r="Q41" s="108"/>
+      <c r="R41" s="108"/>
+      <c r="S41" s="108"/>
+      <c r="T41" s="108"/>
+      <c r="U41" s="108"/>
+      <c r="V41" s="108"/>
+      <c r="W41" s="108"/>
+      <c r="X41" s="108"/>
+      <c r="Y41" s="108"/>
+      <c r="Z41" s="108"/>
+      <c r="AA41" s="108"/>
+      <c r="AB41" s="108"/>
+      <c r="AC41" s="108"/>
+      <c r="AD41" s="108"/>
+      <c r="AE41" s="108"/>
+      <c r="AF41" s="108"/>
+      <c r="AG41" s="108"/>
+      <c r="AH41" s="108"/>
+      <c r="AI41" s="108"/>
+      <c r="AJ41" s="108"/>
     </row>
     <row r="42" spans="2:36">
       <c r="B42" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="123"/>
-      <c r="D42" s="131">
+      <c r="C42" s="117"/>
+      <c r="D42" s="126">
         <f t="shared" ref="D42" si="91">(D41-C41)/C41</f>
         <v>-1.669195751138088E-3</v>
       </c>
-      <c r="E42" s="131">
+      <c r="E42" s="126">
         <f t="shared" ref="E42" si="92">(E41-D41)/D41</f>
         <v>6.3355856789509323E-3</v>
       </c>
-      <c r="F42" s="131">
+      <c r="F42" s="126">
         <f t="shared" ref="F42" si="93">(F41-E41)/E41</f>
         <v>5.9153479111599329E-2</v>
       </c>
-      <c r="G42" s="131">
+      <c r="G42" s="126">
         <f t="shared" ref="G42" si="94">(G41-F41)/F41</f>
         <v>6.3965359659300836E-2</v>
       </c>
-      <c r="H42" s="131">
+      <c r="H42" s="126">
         <f t="shared" ref="H42" si="95">(H41-G41)/G41</f>
         <v>4.2524933135939663E-2</v>
       </c>
-      <c r="I42" s="131">
+      <c r="I42" s="126">
         <f t="shared" ref="I42" si="96">(I41-H41)/H41</f>
         <v>0.34313547881883366</v>
       </c>
-      <c r="J42" s="131">
+      <c r="J42" s="126">
         <f t="shared" ref="J42" si="97">(J41-I41)/I41</f>
         <v>3.5616700603908875E-2</v>
       </c>
-      <c r="K42" s="131">
+      <c r="K42" s="126">
         <f t="shared" ref="K42" si="98">(K41-J41)/J41</f>
         <v>3.8256967843308599E-2</v>
       </c>
-      <c r="L42" s="131">
+      <c r="L42" s="126">
         <f t="shared" ref="L42" si="99">(L41-K41)/K41</f>
         <v>1.6064549545174969E-2</v>
       </c>
-      <c r="M42" s="131">
+      <c r="M42" s="126">
         <f t="shared" ref="M42" si="100">(M41-L41)/L41</f>
         <v>-6.2322280543851402E-2</v>
       </c>
-      <c r="O42" s="109"/>
-      <c r="P42" s="109"/>
-      <c r="Q42" s="109"/>
-      <c r="R42" s="109"/>
-      <c r="S42" s="109"/>
-      <c r="T42" s="109"/>
-      <c r="U42" s="109"/>
-      <c r="V42" s="109"/>
-      <c r="W42" s="109"/>
-      <c r="X42" s="109"/>
-      <c r="Y42" s="109"/>
-      <c r="Z42" s="109"/>
-      <c r="AA42" s="109"/>
-      <c r="AB42" s="109"/>
-      <c r="AC42" s="109"/>
-      <c r="AD42" s="109"/>
-      <c r="AE42" s="109"/>
-      <c r="AF42" s="109"/>
-      <c r="AG42" s="109"/>
-      <c r="AH42" s="109"/>
-      <c r="AI42" s="109"/>
-      <c r="AJ42" s="109"/>
+      <c r="O42" s="108"/>
+      <c r="P42" s="108"/>
+      <c r="Q42" s="108"/>
+      <c r="R42" s="108"/>
+      <c r="S42" s="108"/>
+      <c r="T42" s="108"/>
+      <c r="U42" s="108"/>
+      <c r="V42" s="108"/>
+      <c r="W42" s="108"/>
+      <c r="X42" s="108"/>
+      <c r="Y42" s="108"/>
+      <c r="Z42" s="108"/>
+      <c r="AA42" s="108"/>
+      <c r="AB42" s="108"/>
+      <c r="AC42" s="108"/>
+      <c r="AD42" s="108"/>
+      <c r="AE42" s="108"/>
+      <c r="AF42" s="108"/>
+      <c r="AG42" s="108"/>
+      <c r="AH42" s="108"/>
+      <c r="AI42" s="108"/>
+      <c r="AJ42" s="108"/>
     </row>
     <row r="43" spans="2:36">
-      <c r="C43" s="120"/>
-      <c r="D43" s="120"/>
-      <c r="E43" s="120"/>
-      <c r="F43" s="120"/>
-      <c r="G43" s="120"/>
-      <c r="H43" s="120"/>
-      <c r="I43" s="120"/>
-      <c r="J43" s="120"/>
-      <c r="K43" s="120"/>
-      <c r="L43" s="120"/>
-      <c r="M43" s="120"/>
-      <c r="O43" s="109"/>
-      <c r="P43" s="109"/>
-      <c r="Q43" s="109"/>
-      <c r="R43" s="109"/>
-      <c r="S43" s="109"/>
-      <c r="T43" s="109"/>
-      <c r="U43" s="109"/>
-      <c r="V43" s="109"/>
-      <c r="W43" s="109"/>
-      <c r="X43" s="109"/>
-      <c r="Y43" s="109"/>
-      <c r="Z43" s="109"/>
-      <c r="AA43" s="109"/>
-      <c r="AB43" s="109"/>
-      <c r="AC43" s="109"/>
-      <c r="AD43" s="109"/>
-      <c r="AE43" s="109"/>
-      <c r="AF43" s="109"/>
-      <c r="AG43" s="109"/>
-      <c r="AH43" s="109"/>
-      <c r="AI43" s="109"/>
-      <c r="AJ43" s="109"/>
+      <c r="O43" s="108"/>
+      <c r="P43" s="108"/>
+      <c r="Q43" s="108"/>
+      <c r="R43" s="108"/>
+      <c r="S43" s="108"/>
+      <c r="T43" s="108"/>
+      <c r="U43" s="108"/>
+      <c r="V43" s="108"/>
+      <c r="W43" s="108"/>
+      <c r="X43" s="108"/>
+      <c r="Y43" s="108"/>
+      <c r="Z43" s="108"/>
+      <c r="AA43" s="108"/>
+      <c r="AB43" s="108"/>
+      <c r="AC43" s="108"/>
+      <c r="AD43" s="108"/>
+      <c r="AE43" s="108"/>
+      <c r="AF43" s="108"/>
+      <c r="AG43" s="108"/>
+      <c r="AH43" s="108"/>
+      <c r="AI43" s="108"/>
+      <c r="AJ43" s="108"/>
     </row>
     <row r="44" spans="2:36">
       <c r="B44" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="116"/>
-      <c r="D44" s="116">
+      <c r="C44" s="115"/>
+      <c r="D44" s="115">
         <f>D38+D41</f>
         <v>158813</v>
       </c>
-      <c r="E44" s="116">
+      <c r="E44" s="115">
         <f t="shared" ref="E44:M44" si="101">E38+E41</f>
         <v>159186</v>
       </c>
-      <c r="F44" s="116">
+      <c r="F44" s="115">
         <f t="shared" si="101"/>
         <v>166574</v>
       </c>
-      <c r="G44" s="116">
+      <c r="G44" s="115">
         <f t="shared" si="101"/>
         <v>180500</v>
       </c>
-      <c r="H44" s="116">
+      <c r="H44" s="115">
         <f t="shared" si="101"/>
         <v>187462</v>
       </c>
-      <c r="I44" s="116">
+      <c r="I44" s="115">
         <f t="shared" si="101"/>
         <v>251684</v>
       </c>
-      <c r="J44" s="116">
+      <c r="J44" s="115">
         <f t="shared" si="101"/>
         <v>263414</v>
       </c>
-      <c r="K44" s="116">
+      <c r="K44" s="115">
         <f t="shared" si="101"/>
         <v>273869</v>
       </c>
-      <c r="L44" s="116">
+      <c r="L44" s="115">
         <f t="shared" si="101"/>
         <v>275905</v>
       </c>
-      <c r="M44" s="116">
+      <c r="M44" s="115">
         <f t="shared" si="101"/>
         <v>257275</v>
       </c>
-      <c r="O44" s="109"/>
-      <c r="P44" s="109"/>
-      <c r="Q44" s="109"/>
-      <c r="R44" s="109"/>
-      <c r="S44" s="109"/>
-      <c r="T44" s="109"/>
-      <c r="U44" s="109"/>
-      <c r="V44" s="109"/>
-      <c r="W44" s="109"/>
-      <c r="X44" s="109"/>
-      <c r="Y44" s="109"/>
-      <c r="Z44" s="109"/>
-      <c r="AA44" s="109"/>
-      <c r="AB44" s="109"/>
-      <c r="AC44" s="109"/>
-      <c r="AD44" s="109"/>
-      <c r="AE44" s="109"/>
-      <c r="AF44" s="109"/>
-      <c r="AG44" s="109"/>
-      <c r="AH44" s="109"/>
-      <c r="AI44" s="109"/>
-      <c r="AJ44" s="109"/>
+      <c r="O44" s="108"/>
+      <c r="P44" s="108"/>
+      <c r="Q44" s="108"/>
+      <c r="R44" s="108"/>
+      <c r="S44" s="108"/>
+      <c r="T44" s="108"/>
+      <c r="U44" s="108"/>
+      <c r="V44" s="108"/>
+      <c r="W44" s="108"/>
+      <c r="X44" s="108"/>
+      <c r="Y44" s="108"/>
+      <c r="Z44" s="108"/>
+      <c r="AA44" s="108"/>
+      <c r="AB44" s="108"/>
+      <c r="AC44" s="108"/>
+      <c r="AD44" s="108"/>
+      <c r="AE44" s="108"/>
+      <c r="AF44" s="108"/>
+      <c r="AG44" s="108"/>
+      <c r="AH44" s="108"/>
+      <c r="AI44" s="108"/>
+      <c r="AJ44" s="108"/>
     </row>
     <row r="45" spans="2:36">
-      <c r="C45" s="120"/>
-      <c r="D45" s="120"/>
-      <c r="E45" s="120"/>
-      <c r="F45" s="120"/>
-      <c r="G45" s="120"/>
-      <c r="H45" s="120"/>
-      <c r="I45" s="120"/>
-      <c r="J45" s="120"/>
-      <c r="K45" s="120"/>
-      <c r="L45" s="120"/>
-      <c r="M45" s="120"/>
-      <c r="O45" s="109"/>
-      <c r="P45" s="109"/>
-      <c r="Q45" s="109"/>
-      <c r="R45" s="109"/>
-      <c r="S45" s="109"/>
-      <c r="T45" s="109"/>
-      <c r="U45" s="109"/>
-      <c r="V45" s="109"/>
-      <c r="W45" s="109"/>
-      <c r="X45" s="109"/>
-      <c r="Y45" s="109"/>
-      <c r="Z45" s="109"/>
-      <c r="AA45" s="109"/>
-      <c r="AB45" s="109"/>
-      <c r="AC45" s="109"/>
-      <c r="AD45" s="109"/>
-      <c r="AE45" s="109"/>
-      <c r="AF45" s="109"/>
-      <c r="AG45" s="109"/>
-      <c r="AH45" s="109"/>
-      <c r="AI45" s="109"/>
-      <c r="AJ45" s="109"/>
+      <c r="O45" s="108"/>
+      <c r="P45" s="108"/>
+      <c r="Q45" s="108"/>
+      <c r="R45" s="108"/>
+      <c r="S45" s="108"/>
+      <c r="T45" s="108"/>
+      <c r="U45" s="108"/>
+      <c r="V45" s="108"/>
+      <c r="W45" s="108"/>
+      <c r="X45" s="108"/>
+      <c r="Y45" s="108"/>
+      <c r="Z45" s="108"/>
+      <c r="AA45" s="108"/>
+      <c r="AB45" s="108"/>
+      <c r="AC45" s="108"/>
+      <c r="AD45" s="108"/>
+      <c r="AE45" s="108"/>
+      <c r="AF45" s="108"/>
+      <c r="AG45" s="108"/>
+      <c r="AH45" s="108"/>
+      <c r="AI45" s="108"/>
+      <c r="AJ45" s="108"/>
     </row>
     <row r="46" spans="2:36">
       <c r="B46" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="123">
+      <c r="C46" s="117">
         <v>16714</v>
       </c>
-      <c r="D46" s="126">
+      <c r="D46" s="123">
         <v>18912</v>
       </c>
-      <c r="E46" s="120">
+      <c r="E46" s="112">
         <v>17410</v>
       </c>
-      <c r="F46" s="120">
+      <c r="F46" s="112">
         <v>18178</v>
       </c>
-      <c r="G46" s="120">
+      <c r="G46" s="112">
         <v>21535</v>
       </c>
-      <c r="H46" s="120">
+      <c r="H46" s="112">
         <v>21993</v>
       </c>
-      <c r="I46" s="120">
+      <c r="I46" s="112">
         <v>27603</v>
       </c>
-      <c r="J46" s="120">
+      <c r="J46" s="112">
         <v>30292</v>
       </c>
-      <c r="K46" s="120">
+      <c r="K46" s="112">
         <v>28796</v>
       </c>
-      <c r="L46" s="120">
+      <c r="L46" s="112">
         <v>29348</v>
       </c>
-      <c r="M46" s="120">
+      <c r="M46" s="112">
         <v>27887</v>
       </c>
-      <c r="O46" s="109"/>
-      <c r="P46" s="109"/>
-      <c r="Q46" s="109"/>
-      <c r="R46" s="109"/>
-      <c r="S46" s="109"/>
-      <c r="T46" s="109"/>
-      <c r="U46" s="109"/>
-      <c r="V46" s="109"/>
-      <c r="W46" s="109"/>
-      <c r="X46" s="109"/>
-      <c r="Y46" s="109"/>
-      <c r="Z46" s="109"/>
-      <c r="AA46" s="109"/>
-      <c r="AB46" s="109"/>
-      <c r="AC46" s="109"/>
-      <c r="AD46" s="109"/>
-      <c r="AE46" s="109"/>
-      <c r="AF46" s="109"/>
-      <c r="AG46" s="109"/>
-      <c r="AH46" s="109"/>
-      <c r="AI46" s="109"/>
-      <c r="AJ46" s="109"/>
+      <c r="O46" s="108"/>
+      <c r="P46" s="108"/>
+      <c r="Q46" s="108"/>
+      <c r="R46" s="108"/>
+      <c r="S46" s="108"/>
+      <c r="T46" s="108"/>
+      <c r="U46" s="108"/>
+      <c r="V46" s="108"/>
+      <c r="W46" s="108"/>
+      <c r="X46" s="108"/>
+      <c r="Y46" s="108"/>
+      <c r="Z46" s="108"/>
+      <c r="AA46" s="108"/>
+      <c r="AB46" s="108"/>
+      <c r="AC46" s="108"/>
+      <c r="AD46" s="108"/>
+      <c r="AE46" s="108"/>
+      <c r="AF46" s="108"/>
+      <c r="AG46" s="108"/>
+      <c r="AH46" s="108"/>
+      <c r="AI46" s="108"/>
+      <c r="AJ46" s="108"/>
     </row>
     <row r="47" spans="2:36">
       <c r="B47" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C47" s="123"/>
-      <c r="D47" s="131">
+      <c r="C47" s="117"/>
+      <c r="D47" s="126">
         <f t="shared" ref="D47" si="102">(D46-C46)/C46</f>
         <v>0.13150652147899963</v>
       </c>
-      <c r="E47" s="131">
+      <c r="E47" s="126">
         <f t="shared" ref="E47" si="103">(E46-D46)/D46</f>
         <v>-7.9420473773265651E-2</v>
       </c>
-      <c r="F47" s="131">
+      <c r="F47" s="126">
         <f t="shared" ref="F47" si="104">(F46-E46)/E46</f>
         <v>4.4112578977599078E-2</v>
       </c>
-      <c r="G47" s="131">
+      <c r="G47" s="126">
         <f t="shared" ref="G47" si="105">(G46-F46)/F46</f>
         <v>0.18467378149411376</v>
       </c>
-      <c r="H47" s="131">
+      <c r="H47" s="126">
         <f t="shared" ref="H47" si="106">(H46-G46)/G46</f>
         <v>2.1267703738100767E-2</v>
       </c>
-      <c r="I47" s="131">
+      <c r="I47" s="126">
         <f t="shared" ref="I47" si="107">(I46-H46)/H46</f>
         <v>0.25508116218796889</v>
       </c>
-      <c r="J47" s="131">
+      <c r="J47" s="126">
         <f t="shared" ref="J47" si="108">(J46-I46)/I46</f>
         <v>9.7416947433250009E-2</v>
       </c>
-      <c r="K47" s="131">
+      <c r="K47" s="126">
         <f t="shared" ref="K47" si="109">(K46-J46)/J46</f>
         <v>-4.9385976495444343E-2</v>
       </c>
-      <c r="L47" s="131">
+      <c r="L47" s="126">
         <f t="shared" ref="L47" si="110">(L46-K46)/K46</f>
         <v>1.9169329073482427E-2</v>
       </c>
-      <c r="M47" s="131">
+      <c r="M47" s="126">
         <f t="shared" ref="M47" si="111">(M46-L46)/L46</f>
         <v>-4.9781927218209079E-2</v>
       </c>
-      <c r="O47" s="109"/>
-      <c r="P47" s="109"/>
-      <c r="Q47" s="109"/>
-      <c r="R47" s="109"/>
-      <c r="S47" s="109"/>
-      <c r="T47" s="109"/>
-      <c r="U47" s="109"/>
-      <c r="V47" s="109"/>
-      <c r="W47" s="109"/>
-      <c r="X47" s="109"/>
-      <c r="Y47" s="109"/>
-      <c r="Z47" s="109"/>
-      <c r="AA47" s="109"/>
-      <c r="AB47" s="109"/>
-      <c r="AC47" s="109"/>
-      <c r="AD47" s="109"/>
-      <c r="AE47" s="109"/>
-      <c r="AF47" s="109"/>
-      <c r="AG47" s="109"/>
-      <c r="AH47" s="109"/>
-      <c r="AI47" s="109"/>
-      <c r="AJ47" s="109"/>
+      <c r="O47" s="108"/>
+      <c r="P47" s="108"/>
+      <c r="Q47" s="108"/>
+      <c r="R47" s="108"/>
+      <c r="S47" s="108"/>
+      <c r="T47" s="108"/>
+      <c r="U47" s="108"/>
+      <c r="V47" s="108"/>
+      <c r="W47" s="108"/>
+      <c r="X47" s="108"/>
+      <c r="Y47" s="108"/>
+      <c r="Z47" s="108"/>
+      <c r="AA47" s="108"/>
+      <c r="AB47" s="108"/>
+      <c r="AC47" s="108"/>
+      <c r="AD47" s="108"/>
+      <c r="AE47" s="108"/>
+      <c r="AF47" s="108"/>
+      <c r="AG47" s="108"/>
+      <c r="AH47" s="108"/>
+      <c r="AI47" s="108"/>
+      <c r="AJ47" s="108"/>
     </row>
     <row r="48" spans="2:36">
-      <c r="C48" s="120"/>
-      <c r="D48" s="120"/>
-      <c r="E48" s="120"/>
-      <c r="F48" s="120"/>
-      <c r="G48" s="120"/>
-      <c r="H48" s="120"/>
-      <c r="I48" s="120"/>
-      <c r="J48" s="120"/>
-      <c r="K48" s="120"/>
-      <c r="L48" s="120"/>
-      <c r="M48" s="120"/>
-      <c r="O48" s="109"/>
-      <c r="P48" s="109"/>
-      <c r="Q48" s="109"/>
-      <c r="R48" s="109"/>
-      <c r="S48" s="109"/>
-      <c r="T48" s="109"/>
-      <c r="U48" s="109"/>
-      <c r="V48" s="109"/>
-      <c r="W48" s="109"/>
-      <c r="X48" s="109"/>
-      <c r="Y48" s="109"/>
-      <c r="Z48" s="109"/>
-      <c r="AA48" s="109"/>
-      <c r="AB48" s="109"/>
-      <c r="AC48" s="109"/>
-      <c r="AD48" s="109"/>
-      <c r="AE48" s="109"/>
-      <c r="AF48" s="109"/>
-      <c r="AG48" s="109"/>
-      <c r="AH48" s="109"/>
-      <c r="AI48" s="109"/>
-      <c r="AJ48" s="109"/>
+      <c r="O48" s="108"/>
+      <c r="P48" s="108"/>
+      <c r="Q48" s="108"/>
+      <c r="R48" s="108"/>
+      <c r="S48" s="108"/>
+      <c r="T48" s="108"/>
+      <c r="U48" s="108"/>
+      <c r="V48" s="108"/>
+      <c r="W48" s="108"/>
+      <c r="X48" s="108"/>
+      <c r="Y48" s="108"/>
+      <c r="Z48" s="108"/>
+      <c r="AA48" s="108"/>
+      <c r="AB48" s="108"/>
+      <c r="AC48" s="108"/>
+      <c r="AD48" s="108"/>
+      <c r="AE48" s="108"/>
+      <c r="AF48" s="108"/>
+      <c r="AG48" s="108"/>
+      <c r="AH48" s="108"/>
+      <c r="AI48" s="108"/>
+      <c r="AJ48" s="108"/>
     </row>
     <row r="49" spans="2:36">
       <c r="B49" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C49" s="123">
+      <c r="C49" s="117">
         <v>98461</v>
       </c>
-      <c r="D49" s="120">
+      <c r="D49" s="112">
         <v>88843</v>
       </c>
-      <c r="E49" s="120">
+      <c r="E49" s="112">
         <v>88708</v>
       </c>
-      <c r="F49" s="120">
+      <c r="F49" s="112">
         <v>94418</v>
       </c>
-      <c r="G49" s="120">
+      <c r="G49" s="112">
         <v>102791</v>
       </c>
-      <c r="H49" s="120">
+      <c r="H49" s="112">
         <v>96010</v>
       </c>
-      <c r="I49" s="120">
+      <c r="I49" s="112">
         <v>151579</v>
       </c>
-      <c r="J49" s="120">
+      <c r="J49" s="112">
         <v>149248</v>
       </c>
-      <c r="K49" s="120">
+      <c r="K49" s="112">
         <v>153335</v>
       </c>
-      <c r="L49" s="120">
+      <c r="L49" s="112">
         <v>149068</v>
       </c>
-      <c r="M49" s="120">
+      <c r="M49" s="112">
         <v>147760</v>
       </c>
-      <c r="O49" s="109"/>
-      <c r="P49" s="109"/>
-      <c r="Q49" s="109"/>
-      <c r="R49" s="109"/>
-      <c r="S49" s="109"/>
-      <c r="T49" s="109"/>
-      <c r="U49" s="109"/>
-      <c r="V49" s="109"/>
-      <c r="W49" s="109"/>
-      <c r="X49" s="109"/>
-      <c r="Y49" s="109"/>
-      <c r="Z49" s="109"/>
-      <c r="AA49" s="109"/>
-      <c r="AB49" s="109"/>
-      <c r="AC49" s="109"/>
-      <c r="AD49" s="109"/>
-      <c r="AE49" s="109"/>
-      <c r="AF49" s="109"/>
-      <c r="AG49" s="109"/>
-      <c r="AH49" s="109"/>
-      <c r="AI49" s="109"/>
-      <c r="AJ49" s="109"/>
+      <c r="O49" s="108"/>
+      <c r="P49" s="108"/>
+      <c r="Q49" s="108"/>
+      <c r="R49" s="108"/>
+      <c r="S49" s="108"/>
+      <c r="T49" s="108"/>
+      <c r="U49" s="108"/>
+      <c r="V49" s="108"/>
+      <c r="W49" s="108"/>
+      <c r="X49" s="108"/>
+      <c r="Y49" s="108"/>
+      <c r="Z49" s="108"/>
+      <c r="AA49" s="108"/>
+      <c r="AB49" s="108"/>
+      <c r="AC49" s="108"/>
+      <c r="AD49" s="108"/>
+      <c r="AE49" s="108"/>
+      <c r="AF49" s="108"/>
+      <c r="AG49" s="108"/>
+      <c r="AH49" s="108"/>
+      <c r="AI49" s="108"/>
+      <c r="AJ49" s="108"/>
     </row>
     <row r="50" spans="2:36">
       <c r="B50" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="123"/>
-      <c r="D50" s="131">
+      <c r="C50" s="117"/>
+      <c r="D50" s="126">
         <f t="shared" ref="D50" si="112">(D49-C49)/C49</f>
         <v>-9.7683346705802296E-2</v>
       </c>
-      <c r="E50" s="131">
+      <c r="E50" s="126">
         <f t="shared" ref="E50" si="113">(E49-D49)/D49</f>
         <v>-1.519534459664802E-3</v>
       </c>
-      <c r="F50" s="131">
+      <c r="F50" s="126">
         <f t="shared" ref="F50" si="114">(F49-E49)/E49</f>
         <v>6.4368489876899485E-2</v>
       </c>
-      <c r="G50" s="131">
+      <c r="G50" s="126">
         <f t="shared" ref="G50" si="115">(G49-F49)/F49</f>
         <v>8.8680124552521764E-2</v>
       </c>
-      <c r="H50" s="131">
+      <c r="H50" s="126">
         <f t="shared" ref="H50" si="116">(H49-G49)/G49</f>
         <v>-6.5968810498973643E-2</v>
       </c>
-      <c r="I50" s="131">
+      <c r="I50" s="126">
         <f t="shared" ref="I50" si="117">(I49-H49)/H49</f>
         <v>0.57878346005624415</v>
       </c>
-      <c r="J50" s="131">
+      <c r="J50" s="126">
         <f t="shared" ref="J50" si="118">(J49-I49)/I49</f>
         <v>-1.5378119660375118E-2</v>
       </c>
-      <c r="K50" s="131">
+      <c r="K50" s="126">
         <f t="shared" ref="K50" si="119">(K49-J49)/J49</f>
         <v>2.7383951543739279E-2</v>
       </c>
-      <c r="L50" s="131">
+      <c r="L50" s="126">
         <f t="shared" ref="L50" si="120">(L49-K49)/K49</f>
         <v>-2.782795839175661E-2</v>
       </c>
-      <c r="M50" s="131">
+      <c r="M50" s="126">
         <f t="shared" ref="M50" si="121">(M49-L49)/L49</f>
         <v>-8.7745190114578587E-3</v>
       </c>
-      <c r="O50" s="109"/>
-      <c r="P50" s="109"/>
-      <c r="Q50" s="109"/>
-      <c r="R50" s="109"/>
-      <c r="S50" s="109"/>
-      <c r="T50" s="109"/>
-      <c r="U50" s="109"/>
-      <c r="V50" s="109"/>
-      <c r="W50" s="109"/>
-      <c r="X50" s="109"/>
-      <c r="Y50" s="109"/>
-      <c r="Z50" s="109"/>
-      <c r="AA50" s="109"/>
-      <c r="AB50" s="109"/>
-      <c r="AC50" s="109"/>
-      <c r="AD50" s="109"/>
-      <c r="AE50" s="109"/>
-      <c r="AF50" s="109"/>
-      <c r="AG50" s="109"/>
-      <c r="AH50" s="109"/>
-      <c r="AI50" s="109"/>
-      <c r="AJ50" s="109"/>
+      <c r="O50" s="108"/>
+      <c r="P50" s="108"/>
+      <c r="Q50" s="108"/>
+      <c r="R50" s="108"/>
+      <c r="S50" s="108"/>
+      <c r="T50" s="108"/>
+      <c r="U50" s="108"/>
+      <c r="V50" s="108"/>
+      <c r="W50" s="108"/>
+      <c r="X50" s="108"/>
+      <c r="Y50" s="108"/>
+      <c r="Z50" s="108"/>
+      <c r="AA50" s="108"/>
+      <c r="AB50" s="108"/>
+      <c r="AC50" s="108"/>
+      <c r="AD50" s="108"/>
+      <c r="AE50" s="108"/>
+      <c r="AF50" s="108"/>
+      <c r="AG50" s="108"/>
+      <c r="AH50" s="108"/>
+      <c r="AI50" s="108"/>
+      <c r="AJ50" s="108"/>
     </row>
     <row r="51" spans="2:36">
-      <c r="C51" s="120"/>
-      <c r="D51" s="120"/>
-      <c r="E51" s="120"/>
-      <c r="F51" s="120"/>
-      <c r="G51" s="120"/>
-      <c r="H51" s="120"/>
-      <c r="I51" s="120"/>
-      <c r="J51" s="120"/>
-      <c r="K51" s="120"/>
-      <c r="L51" s="120"/>
-      <c r="M51" s="120"/>
-      <c r="O51" s="109"/>
-      <c r="P51" s="109"/>
-      <c r="Q51" s="109"/>
-      <c r="R51" s="109"/>
-      <c r="S51" s="109"/>
-      <c r="T51" s="109"/>
-      <c r="U51" s="109"/>
-      <c r="V51" s="109"/>
-      <c r="W51" s="109"/>
-      <c r="X51" s="109"/>
-      <c r="Y51" s="109"/>
-      <c r="Z51" s="109"/>
-      <c r="AA51" s="109"/>
-      <c r="AB51" s="109"/>
-      <c r="AC51" s="109"/>
-      <c r="AD51" s="109"/>
-      <c r="AE51" s="109"/>
-      <c r="AF51" s="109"/>
-      <c r="AG51" s="109"/>
-      <c r="AH51" s="109"/>
-      <c r="AI51" s="109"/>
-      <c r="AJ51" s="109"/>
+      <c r="O51" s="108"/>
+      <c r="P51" s="108"/>
+      <c r="Q51" s="108"/>
+      <c r="R51" s="108"/>
+      <c r="S51" s="108"/>
+      <c r="T51" s="108"/>
+      <c r="U51" s="108"/>
+      <c r="V51" s="108"/>
+      <c r="W51" s="108"/>
+      <c r="X51" s="108"/>
+      <c r="Y51" s="108"/>
+      <c r="Z51" s="108"/>
+      <c r="AA51" s="108"/>
+      <c r="AB51" s="108"/>
+      <c r="AC51" s="108"/>
+      <c r="AD51" s="108"/>
+      <c r="AE51" s="108"/>
+      <c r="AF51" s="108"/>
+      <c r="AG51" s="108"/>
+      <c r="AH51" s="108"/>
+      <c r="AI51" s="108"/>
+      <c r="AJ51" s="108"/>
     </row>
     <row r="52" spans="2:36">
       <c r="B52" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="124">
+      <c r="C52" s="121">
         <v>1</v>
       </c>
-      <c r="D52" s="116">
+      <c r="D52" s="115">
         <f>D46+D49</f>
         <v>107755</v>
       </c>
-      <c r="E52" s="116">
+      <c r="E52" s="115">
         <f t="shared" ref="E52:M52" si="122">E46+E49</f>
         <v>106118</v>
       </c>
-      <c r="F52" s="116">
+      <c r="F52" s="115">
         <f t="shared" si="122"/>
         <v>112596</v>
       </c>
-      <c r="G52" s="116">
+      <c r="G52" s="115">
         <f t="shared" si="122"/>
         <v>124326</v>
       </c>
-      <c r="H52" s="116">
+      <c r="H52" s="115">
         <f t="shared" si="122"/>
         <v>118003</v>
       </c>
-      <c r="I52" s="116">
+      <c r="I52" s="115">
         <f t="shared" si="122"/>
         <v>179182</v>
       </c>
-      <c r="J52" s="116">
+      <c r="J52" s="115">
         <f t="shared" si="122"/>
         <v>179540</v>
       </c>
-      <c r="K52" s="116">
+      <c r="K52" s="115">
         <f t="shared" si="122"/>
         <v>182131</v>
       </c>
-      <c r="L52" s="116">
+      <c r="L52" s="115">
         <f t="shared" si="122"/>
         <v>178416</v>
       </c>
-      <c r="M52" s="116">
+      <c r="M52" s="115">
         <f t="shared" si="122"/>
         <v>175647</v>
       </c>
-      <c r="O52" s="109"/>
-      <c r="P52" s="109"/>
-      <c r="Q52" s="109"/>
-      <c r="R52" s="109"/>
-      <c r="S52" s="109"/>
-      <c r="T52" s="109"/>
-      <c r="U52" s="109"/>
-      <c r="V52" s="109"/>
-      <c r="W52" s="109"/>
-      <c r="X52" s="109"/>
-      <c r="Y52" s="109"/>
-      <c r="Z52" s="109"/>
-      <c r="AA52" s="109"/>
-      <c r="AB52" s="109"/>
-      <c r="AC52" s="109"/>
-      <c r="AD52" s="109"/>
-      <c r="AE52" s="109"/>
-      <c r="AF52" s="109"/>
-      <c r="AG52" s="109"/>
-      <c r="AH52" s="109"/>
-      <c r="AI52" s="109"/>
-      <c r="AJ52" s="109"/>
+      <c r="O52" s="108"/>
+      <c r="P52" s="108"/>
+      <c r="Q52" s="108"/>
+      <c r="R52" s="108"/>
+      <c r="S52" s="108"/>
+      <c r="T52" s="108"/>
+      <c r="U52" s="108"/>
+      <c r="V52" s="108"/>
+      <c r="W52" s="108"/>
+      <c r="X52" s="108"/>
+      <c r="Y52" s="108"/>
+      <c r="Z52" s="108"/>
+      <c r="AA52" s="108"/>
+      <c r="AB52" s="108"/>
+      <c r="AC52" s="108"/>
+      <c r="AD52" s="108"/>
+      <c r="AE52" s="108"/>
+      <c r="AF52" s="108"/>
+      <c r="AG52" s="108"/>
+      <c r="AH52" s="108"/>
+      <c r="AI52" s="108"/>
+      <c r="AJ52" s="108"/>
     </row>
     <row r="53" spans="2:36">
       <c r="B53" s="18"/>
-      <c r="C53" s="123"/>
-      <c r="D53" s="120"/>
-      <c r="E53" s="120"/>
-      <c r="F53" s="120"/>
-      <c r="G53" s="120"/>
-      <c r="H53" s="120"/>
-      <c r="I53" s="120"/>
-      <c r="J53" s="120"/>
-      <c r="K53" s="120"/>
-      <c r="L53" s="120"/>
-      <c r="M53" s="120"/>
-      <c r="O53" s="109"/>
-      <c r="P53" s="109"/>
-      <c r="Q53" s="109"/>
-      <c r="R53" s="109"/>
-      <c r="S53" s="109"/>
-      <c r="T53" s="109"/>
-      <c r="U53" s="109"/>
-      <c r="V53" s="109"/>
-      <c r="W53" s="109"/>
-      <c r="X53" s="109"/>
-      <c r="Y53" s="109"/>
-      <c r="Z53" s="109"/>
-      <c r="AA53" s="109"/>
-      <c r="AB53" s="109"/>
-      <c r="AC53" s="109"/>
-      <c r="AD53" s="109"/>
-      <c r="AE53" s="109"/>
-      <c r="AF53" s="109"/>
-      <c r="AG53" s="109"/>
-      <c r="AH53" s="109"/>
-      <c r="AI53" s="109"/>
-      <c r="AJ53" s="109"/>
+      <c r="C53" s="117"/>
+      <c r="O53" s="108"/>
+      <c r="P53" s="108"/>
+      <c r="Q53" s="108"/>
+      <c r="R53" s="108"/>
+      <c r="S53" s="108"/>
+      <c r="T53" s="108"/>
+      <c r="U53" s="108"/>
+      <c r="V53" s="108"/>
+      <c r="W53" s="108"/>
+      <c r="X53" s="108"/>
+      <c r="Y53" s="108"/>
+      <c r="Z53" s="108"/>
+      <c r="AA53" s="108"/>
+      <c r="AB53" s="108"/>
+      <c r="AC53" s="108"/>
+      <c r="AD53" s="108"/>
+      <c r="AE53" s="108"/>
+      <c r="AF53" s="108"/>
+      <c r="AG53" s="108"/>
+      <c r="AH53" s="108"/>
+      <c r="AI53" s="108"/>
+      <c r="AJ53" s="108"/>
     </row>
     <row r="54" spans="2:36">
       <c r="B54" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="124">
+      <c r="C54" s="121">
         <v>1</v>
       </c>
-      <c r="D54" s="115">
+      <c r="D54" s="114">
         <f>D44-D52</f>
         <v>51058</v>
       </c>
-      <c r="E54" s="115">
+      <c r="E54" s="114">
         <f t="shared" ref="E54:M54" si="123">E44-E52</f>
         <v>53068</v>
       </c>
-      <c r="F54" s="115">
+      <c r="F54" s="114">
         <f t="shared" si="123"/>
         <v>53978</v>
       </c>
-      <c r="G54" s="115">
+      <c r="G54" s="114">
         <f t="shared" si="123"/>
         <v>56174</v>
       </c>
-      <c r="H54" s="115">
+      <c r="H54" s="114">
         <f t="shared" si="123"/>
         <v>69459</v>
       </c>
-      <c r="I54" s="115">
+      <c r="I54" s="114">
         <f t="shared" si="123"/>
         <v>72502</v>
       </c>
-      <c r="J54" s="115">
+      <c r="J54" s="114">
         <f t="shared" si="123"/>
         <v>83874</v>
       </c>
-      <c r="K54" s="115">
+      <c r="K54" s="114">
         <f t="shared" si="123"/>
         <v>91738</v>
       </c>
-      <c r="L54" s="115">
+      <c r="L54" s="114">
         <f t="shared" si="123"/>
         <v>97489</v>
       </c>
-      <c r="M54" s="115">
+      <c r="M54" s="114">
         <f t="shared" si="123"/>
         <v>81628</v>
       </c>
-      <c r="O54" s="109"/>
-      <c r="P54" s="109"/>
-      <c r="Q54" s="109"/>
-      <c r="R54" s="109"/>
-      <c r="S54" s="109"/>
-      <c r="T54" s="109"/>
-      <c r="U54" s="109"/>
-      <c r="V54" s="109"/>
-      <c r="W54" s="109"/>
-      <c r="X54" s="109"/>
-      <c r="Y54" s="109"/>
-      <c r="Z54" s="109"/>
-      <c r="AA54" s="109"/>
-      <c r="AB54" s="109"/>
-      <c r="AC54" s="109"/>
-      <c r="AD54" s="109"/>
-      <c r="AE54" s="109"/>
-      <c r="AF54" s="109"/>
-      <c r="AG54" s="109"/>
-      <c r="AH54" s="109"/>
-      <c r="AI54" s="109"/>
-      <c r="AJ54" s="109"/>
+      <c r="O54" s="108"/>
+      <c r="P54" s="108"/>
+      <c r="Q54" s="108"/>
+      <c r="R54" s="108"/>
+      <c r="S54" s="108"/>
+      <c r="T54" s="108"/>
+      <c r="U54" s="108"/>
+      <c r="V54" s="108"/>
+      <c r="W54" s="108"/>
+      <c r="X54" s="108"/>
+      <c r="Y54" s="108"/>
+      <c r="Z54" s="108"/>
+      <c r="AA54" s="108"/>
+      <c r="AB54" s="108"/>
+      <c r="AC54" s="108"/>
+      <c r="AD54" s="108"/>
+      <c r="AE54" s="108"/>
+      <c r="AF54" s="108"/>
+      <c r="AG54" s="108"/>
+      <c r="AH54" s="108"/>
+      <c r="AI54" s="108"/>
+      <c r="AJ54" s="108"/>
     </row>
     <row r="55" spans="2:36">
-      <c r="O55" s="109"/>
-      <c r="P55" s="109"/>
-      <c r="Q55" s="109"/>
-      <c r="R55" s="109"/>
-      <c r="S55" s="109"/>
-      <c r="T55" s="109"/>
-      <c r="U55" s="109"/>
-      <c r="V55" s="109"/>
-      <c r="W55" s="109"/>
-      <c r="X55" s="109"/>
-      <c r="Y55" s="109"/>
-      <c r="Z55" s="109"/>
-      <c r="AA55" s="109"/>
-      <c r="AB55" s="109"/>
-      <c r="AC55" s="109"/>
-      <c r="AD55" s="109"/>
-      <c r="AE55" s="109"/>
-      <c r="AF55" s="109"/>
-      <c r="AG55" s="109"/>
-      <c r="AH55" s="109"/>
-      <c r="AI55" s="109"/>
-      <c r="AJ55" s="109"/>
+      <c r="O55" s="108"/>
+      <c r="P55" s="108"/>
+      <c r="Q55" s="108"/>
+      <c r="R55" s="108"/>
+      <c r="S55" s="108"/>
+      <c r="T55" s="108"/>
+      <c r="U55" s="108"/>
+      <c r="V55" s="108"/>
+      <c r="W55" s="108"/>
+      <c r="X55" s="108"/>
+      <c r="Y55" s="108"/>
+      <c r="Z55" s="108"/>
+      <c r="AA55" s="108"/>
+      <c r="AB55" s="108"/>
+      <c r="AC55" s="108"/>
+      <c r="AD55" s="108"/>
+      <c r="AE55" s="108"/>
+      <c r="AF55" s="108"/>
+      <c r="AG55" s="108"/>
+      <c r="AH55" s="108"/>
+      <c r="AI55" s="108"/>
+      <c r="AJ55" s="108"/>
     </row>
     <row r="56" spans="2:36">
-      <c r="O56" s="109"/>
-      <c r="P56" s="109"/>
-      <c r="Q56" s="109"/>
-      <c r="R56" s="109"/>
-      <c r="S56" s="109"/>
-      <c r="T56" s="109"/>
-      <c r="U56" s="109"/>
-      <c r="V56" s="109"/>
-      <c r="W56" s="109"/>
-      <c r="X56" s="109"/>
-      <c r="Y56" s="109"/>
-      <c r="Z56" s="109"/>
-      <c r="AA56" s="109"/>
-      <c r="AB56" s="109"/>
-      <c r="AC56" s="109"/>
-      <c r="AD56" s="109"/>
-      <c r="AE56" s="109"/>
-      <c r="AF56" s="109"/>
-      <c r="AG56" s="109"/>
-      <c r="AH56" s="109"/>
-      <c r="AI56" s="109"/>
-      <c r="AJ56" s="109"/>
+      <c r="O56" s="108"/>
+      <c r="P56" s="108"/>
+      <c r="Q56" s="108"/>
+      <c r="R56" s="108"/>
+      <c r="S56" s="108"/>
+      <c r="T56" s="108"/>
+      <c r="U56" s="108"/>
+      <c r="V56" s="108"/>
+      <c r="W56" s="108"/>
+      <c r="X56" s="108"/>
+      <c r="Y56" s="108"/>
+      <c r="Z56" s="108"/>
+      <c r="AA56" s="108"/>
+      <c r="AB56" s="108"/>
+      <c r="AC56" s="108"/>
+      <c r="AD56" s="108"/>
+      <c r="AE56" s="108"/>
+      <c r="AF56" s="108"/>
+      <c r="AG56" s="108"/>
+      <c r="AH56" s="108"/>
+      <c r="AI56" s="108"/>
+      <c r="AJ56" s="108"/>
     </row>
     <row r="57" spans="2:36">
-      <c r="O57" s="109"/>
-      <c r="P57" s="109"/>
-      <c r="Q57" s="109"/>
-      <c r="R57" s="109"/>
-      <c r="S57" s="109"/>
-      <c r="T57" s="109"/>
-      <c r="U57" s="109"/>
-      <c r="V57" s="109"/>
-      <c r="W57" s="109"/>
-      <c r="X57" s="109"/>
-      <c r="Y57" s="109"/>
-      <c r="Z57" s="109"/>
-      <c r="AA57" s="109"/>
-      <c r="AB57" s="109"/>
-      <c r="AC57" s="109"/>
-      <c r="AD57" s="109"/>
-      <c r="AE57" s="109"/>
-      <c r="AF57" s="109"/>
-      <c r="AG57" s="109"/>
-      <c r="AH57" s="109"/>
-      <c r="AI57" s="109"/>
-      <c r="AJ57" s="109"/>
+      <c r="O57" s="108"/>
+      <c r="P57" s="108"/>
+      <c r="Q57" s="108"/>
+      <c r="R57" s="108"/>
+      <c r="S57" s="108"/>
+      <c r="T57" s="108"/>
+      <c r="U57" s="108"/>
+      <c r="V57" s="108"/>
+      <c r="W57" s="108"/>
+      <c r="X57" s="108"/>
+      <c r="Y57" s="108"/>
+      <c r="Z57" s="108"/>
+      <c r="AA57" s="108"/>
+      <c r="AB57" s="108"/>
+      <c r="AC57" s="108"/>
+      <c r="AD57" s="108"/>
+      <c r="AE57" s="108"/>
+      <c r="AF57" s="108"/>
+      <c r="AG57" s="108"/>
+      <c r="AH57" s="108"/>
+      <c r="AI57" s="108"/>
+      <c r="AJ57" s="108"/>
     </row>
     <row r="58" spans="2:36">
-      <c r="O58" s="109"/>
-      <c r="P58" s="109"/>
-      <c r="Q58" s="109"/>
-      <c r="R58" s="109"/>
-      <c r="S58" s="109"/>
-      <c r="T58" s="109"/>
-      <c r="U58" s="109"/>
-      <c r="V58" s="109"/>
-      <c r="W58" s="109"/>
-      <c r="X58" s="109"/>
-      <c r="Y58" s="109"/>
-      <c r="Z58" s="109"/>
-      <c r="AA58" s="109"/>
-      <c r="AB58" s="109"/>
-      <c r="AC58" s="109"/>
-      <c r="AD58" s="109"/>
-      <c r="AE58" s="109"/>
-      <c r="AF58" s="109"/>
-      <c r="AG58" s="109"/>
-      <c r="AH58" s="109"/>
-      <c r="AI58" s="109"/>
-      <c r="AJ58" s="109"/>
+      <c r="O58" s="108"/>
+      <c r="P58" s="108"/>
+      <c r="Q58" s="108"/>
+      <c r="R58" s="108"/>
+      <c r="S58" s="108"/>
+      <c r="T58" s="108"/>
+      <c r="U58" s="108"/>
+      <c r="V58" s="108"/>
+      <c r="W58" s="108"/>
+      <c r="X58" s="108"/>
+      <c r="Y58" s="108"/>
+      <c r="Z58" s="108"/>
+      <c r="AA58" s="108"/>
+      <c r="AB58" s="108"/>
+      <c r="AC58" s="108"/>
+      <c r="AD58" s="108"/>
+      <c r="AE58" s="108"/>
+      <c r="AF58" s="108"/>
+      <c r="AG58" s="108"/>
+      <c r="AH58" s="108"/>
+      <c r="AI58" s="108"/>
+      <c r="AJ58" s="108"/>
     </row>
     <row r="59" spans="2:36" ht="17.5" thickBot="1">
       <c r="B59" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C59" s="112"/>
-      <c r="D59" s="112">
+      <c r="C59" s="111"/>
+      <c r="D59" s="111">
         <v>2013</v>
       </c>
-      <c r="E59" s="112">
+      <c r="E59" s="111">
         <v>2014</v>
       </c>
-      <c r="F59" s="112">
+      <c r="F59" s="111">
         <v>2015</v>
       </c>
-      <c r="G59" s="112">
+      <c r="G59" s="111">
         <v>2016</v>
       </c>
-      <c r="H59" s="112">
+      <c r="H59" s="111">
         <v>2017</v>
       </c>
-      <c r="I59" s="112">
+      <c r="I59" s="111">
         <v>2018</v>
       </c>
-      <c r="J59" s="112">
+      <c r="J59" s="111">
         <v>2019</v>
       </c>
-      <c r="K59" s="112">
+      <c r="K59" s="111">
         <v>2020</v>
       </c>
-      <c r="L59" s="112">
+      <c r="L59" s="111">
         <v>2021</v>
       </c>
-      <c r="M59" s="112">
+      <c r="M59" s="111">
         <v>2022</v>
       </c>
-      <c r="O59" s="109"/>
-      <c r="P59" s="109"/>
-      <c r="Q59" s="109"/>
-      <c r="R59" s="109"/>
-      <c r="S59" s="109"/>
-      <c r="T59" s="109"/>
-      <c r="U59" s="109"/>
-      <c r="V59" s="109"/>
-      <c r="W59" s="109"/>
-      <c r="X59" s="109"/>
-      <c r="Y59" s="109"/>
-      <c r="Z59" s="109"/>
-      <c r="AA59" s="109"/>
-      <c r="AB59" s="109"/>
-      <c r="AC59" s="109"/>
-      <c r="AD59" s="109"/>
-      <c r="AE59" s="109"/>
-      <c r="AF59" s="109"/>
-      <c r="AG59" s="109"/>
-      <c r="AH59" s="109"/>
-      <c r="AI59" s="109"/>
-      <c r="AJ59" s="109"/>
+      <c r="O59" s="108"/>
+      <c r="P59" s="108"/>
+      <c r="Q59" s="108"/>
+      <c r="R59" s="108"/>
+      <c r="S59" s="108"/>
+      <c r="T59" s="108"/>
+      <c r="U59" s="108"/>
+      <c r="V59" s="108"/>
+      <c r="W59" s="108"/>
+      <c r="X59" s="108"/>
+      <c r="Y59" s="108"/>
+      <c r="Z59" s="108"/>
+      <c r="AA59" s="108"/>
+      <c r="AB59" s="108"/>
+      <c r="AC59" s="108"/>
+      <c r="AD59" s="108"/>
+      <c r="AE59" s="108"/>
+      <c r="AF59" s="108"/>
+      <c r="AG59" s="108"/>
+      <c r="AH59" s="108"/>
+      <c r="AI59" s="108"/>
+      <c r="AJ59" s="108"/>
     </row>
     <row r="60" spans="2:36" ht="15" thickTop="1">
       <c r="B60" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C60" s="118"/>
-      <c r="D60" s="136">
+      <c r="C60" s="117"/>
+      <c r="D60" s="131">
         <f>D6/D3</f>
         <v>0.10541782018961597</v>
       </c>
-      <c r="E60" s="136">
+      <c r="E60" s="131">
         <f t="shared" ref="E60:M60" si="124">E6/E3</f>
         <v>0.12184660123591422</v>
       </c>
-      <c r="F60" s="136">
+      <c r="F60" s="131">
         <f t="shared" si="124"/>
         <v>0.10955576432693598</v>
       </c>
-      <c r="G60" s="136">
+      <c r="G60" s="131">
         <f t="shared" si="124"/>
         <v>0.10748612762584225</v>
       </c>
-      <c r="H60" s="136">
+      <c r="H60" s="131">
         <f>H6/H3</f>
         <v>0.26737936468734197</v>
       </c>
-      <c r="I60" s="136">
+      <c r="I60" s="131">
         <f t="shared" si="124"/>
         <v>0.12412837144338515</v>
       </c>
-      <c r="J60" s="136">
+      <c r="J60" s="131">
         <f t="shared" si="124"/>
         <v>0.11985276569183602</v>
       </c>
-      <c r="K60" s="136">
+      <c r="K60" s="131">
         <f>K6/K3</f>
         <v>0.10171488161909543</v>
       </c>
-      <c r="L60" s="136">
+      <c r="L60" s="131">
         <f>L6/L3</f>
         <v>0.12165657086394295</v>
       </c>
-      <c r="M60" s="136">
+      <c r="M60" s="131">
         <f t="shared" si="124"/>
         <v>4.4224101723669362E-2</v>
       </c>
-      <c r="O60" s="109"/>
-      <c r="P60" s="109"/>
-      <c r="Q60" s="109"/>
-      <c r="R60" s="109"/>
-      <c r="S60" s="109"/>
-      <c r="T60" s="109"/>
-      <c r="U60" s="109"/>
-      <c r="V60" s="109"/>
-      <c r="W60" s="109"/>
-      <c r="X60" s="109"/>
-      <c r="Y60" s="109"/>
-      <c r="Z60" s="109"/>
-      <c r="AA60" s="109"/>
-      <c r="AB60" s="109"/>
-      <c r="AC60" s="109"/>
-      <c r="AD60" s="109"/>
-      <c r="AE60" s="109"/>
-      <c r="AF60" s="109"/>
-      <c r="AG60" s="109"/>
-      <c r="AH60" s="109"/>
-      <c r="AI60" s="109"/>
-      <c r="AJ60" s="109"/>
+      <c r="O60" s="108"/>
+      <c r="P60" s="108"/>
+      <c r="Q60" s="108"/>
+      <c r="R60" s="108"/>
+      <c r="S60" s="108"/>
+      <c r="T60" s="108"/>
+      <c r="U60" s="108"/>
+      <c r="V60" s="108"/>
+      <c r="W60" s="108"/>
+      <c r="X60" s="108"/>
+      <c r="Y60" s="108"/>
+      <c r="Z60" s="108"/>
+      <c r="AA60" s="108"/>
+      <c r="AB60" s="108"/>
+      <c r="AC60" s="108"/>
+      <c r="AD60" s="108"/>
+      <c r="AE60" s="108"/>
+      <c r="AF60" s="108"/>
+      <c r="AG60" s="108"/>
+      <c r="AH60" s="108"/>
+      <c r="AI60" s="108"/>
+      <c r="AJ60" s="108"/>
     </row>
     <row r="61" spans="2:36">
       <c r="B61" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C61" s="118"/>
-      <c r="D61" s="136">
+      <c r="C61" s="117"/>
+      <c r="D61" s="131">
         <f t="shared" ref="D61:M61" si="125">D9/D3</f>
         <v>0.33150316284393028</v>
       </c>
-      <c r="E61" s="136">
+      <c r="E61" s="131">
         <f t="shared" si="125"/>
         <v>0.33330425299890948</v>
       </c>
-      <c r="F61" s="136">
+      <c r="F61" s="131">
         <f t="shared" si="125"/>
         <v>0.33120386525298617</v>
       </c>
-      <c r="G61" s="136">
+      <c r="G61" s="131">
         <f t="shared" si="125"/>
         <v>0.32522047166072138</v>
       </c>
-      <c r="H61" s="136">
+      <c r="H61" s="131">
         <f t="shared" si="125"/>
         <v>0.32584177163085537</v>
       </c>
-      <c r="I61" s="136">
+      <c r="I61" s="131">
         <f t="shared" si="125"/>
         <v>0.31410371718497043</v>
       </c>
-      <c r="J61" s="136">
+      <c r="J61" s="131">
         <f t="shared" si="125"/>
         <v>0.31280865047456446</v>
       </c>
-      <c r="K61" s="136">
+      <c r="K61" s="131">
         <f>K9/K3</f>
         <v>0.29540187710015064</v>
       </c>
-      <c r="L61" s="136">
+      <c r="L61" s="131">
         <f t="shared" si="125"/>
         <v>0.29746960518967219</v>
       </c>
-      <c r="M61" s="136">
+      <c r="M61" s="131">
         <f t="shared" si="125"/>
         <v>0.2294547341200886</v>
       </c>
-      <c r="O61" s="109"/>
-      <c r="P61" s="109"/>
-      <c r="Q61" s="109"/>
-      <c r="R61" s="109"/>
-      <c r="S61" s="109"/>
-      <c r="T61" s="109"/>
-      <c r="U61" s="109"/>
-      <c r="V61" s="109"/>
-      <c r="W61" s="109"/>
-      <c r="X61" s="109"/>
-      <c r="Y61" s="109"/>
-      <c r="Z61" s="109"/>
-      <c r="AA61" s="109"/>
-      <c r="AB61" s="109"/>
-      <c r="AC61" s="109"/>
-      <c r="AD61" s="109"/>
-      <c r="AE61" s="109"/>
-      <c r="AF61" s="109"/>
-      <c r="AG61" s="109"/>
-      <c r="AH61" s="109"/>
-      <c r="AI61" s="109"/>
-      <c r="AJ61" s="109"/>
+      <c r="O61" s="108"/>
+      <c r="P61" s="108"/>
+      <c r="Q61" s="108"/>
+      <c r="R61" s="108"/>
+      <c r="S61" s="108"/>
+      <c r="T61" s="108"/>
+      <c r="U61" s="108"/>
+      <c r="V61" s="108"/>
+      <c r="W61" s="108"/>
+      <c r="X61" s="108"/>
+      <c r="Y61" s="108"/>
+      <c r="Z61" s="108"/>
+      <c r="AA61" s="108"/>
+      <c r="AB61" s="108"/>
+      <c r="AC61" s="108"/>
+      <c r="AD61" s="108"/>
+      <c r="AE61" s="108"/>
+      <c r="AF61" s="108"/>
+      <c r="AG61" s="108"/>
+      <c r="AH61" s="108"/>
+      <c r="AI61" s="108"/>
+      <c r="AJ61" s="108"/>
     </row>
     <row r="62" spans="2:36">
       <c r="B62" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C62" s="118"/>
-      <c r="D62" s="136">
+      <c r="C62" s="117"/>
+      <c r="D62" s="131">
         <f t="shared" ref="D62:L62" si="126">D28/D3</f>
         <v>5.6931190745008277E-2</v>
       </c>
-      <c r="E62" s="136">
+      <c r="E62" s="131">
         <f t="shared" si="126"/>
         <v>0.11360232642675391</v>
       </c>
-      <c r="F62" s="136">
+      <c r="F62" s="131">
         <f t="shared" si="126"/>
         <v>0.10861629311501812</v>
       </c>
-      <c r="G62" s="136">
+      <c r="G62" s="131">
         <f t="shared" si="126"/>
         <v>9.5087693222354344E-2</v>
       </c>
-      <c r="H62" s="136">
+      <c r="H62" s="131">
         <f t="shared" si="126"/>
         <v>0.11003304754848346</v>
       </c>
-      <c r="I62" s="136">
+      <c r="I62" s="131">
         <f t="shared" si="126"/>
         <v>8.0988709831017802E-2</v>
       </c>
-      <c r="J62" s="136">
+      <c r="J62" s="131">
         <f t="shared" si="126"/>
         <v>8.1318499752161696E-2</v>
       </c>
-      <c r="K62" s="136">
+      <c r="K62" s="131">
         <f t="shared" si="126"/>
         <v>7.689930864006797E-2</v>
       </c>
-      <c r="L62" s="136">
+      <c r="L62" s="131">
         <f t="shared" si="126"/>
         <v>0.11418997293465653</v>
       </c>
-      <c r="M62" s="136">
+      <c r="M62" s="131">
         <f>M28/M3</f>
         <v>9.1857659334414921E-2</v>
       </c>
-      <c r="O62" s="109"/>
-      <c r="P62" s="109"/>
-      <c r="Q62" s="109"/>
-      <c r="R62" s="109"/>
-      <c r="S62" s="109"/>
-      <c r="T62" s="109"/>
-      <c r="U62" s="109"/>
-      <c r="V62" s="109"/>
-      <c r="W62" s="109"/>
-      <c r="X62" s="109"/>
-      <c r="Y62" s="109"/>
-      <c r="Z62" s="109"/>
-      <c r="AA62" s="109"/>
-      <c r="AB62" s="109"/>
-      <c r="AC62" s="109"/>
-      <c r="AD62" s="109"/>
-      <c r="AE62" s="109"/>
-      <c r="AF62" s="109"/>
-      <c r="AG62" s="109"/>
-      <c r="AH62" s="109"/>
-      <c r="AI62" s="109"/>
-      <c r="AJ62" s="109"/>
+      <c r="O62" s="108"/>
+      <c r="P62" s="108"/>
+      <c r="Q62" s="108"/>
+      <c r="R62" s="108"/>
+      <c r="S62" s="108"/>
+      <c r="T62" s="108"/>
+      <c r="U62" s="108"/>
+      <c r="V62" s="108"/>
+      <c r="W62" s="108"/>
+      <c r="X62" s="108"/>
+      <c r="Y62" s="108"/>
+      <c r="Z62" s="108"/>
+      <c r="AA62" s="108"/>
+      <c r="AB62" s="108"/>
+      <c r="AC62" s="108"/>
+      <c r="AD62" s="108"/>
+      <c r="AE62" s="108"/>
+      <c r="AF62" s="108"/>
+      <c r="AG62" s="108"/>
+      <c r="AH62" s="108"/>
+      <c r="AI62" s="108"/>
+      <c r="AJ62" s="108"/>
     </row>
     <row r="63" spans="2:36">
-      <c r="O63" s="109"/>
-      <c r="P63" s="109"/>
-      <c r="Q63" s="109"/>
-      <c r="R63" s="109"/>
-      <c r="S63" s="109"/>
-      <c r="T63" s="109"/>
-      <c r="U63" s="109"/>
-      <c r="V63" s="109"/>
-      <c r="W63" s="109"/>
-      <c r="X63" s="109"/>
-      <c r="Y63" s="109"/>
-      <c r="Z63" s="109"/>
-      <c r="AA63" s="109"/>
-      <c r="AB63" s="109"/>
-      <c r="AC63" s="109"/>
-      <c r="AD63" s="109"/>
-      <c r="AE63" s="109"/>
-      <c r="AF63" s="109"/>
-      <c r="AG63" s="109"/>
-      <c r="AH63" s="109"/>
-      <c r="AI63" s="109"/>
-      <c r="AJ63" s="109"/>
+      <c r="O63" s="108"/>
+      <c r="P63" s="108"/>
+      <c r="Q63" s="108"/>
+      <c r="R63" s="108"/>
+      <c r="S63" s="108"/>
+      <c r="T63" s="108"/>
+      <c r="U63" s="108"/>
+      <c r="V63" s="108"/>
+      <c r="W63" s="108"/>
+      <c r="X63" s="108"/>
+      <c r="Y63" s="108"/>
+      <c r="Z63" s="108"/>
+      <c r="AA63" s="108"/>
+      <c r="AB63" s="108"/>
+      <c r="AC63" s="108"/>
+      <c r="AD63" s="108"/>
+      <c r="AE63" s="108"/>
+      <c r="AF63" s="108"/>
+      <c r="AG63" s="108"/>
+      <c r="AH63" s="108"/>
+      <c r="AI63" s="108"/>
+      <c r="AJ63" s="108"/>
     </row>
     <row r="64" spans="2:36" ht="17.5" thickBot="1">
       <c r="B64" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C64" s="112"/>
-      <c r="D64" s="112">
+      <c r="C64" s="111"/>
+      <c r="D64" s="111">
         <v>2013</v>
       </c>
-      <c r="E64" s="112">
+      <c r="E64" s="111">
         <v>2014</v>
       </c>
-      <c r="F64" s="112">
+      <c r="F64" s="111">
         <v>2015</v>
       </c>
-      <c r="G64" s="112">
+      <c r="G64" s="111">
         <v>2016</v>
       </c>
-      <c r="H64" s="112">
+      <c r="H64" s="111">
         <v>2017</v>
       </c>
-      <c r="I64" s="112">
+      <c r="I64" s="111">
         <v>2018</v>
       </c>
-      <c r="J64" s="112">
+      <c r="J64" s="111">
         <v>2019</v>
       </c>
-      <c r="K64" s="112">
+      <c r="K64" s="111">
         <v>2020</v>
       </c>
-      <c r="L64" s="112">
+      <c r="L64" s="111">
         <v>2021</v>
       </c>
-      <c r="M64" s="112">
+      <c r="M64" s="111">
         <v>2022</v>
       </c>
-      <c r="O64" s="109"/>
-      <c r="P64" s="109"/>
-      <c r="Q64" s="109"/>
-      <c r="R64" s="109"/>
-      <c r="S64" s="109"/>
-      <c r="T64" s="109"/>
-      <c r="U64" s="109"/>
-      <c r="V64" s="109"/>
-      <c r="W64" s="109"/>
-      <c r="X64" s="109"/>
-      <c r="Y64" s="109"/>
-      <c r="Z64" s="109"/>
-      <c r="AA64" s="109"/>
-      <c r="AB64" s="109"/>
-      <c r="AC64" s="109"/>
-      <c r="AD64" s="109"/>
-      <c r="AE64" s="109"/>
-      <c r="AF64" s="109"/>
-      <c r="AG64" s="109"/>
-      <c r="AH64" s="109"/>
-      <c r="AI64" s="109"/>
-      <c r="AJ64" s="109"/>
+      <c r="O64" s="108"/>
+      <c r="P64" s="108"/>
+      <c r="Q64" s="108"/>
+      <c r="R64" s="108"/>
+      <c r="S64" s="108"/>
+      <c r="T64" s="108"/>
+      <c r="U64" s="108"/>
+      <c r="V64" s="108"/>
+      <c r="W64" s="108"/>
+      <c r="X64" s="108"/>
+      <c r="Y64" s="108"/>
+      <c r="Z64" s="108"/>
+      <c r="AA64" s="108"/>
+      <c r="AB64" s="108"/>
+      <c r="AC64" s="108"/>
+      <c r="AD64" s="108"/>
+      <c r="AE64" s="108"/>
+      <c r="AF64" s="108"/>
+      <c r="AG64" s="108"/>
+      <c r="AH64" s="108"/>
+      <c r="AI64" s="108"/>
+      <c r="AJ64" s="108"/>
     </row>
     <row r="65" spans="2:36" ht="15" thickTop="1">
       <c r="B65" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C65" s="121"/>
-      <c r="D65" s="136">
+      <c r="C65" s="119"/>
+      <c r="D65" s="131">
         <f t="shared" ref="D65:M65" si="127">D31/D6</f>
         <v>0.28814553990610331</v>
       </c>
-      <c r="E65" s="136">
+      <c r="E65" s="131">
         <f t="shared" si="127"/>
         <v>0.26897374701670645</v>
       </c>
-      <c r="F65" s="136">
+      <c r="F65" s="131">
         <f t="shared" si="127"/>
         <v>0.29854220262158521</v>
       </c>
-      <c r="G65" s="136">
+      <c r="G65" s="131">
         <f t="shared" si="127"/>
         <v>0.29972343858031802</v>
       </c>
-      <c r="H65" s="136">
+      <c r="H65" s="131">
         <f t="shared" si="127"/>
         <v>0.12680888497910711</v>
       </c>
-      <c r="I65" s="136">
+      <c r="I65" s="131">
         <f t="shared" si="127"/>
         <v>0.28573864120705822</v>
       </c>
-      <c r="J65" s="136">
+      <c r="J65" s="131">
         <f t="shared" si="127"/>
         <v>0.28605345791529446</v>
       </c>
-      <c r="K65" s="136">
+      <c r="K65" s="131">
         <f t="shared" si="127"/>
         <v>0.3930131004366812</v>
       </c>
-      <c r="L65" s="136">
+      <c r="L65" s="131">
         <f t="shared" si="127"/>
         <v>0.32007910163147113</v>
       </c>
-      <c r="M65" s="136">
+      <c r="M65" s="131">
         <f t="shared" si="127"/>
         <v>0.88286778398510246</v>
       </c>
-      <c r="O65" s="109"/>
-      <c r="P65" s="109"/>
-      <c r="Q65" s="109"/>
-      <c r="R65" s="109"/>
-      <c r="S65" s="109"/>
-      <c r="T65" s="109"/>
-      <c r="U65" s="109"/>
-      <c r="V65" s="109"/>
-      <c r="W65" s="109"/>
-      <c r="X65" s="109"/>
-      <c r="Y65" s="109"/>
-      <c r="Z65" s="109"/>
-      <c r="AA65" s="109"/>
-      <c r="AB65" s="109"/>
-      <c r="AC65" s="109"/>
-      <c r="AD65" s="109"/>
-      <c r="AE65" s="109"/>
-      <c r="AF65" s="109"/>
-      <c r="AG65" s="109"/>
-      <c r="AH65" s="109"/>
-      <c r="AI65" s="109"/>
-      <c r="AJ65" s="109"/>
+      <c r="O65" s="108"/>
+      <c r="P65" s="108"/>
+      <c r="Q65" s="108"/>
+      <c r="R65" s="108"/>
+      <c r="S65" s="108"/>
+      <c r="T65" s="108"/>
+      <c r="U65" s="108"/>
+      <c r="V65" s="108"/>
+      <c r="W65" s="108"/>
+      <c r="X65" s="108"/>
+      <c r="Y65" s="108"/>
+      <c r="Z65" s="108"/>
+      <c r="AA65" s="108"/>
+      <c r="AB65" s="108"/>
+      <c r="AC65" s="108"/>
+      <c r="AD65" s="108"/>
+      <c r="AE65" s="108"/>
+      <c r="AF65" s="108"/>
+      <c r="AG65" s="108"/>
+      <c r="AH65" s="108"/>
+      <c r="AI65" s="108"/>
+      <c r="AJ65" s="108"/>
     </row>
     <row r="66" spans="2:36">
-      <c r="O66" s="109"/>
-      <c r="P66" s="109"/>
-      <c r="Q66" s="109"/>
-      <c r="R66" s="109"/>
-      <c r="S66" s="109"/>
-      <c r="T66" s="109"/>
-      <c r="U66" s="109"/>
-      <c r="V66" s="109"/>
-      <c r="W66" s="109"/>
-      <c r="X66" s="109"/>
-      <c r="Y66" s="109"/>
-      <c r="Z66" s="109"/>
-      <c r="AA66" s="109"/>
-      <c r="AB66" s="109"/>
-      <c r="AC66" s="109"/>
-      <c r="AD66" s="109"/>
-      <c r="AE66" s="109"/>
-      <c r="AF66" s="109"/>
-      <c r="AG66" s="109"/>
-      <c r="AH66" s="109"/>
-      <c r="AI66" s="109"/>
-      <c r="AJ66" s="109"/>
+      <c r="O66" s="108"/>
+      <c r="P66" s="108"/>
+      <c r="Q66" s="108"/>
+      <c r="R66" s="108"/>
+      <c r="S66" s="108"/>
+      <c r="T66" s="108"/>
+      <c r="U66" s="108"/>
+      <c r="V66" s="108"/>
+      <c r="W66" s="108"/>
+      <c r="X66" s="108"/>
+      <c r="Y66" s="108"/>
+      <c r="Z66" s="108"/>
+      <c r="AA66" s="108"/>
+      <c r="AB66" s="108"/>
+      <c r="AC66" s="108"/>
+      <c r="AD66" s="108"/>
+      <c r="AE66" s="108"/>
+      <c r="AF66" s="108"/>
+      <c r="AG66" s="108"/>
+      <c r="AH66" s="108"/>
+      <c r="AI66" s="108"/>
+      <c r="AJ66" s="108"/>
     </row>
     <row r="67" spans="2:36" ht="17.5" thickBot="1">
       <c r="B67" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C67" s="112"/>
-      <c r="D67" s="112">
+      <c r="C67" s="111"/>
+      <c r="D67" s="111">
         <v>2013</v>
       </c>
-      <c r="E67" s="112">
+      <c r="E67" s="111">
         <v>2014</v>
       </c>
-      <c r="F67" s="112">
+      <c r="F67" s="111">
         <v>2015</v>
       </c>
-      <c r="G67" s="112">
+      <c r="G67" s="111">
         <v>2016</v>
       </c>
-      <c r="H67" s="112">
+      <c r="H67" s="111">
         <v>2017</v>
       </c>
-      <c r="I67" s="112">
+      <c r="I67" s="111">
         <v>2018</v>
       </c>
-      <c r="J67" s="112">
+      <c r="J67" s="111">
         <v>2019</v>
       </c>
-      <c r="K67" s="112">
+      <c r="K67" s="111">
         <v>2020</v>
       </c>
-      <c r="L67" s="112">
+      <c r="L67" s="111">
         <v>2021</v>
       </c>
-      <c r="M67" s="112">
+      <c r="M67" s="111">
         <v>2022</v>
       </c>
-      <c r="O67" s="109"/>
-      <c r="P67" s="109"/>
-      <c r="Q67" s="109"/>
-      <c r="R67" s="109"/>
-      <c r="S67" s="109"/>
-      <c r="T67" s="109"/>
-      <c r="U67" s="109"/>
-      <c r="V67" s="109"/>
-      <c r="W67" s="109"/>
-      <c r="X67" s="109"/>
-      <c r="Y67" s="109"/>
-      <c r="Z67" s="109"/>
-      <c r="AA67" s="109"/>
-      <c r="AB67" s="109"/>
-      <c r="AC67" s="109"/>
-      <c r="AD67" s="109"/>
-      <c r="AE67" s="109"/>
-      <c r="AF67" s="109"/>
-      <c r="AG67" s="109"/>
-      <c r="AH67" s="109"/>
-      <c r="AI67" s="109"/>
-      <c r="AJ67" s="109"/>
+      <c r="O67" s="108"/>
+      <c r="P67" s="108"/>
+      <c r="Q67" s="108"/>
+      <c r="R67" s="108"/>
+      <c r="S67" s="108"/>
+      <c r="T67" s="108"/>
+      <c r="U67" s="108"/>
+      <c r="V67" s="108"/>
+      <c r="W67" s="108"/>
+      <c r="X67" s="108"/>
+      <c r="Y67" s="108"/>
+      <c r="Z67" s="108"/>
+      <c r="AA67" s="108"/>
+      <c r="AB67" s="108"/>
+      <c r="AC67" s="108"/>
+      <c r="AD67" s="108"/>
+      <c r="AE67" s="108"/>
+      <c r="AF67" s="108"/>
+      <c r="AG67" s="108"/>
+      <c r="AH67" s="108"/>
+      <c r="AI67" s="108"/>
+      <c r="AJ67" s="108"/>
     </row>
     <row r="68" spans="2:36" ht="15" thickTop="1">
       <c r="B68" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C68" s="118"/>
-      <c r="D68" s="117">
+      <c r="C68" s="117"/>
+      <c r="D68" s="116">
         <f>D52/D54</f>
         <v>2.1104430255787534</v>
       </c>
-      <c r="E68" s="117">
+      <c r="E68" s="116">
         <f t="shared" ref="E68:M68" si="128">E52/E54</f>
         <v>1.9996608125423985</v>
       </c>
-      <c r="F68" s="117">
+      <c r="F68" s="116">
         <f t="shared" si="128"/>
         <v>2.0859609470525027</v>
       </c>
-      <c r="G68" s="117">
+      <c r="G68" s="116">
         <f t="shared" si="128"/>
         <v>2.2132303200769039</v>
       </c>
-      <c r="H68" s="117">
+      <c r="H68" s="116">
         <f t="shared" si="128"/>
         <v>1.6988871132610606</v>
       </c>
-      <c r="I68" s="117">
+      <c r="I68" s="116">
         <f t="shared" si="128"/>
         <v>2.4714076853052331</v>
       </c>
-      <c r="J68" s="117">
+      <c r="J68" s="116">
         <f t="shared" si="128"/>
         <v>2.1405918401411643</v>
       </c>
-      <c r="K68" s="117">
+      <c r="K68" s="116">
         <f t="shared" si="128"/>
         <v>1.98533868189845</v>
       </c>
-      <c r="L68" s="117">
+      <c r="L68" s="116">
         <f t="shared" si="128"/>
         <v>1.8301141667265024</v>
       </c>
-      <c r="M68" s="117">
+      <c r="M68" s="116">
         <f t="shared" si="128"/>
         <v>2.1517984025089429</v>
       </c>
-      <c r="O68" s="109"/>
-      <c r="P68" s="109"/>
-      <c r="Q68" s="109"/>
-      <c r="R68" s="109"/>
-      <c r="S68" s="109"/>
-      <c r="T68" s="109"/>
-      <c r="U68" s="109"/>
-      <c r="V68" s="109"/>
-      <c r="W68" s="109"/>
-      <c r="X68" s="109"/>
-      <c r="Y68" s="109"/>
-      <c r="Z68" s="109"/>
-      <c r="AA68" s="109"/>
-      <c r="AB68" s="109"/>
-      <c r="AC68" s="109"/>
-      <c r="AD68" s="109"/>
-      <c r="AE68" s="109"/>
-      <c r="AF68" s="109"/>
-      <c r="AG68" s="109"/>
-      <c r="AH68" s="109"/>
-      <c r="AI68" s="109"/>
-      <c r="AJ68" s="109"/>
+      <c r="O68" s="108"/>
+      <c r="P68" s="108"/>
+      <c r="Q68" s="108"/>
+      <c r="R68" s="108"/>
+      <c r="S68" s="108"/>
+      <c r="T68" s="108"/>
+      <c r="U68" s="108"/>
+      <c r="V68" s="108"/>
+      <c r="W68" s="108"/>
+      <c r="X68" s="108"/>
+      <c r="Y68" s="108"/>
+      <c r="Z68" s="108"/>
+      <c r="AA68" s="108"/>
+      <c r="AB68" s="108"/>
+      <c r="AC68" s="108"/>
+      <c r="AD68" s="108"/>
+      <c r="AE68" s="108"/>
+      <c r="AF68" s="108"/>
+      <c r="AG68" s="108"/>
+      <c r="AH68" s="108"/>
+      <c r="AI68" s="108"/>
+      <c r="AJ68" s="108"/>
     </row>
     <row r="69" spans="2:36">
       <c r="B69" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C69" s="118"/>
-      <c r="D69" s="117">
+      <c r="C69" s="117"/>
+      <c r="D69" s="116">
         <f>D38/D46</f>
         <v>0.74423646362098139</v>
       </c>
-      <c r="E69" s="117">
+      <c r="E69" s="116">
         <f t="shared" ref="E69:M69" si="129">E38/E46</f>
         <v>0.77719701321079837</v>
       </c>
-      <c r="F69" s="117">
+      <c r="F69" s="116">
         <f t="shared" si="129"/>
         <v>0.67680712949719446</v>
       </c>
-      <c r="G69" s="117">
+      <c r="G69" s="116">
         <f t="shared" si="129"/>
         <v>0.75973995820756912</v>
       </c>
-      <c r="H69" s="117">
+      <c r="H69" s="116">
         <f t="shared" si="129"/>
         <v>0.74310007729732186</v>
       </c>
-      <c r="I69" s="117">
+      <c r="I69" s="116">
         <f t="shared" si="129"/>
         <v>0.79150816940187663</v>
       </c>
-      <c r="J69" s="117">
+      <c r="J69" s="116">
         <f t="shared" si="129"/>
         <v>0.83824111976759541</v>
       </c>
-      <c r="K69" s="117">
+      <c r="K69" s="116">
         <f t="shared" si="129"/>
         <v>0.92863592165578557</v>
       </c>
-      <c r="L69" s="117">
+      <c r="L69" s="116">
         <f t="shared" si="129"/>
         <v>0.84527054654490941</v>
       </c>
-      <c r="M69" s="117">
+      <c r="M69" s="116">
         <f t="shared" si="129"/>
         <v>0.78265858643812525</v>
       </c>
-      <c r="O69" s="109"/>
-      <c r="P69" s="109"/>
-      <c r="Q69" s="109"/>
-      <c r="R69" s="109"/>
-      <c r="S69" s="109"/>
-      <c r="T69" s="109"/>
-      <c r="U69" s="109"/>
-      <c r="V69" s="109"/>
-      <c r="W69" s="109"/>
-      <c r="X69" s="109"/>
-      <c r="Y69" s="109"/>
-      <c r="Z69" s="109"/>
-      <c r="AA69" s="109"/>
-      <c r="AB69" s="109"/>
-      <c r="AC69" s="109"/>
-      <c r="AD69" s="109"/>
-      <c r="AE69" s="109"/>
-      <c r="AF69" s="109"/>
-      <c r="AG69" s="109"/>
-      <c r="AH69" s="109"/>
-      <c r="AI69" s="109"/>
-      <c r="AJ69" s="109"/>
+      <c r="O69" s="108"/>
+      <c r="P69" s="108"/>
+      <c r="Q69" s="108"/>
+      <c r="R69" s="108"/>
+      <c r="S69" s="108"/>
+      <c r="T69" s="108"/>
+      <c r="U69" s="108"/>
+      <c r="V69" s="108"/>
+      <c r="W69" s="108"/>
+      <c r="X69" s="108"/>
+      <c r="Y69" s="108"/>
+      <c r="Z69" s="108"/>
+      <c r="AA69" s="108"/>
+      <c r="AB69" s="108"/>
+      <c r="AC69" s="108"/>
+      <c r="AD69" s="108"/>
+      <c r="AE69" s="108"/>
+      <c r="AF69" s="108"/>
+      <c r="AG69" s="108"/>
+      <c r="AH69" s="108"/>
+      <c r="AI69" s="108"/>
+      <c r="AJ69" s="108"/>
     </row>
     <row r="70" spans="2:36">
-      <c r="O70" s="109"/>
-      <c r="P70" s="109"/>
-      <c r="Q70" s="109"/>
-      <c r="R70" s="109"/>
-      <c r="S70" s="109"/>
-      <c r="T70" s="109"/>
-      <c r="U70" s="109"/>
-      <c r="V70" s="109"/>
-      <c r="W70" s="109"/>
-      <c r="X70" s="109"/>
-      <c r="Y70" s="109"/>
-      <c r="Z70" s="109"/>
-      <c r="AA70" s="109"/>
-      <c r="AB70" s="109"/>
-      <c r="AC70" s="109"/>
-      <c r="AD70" s="109"/>
-      <c r="AE70" s="109"/>
-      <c r="AF70" s="109"/>
-      <c r="AG70" s="109"/>
-      <c r="AH70" s="109"/>
-      <c r="AI70" s="109"/>
-      <c r="AJ70" s="109"/>
+      <c r="O70" s="108"/>
+      <c r="P70" s="108"/>
+      <c r="Q70" s="108"/>
+      <c r="R70" s="108"/>
+      <c r="S70" s="108"/>
+      <c r="T70" s="108"/>
+      <c r="U70" s="108"/>
+      <c r="V70" s="108"/>
+      <c r="W70" s="108"/>
+      <c r="X70" s="108"/>
+      <c r="Y70" s="108"/>
+      <c r="Z70" s="108"/>
+      <c r="AA70" s="108"/>
+      <c r="AB70" s="108"/>
+      <c r="AC70" s="108"/>
+      <c r="AD70" s="108"/>
+      <c r="AE70" s="108"/>
+      <c r="AF70" s="108"/>
+      <c r="AG70" s="108"/>
+      <c r="AH70" s="108"/>
+      <c r="AI70" s="108"/>
+      <c r="AJ70" s="108"/>
     </row>
     <row r="71" spans="2:36" ht="17.5" thickBot="1">
       <c r="B71" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C71" s="112"/>
-      <c r="D71" s="112"/>
-      <c r="O71" s="109"/>
-      <c r="P71" s="109"/>
-      <c r="Q71" s="109"/>
-      <c r="R71" s="109"/>
-      <c r="S71" s="109"/>
-      <c r="T71" s="109"/>
-      <c r="U71" s="109"/>
-      <c r="V71" s="109"/>
-      <c r="W71" s="109"/>
-      <c r="X71" s="109"/>
-      <c r="Y71" s="109"/>
-      <c r="Z71" s="109"/>
-      <c r="AA71" s="109"/>
-      <c r="AB71" s="109"/>
-      <c r="AC71" s="109"/>
-      <c r="AD71" s="109"/>
-      <c r="AE71" s="109"/>
-      <c r="AF71" s="109"/>
-      <c r="AG71" s="109"/>
-      <c r="AH71" s="109"/>
-      <c r="AI71" s="109"/>
-      <c r="AJ71" s="109"/>
+      <c r="C71" s="111"/>
+      <c r="D71" s="111"/>
+      <c r="O71" s="108"/>
+      <c r="P71" s="108"/>
+      <c r="Q71" s="108"/>
+      <c r="R71" s="108"/>
+      <c r="S71" s="108"/>
+      <c r="T71" s="108"/>
+      <c r="U71" s="108"/>
+      <c r="V71" s="108"/>
+      <c r="W71" s="108"/>
+      <c r="X71" s="108"/>
+      <c r="Y71" s="108"/>
+      <c r="Z71" s="108"/>
+      <c r="AA71" s="108"/>
+      <c r="AB71" s="108"/>
+      <c r="AC71" s="108"/>
+      <c r="AD71" s="108"/>
+      <c r="AE71" s="108"/>
+      <c r="AF71" s="108"/>
+      <c r="AG71" s="108"/>
+      <c r="AH71" s="108"/>
+      <c r="AI71" s="108"/>
+      <c r="AJ71" s="108"/>
     </row>
     <row r="72" spans="2:36" ht="15" thickTop="1">
       <c r="B72" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="118"/>
-      <c r="D72" s="131">
+      <c r="C72" s="117"/>
+      <c r="D72" s="126">
         <f>(M28/I28)^0.2 - 1</f>
         <v>7.8222614573602911E-2</v>
       </c>
-      <c r="O72" s="109"/>
-      <c r="P72" s="109"/>
-      <c r="Q72" s="109"/>
-      <c r="R72" s="109"/>
-      <c r="S72" s="109"/>
-      <c r="T72" s="109"/>
-      <c r="U72" s="109"/>
-      <c r="V72" s="109"/>
-      <c r="W72" s="109"/>
-      <c r="X72" s="109"/>
-      <c r="Y72" s="109"/>
-      <c r="Z72" s="109"/>
-      <c r="AA72" s="109"/>
-      <c r="AB72" s="109"/>
-      <c r="AC72" s="109"/>
-      <c r="AD72" s="109"/>
-      <c r="AE72" s="109"/>
-      <c r="AF72" s="109"/>
-      <c r="AG72" s="109"/>
-      <c r="AH72" s="109"/>
-      <c r="AI72" s="109"/>
-      <c r="AJ72" s="109"/>
+      <c r="O72" s="108"/>
+      <c r="P72" s="108"/>
+      <c r="Q72" s="108"/>
+      <c r="R72" s="108"/>
+      <c r="S72" s="108"/>
+      <c r="T72" s="108"/>
+      <c r="U72" s="108"/>
+      <c r="V72" s="108"/>
+      <c r="W72" s="108"/>
+      <c r="X72" s="108"/>
+      <c r="Y72" s="108"/>
+      <c r="Z72" s="108"/>
+      <c r="AA72" s="108"/>
+      <c r="AB72" s="108"/>
+      <c r="AC72" s="108"/>
+      <c r="AD72" s="108"/>
+      <c r="AE72" s="108"/>
+      <c r="AF72" s="108"/>
+      <c r="AG72" s="108"/>
+      <c r="AH72" s="108"/>
+      <c r="AI72" s="108"/>
+      <c r="AJ72" s="108"/>
     </row>
     <row r="73" spans="2:36">
       <c r="B73" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C73" s="118"/>
-      <c r="D73" s="131">
+      <c r="C73" s="117"/>
+      <c r="D73" s="126">
         <f>(M28/D28)^0.1 - 1</f>
         <v>0.11724001576861531</v>
       </c>
@@ -23353,8 +23295,8 @@
       <c r="B74" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C74" s="121"/>
-      <c r="D74" s="131">
+      <c r="C74" s="119"/>
+      <c r="D74" s="126">
         <f>(M6/I6)^0.2 - 1</f>
         <v>-0.14468153045679921</v>
       </c>
@@ -23363,8 +23305,8 @@
       <c r="B75" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C75" s="121"/>
-      <c r="D75" s="131">
+      <c r="C75" s="119"/>
+      <c r="D75" s="126">
         <f>(M6/D6)^0.1 - 1</f>
         <v>-2.3562454391197973E-2</v>
       </c>
@@ -23373,8 +23315,8 @@
       <c r="B76" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C76" s="121"/>
-      <c r="D76" s="131">
+      <c r="C76" s="119"/>
+      <c r="D76" s="126">
         <f>(M3/I3)^0.2 - 1</f>
         <v>5.140553170801887E-2</v>
       </c>
@@ -23383,8 +23325,8 @@
       <c r="B77" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C77" s="121"/>
-      <c r="D77" s="131">
+      <c r="C77" s="119"/>
+      <c r="D77" s="126">
         <f>(M3/D3)^0.1 - 1</f>
         <v>6.5049938261403595E-2</v>
       </c>
@@ -23393,8 +23335,8 @@
       <c r="B78" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C78" s="121"/>
-      <c r="D78" s="131">
+      <c r="C78" s="119"/>
+      <c r="D78" s="126">
         <f>(M9/I9)^0.2 - 1</f>
         <v>-1.2595625542054179E-2</v>
       </c>
@@ -23403,176 +23345,176 @@
       <c r="B79" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C79" s="121"/>
-      <c r="D79" s="131">
+      <c r="C79" s="119"/>
+      <c r="D79" s="126">
         <f>(M9/D9)^0.2 - 1</f>
         <v>5.3857309948096344E-2</v>
       </c>
     </row>
     <row r="80" spans="2:36">
       <c r="B80" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D80" s="131">
+        <v>136</v>
+      </c>
+      <c r="D80" s="126">
         <f>(M31/I31)^0.2 - 1</f>
         <v>7.1798608998944413E-2</v>
       </c>
     </row>
     <row r="81" spans="2:13">
       <c r="B81" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D81" s="131">
+        <v>137</v>
+      </c>
+      <c r="D81" s="126">
         <f>AVERAGE(I32:M32)</f>
         <v>0.10523482790922609</v>
       </c>
     </row>
     <row r="82" spans="2:13">
       <c r="B82" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="D82" s="131">
+        <v>140</v>
+      </c>
+      <c r="D82" s="126">
         <f>AVERAGE(I65:M65)</f>
         <v>0.43355041703512143</v>
       </c>
     </row>
     <row r="84" spans="2:13" ht="17.5" thickBot="1">
       <c r="B84" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C84" s="112"/>
-      <c r="D84" s="112">
+        <v>150</v>
+      </c>
+      <c r="C84" s="111"/>
+      <c r="D84" s="111">
         <v>2013</v>
       </c>
-      <c r="E84" s="112">
+      <c r="E84" s="111">
         <v>2014</v>
       </c>
-      <c r="F84" s="112">
+      <c r="F84" s="111">
         <v>2015</v>
       </c>
-      <c r="G84" s="112">
+      <c r="G84" s="111">
         <v>2016</v>
       </c>
-      <c r="H84" s="112">
+      <c r="H84" s="111">
         <v>2017</v>
       </c>
-      <c r="I84" s="112">
+      <c r="I84" s="111">
         <v>2018</v>
       </c>
-      <c r="J84" s="112">
+      <c r="J84" s="111">
         <v>2019</v>
       </c>
-      <c r="K84" s="112">
+      <c r="K84" s="111">
         <v>2020</v>
       </c>
-      <c r="L84" s="112">
+      <c r="L84" s="111">
         <v>2021</v>
       </c>
-      <c r="M84" s="112">
+      <c r="M84" s="111">
         <v>2022</v>
       </c>
     </row>
     <row r="85" spans="2:13" ht="15" thickTop="1">
       <c r="B85" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C85" s="113">
+        <v>143</v>
+      </c>
+      <c r="C85" s="112">
         <v>0</v>
       </c>
-      <c r="D85" s="127">
+      <c r="D85" s="112">
         <f>100*D6/D44</f>
         <v>4.2918400886577297</v>
       </c>
-      <c r="E85" s="127">
+      <c r="E85" s="112">
         <f t="shared" ref="E85:M85" si="130">100*E6/E44</f>
         <v>5.2642820348523109</v>
       </c>
-      <c r="F85" s="127">
+      <c r="F85" s="112">
         <f t="shared" si="130"/>
         <v>4.9005246917286014</v>
       </c>
-      <c r="G85" s="127">
+      <c r="G85" s="112">
         <f t="shared" si="130"/>
         <v>4.8077562326869803</v>
       </c>
-      <c r="H85" s="127">
+      <c r="H85" s="112">
         <f t="shared" si="130"/>
         <v>12.127791232356424</v>
       </c>
-      <c r="I85" s="127">
+      <c r="I85" s="112">
         <f t="shared" si="130"/>
         <v>4.6610034805549816</v>
       </c>
-      <c r="J85" s="127">
+      <c r="J85" s="112">
         <f t="shared" si="130"/>
         <v>4.9568360071977953</v>
       </c>
-      <c r="K85" s="127">
+      <c r="K85" s="112">
         <f t="shared" si="130"/>
         <v>3.8463645027367099</v>
       </c>
-      <c r="L85" s="127">
+      <c r="L85" s="112">
         <f t="shared" si="130"/>
         <v>5.1318388575777893</v>
       </c>
-      <c r="M85" s="127">
+      <c r="M85" s="112">
         <f t="shared" si="130"/>
         <v>2.0872607132445826</v>
       </c>
     </row>
     <row r="86" spans="2:13">
       <c r="B86" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C86" s="113">
+        <v>144</v>
+      </c>
+      <c r="C86" s="112">
         <v>0</v>
       </c>
-      <c r="D86" s="127">
+      <c r="D86" s="112">
         <f>100*D6/D54</f>
         <v>13.349524070664733</v>
       </c>
-      <c r="E86" s="127">
+      <c r="E86" s="112">
         <f t="shared" ref="E86:M86" si="131">100*E6/E54</f>
         <v>15.791060526117434</v>
       </c>
-      <c r="F86" s="127">
+      <c r="F86" s="112">
         <f t="shared" si="131"/>
         <v>15.122827818740969</v>
       </c>
-      <c r="G86" s="127">
+      <c r="G86" s="112">
         <f t="shared" si="131"/>
         <v>15.448428098408517</v>
       </c>
-      <c r="H86" s="127">
+      <c r="H86" s="112">
         <f t="shared" si="131"/>
         <v>32.731539469327231</v>
       </c>
-      <c r="I86" s="127">
+      <c r="I86" s="112">
         <f t="shared" si="131"/>
         <v>16.180243303633002</v>
       </c>
-      <c r="J86" s="127">
+      <c r="J86" s="112">
         <f t="shared" si="131"/>
         <v>15.567398717123304</v>
       </c>
-      <c r="K86" s="127">
+      <c r="K86" s="112">
         <f t="shared" si="131"/>
         <v>11.482700734700996</v>
       </c>
-      <c r="L86" s="127">
+      <c r="L86" s="112">
         <f t="shared" si="131"/>
         <v>14.523689852188452</v>
       </c>
-      <c r="M86" s="127">
+      <c r="M86" s="112">
         <f t="shared" si="131"/>
         <v>6.5786249816239524</v>
       </c>
     </row>
     <row r="87" spans="2:13">
       <c r="B87" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C87" s="113">
+        <v>145</v>
+      </c>
+      <c r="C87" s="112">
         <v>0</v>
       </c>
       <c r="D87" s="40">
@@ -23608,45 +23550,45 @@
     </row>
     <row r="89" spans="2:13" ht="17.5" thickBot="1">
       <c r="B89" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C89" s="111"/>
+      <c r="D89" s="111">
+        <v>2013</v>
+      </c>
+      <c r="E89" s="111">
+        <v>2014</v>
+      </c>
+      <c r="F89" s="111">
+        <v>2015</v>
+      </c>
+      <c r="G89" s="111">
+        <v>2016</v>
+      </c>
+      <c r="H89" s="111">
+        <v>2017</v>
+      </c>
+      <c r="I89" s="111">
+        <v>2018</v>
+      </c>
+      <c r="J89" s="111">
+        <v>2019</v>
+      </c>
+      <c r="K89" s="111">
+        <v>2020</v>
+      </c>
+      <c r="L89" s="111">
+        <v>2021</v>
+      </c>
+      <c r="M89" s="111">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13" ht="15" thickTop="1">
+      <c r="B90" s="127" t="s">
         <v>152</v>
       </c>
-      <c r="C89" s="112"/>
-      <c r="D89" s="112">
-        <v>2013</v>
-      </c>
-      <c r="E89" s="112">
-        <v>2014</v>
-      </c>
-      <c r="F89" s="112">
-        <v>2015</v>
-      </c>
-      <c r="G89" s="112">
-        <v>2016</v>
-      </c>
-      <c r="H89" s="112">
-        <v>2017</v>
-      </c>
-      <c r="I89" s="112">
-        <v>2018</v>
-      </c>
-      <c r="J89" s="112">
-        <v>2019</v>
-      </c>
-      <c r="K89" s="112">
-        <v>2020</v>
-      </c>
-      <c r="L89" s="112">
-        <v>2021</v>
-      </c>
-      <c r="M89" s="112">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="90" spans="2:13" ht="15" thickTop="1">
-      <c r="B90" s="132" t="s">
-        <v>153</v>
-      </c>
-      <c r="C90" s="113">
+      <c r="C90" s="112">
         <v>0</v>
       </c>
       <c r="D90" s="40">
@@ -23681,10 +23623,10 @@
       </c>
     </row>
     <row r="91" spans="2:13">
-      <c r="B91" s="132" t="s">
-        <v>154</v>
-      </c>
-      <c r="C91" s="113">
+      <c r="B91" s="127" t="s">
+        <v>153</v>
+      </c>
+      <c r="C91" s="112">
         <v>0</v>
       </c>
       <c r="D91" s="40">
@@ -23719,10 +23661,10 @@
       </c>
     </row>
     <row r="92" spans="2:13">
-      <c r="B92" s="132" t="s">
-        <v>162</v>
-      </c>
-      <c r="C92" s="113">
+      <c r="B92" s="127" t="s">
+        <v>161</v>
+      </c>
+      <c r="C92" s="112">
         <v>0</v>
       </c>
     </row>

--- a/src/main/resources/companies/template.xlsx
+++ b/src/main/resources/companies/template.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C22D9A-4730-413B-B632-FE39C21E0A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D99114E-BCE0-43CD-A31C-362704162A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valuation Metrics" sheetId="5" r:id="rId1"/>
@@ -16483,7 +16483,7 @@
   <dimension ref="B2:V45"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="75" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -17132,7 +17132,7 @@
         <v>160</v>
       </c>
       <c r="F24" s="57">
-        <f>AVERAGE(L24:P24)</f>
+        <f>AVERAGEIF(L24:P24,"&lt;100")</f>
         <v>18.525999927520751</v>
       </c>
       <c r="G24" s="44">
@@ -17213,7 +17213,7 @@
         <v>160</v>
       </c>
       <c r="F26" s="57">
-        <f>AVERAGE(L26:P26)</f>
+        <f>AVERAGEIF(L26:P26, "&lt;100")</f>
         <v>7.7179999351501465</v>
       </c>
       <c r="G26" s="44">
@@ -17809,8 +17809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:L80"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -17870,8 +17870,8 @@
         <v>114</v>
       </c>
       <c r="C8" s="65">
-        <f>AVERAGE(C35:L35)</f>
-        <v>0.88626859754841403</v>
+        <f>AVERAGEIF(C35:L35,"&lt;2")</f>
+        <v>0.75395455593523353</v>
       </c>
     </row>
     <row r="9" spans="2:12">
@@ -18850,43 +18850,43 @@
       </c>
       <c r="C48" s="21">
         <f>C45*C8</f>
-        <v>13030.098309306186</v>
+        <v>11084.790786631389</v>
       </c>
       <c r="D48" s="21">
         <f>D45*C8</f>
-        <v>13393.638052135828</v>
+        <v>11394.056449578406</v>
       </c>
       <c r="E48" s="21">
         <f>E45*C8</f>
-        <v>13388.280596914976</v>
+        <v>11389.498826998575</v>
       </c>
       <c r="F48" s="21">
         <f>F45*C8</f>
-        <v>13522.163402884124</v>
+        <v>11503.393815268561</v>
       </c>
       <c r="G48" s="21">
         <f>G45*C8</f>
-        <v>13657.385036912965</v>
+        <v>11618.427753421245</v>
       </c>
       <c r="H48" s="21">
         <f>H45*C8</f>
-        <v>13793.958887282097</v>
+        <v>11734.612030955459</v>
       </c>
       <c r="I48" s="21">
         <f>I45*C8</f>
-        <v>13931.898476154916</v>
+        <v>11851.958151265013</v>
       </c>
       <c r="J48" s="21">
         <f>J45*C8</f>
-        <v>14071.217460916467</v>
+        <v>11970.477732777663</v>
       </c>
       <c r="K48" s="21">
         <f>K45*C8</f>
-        <v>14211.92963552563</v>
+        <v>12090.18251010544</v>
       </c>
       <c r="L48" s="21">
         <f>L45*C8</f>
-        <v>14354.048931880889</v>
+        <v>12211.084335206495</v>
       </c>
     </row>
     <row r="49" spans="2:12">
@@ -18895,43 +18895,43 @@
       </c>
       <c r="C49" s="20">
         <f>(C48-L28)/L28</f>
-        <v>0.16819959739162507</v>
+        <v>-6.2048783726565372E-3</v>
       </c>
       <c r="D49" s="20">
         <f>(D48-C48)/C48</f>
-        <v>2.7899999999999949E-2</v>
+        <v>2.7900000000000078E-2</v>
       </c>
       <c r="E49" s="20">
         <f t="shared" ref="E49:L49" si="10">(E48-D48)/D48</f>
-        <v>-3.9999999999982514E-4</v>
+        <v>-3.9999999999991751E-4</v>
       </c>
       <c r="F49" s="20">
         <f t="shared" si="10"/>
-        <v>9.9999999999998493E-3</v>
+        <v>9.9999999999999638E-3</v>
       </c>
       <c r="G49" s="20">
         <f t="shared" si="10"/>
-        <v>1.0000000000000014E-2</v>
+        <v>9.9999999999999169E-3</v>
       </c>
       <c r="H49" s="20">
         <f t="shared" si="10"/>
-        <v>1.000000000000016E-2</v>
+        <v>1.0000000000000118E-2</v>
       </c>
       <c r="I49" s="20">
         <f t="shared" si="10"/>
-        <v>9.9999999999998944E-3</v>
+        <v>9.9999999999999464E-3</v>
       </c>
       <c r="J49" s="20">
         <f t="shared" si="10"/>
-        <v>1.0000000000000087E-2</v>
+        <v>9.9999999999999794E-3</v>
       </c>
       <c r="K49" s="20">
         <f t="shared" si="10"/>
-        <v>9.99999999999991E-3</v>
+        <v>1.0000000000000054E-2</v>
       </c>
       <c r="L49" s="20">
         <f t="shared" si="10"/>
-        <v>1.0000000000000153E-2</v>
+        <v>1.0000000000000031E-2</v>
       </c>
     </row>
     <row r="51" spans="2:12">
@@ -19131,43 +19131,43 @@
       </c>
       <c r="C59" s="21">
         <f t="shared" ref="C59:L59" si="12">C48/C57</f>
-        <v>12193.500958669398</v>
+        <v>10373.091888869758</v>
       </c>
       <c r="D59" s="21">
         <f t="shared" si="12"/>
-        <v>11728.973557396001</v>
+        <v>9977.9153571550614</v>
       </c>
       <c r="E59" s="21">
         <f t="shared" si="12"/>
-        <v>10971.524544376354</v>
+        <v>9333.548473532499</v>
       </c>
       <c r="F59" s="21">
         <f t="shared" si="12"/>
-        <v>10369.768883778417</v>
+        <v>8821.6309542582749</v>
       </c>
       <c r="G59" s="21">
         <f t="shared" si="12"/>
-        <v>9801.0177407930569</v>
+        <v>8337.7905963426729</v>
       </c>
       <c r="H59" s="21">
         <f t="shared" si="12"/>
-        <v>9263.4609152773137</v>
+        <v>7880.4874505550479</v>
       </c>
       <c r="I59" s="21">
         <f t="shared" si="12"/>
-        <v>8755.3874912103656</v>
+        <v>7448.266029323926</v>
       </c>
       <c r="J59" s="21">
         <f t="shared" si="12"/>
-        <v>8275.1803912531686</v>
+        <v>7039.7506742648766</v>
       </c>
       <c r="K59" s="21">
         <f t="shared" si="12"/>
-        <v>7821.3112299743898</v>
+        <v>6653.6411777857975</v>
       </c>
       <c r="L59" s="21">
         <f t="shared" si="12"/>
-        <v>7392.3354493616862</v>
+        <v>6288.7086448341788</v>
       </c>
     </row>
     <row r="60" spans="2:12">
@@ -19248,7 +19248,7 @@
       </c>
       <c r="C65" s="25">
         <f>L59*(1+C5)/(C4-C5)</f>
-        <v>173747.44384486874</v>
+        <v>147808.09929552305</v>
       </c>
     </row>
     <row r="66" spans="2:12" ht="15" thickBot="1">
@@ -19257,7 +19257,7 @@
       </c>
       <c r="C66" s="23">
         <f>C65/C61</f>
-        <v>83734.878034501904</v>
+        <v>71233.814398286981</v>
       </c>
     </row>
     <row r="67" spans="2:12" ht="15" thickTop="1"/>
@@ -19267,7 +19267,7 @@
       </c>
       <c r="C68" s="71">
         <f>(SUM(C59:L59)+C65)</f>
-        <v>270319.90500695887</v>
+        <v>229962.93054244516</v>
       </c>
     </row>
     <row r="69" spans="2:12" ht="15" thickTop="1">
@@ -19279,7 +19279,7 @@
       </c>
       <c r="C70" s="70">
         <f>C68/(C11/1000000)</f>
-        <v>64.260718133075414</v>
+        <v>54.667017807155737</v>
       </c>
       <c r="D70" s="29"/>
       <c r="E70" s="30"/>
@@ -19340,7 +19340,7 @@
       </c>
       <c r="C78" s="72">
         <f>SUM(C59:L59)+C76</f>
-        <v>223178.17800564767</v>
+        <v>208760.54809047963</v>
       </c>
     </row>
     <row r="79" spans="2:12" ht="15" thickTop="1"/>
@@ -19350,7 +19350,7 @@
       </c>
       <c r="C80" s="70">
         <f>C78/(C11/1000000)</f>
-        <v>53.054139649483304</v>
+        <v>49.626766248690792</v>
       </c>
     </row>
   </sheetData>
@@ -19368,7 +19368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B13:E21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/companies/template.xlsx
+++ b/src/main/resources/companies/template.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1F3590-E7E3-434C-88AA-A46C3B1A8673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D2C41D-A74C-45FB-8ED9-E98810C63079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valuation Metrics" sheetId="5" r:id="rId1"/>
@@ -4662,6 +4662,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="874567888"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -19854,7 +19855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B62" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B62" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T129" sqref="T129"/>
     </sheetView>
   </sheetViews>
@@ -19873,7 +19874,7 @@
   <dimension ref="B2:P27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -20113,7 +20114,7 @@
   <dimension ref="B3:L74"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="82" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -20164,7 +20165,7 @@
         <v>31</v>
       </c>
       <c r="C7" s="13">
-        <f>AVERAGE(C28:L28)</f>
+        <f>AVERAGEIF(C28:L28, "&lt;0.5")</f>
         <v>0.16909476964430609</v>
       </c>
     </row>
@@ -21551,8 +21552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:P28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/src/main/resources/companies/template.xlsx
+++ b/src/main/resources/companies/template.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D2C41D-A74C-45FB-8ED9-E98810C63079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A449CDF3-4847-49B3-B1C1-32D83E004718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valuation Metrics" sheetId="5" r:id="rId1"/>
@@ -18684,7 +18684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:V47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="75" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="75" workbookViewId="0">
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
@@ -20113,8 +20113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:L74"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="82" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="82" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -21044,45 +21044,42 @@
       <c r="B45" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="21">
-        <f>L25*(1+C46)</f>
-        <v>1911.679998755455</v>
-      </c>
-      <c r="D45" s="21">
-        <f>C45*(1+D46)</f>
-        <v>1969.0303974362373</v>
-      </c>
-      <c r="E45" s="21">
-        <f t="shared" ref="E45:L45" si="8">D45*(1+E46)</f>
-        <v>2028.1013080389866</v>
+      <c r="C45" s="60">
+        <v>2801</v>
+      </c>
+      <c r="D45" s="60">
+        <v>3144</v>
+      </c>
+      <c r="E45" s="60">
+        <v>3405</v>
       </c>
       <c r="F45" s="21">
-        <f t="shared" si="8"/>
-        <v>2088.9443459202084</v>
+        <f t="shared" ref="E45:L45" si="8">E45*(1+F46)</f>
+        <v>3507.1499977167696</v>
       </c>
       <c r="G45" s="21">
         <f t="shared" si="8"/>
-        <v>2151.6126748970682</v>
+        <v>3612.3644952965451</v>
       </c>
       <c r="H45" s="21">
         <f t="shared" si="8"/>
-        <v>2216.1610537012116</v>
+        <v>3720.7354277331624</v>
       </c>
       <c r="I45" s="21">
         <f t="shared" si="8"/>
-        <v>2282.645883826196</v>
+        <v>3832.3574880702099</v>
       </c>
       <c r="J45" s="21">
         <f t="shared" si="8"/>
-        <v>2351.1252588103484</v>
+        <v>3947.3282101425202</v>
       </c>
       <c r="K45" s="21">
         <f t="shared" si="8"/>
-        <v>2421.6590149981066</v>
+        <v>4065.7480537999058</v>
       </c>
       <c r="L45" s="21">
         <f t="shared" si="8"/>
-        <v>2494.3087838242009</v>
+        <v>4187.7204926876066</v>
       </c>
     </row>
     <row r="46" spans="2:12">
@@ -21424,7 +21421,7 @@
       </c>
       <c r="C69" s="25">
         <f>L45*C9</f>
-        <v>29358.015527414791</v>
+        <v>49289.472115919438</v>
       </c>
     </row>
     <row r="70" spans="2:12" ht="15" thickBot="1">
@@ -21433,7 +21430,7 @@
       </c>
       <c r="C70" s="23">
         <f>C69/C55</f>
-        <v>14383.365015735828</v>
+        <v>24148.378428854616</v>
       </c>
     </row>
     <row r="71" spans="2:12" ht="15" thickTop="1">
@@ -21446,7 +21443,7 @@
       </c>
       <c r="C72" s="72">
         <f>SUM(C53:L53)+C70</f>
-        <v>26780.54195806678</v>
+        <v>36545.555371185568</v>
       </c>
     </row>
     <row r="73" spans="2:12" ht="15" thickTop="1"/>
@@ -21456,7 +21453,7 @@
       </c>
       <c r="C74" s="70">
         <f>C72/(C11/1000000)</f>
-        <v>246.88414142464259</v>
+        <v>336.90573084104966</v>
       </c>
     </row>
   </sheetData>
@@ -21552,7 +21549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
